--- a/analyses/4b_chemical_industry_analysis.xlsx
+++ b/analyses/4b_chemical_industry_analysis.xlsx
@@ -18264,7 +18264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:16" outlineLevel="1">
+    <row r="39" spans="1:16" hidden="1" outlineLevel="1">
       <c r="A39" s="8"/>
       <c r="B39" s="31"/>
       <c r="C39" s="257"/>
@@ -18282,7 +18282,7 @@
       <c r="O39" s="207"/>
       <c r="P39" s="208"/>
     </row>
-    <row r="40" spans="1:16" outlineLevel="1">
+    <row r="40" spans="1:16" hidden="1" outlineLevel="1">
       <c r="A40" s="8"/>
       <c r="B40" s="28" t="s">
         <v>310</v>
@@ -18302,7 +18302,7 @@
       <c r="O40" s="207"/>
       <c r="P40" s="208"/>
     </row>
-    <row r="41" spans="1:16" ht="16" outlineLevel="1" thickBot="1">
+    <row r="41" spans="1:16" ht="16" hidden="1" outlineLevel="1" thickBot="1">
       <c r="A41" s="8"/>
       <c r="B41" s="22" t="s">
         <v>283</v>
@@ -18322,7 +18322,7 @@
       <c r="O41" s="207"/>
       <c r="P41" s="208"/>
     </row>
-    <row r="42" spans="1:16" ht="16" outlineLevel="1" thickBot="1">
+    <row r="42" spans="1:16" ht="16" hidden="1" outlineLevel="1" thickBot="1">
       <c r="A42" s="8"/>
       <c r="B42" s="22"/>
       <c r="C42" s="258" t="s">
@@ -18331,7 +18331,10 @@
       <c r="D42" s="158" t="s">
         <v>225</v>
       </c>
-      <c r="E42" s="291"/>
+      <c r="E42" s="291" t="str">
+        <f>IF(E38="no",0,"")</f>
+        <v/>
+      </c>
       <c r="F42" s="126"/>
       <c r="G42" s="202"/>
       <c r="H42" s="8"/>
@@ -18342,7 +18345,7 @@
       </c>
       <c r="L42" s="242" t="b">
         <f>IF((E42)&lt;='Fuel aggregation'!E15, TRUE, FALSE)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M42" s="280"/>
       <c r="N42" s="8"/>
@@ -18351,10 +18354,10 @@
       </c>
       <c r="P42" s="7">
         <f t="shared" ref="P42:P47" si="0">IF(L42=TRUE,1,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:16" ht="16" outlineLevel="1" thickBot="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" ht="16" hidden="1" outlineLevel="1" thickBot="1">
       <c r="A43" s="8"/>
       <c r="B43" s="22"/>
       <c r="C43" s="258" t="s">
@@ -18363,7 +18366,10 @@
       <c r="D43" s="158" t="s">
         <v>225</v>
       </c>
-      <c r="E43" s="291"/>
+      <c r="E43" s="291" t="str">
+        <f>IF(E38="no",0,"")</f>
+        <v/>
+      </c>
       <c r="F43" s="126"/>
       <c r="G43" s="202"/>
       <c r="H43" s="8"/>
@@ -18374,7 +18380,7 @@
       </c>
       <c r="L43" s="242" t="b">
         <f>IF((E43)&lt;='Fuel aggregation'!H15, TRUE, FALSE)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M43" s="280"/>
       <c r="N43" s="8"/>
@@ -18383,10 +18389,10 @@
       </c>
       <c r="P43" s="7">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16" ht="16" outlineLevel="1" thickBot="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" ht="16" hidden="1" outlineLevel="1" thickBot="1">
       <c r="A44" s="8"/>
       <c r="B44" s="22"/>
       <c r="C44" s="258" t="s">
@@ -18395,7 +18401,10 @@
       <c r="D44" s="158" t="s">
         <v>225</v>
       </c>
-      <c r="E44" s="291"/>
+      <c r="E44" s="291" t="str">
+        <f>IF(E38="no",0,"")</f>
+        <v/>
+      </c>
       <c r="F44" s="126"/>
       <c r="G44" s="202"/>
       <c r="H44" s="8"/>
@@ -18406,7 +18415,7 @@
       </c>
       <c r="L44" s="242" t="b">
         <f>IF((E44)&lt;='Fuel aggregation'!I15, TRUE, FALSE)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M44" s="280"/>
       <c r="N44" s="8"/>
@@ -18415,10 +18424,10 @@
       </c>
       <c r="P44" s="7">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16" ht="16" outlineLevel="1" thickBot="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" ht="16" hidden="1" outlineLevel="1" thickBot="1">
       <c r="A45" s="8"/>
       <c r="B45" s="22"/>
       <c r="C45" s="258" t="s">
@@ -18427,7 +18436,10 @@
       <c r="D45" s="158" t="s">
         <v>225</v>
       </c>
-      <c r="E45" s="291"/>
+      <c r="E45" s="291" t="str">
+        <f>IF(E38="no",0,"")</f>
+        <v/>
+      </c>
       <c r="F45" s="126"/>
       <c r="G45" s="202"/>
       <c r="H45" s="8"/>
@@ -18438,7 +18450,7 @@
       </c>
       <c r="L45" s="242" t="b">
         <f>IF((E45)&lt;='Fuel aggregation'!J15, TRUE, FALSE)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M45" s="280"/>
       <c r="N45" s="8"/>
@@ -18447,10 +18459,10 @@
       </c>
       <c r="P45" s="7">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:16" ht="16" outlineLevel="1" thickBot="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" ht="16" hidden="1" outlineLevel="1" thickBot="1">
       <c r="A46" s="8"/>
       <c r="B46" s="22"/>
       <c r="C46" s="258" t="s">
@@ -18459,7 +18471,10 @@
       <c r="D46" s="292" t="s">
         <v>225</v>
       </c>
-      <c r="E46" s="291"/>
+      <c r="E46" s="291" t="str">
+        <f>IF(E38="no",0,"")</f>
+        <v/>
+      </c>
       <c r="F46" s="126"/>
       <c r="G46" s="202"/>
       <c r="H46" s="8"/>
@@ -18470,7 +18485,7 @@
       </c>
       <c r="L46" s="242" t="b">
         <f>IF((E46)&lt;='Fuel aggregation'!K15, TRUE, FALSE)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M46" s="280"/>
       <c r="N46" s="8"/>
@@ -18479,10 +18494,10 @@
       </c>
       <c r="P46" s="7">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:16" ht="16" outlineLevel="1" thickBot="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" ht="16" hidden="1" outlineLevel="1" thickBot="1">
       <c r="A47" s="8"/>
       <c r="B47" s="22"/>
       <c r="C47" s="258" t="s">
@@ -18491,7 +18506,10 @@
       <c r="D47" s="158" t="s">
         <v>225</v>
       </c>
-      <c r="E47" s="291"/>
+      <c r="E47" s="291" t="str">
+        <f>IF(E38="no",0,"")</f>
+        <v/>
+      </c>
       <c r="F47" s="126"/>
       <c r="G47" s="202"/>
       <c r="H47" s="8"/>
@@ -18502,7 +18520,7 @@
       </c>
       <c r="L47" s="242" t="b">
         <f>IF((E47)&lt;='Fuel aggregation'!L15, TRUE, FALSE)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M47" s="280"/>
       <c r="N47" s="8"/>
@@ -18511,10 +18529,10 @@
       </c>
       <c r="P47" s="7">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:16" outlineLevel="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" hidden="1" outlineLevel="1">
       <c r="A48" s="8"/>
       <c r="B48" s="22"/>
       <c r="C48" s="202"/>
@@ -18532,7 +18550,7 @@
       <c r="O48" s="207"/>
       <c r="P48" s="7"/>
     </row>
-    <row r="49" spans="1:16" ht="16" outlineLevel="1" thickBot="1">
+    <row r="49" spans="1:16" ht="16" hidden="1" outlineLevel="1" thickBot="1">
       <c r="A49" s="8"/>
       <c r="B49" s="22" t="s">
         <v>284</v>
@@ -18552,7 +18570,7 @@
       <c r="O49" s="207"/>
       <c r="P49" s="208"/>
     </row>
-    <row r="50" spans="1:16" ht="16" outlineLevel="1" thickBot="1">
+    <row r="50" spans="1:16" ht="16" hidden="1" outlineLevel="1" thickBot="1">
       <c r="A50" s="8"/>
       <c r="B50" s="22"/>
       <c r="C50" s="258" t="s">
@@ -18561,7 +18579,10 @@
       <c r="D50" s="158" t="s">
         <v>225</v>
       </c>
-      <c r="E50" s="291"/>
+      <c r="E50" s="291" t="str">
+        <f>IF(E38="no",0,"")</f>
+        <v/>
+      </c>
       <c r="F50" s="126"/>
       <c r="G50" s="202"/>
       <c r="H50" s="8"/>
@@ -18572,7 +18593,7 @@
       </c>
       <c r="L50" s="242" t="b">
         <f>IF((E50)&lt;='Fuel aggregation'!E22, TRUE, FALSE)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M50" s="280"/>
       <c r="N50" s="8"/>
@@ -18581,10 +18602,10 @@
       </c>
       <c r="P50" s="7">
         <f t="shared" ref="P50:P52" si="1">IF(L50=TRUE,1,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:16" ht="16" outlineLevel="1" thickBot="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" ht="16" hidden="1" outlineLevel="1" thickBot="1">
       <c r="A51" s="8"/>
       <c r="B51" s="22"/>
       <c r="C51" s="258" t="s">
@@ -18593,7 +18614,10 @@
       <c r="D51" s="158" t="s">
         <v>225</v>
       </c>
-      <c r="E51" s="291"/>
+      <c r="E51" s="291" t="str">
+        <f>IF(E38="no",0,"")</f>
+        <v/>
+      </c>
       <c r="F51" s="126"/>
       <c r="G51" s="202"/>
       <c r="H51" s="8"/>
@@ -18604,7 +18628,7 @@
       </c>
       <c r="L51" s="242" t="b">
         <f>IF((E51)&lt;='Fuel aggregation'!H22, TRUE, FALSE)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M51" s="280"/>
       <c r="N51" s="8"/>
@@ -18613,10 +18637,10 @@
       </c>
       <c r="P51" s="7">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:16" ht="16" outlineLevel="1" thickBot="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" ht="16" hidden="1" outlineLevel="1" thickBot="1">
       <c r="A52" s="8"/>
       <c r="B52" s="22"/>
       <c r="C52" s="258" t="s">
@@ -18625,7 +18649,10 @@
       <c r="D52" s="158" t="s">
         <v>225</v>
       </c>
-      <c r="E52" s="291"/>
+      <c r="E52" s="291" t="str">
+        <f>IF(E38="no",0,"")</f>
+        <v/>
+      </c>
       <c r="F52" s="126"/>
       <c r="G52" s="202"/>
       <c r="H52" s="8"/>
@@ -18636,7 +18663,7 @@
       </c>
       <c r="L52" s="242" t="b">
         <f>IF(E52&lt;='Fuel aggregation'!I22, TRUE, FALSE)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M52" s="280"/>
       <c r="N52" s="8"/>
@@ -18645,10 +18672,10 @@
       </c>
       <c r="P52" s="7">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:16" ht="16" thickBot="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" ht="16" collapsed="1" thickBot="1">
       <c r="B53" s="33"/>
       <c r="C53" s="46"/>
       <c r="D53" s="159"/>

--- a/analyses/4b_chemical_industry_analysis.xlsx
+++ b/analyses/4b_chemical_industry_analysis.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27322"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16100" tabRatio="835" activeTab="6"/>
@@ -20,282 +20,513 @@
     <sheet name="Shares energetic final demand" sheetId="98" r:id="rId11"/>
     <sheet name="Shares non-energ final demand" sheetId="99" r:id="rId12"/>
     <sheet name="Fuel aggregation" sheetId="59" r:id="rId13"/>
-    <sheet name="csv_export_to_industry_analysis" sheetId="96" r:id="rId14"/>
-    <sheet name="csv_chemical_coal_e_ps" sheetId="97" r:id="rId15"/>
-    <sheet name="csv_chemical_network_gas_e_ps" sheetId="100" r:id="rId16"/>
-    <sheet name="csv_chemical_crude_oil_e_ps" sheetId="101" r:id="rId17"/>
-    <sheet name="csv_chemical_wood_pellets_e_ps" sheetId="102" r:id="rId18"/>
-    <sheet name="csv_chemical_steam_hot_water_ps" sheetId="103" r:id="rId19"/>
-    <sheet name="csv_chemical_electricity_ps" sheetId="104" r:id="rId20"/>
-    <sheet name="csv_chemical_coal_non_e_ps" sheetId="105" r:id="rId21"/>
-    <sheet name="csv_chemical_gas_non_e_ps" sheetId="106" r:id="rId22"/>
-    <sheet name="csv_chemical_crude_oil_non_e_ps" sheetId="107" r:id="rId23"/>
-    <sheet name="csv_chemical_wood_non_e_ps" sheetId="108" r:id="rId24"/>
+    <sheet name="Refineries transformation" sheetId="109" r:id="rId14"/>
+    <sheet name="Refineries heat production" sheetId="111" r:id="rId15"/>
+    <sheet name="Refineries efficiency" sheetId="112" r:id="rId16"/>
+    <sheet name="csv_export_to_industry_analysis" sheetId="96" r:id="rId17"/>
+    <sheet name="csv_chemical_coal_e_ps" sheetId="97" r:id="rId18"/>
+    <sheet name="csv_chemical_network_gas_e_ps" sheetId="100" r:id="rId19"/>
+    <sheet name="csv_chemical_crude_oil_e_ps" sheetId="101" r:id="rId20"/>
+    <sheet name="csv_chemical_wood_pellets_e_ps" sheetId="102" r:id="rId21"/>
+    <sheet name="csv_chemical_steam_hot_water_ps" sheetId="103" r:id="rId22"/>
+    <sheet name="csv_chemical_electricity_ps" sheetId="104" r:id="rId23"/>
+    <sheet name="csv_chemical_coal_non_e_ps" sheetId="105" r:id="rId24"/>
+    <sheet name="csv_chemical_gas_non_e_ps" sheetId="106" r:id="rId25"/>
+    <sheet name="csv_chemical_crude_oil_non_e_ps" sheetId="107" r:id="rId26"/>
+    <sheet name="csv_chemical_wood_non_e_ps" sheetId="108" r:id="rId27"/>
+    <sheet name="csv_refinery_transformation_eff" sheetId="110" r:id="rId28"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId25"/>
+    <externalReference r:id="rId29"/>
   </externalReferences>
   <definedNames>
+    <definedName name="aluminium_production" localSheetId="17">Dashboard!#REF!</definedName>
+    <definedName name="aluminium_production" localSheetId="23">Dashboard!#REF!</definedName>
+    <definedName name="aluminium_production" localSheetId="19">Dashboard!#REF!</definedName>
+    <definedName name="aluminium_production" localSheetId="25">Dashboard!#REF!</definedName>
+    <definedName name="aluminium_production" localSheetId="22">Dashboard!#REF!</definedName>
+    <definedName name="aluminium_production" localSheetId="24">Dashboard!#REF!</definedName>
+    <definedName name="aluminium_production" localSheetId="18">Dashboard!#REF!</definedName>
+    <definedName name="aluminium_production" localSheetId="21">Dashboard!#REF!</definedName>
+    <definedName name="aluminium_production" localSheetId="26">Dashboard!#REF!</definedName>
+    <definedName name="aluminium_production" localSheetId="20">Dashboard!#REF!</definedName>
+    <definedName name="aluminium_production" localSheetId="27">Dashboard!#REF!</definedName>
+    <definedName name="aluminium_production" localSheetId="15">Dashboard!#REF!</definedName>
     <definedName name="aluminium_production" localSheetId="14">Dashboard!#REF!</definedName>
-    <definedName name="aluminium_production" localSheetId="20">Dashboard!#REF!</definedName>
-    <definedName name="aluminium_production" localSheetId="16">Dashboard!#REF!</definedName>
-    <definedName name="aluminium_production" localSheetId="22">Dashboard!#REF!</definedName>
-    <definedName name="aluminium_production" localSheetId="19">Dashboard!#REF!</definedName>
-    <definedName name="aluminium_production" localSheetId="21">Dashboard!#REF!</definedName>
-    <definedName name="aluminium_production" localSheetId="15">Dashboard!#REF!</definedName>
-    <definedName name="aluminium_production" localSheetId="18">Dashboard!#REF!</definedName>
-    <definedName name="aluminium_production" localSheetId="23">Dashboard!#REF!</definedName>
-    <definedName name="aluminium_production" localSheetId="17">Dashboard!#REF!</definedName>
+    <definedName name="aluminium_production" localSheetId="13">Dashboard!#REF!</definedName>
     <definedName name="aluminium_production" localSheetId="10">Dashboard!#REF!</definedName>
     <definedName name="aluminium_production" localSheetId="11">Dashboard!#REF!</definedName>
     <definedName name="aluminium_production">Dashboard!#REF!</definedName>
     <definedName name="base_year">Dashboard!$E$14</definedName>
     <definedName name="country">Dashboard!$E$13</definedName>
     <definedName name="Eff_Airco" localSheetId="12">'[1]Technological specifications'!$F$25</definedName>
+    <definedName name="Eff_Airco" localSheetId="15">'[1]Technological specifications'!$F$25</definedName>
+    <definedName name="Eff_Airco" localSheetId="14">'[1]Technological specifications'!$F$25</definedName>
+    <definedName name="Eff_Airco" localSheetId="13">'[1]Technological specifications'!$F$25</definedName>
     <definedName name="Eff_Airco" localSheetId="10">'Shares energetic final demand'!#REF!</definedName>
     <definedName name="Eff_Airco" localSheetId="11">'Shares non-energ final demand'!#REF!</definedName>
     <definedName name="Eff_Biomass_Heater" localSheetId="12">'[1]Technological specifications'!$F$19</definedName>
+    <definedName name="Eff_Biomass_Heater" localSheetId="15">'[1]Technological specifications'!$F$19</definedName>
+    <definedName name="Eff_Biomass_Heater" localSheetId="14">'[1]Technological specifications'!$F$19</definedName>
+    <definedName name="Eff_Biomass_Heater" localSheetId="13">'[1]Technological specifications'!$F$19</definedName>
     <definedName name="Eff_Biomass_Heater" localSheetId="10">'Shares energetic final demand'!#REF!</definedName>
     <definedName name="Eff_Biomass_Heater" localSheetId="11">'Shares non-energ final demand'!#REF!</definedName>
     <definedName name="Eff_Centralized_Heater" localSheetId="4">#REF!</definedName>
     <definedName name="Eff_Centralized_Heater" localSheetId="12">'[1]Technological specifications'!#REF!</definedName>
+    <definedName name="Eff_Centralized_Heater" localSheetId="15">'[1]Technological specifications'!#REF!</definedName>
+    <definedName name="Eff_Centralized_Heater" localSheetId="14">'[1]Technological specifications'!#REF!</definedName>
+    <definedName name="Eff_Centralized_Heater" localSheetId="13">'[1]Technological specifications'!#REF!</definedName>
     <definedName name="Eff_Centralized_Heater" localSheetId="10">'Shares energetic final demand'!#REF!</definedName>
     <definedName name="Eff_Centralized_Heater" localSheetId="11">'Shares non-energ final demand'!#REF!</definedName>
     <definedName name="Eff_Coal_Heater" localSheetId="12">'[1]Technological specifications'!$F$17</definedName>
+    <definedName name="Eff_Coal_Heater" localSheetId="15">'[1]Technological specifications'!$F$17</definedName>
+    <definedName name="Eff_Coal_Heater" localSheetId="14">'[1]Technological specifications'!$F$17</definedName>
+    <definedName name="Eff_Coal_Heater" localSheetId="13">'[1]Technological specifications'!$F$17</definedName>
     <definedName name="Eff_Coal_Heater" localSheetId="10">'Shares energetic final demand'!#REF!</definedName>
     <definedName name="Eff_Coal_Heater" localSheetId="11">'Shares non-energ final demand'!#REF!</definedName>
     <definedName name="Eff_Distr_Heater" localSheetId="12">'[1]Technological specifications'!$F$20</definedName>
+    <definedName name="Eff_Distr_Heater" localSheetId="15">'[1]Technological specifications'!$F$20</definedName>
+    <definedName name="Eff_Distr_Heater" localSheetId="14">'[1]Technological specifications'!$F$20</definedName>
+    <definedName name="Eff_Distr_Heater" localSheetId="13">'[1]Technological specifications'!$F$20</definedName>
     <definedName name="Eff_Distr_Heater" localSheetId="10">'Shares energetic final demand'!#REF!</definedName>
     <definedName name="Eff_Distr_Heater" localSheetId="11">'Shares non-energ final demand'!#REF!</definedName>
     <definedName name="Eff_Elec_Cold_Pump" localSheetId="12">'[1]Technological specifications'!$F$24</definedName>
+    <definedName name="Eff_Elec_Cold_Pump" localSheetId="15">'[1]Technological specifications'!$F$24</definedName>
+    <definedName name="Eff_Elec_Cold_Pump" localSheetId="14">'[1]Technological specifications'!$F$24</definedName>
+    <definedName name="Eff_Elec_Cold_Pump" localSheetId="13">'[1]Technological specifications'!$F$24</definedName>
     <definedName name="Eff_Elec_Cold_Pump" localSheetId="10">'Shares energetic final demand'!#REF!</definedName>
     <definedName name="Eff_Elec_Cold_Pump" localSheetId="11">'Shares non-energ final demand'!#REF!</definedName>
     <definedName name="Eff_Elec_Heat_Pump" localSheetId="12">'[1]Technological specifications'!$F$14</definedName>
+    <definedName name="Eff_Elec_Heat_Pump" localSheetId="15">'[1]Technological specifications'!$F$14</definedName>
+    <definedName name="Eff_Elec_Heat_Pump" localSheetId="14">'[1]Technological specifications'!$F$14</definedName>
+    <definedName name="Eff_Elec_Heat_Pump" localSheetId="13">'[1]Technological specifications'!$F$14</definedName>
     <definedName name="Eff_Elec_Heat_Pump" localSheetId="10">'Shares energetic final demand'!#REF!</definedName>
     <definedName name="Eff_Elec_Heat_Pump" localSheetId="11">'Shares non-energ final demand'!#REF!</definedName>
     <definedName name="Eff_Elec_Heater" localSheetId="12">'[1]Technological specifications'!$F$15</definedName>
+    <definedName name="Eff_Elec_Heater" localSheetId="15">'[1]Technological specifications'!$F$15</definedName>
+    <definedName name="Eff_Elec_Heater" localSheetId="14">'[1]Technological specifications'!$F$15</definedName>
+    <definedName name="Eff_Elec_Heater" localSheetId="13">'[1]Technological specifications'!$F$15</definedName>
     <definedName name="Eff_Elec_Heater" localSheetId="10">'Shares energetic final demand'!#REF!</definedName>
     <definedName name="Eff_Elec_Heater" localSheetId="11">'Shares non-energ final demand'!#REF!</definedName>
     <definedName name="Eff_Fluo_Lamp" localSheetId="12">'[1]Technological specifications'!$F$29</definedName>
+    <definedName name="Eff_Fluo_Lamp" localSheetId="15">'[1]Technological specifications'!$F$29</definedName>
+    <definedName name="Eff_Fluo_Lamp" localSheetId="14">'[1]Technological specifications'!$F$29</definedName>
+    <definedName name="Eff_Fluo_Lamp" localSheetId="13">'[1]Technological specifications'!$F$29</definedName>
     <definedName name="Eff_Fluo_Lamp" localSheetId="10">'Shares energetic final demand'!#REF!</definedName>
     <definedName name="Eff_Fluo_Lamp" localSheetId="11">'Shares non-energ final demand'!#REF!</definedName>
     <definedName name="Eff_Fluo_Tube" localSheetId="12">'[1]Technological specifications'!$F$30</definedName>
+    <definedName name="Eff_Fluo_Tube" localSheetId="15">'[1]Technological specifications'!$F$30</definedName>
+    <definedName name="Eff_Fluo_Tube" localSheetId="14">'[1]Technological specifications'!$F$30</definedName>
+    <definedName name="Eff_Fluo_Tube" localSheetId="13">'[1]Technological specifications'!$F$30</definedName>
     <definedName name="Eff_Fluo_Tube" localSheetId="10">'Shares energetic final demand'!#REF!</definedName>
     <definedName name="Eff_Fluo_Tube" localSheetId="11">'Shares non-energ final demand'!#REF!</definedName>
     <definedName name="Eff_Gas_Cold_Pump" localSheetId="12">'[1]Technological specifications'!$F$23</definedName>
+    <definedName name="Eff_Gas_Cold_Pump" localSheetId="15">'[1]Technological specifications'!$F$23</definedName>
+    <definedName name="Eff_Gas_Cold_Pump" localSheetId="14">'[1]Technological specifications'!$F$23</definedName>
+    <definedName name="Eff_Gas_Cold_Pump" localSheetId="13">'[1]Technological specifications'!$F$23</definedName>
     <definedName name="Eff_Gas_Cold_Pump" localSheetId="10">'Shares energetic final demand'!#REF!</definedName>
     <definedName name="Eff_Gas_Cold_Pump" localSheetId="11">'Shares non-energ final demand'!#REF!</definedName>
     <definedName name="Eff_Gas_Heat_Pump" localSheetId="12">'[1]Technological specifications'!$F$13</definedName>
+    <definedName name="Eff_Gas_Heat_Pump" localSheetId="15">'[1]Technological specifications'!$F$13</definedName>
+    <definedName name="Eff_Gas_Heat_Pump" localSheetId="14">'[1]Technological specifications'!$F$13</definedName>
+    <definedName name="Eff_Gas_Heat_Pump" localSheetId="13">'[1]Technological specifications'!$F$13</definedName>
     <definedName name="Eff_Gas_Heat_Pump" localSheetId="10">'Shares energetic final demand'!#REF!</definedName>
     <definedName name="Eff_Gas_Heat_Pump" localSheetId="11">'Shares non-energ final demand'!#REF!</definedName>
     <definedName name="Eff_Gas_Heater" localSheetId="12">'[1]Technological specifications'!$F$12</definedName>
+    <definedName name="Eff_Gas_Heater" localSheetId="15">'[1]Technological specifications'!$F$12</definedName>
+    <definedName name="Eff_Gas_Heater" localSheetId="14">'[1]Technological specifications'!$F$12</definedName>
+    <definedName name="Eff_Gas_Heater" localSheetId="13">'[1]Technological specifications'!$F$12</definedName>
     <definedName name="Eff_Gas_Heater" localSheetId="10">'Shares energetic final demand'!#REF!</definedName>
     <definedName name="Eff_Gas_Heater" localSheetId="11">'Shares non-energ final demand'!#REF!</definedName>
     <definedName name="Eff_Gas_Heater">'Final demand'!$E$11</definedName>
     <definedName name="Eff_Geothermal_Heater" localSheetId="4">#REF!</definedName>
     <definedName name="Eff_Geothermal_Heater" localSheetId="12">'[1]Technological specifications'!#REF!</definedName>
+    <definedName name="Eff_Geothermal_Heater" localSheetId="15">'[1]Technological specifications'!#REF!</definedName>
+    <definedName name="Eff_Geothermal_Heater" localSheetId="14">'[1]Technological specifications'!#REF!</definedName>
+    <definedName name="Eff_Geothermal_Heater" localSheetId="13">'[1]Technological specifications'!#REF!</definedName>
     <definedName name="Eff_Geothermal_Heater" localSheetId="10">'Shares energetic final demand'!#REF!</definedName>
     <definedName name="Eff_Geothermal_Heater" localSheetId="11">'Shares non-energ final demand'!#REF!</definedName>
     <definedName name="Eff_Incan_Lamp" localSheetId="12">'[1]Technological specifications'!$F$28</definedName>
+    <definedName name="Eff_Incan_Lamp" localSheetId="15">'[1]Technological specifications'!$F$28</definedName>
+    <definedName name="Eff_Incan_Lamp" localSheetId="14">'[1]Technological specifications'!$F$28</definedName>
+    <definedName name="Eff_Incan_Lamp" localSheetId="13">'[1]Technological specifications'!$F$28</definedName>
     <definedName name="Eff_Incan_Lamp" localSheetId="10">'Shares energetic final demand'!#REF!</definedName>
     <definedName name="Eff_Incan_Lamp" localSheetId="11">'Shares non-energ final demand'!#REF!</definedName>
     <definedName name="Eff_LED_Lamp" localSheetId="12">'[1]Technological specifications'!$F$31</definedName>
+    <definedName name="Eff_LED_Lamp" localSheetId="15">'[1]Technological specifications'!$F$31</definedName>
+    <definedName name="Eff_LED_Lamp" localSheetId="14">'[1]Technological specifications'!$F$31</definedName>
+    <definedName name="Eff_LED_Lamp" localSheetId="13">'[1]Technological specifications'!$F$31</definedName>
     <definedName name="Eff_LED_Lamp" localSheetId="10">'Shares energetic final demand'!#REF!</definedName>
     <definedName name="Eff_LED_Lamp" localSheetId="11">'Shares non-energ final demand'!#REF!</definedName>
     <definedName name="Eff_Oil_Heater" localSheetId="12">'[1]Technological specifications'!$F$18</definedName>
+    <definedName name="Eff_Oil_Heater" localSheetId="15">'[1]Technological specifications'!$F$18</definedName>
+    <definedName name="Eff_Oil_Heater" localSheetId="14">'[1]Technological specifications'!$F$18</definedName>
+    <definedName name="Eff_Oil_Heater" localSheetId="13">'[1]Technological specifications'!$F$18</definedName>
     <definedName name="Eff_Oil_Heater" localSheetId="10">'Shares energetic final demand'!#REF!</definedName>
     <definedName name="Eff_Oil_Heater" localSheetId="11">'Shares non-energ final demand'!#REF!</definedName>
     <definedName name="Eff_Solar_Heater" localSheetId="12">'[1]Technological specifications'!$F$16</definedName>
+    <definedName name="Eff_Solar_Heater" localSheetId="15">'[1]Technological specifications'!$F$16</definedName>
+    <definedName name="Eff_Solar_Heater" localSheetId="14">'[1]Technological specifications'!$F$16</definedName>
+    <definedName name="Eff_Solar_Heater" localSheetId="13">'[1]Technological specifications'!$F$16</definedName>
     <definedName name="Eff_Solar_Heater" localSheetId="10">'Shares energetic final demand'!#REF!</definedName>
     <definedName name="Eff_Solar_Heater" localSheetId="11">'Shares non-energ final demand'!#REF!</definedName>
     <definedName name="Final_Demand_Comm_and_Publ_Services" localSheetId="12">'[1]Corrected energy balance'!$BN$84</definedName>
+    <definedName name="Final_Demand_Comm_and_Publ_Services" localSheetId="15">'[1]Corrected energy balance'!$BN$84</definedName>
+    <definedName name="Final_Demand_Comm_and_Publ_Services" localSheetId="14">'[1]Corrected energy balance'!$BN$84</definedName>
+    <definedName name="Final_Demand_Comm_and_Publ_Services" localSheetId="13">'[1]Corrected energy balance'!$BN$84</definedName>
     <definedName name="Final_Demand_Electrical_Appliances" localSheetId="12">'[1]Final demand per energy carrier'!$F$41</definedName>
+    <definedName name="Final_Demand_Electrical_Appliances" localSheetId="15">'[1]Final demand per energy carrier'!$F$41</definedName>
+    <definedName name="Final_Demand_Electrical_Appliances" localSheetId="14">'[1]Final demand per energy carrier'!$F$41</definedName>
+    <definedName name="Final_Demand_Electrical_Appliances" localSheetId="13">'[1]Final demand per energy carrier'!$F$41</definedName>
     <definedName name="Final_Demand_Lighting" localSheetId="12">[1]Dashboard!$D$26</definedName>
+    <definedName name="Final_Demand_Lighting" localSheetId="15">[1]Dashboard!$D$26</definedName>
+    <definedName name="Final_Demand_Lighting" localSheetId="14">[1]Dashboard!$D$26</definedName>
+    <definedName name="Final_Demand_Lighting" localSheetId="13">[1]Dashboard!$D$26</definedName>
     <definedName name="Final_Demand_Other_Appliances" localSheetId="12">[1]Dashboard!$D$29</definedName>
+    <definedName name="Final_Demand_Other_Appliances" localSheetId="15">[1]Dashboard!$D$29</definedName>
+    <definedName name="Final_Demand_Other_Appliances" localSheetId="14">[1]Dashboard!$D$29</definedName>
+    <definedName name="Final_Demand_Other_Appliances" localSheetId="13">[1]Dashboard!$D$29</definedName>
     <definedName name="Final_Demand_Space_Cooling" localSheetId="12">[1]Dashboard!$D$25</definedName>
+    <definedName name="Final_Demand_Space_Cooling" localSheetId="15">[1]Dashboard!$D$25</definedName>
+    <definedName name="Final_Demand_Space_Cooling" localSheetId="14">[1]Dashboard!$D$25</definedName>
+    <definedName name="Final_Demand_Space_Cooling" localSheetId="13">[1]Dashboard!$D$25</definedName>
     <definedName name="Final_demand_Space_Heating" localSheetId="12">[1]Dashboard!$D$24</definedName>
+    <definedName name="Final_demand_Space_Heating" localSheetId="15">[1]Dashboard!$D$24</definedName>
+    <definedName name="Final_demand_Space_Heating" localSheetId="14">[1]Dashboard!$D$24</definedName>
+    <definedName name="Final_demand_Space_Heating" localSheetId="13">[1]Dashboard!$D$24</definedName>
     <definedName name="GWh_to_TJ" localSheetId="9">[1]Assumptions!$C$131</definedName>
     <definedName name="GWh_to_TJ" localSheetId="12">[1]Assumptions!$C$131</definedName>
+    <definedName name="GWh_to_TJ" localSheetId="15">[1]Assumptions!$C$131</definedName>
+    <definedName name="GWh_to_TJ" localSheetId="14">[1]Assumptions!$C$131</definedName>
+    <definedName name="GWh_to_TJ" localSheetId="13">[1]Assumptions!$C$131</definedName>
     <definedName name="GWh_to_TJ" localSheetId="10">[1]Assumptions!$C$131</definedName>
     <definedName name="GWh_to_TJ" localSheetId="11">[1]Assumptions!$C$131</definedName>
     <definedName name="GWh_to_TJ" localSheetId="8">[1]Assumptions!$C$131</definedName>
     <definedName name="Heat_eff_Biogas_CHP" localSheetId="4">#REF!</definedName>
     <definedName name="Heat_eff_Biogas_CHP" localSheetId="12">'[1]Technological specifications'!#REF!</definedName>
+    <definedName name="Heat_eff_Biogas_CHP" localSheetId="15">'[1]Technological specifications'!#REF!</definedName>
+    <definedName name="Heat_eff_Biogas_CHP" localSheetId="14">'[1]Technological specifications'!#REF!</definedName>
+    <definedName name="Heat_eff_Biogas_CHP" localSheetId="13">'[1]Technological specifications'!#REF!</definedName>
     <definedName name="Heat_eff_Biogas_CHP" localSheetId="10">'Shares energetic final demand'!#REF!</definedName>
     <definedName name="Heat_eff_Biogas_CHP" localSheetId="11">'Shares non-energ final demand'!#REF!</definedName>
     <definedName name="Heat_Eff_Biomass_CHP" localSheetId="4">#REF!</definedName>
     <definedName name="Heat_Eff_Biomass_CHP" localSheetId="9">'Final demand'!#REF!</definedName>
     <definedName name="Heat_Eff_Biomass_CHP" localSheetId="12">'[1]Technological specifications'!#REF!</definedName>
+    <definedName name="Heat_Eff_Biomass_CHP" localSheetId="15">'[1]Technological specifications'!#REF!</definedName>
+    <definedName name="Heat_Eff_Biomass_CHP" localSheetId="14">'[1]Technological specifications'!#REF!</definedName>
+    <definedName name="Heat_Eff_Biomass_CHP" localSheetId="13">'[1]Technological specifications'!#REF!</definedName>
     <definedName name="Heat_Eff_Biomass_CHP" localSheetId="10">'Shares energetic final demand'!#REF!</definedName>
     <definedName name="Heat_Eff_Biomass_CHP" localSheetId="11">'Shares non-energ final demand'!#REF!</definedName>
     <definedName name="Heat_Eff_Gas_CHP" localSheetId="4">#REF!</definedName>
     <definedName name="Heat_Eff_Gas_CHP" localSheetId="9">'Final demand'!#REF!</definedName>
     <definedName name="Heat_Eff_Gas_CHP" localSheetId="12">'[1]Technological specifications'!#REF!</definedName>
+    <definedName name="Heat_Eff_Gas_CHP" localSheetId="15">'[1]Technological specifications'!#REF!</definedName>
+    <definedName name="Heat_Eff_Gas_CHP" localSheetId="14">'[1]Technological specifications'!#REF!</definedName>
+    <definedName name="Heat_Eff_Gas_CHP" localSheetId="13">'[1]Technological specifications'!#REF!</definedName>
     <definedName name="Heat_Eff_Gas_CHP" localSheetId="10">'Shares energetic final demand'!#REF!</definedName>
     <definedName name="Heat_Eff_Gas_CHP" localSheetId="11">'Shares non-energ final demand'!#REF!</definedName>
     <definedName name="Perc_Final_Demand_Lighting_Fluo_Lamps" localSheetId="12">'[1]Technology split of final deman'!$G$31</definedName>
+    <definedName name="Perc_Final_Demand_Lighting_Fluo_Lamps" localSheetId="15">'[1]Technology split of final deman'!$G$31</definedName>
+    <definedName name="Perc_Final_Demand_Lighting_Fluo_Lamps" localSheetId="14">'[1]Technology split of final deman'!$G$31</definedName>
+    <definedName name="Perc_Final_Demand_Lighting_Fluo_Lamps" localSheetId="13">'[1]Technology split of final deman'!$G$31</definedName>
     <definedName name="Perc_Final_Demand_Lighting_Fluo_Tubes" localSheetId="12">'[1]Technology split of final deman'!$G$32</definedName>
+    <definedName name="Perc_Final_Demand_Lighting_Fluo_Tubes" localSheetId="15">'[1]Technology split of final deman'!$G$32</definedName>
+    <definedName name="Perc_Final_Demand_Lighting_Fluo_Tubes" localSheetId="14">'[1]Technology split of final deman'!$G$32</definedName>
+    <definedName name="Perc_Final_Demand_Lighting_Fluo_Tubes" localSheetId="13">'[1]Technology split of final deman'!$G$32</definedName>
     <definedName name="Perc_Final_Demand_Lighting_Incan_Lamps" localSheetId="12">'[1]Technology split of final deman'!$G$30</definedName>
+    <definedName name="Perc_Final_Demand_Lighting_Incan_Lamps" localSheetId="15">'[1]Technology split of final deman'!$G$30</definedName>
+    <definedName name="Perc_Final_Demand_Lighting_Incan_Lamps" localSheetId="14">'[1]Technology split of final deman'!$G$30</definedName>
+    <definedName name="Perc_Final_Demand_Lighting_Incan_Lamps" localSheetId="13">'[1]Technology split of final deman'!$G$30</definedName>
     <definedName name="Perc_Final_Demand_Lighting_LED_Lamps" localSheetId="12">'[1]Technology split of final deman'!$G$33</definedName>
+    <definedName name="Perc_Final_Demand_Lighting_LED_Lamps" localSheetId="15">'[1]Technology split of final deman'!$G$33</definedName>
+    <definedName name="Perc_Final_Demand_Lighting_LED_Lamps" localSheetId="14">'[1]Technology split of final deman'!$G$33</definedName>
+    <definedName name="Perc_Final_Demand_Lighting_LED_Lamps" localSheetId="13">'[1]Technology split of final deman'!$G$33</definedName>
     <definedName name="Perc_Final_Demand_Space_Cooling_Airco" localSheetId="12">'[1]Technology split of final deman'!$G$25</definedName>
+    <definedName name="Perc_Final_Demand_Space_Cooling_Airco" localSheetId="15">'[1]Technology split of final deman'!$G$25</definedName>
+    <definedName name="Perc_Final_Demand_Space_Cooling_Airco" localSheetId="14">'[1]Technology split of final deman'!$G$25</definedName>
+    <definedName name="Perc_Final_Demand_Space_Cooling_Airco" localSheetId="13">'[1]Technology split of final deman'!$G$25</definedName>
     <definedName name="Perc_Final_Demand_Space_Cooling_Elec_Heat_Pump" localSheetId="12">'[1]Technology split of final deman'!$G$24</definedName>
+    <definedName name="Perc_Final_Demand_Space_Cooling_Elec_Heat_Pump" localSheetId="15">'[1]Technology split of final deman'!$G$24</definedName>
+    <definedName name="Perc_Final_Demand_Space_Cooling_Elec_Heat_Pump" localSheetId="14">'[1]Technology split of final deman'!$G$24</definedName>
+    <definedName name="Perc_Final_Demand_Space_Cooling_Elec_Heat_Pump" localSheetId="13">'[1]Technology split of final deman'!$G$24</definedName>
     <definedName name="Perc_Final_Demand_Space_Cooling_Gas_Heat_Pump" localSheetId="12">'[1]Technology split of final deman'!$G$23</definedName>
+    <definedName name="Perc_Final_Demand_Space_Cooling_Gas_Heat_Pump" localSheetId="15">'[1]Technology split of final deman'!$G$23</definedName>
+    <definedName name="Perc_Final_Demand_Space_Cooling_Gas_Heat_Pump" localSheetId="14">'[1]Technology split of final deman'!$G$23</definedName>
+    <definedName name="Perc_Final_Demand_Space_Cooling_Gas_Heat_Pump" localSheetId="13">'[1]Technology split of final deman'!$G$23</definedName>
     <definedName name="Perc_Final_Demand_Space_Heating_Biomass_Heater" localSheetId="12">'[1]Technology split of final deman'!$G$17</definedName>
+    <definedName name="Perc_Final_Demand_Space_Heating_Biomass_Heater" localSheetId="15">'[1]Technology split of final deman'!$G$17</definedName>
+    <definedName name="Perc_Final_Demand_Space_Heating_Biomass_Heater" localSheetId="14">'[1]Technology split of final deman'!$G$17</definedName>
+    <definedName name="Perc_Final_Demand_Space_Heating_Biomass_Heater" localSheetId="13">'[1]Technology split of final deman'!$G$17</definedName>
     <definedName name="Perc_Final_Demand_Space_Heating_Coal_Heater" localSheetId="12">'[1]Technology split of final deman'!$G$13</definedName>
+    <definedName name="Perc_Final_Demand_Space_Heating_Coal_Heater" localSheetId="15">'[1]Technology split of final deman'!$G$13</definedName>
+    <definedName name="Perc_Final_Demand_Space_Heating_Coal_Heater" localSheetId="14">'[1]Technology split of final deman'!$G$13</definedName>
+    <definedName name="Perc_Final_Demand_Space_Heating_Coal_Heater" localSheetId="13">'[1]Technology split of final deman'!$G$13</definedName>
     <definedName name="Perc_Final_Demand_Space_Heating_District_Heating" localSheetId="12">'[1]Technology split of final deman'!$G$16</definedName>
+    <definedName name="Perc_Final_Demand_Space_Heating_District_Heating" localSheetId="15">'[1]Technology split of final deman'!$G$16</definedName>
+    <definedName name="Perc_Final_Demand_Space_Heating_District_Heating" localSheetId="14">'[1]Technology split of final deman'!$G$16</definedName>
+    <definedName name="Perc_Final_Demand_Space_Heating_District_Heating" localSheetId="13">'[1]Technology split of final deman'!$G$16</definedName>
     <definedName name="Perc_Final_Demand_Space_Heating_Elec_Heat_Pump" localSheetId="12">'[1]Technology split of final deman'!$G$11</definedName>
+    <definedName name="Perc_Final_Demand_Space_Heating_Elec_Heat_Pump" localSheetId="15">'[1]Technology split of final deman'!$G$11</definedName>
+    <definedName name="Perc_Final_Demand_Space_Heating_Elec_Heat_Pump" localSheetId="14">'[1]Technology split of final deman'!$G$11</definedName>
+    <definedName name="Perc_Final_Demand_Space_Heating_Elec_Heat_Pump" localSheetId="13">'[1]Technology split of final deman'!$G$11</definedName>
     <definedName name="Perc_Final_Demand_Space_Heating_Elec_Heater" localSheetId="12">'[1]Technology split of final deman'!$G$12</definedName>
+    <definedName name="Perc_Final_Demand_Space_Heating_Elec_Heater" localSheetId="15">'[1]Technology split of final deman'!$G$12</definedName>
+    <definedName name="Perc_Final_Demand_Space_Heating_Elec_Heater" localSheetId="14">'[1]Technology split of final deman'!$G$12</definedName>
+    <definedName name="Perc_Final_Demand_Space_Heating_Elec_Heater" localSheetId="13">'[1]Technology split of final deman'!$G$12</definedName>
     <definedName name="Perc_Final_Demand_Space_Heating_Gas_Heat_Pump" localSheetId="12">'[1]Technology split of final deman'!$G$10</definedName>
+    <definedName name="Perc_Final_Demand_Space_Heating_Gas_Heat_Pump" localSheetId="15">'[1]Technology split of final deman'!$G$10</definedName>
+    <definedName name="Perc_Final_Demand_Space_Heating_Gas_Heat_Pump" localSheetId="14">'[1]Technology split of final deman'!$G$10</definedName>
+    <definedName name="Perc_Final_Demand_Space_Heating_Gas_Heat_Pump" localSheetId="13">'[1]Technology split of final deman'!$G$10</definedName>
     <definedName name="Perc_Final_Demand_Space_Heating_Gas_Heater" localSheetId="12">'[1]Technology split of final deman'!$G$9</definedName>
+    <definedName name="Perc_Final_Demand_Space_Heating_Gas_Heater" localSheetId="15">'[1]Technology split of final deman'!$G$9</definedName>
+    <definedName name="Perc_Final_Demand_Space_Heating_Gas_Heater" localSheetId="14">'[1]Technology split of final deman'!$G$9</definedName>
+    <definedName name="Perc_Final_Demand_Space_Heating_Gas_Heater" localSheetId="13">'[1]Technology split of final deman'!$G$9</definedName>
     <definedName name="Perc_Final_Demand_Space_Heating_Oil_Heater" localSheetId="12">'[1]Technology split of final deman'!$G$14</definedName>
+    <definedName name="Perc_Final_Demand_Space_Heating_Oil_Heater" localSheetId="15">'[1]Technology split of final deman'!$G$14</definedName>
+    <definedName name="Perc_Final_Demand_Space_Heating_Oil_Heater" localSheetId="14">'[1]Technology split of final deman'!$G$14</definedName>
+    <definedName name="Perc_Final_Demand_Space_Heating_Oil_Heater" localSheetId="13">'[1]Technology split of final deman'!$G$14</definedName>
     <definedName name="Perc_Final_Demand_Space_Heating_Solar_Heater" localSheetId="12">'[1]Technology split of final deman'!$G$18</definedName>
+    <definedName name="Perc_Final_Demand_Space_Heating_Solar_Heater" localSheetId="15">'[1]Technology split of final deman'!$G$18</definedName>
+    <definedName name="Perc_Final_Demand_Space_Heating_Solar_Heater" localSheetId="14">'[1]Technology split of final deman'!$G$18</definedName>
+    <definedName name="Perc_Final_Demand_Space_Heating_Solar_Heater" localSheetId="13">'[1]Technology split of final deman'!$G$18</definedName>
     <definedName name="Perc_Heat_Delivered_Biomass_Heater" localSheetId="12">'[1]Tech split of useful demand'!$G$17</definedName>
+    <definedName name="Perc_Heat_Delivered_Biomass_Heater" localSheetId="15">'[1]Tech split of useful demand'!$G$17</definedName>
+    <definedName name="Perc_Heat_Delivered_Biomass_Heater" localSheetId="14">'[1]Tech split of useful demand'!$G$17</definedName>
+    <definedName name="Perc_Heat_Delivered_Biomass_Heater" localSheetId="13">'[1]Tech split of useful demand'!$G$17</definedName>
     <definedName name="Perc_Heat_Delivered_District_Heat" localSheetId="12">'[1]Tech split of useful demand'!$G$16</definedName>
+    <definedName name="Perc_Heat_Delivered_District_Heat" localSheetId="15">'[1]Tech split of useful demand'!$G$16</definedName>
+    <definedName name="Perc_Heat_Delivered_District_Heat" localSheetId="14">'[1]Tech split of useful demand'!$G$16</definedName>
+    <definedName name="Perc_Heat_Delivered_District_Heat" localSheetId="13">'[1]Tech split of useful demand'!$G$16</definedName>
     <definedName name="Perc_Heat_Delivered_Solar_Thermal" localSheetId="12">'[1]Tech split of useful demand'!$G$18</definedName>
+    <definedName name="Perc_Heat_Delivered_Solar_Thermal" localSheetId="15">'[1]Tech split of useful demand'!$G$18</definedName>
+    <definedName name="Perc_Heat_Delivered_Solar_Thermal" localSheetId="14">'[1]Tech split of useful demand'!$G$18</definedName>
+    <definedName name="Perc_Heat_Delivered_Solar_Thermal" localSheetId="13">'[1]Tech split of useful demand'!$G$18</definedName>
     <definedName name="Perc_Roof_for_PV" localSheetId="12">'[1]PV solar area and production'!$E$22</definedName>
+    <definedName name="Perc_Roof_for_PV" localSheetId="15">'[1]PV solar area and production'!$E$22</definedName>
+    <definedName name="Perc_Roof_for_PV" localSheetId="14">'[1]PV solar area and production'!$E$22</definedName>
+    <definedName name="Perc_Roof_for_PV" localSheetId="13">'[1]PV solar area and production'!$E$22</definedName>
+    <definedName name="share_aluminium_carbothermal_reduction" localSheetId="17">Dashboard!#REF!</definedName>
+    <definedName name="share_aluminium_carbothermal_reduction" localSheetId="23">Dashboard!#REF!</definedName>
+    <definedName name="share_aluminium_carbothermal_reduction" localSheetId="19">Dashboard!#REF!</definedName>
+    <definedName name="share_aluminium_carbothermal_reduction" localSheetId="25">Dashboard!#REF!</definedName>
+    <definedName name="share_aluminium_carbothermal_reduction" localSheetId="22">Dashboard!#REF!</definedName>
+    <definedName name="share_aluminium_carbothermal_reduction" localSheetId="24">Dashboard!#REF!</definedName>
+    <definedName name="share_aluminium_carbothermal_reduction" localSheetId="18">Dashboard!#REF!</definedName>
+    <definedName name="share_aluminium_carbothermal_reduction" localSheetId="21">Dashboard!#REF!</definedName>
+    <definedName name="share_aluminium_carbothermal_reduction" localSheetId="26">Dashboard!#REF!</definedName>
+    <definedName name="share_aluminium_carbothermal_reduction" localSheetId="20">Dashboard!#REF!</definedName>
+    <definedName name="share_aluminium_carbothermal_reduction" localSheetId="27">Dashboard!#REF!</definedName>
+    <definedName name="share_aluminium_carbothermal_reduction" localSheetId="15">Dashboard!#REF!</definedName>
     <definedName name="share_aluminium_carbothermal_reduction" localSheetId="14">Dashboard!#REF!</definedName>
-    <definedName name="share_aluminium_carbothermal_reduction" localSheetId="20">Dashboard!#REF!</definedName>
-    <definedName name="share_aluminium_carbothermal_reduction" localSheetId="16">Dashboard!#REF!</definedName>
-    <definedName name="share_aluminium_carbothermal_reduction" localSheetId="22">Dashboard!#REF!</definedName>
-    <definedName name="share_aluminium_carbothermal_reduction" localSheetId="19">Dashboard!#REF!</definedName>
-    <definedName name="share_aluminium_carbothermal_reduction" localSheetId="21">Dashboard!#REF!</definedName>
-    <definedName name="share_aluminium_carbothermal_reduction" localSheetId="15">Dashboard!#REF!</definedName>
-    <definedName name="share_aluminium_carbothermal_reduction" localSheetId="18">Dashboard!#REF!</definedName>
-    <definedName name="share_aluminium_carbothermal_reduction" localSheetId="23">Dashboard!#REF!</definedName>
-    <definedName name="share_aluminium_carbothermal_reduction" localSheetId="17">Dashboard!#REF!</definedName>
+    <definedName name="share_aluminium_carbothermal_reduction" localSheetId="13">Dashboard!#REF!</definedName>
     <definedName name="share_aluminium_carbothermal_reduction" localSheetId="10">Dashboard!#REF!</definedName>
     <definedName name="share_aluminium_carbothermal_reduction" localSheetId="11">Dashboard!#REF!</definedName>
     <definedName name="share_aluminium_carbothermal_reduction">Dashboard!#REF!</definedName>
+    <definedName name="share_aluminium_electrolysis_bat" localSheetId="17">Dashboard!#REF!</definedName>
+    <definedName name="share_aluminium_electrolysis_bat" localSheetId="23">Dashboard!#REF!</definedName>
+    <definedName name="share_aluminium_electrolysis_bat" localSheetId="19">Dashboard!#REF!</definedName>
+    <definedName name="share_aluminium_electrolysis_bat" localSheetId="25">Dashboard!#REF!</definedName>
+    <definedName name="share_aluminium_electrolysis_bat" localSheetId="22">Dashboard!#REF!</definedName>
+    <definedName name="share_aluminium_electrolysis_bat" localSheetId="24">Dashboard!#REF!</definedName>
+    <definedName name="share_aluminium_electrolysis_bat" localSheetId="18">Dashboard!#REF!</definedName>
+    <definedName name="share_aluminium_electrolysis_bat" localSheetId="21">Dashboard!#REF!</definedName>
+    <definedName name="share_aluminium_electrolysis_bat" localSheetId="26">Dashboard!#REF!</definedName>
+    <definedName name="share_aluminium_electrolysis_bat" localSheetId="20">Dashboard!#REF!</definedName>
+    <definedName name="share_aluminium_electrolysis_bat" localSheetId="27">Dashboard!#REF!</definedName>
+    <definedName name="share_aluminium_electrolysis_bat" localSheetId="15">Dashboard!#REF!</definedName>
     <definedName name="share_aluminium_electrolysis_bat" localSheetId="14">Dashboard!#REF!</definedName>
-    <definedName name="share_aluminium_electrolysis_bat" localSheetId="20">Dashboard!#REF!</definedName>
-    <definedName name="share_aluminium_electrolysis_bat" localSheetId="16">Dashboard!#REF!</definedName>
-    <definedName name="share_aluminium_electrolysis_bat" localSheetId="22">Dashboard!#REF!</definedName>
-    <definedName name="share_aluminium_electrolysis_bat" localSheetId="19">Dashboard!#REF!</definedName>
-    <definedName name="share_aluminium_electrolysis_bat" localSheetId="21">Dashboard!#REF!</definedName>
-    <definedName name="share_aluminium_electrolysis_bat" localSheetId="15">Dashboard!#REF!</definedName>
-    <definedName name="share_aluminium_electrolysis_bat" localSheetId="18">Dashboard!#REF!</definedName>
-    <definedName name="share_aluminium_electrolysis_bat" localSheetId="23">Dashboard!#REF!</definedName>
-    <definedName name="share_aluminium_electrolysis_bat" localSheetId="17">Dashboard!#REF!</definedName>
+    <definedName name="share_aluminium_electrolysis_bat" localSheetId="13">Dashboard!#REF!</definedName>
     <definedName name="share_aluminium_electrolysis_bat" localSheetId="10">Dashboard!#REF!</definedName>
     <definedName name="share_aluminium_electrolysis_bat" localSheetId="11">Dashboard!#REF!</definedName>
     <definedName name="share_aluminium_electrolysis_bat">Dashboard!#REF!</definedName>
+    <definedName name="share_aluminium_electrolysis_current" localSheetId="17">Dashboard!#REF!</definedName>
+    <definedName name="share_aluminium_electrolysis_current" localSheetId="23">Dashboard!#REF!</definedName>
+    <definedName name="share_aluminium_electrolysis_current" localSheetId="19">Dashboard!#REF!</definedName>
+    <definedName name="share_aluminium_electrolysis_current" localSheetId="25">Dashboard!#REF!</definedName>
+    <definedName name="share_aluminium_electrolysis_current" localSheetId="22">Dashboard!#REF!</definedName>
+    <definedName name="share_aluminium_electrolysis_current" localSheetId="24">Dashboard!#REF!</definedName>
+    <definedName name="share_aluminium_electrolysis_current" localSheetId="18">Dashboard!#REF!</definedName>
+    <definedName name="share_aluminium_electrolysis_current" localSheetId="21">Dashboard!#REF!</definedName>
+    <definedName name="share_aluminium_electrolysis_current" localSheetId="26">Dashboard!#REF!</definedName>
+    <definedName name="share_aluminium_electrolysis_current" localSheetId="20">Dashboard!#REF!</definedName>
+    <definedName name="share_aluminium_electrolysis_current" localSheetId="27">Dashboard!#REF!</definedName>
+    <definedName name="share_aluminium_electrolysis_current" localSheetId="15">Dashboard!#REF!</definedName>
     <definedName name="share_aluminium_electrolysis_current" localSheetId="14">Dashboard!#REF!</definedName>
-    <definedName name="share_aluminium_electrolysis_current" localSheetId="20">Dashboard!#REF!</definedName>
-    <definedName name="share_aluminium_electrolysis_current" localSheetId="16">Dashboard!#REF!</definedName>
-    <definedName name="share_aluminium_electrolysis_current" localSheetId="22">Dashboard!#REF!</definedName>
-    <definedName name="share_aluminium_electrolysis_current" localSheetId="19">Dashboard!#REF!</definedName>
-    <definedName name="share_aluminium_electrolysis_current" localSheetId="21">Dashboard!#REF!</definedName>
-    <definedName name="share_aluminium_electrolysis_current" localSheetId="15">Dashboard!#REF!</definedName>
-    <definedName name="share_aluminium_electrolysis_current" localSheetId="18">Dashboard!#REF!</definedName>
-    <definedName name="share_aluminium_electrolysis_current" localSheetId="23">Dashboard!#REF!</definedName>
-    <definedName name="share_aluminium_electrolysis_current" localSheetId="17">Dashboard!#REF!</definedName>
+    <definedName name="share_aluminium_electrolysis_current" localSheetId="13">Dashboard!#REF!</definedName>
     <definedName name="share_aluminium_electrolysis_current" localSheetId="10">Dashboard!#REF!</definedName>
     <definedName name="share_aluminium_electrolysis_current" localSheetId="11">Dashboard!#REF!</definedName>
     <definedName name="share_aluminium_electrolysis_current">Dashboard!#REF!</definedName>
+    <definedName name="share_aluminium_melting_oven" localSheetId="17">Dashboard!#REF!</definedName>
+    <definedName name="share_aluminium_melting_oven" localSheetId="23">Dashboard!#REF!</definedName>
+    <definedName name="share_aluminium_melting_oven" localSheetId="19">Dashboard!#REF!</definedName>
+    <definedName name="share_aluminium_melting_oven" localSheetId="25">Dashboard!#REF!</definedName>
+    <definedName name="share_aluminium_melting_oven" localSheetId="22">Dashboard!#REF!</definedName>
+    <definedName name="share_aluminium_melting_oven" localSheetId="24">Dashboard!#REF!</definedName>
+    <definedName name="share_aluminium_melting_oven" localSheetId="18">Dashboard!#REF!</definedName>
+    <definedName name="share_aluminium_melting_oven" localSheetId="21">Dashboard!#REF!</definedName>
+    <definedName name="share_aluminium_melting_oven" localSheetId="26">Dashboard!#REF!</definedName>
+    <definedName name="share_aluminium_melting_oven" localSheetId="20">Dashboard!#REF!</definedName>
+    <definedName name="share_aluminium_melting_oven" localSheetId="27">Dashboard!#REF!</definedName>
+    <definedName name="share_aluminium_melting_oven" localSheetId="15">Dashboard!#REF!</definedName>
     <definedName name="share_aluminium_melting_oven" localSheetId="14">Dashboard!#REF!</definedName>
-    <definedName name="share_aluminium_melting_oven" localSheetId="20">Dashboard!#REF!</definedName>
-    <definedName name="share_aluminium_melting_oven" localSheetId="16">Dashboard!#REF!</definedName>
-    <definedName name="share_aluminium_melting_oven" localSheetId="22">Dashboard!#REF!</definedName>
-    <definedName name="share_aluminium_melting_oven" localSheetId="19">Dashboard!#REF!</definedName>
-    <definedName name="share_aluminium_melting_oven" localSheetId="21">Dashboard!#REF!</definedName>
-    <definedName name="share_aluminium_melting_oven" localSheetId="15">Dashboard!#REF!</definedName>
-    <definedName name="share_aluminium_melting_oven" localSheetId="18">Dashboard!#REF!</definedName>
-    <definedName name="share_aluminium_melting_oven" localSheetId="23">Dashboard!#REF!</definedName>
-    <definedName name="share_aluminium_melting_oven" localSheetId="17">Dashboard!#REF!</definedName>
+    <definedName name="share_aluminium_melting_oven" localSheetId="13">Dashboard!#REF!</definedName>
     <definedName name="share_aluminium_melting_oven" localSheetId="10">Dashboard!#REF!</definedName>
     <definedName name="share_aluminium_melting_oven" localSheetId="11">Dashboard!#REF!</definedName>
     <definedName name="share_aluminium_melting_oven">Dashboard!#REF!</definedName>
+    <definedName name="share_blast_furnace_burner_coal_gas" localSheetId="17">Dashboard!#REF!</definedName>
+    <definedName name="share_blast_furnace_burner_coal_gas" localSheetId="23">Dashboard!#REF!</definedName>
+    <definedName name="share_blast_furnace_burner_coal_gas" localSheetId="19">Dashboard!#REF!</definedName>
+    <definedName name="share_blast_furnace_burner_coal_gas" localSheetId="25">Dashboard!#REF!</definedName>
+    <definedName name="share_blast_furnace_burner_coal_gas" localSheetId="22">Dashboard!#REF!</definedName>
+    <definedName name="share_blast_furnace_burner_coal_gas" localSheetId="24">Dashboard!#REF!</definedName>
+    <definedName name="share_blast_furnace_burner_coal_gas" localSheetId="18">Dashboard!#REF!</definedName>
+    <definedName name="share_blast_furnace_burner_coal_gas" localSheetId="21">Dashboard!#REF!</definedName>
+    <definedName name="share_blast_furnace_burner_coal_gas" localSheetId="26">Dashboard!#REF!</definedName>
+    <definedName name="share_blast_furnace_burner_coal_gas" localSheetId="20">Dashboard!#REF!</definedName>
+    <definedName name="share_blast_furnace_burner_coal_gas" localSheetId="27">Dashboard!#REF!</definedName>
+    <definedName name="share_blast_furnace_burner_coal_gas" localSheetId="15">Dashboard!#REF!</definedName>
     <definedName name="share_blast_furnace_burner_coal_gas" localSheetId="14">Dashboard!#REF!</definedName>
-    <definedName name="share_blast_furnace_burner_coal_gas" localSheetId="20">Dashboard!#REF!</definedName>
-    <definedName name="share_blast_furnace_burner_coal_gas" localSheetId="16">Dashboard!#REF!</definedName>
-    <definedName name="share_blast_furnace_burner_coal_gas" localSheetId="22">Dashboard!#REF!</definedName>
-    <definedName name="share_blast_furnace_burner_coal_gas" localSheetId="19">Dashboard!#REF!</definedName>
-    <definedName name="share_blast_furnace_burner_coal_gas" localSheetId="21">Dashboard!#REF!</definedName>
-    <definedName name="share_blast_furnace_burner_coal_gas" localSheetId="15">Dashboard!#REF!</definedName>
-    <definedName name="share_blast_furnace_burner_coal_gas" localSheetId="18">Dashboard!#REF!</definedName>
-    <definedName name="share_blast_furnace_burner_coal_gas" localSheetId="23">Dashboard!#REF!</definedName>
-    <definedName name="share_blast_furnace_burner_coal_gas" localSheetId="17">Dashboard!#REF!</definedName>
+    <definedName name="share_blast_furnace_burner_coal_gas" localSheetId="13">Dashboard!#REF!</definedName>
     <definedName name="share_blast_furnace_burner_coal_gas" localSheetId="10">Dashboard!#REF!</definedName>
     <definedName name="share_blast_furnace_burner_coal_gas" localSheetId="11">Dashboard!#REF!</definedName>
     <definedName name="share_blast_furnace_burner_coal_gas">Dashboard!#REF!</definedName>
+    <definedName name="share_blast_furnace_burner_network_gas" localSheetId="17">Dashboard!#REF!</definedName>
+    <definedName name="share_blast_furnace_burner_network_gas" localSheetId="23">Dashboard!#REF!</definedName>
+    <definedName name="share_blast_furnace_burner_network_gas" localSheetId="19">Dashboard!#REF!</definedName>
+    <definedName name="share_blast_furnace_burner_network_gas" localSheetId="25">Dashboard!#REF!</definedName>
+    <definedName name="share_blast_furnace_burner_network_gas" localSheetId="22">Dashboard!#REF!</definedName>
+    <definedName name="share_blast_furnace_burner_network_gas" localSheetId="24">Dashboard!#REF!</definedName>
+    <definedName name="share_blast_furnace_burner_network_gas" localSheetId="18">Dashboard!#REF!</definedName>
+    <definedName name="share_blast_furnace_burner_network_gas" localSheetId="21">Dashboard!#REF!</definedName>
+    <definedName name="share_blast_furnace_burner_network_gas" localSheetId="26">Dashboard!#REF!</definedName>
+    <definedName name="share_blast_furnace_burner_network_gas" localSheetId="20">Dashboard!#REF!</definedName>
+    <definedName name="share_blast_furnace_burner_network_gas" localSheetId="27">Dashboard!#REF!</definedName>
+    <definedName name="share_blast_furnace_burner_network_gas" localSheetId="15">Dashboard!#REF!</definedName>
     <definedName name="share_blast_furnace_burner_network_gas" localSheetId="14">Dashboard!#REF!</definedName>
-    <definedName name="share_blast_furnace_burner_network_gas" localSheetId="20">Dashboard!#REF!</definedName>
-    <definedName name="share_blast_furnace_burner_network_gas" localSheetId="16">Dashboard!#REF!</definedName>
-    <definedName name="share_blast_furnace_burner_network_gas" localSheetId="22">Dashboard!#REF!</definedName>
-    <definedName name="share_blast_furnace_burner_network_gas" localSheetId="19">Dashboard!#REF!</definedName>
-    <definedName name="share_blast_furnace_burner_network_gas" localSheetId="21">Dashboard!#REF!</definedName>
-    <definedName name="share_blast_furnace_burner_network_gas" localSheetId="15">Dashboard!#REF!</definedName>
-    <definedName name="share_blast_furnace_burner_network_gas" localSheetId="18">Dashboard!#REF!</definedName>
-    <definedName name="share_blast_furnace_burner_network_gas" localSheetId="23">Dashboard!#REF!</definedName>
-    <definedName name="share_blast_furnace_burner_network_gas" localSheetId="17">Dashboard!#REF!</definedName>
+    <definedName name="share_blast_furnace_burner_network_gas" localSheetId="13">Dashboard!#REF!</definedName>
     <definedName name="share_blast_furnace_burner_network_gas" localSheetId="10">Dashboard!#REF!</definedName>
     <definedName name="share_blast_furnace_burner_network_gas" localSheetId="11">Dashboard!#REF!</definedName>
     <definedName name="share_blast_furnace_burner_network_gas">Dashboard!#REF!</definedName>
     <definedName name="Share_Lighting_Fluorescent_Lamp" localSheetId="12">'[1]Shares per tech per carrier'!$E$22</definedName>
+    <definedName name="Share_Lighting_Fluorescent_Lamp" localSheetId="15">'[1]Shares per tech per carrier'!$E$22</definedName>
+    <definedName name="Share_Lighting_Fluorescent_Lamp" localSheetId="14">'[1]Shares per tech per carrier'!$E$22</definedName>
+    <definedName name="Share_Lighting_Fluorescent_Lamp" localSheetId="13">'[1]Shares per tech per carrier'!$E$22</definedName>
     <definedName name="Share_Lighting_Fluorescent_Tube" localSheetId="12">'[1]Shares per tech per carrier'!$E$23</definedName>
+    <definedName name="Share_Lighting_Fluorescent_Tube" localSheetId="15">'[1]Shares per tech per carrier'!$E$23</definedName>
+    <definedName name="Share_Lighting_Fluorescent_Tube" localSheetId="14">'[1]Shares per tech per carrier'!$E$23</definedName>
+    <definedName name="Share_Lighting_Fluorescent_Tube" localSheetId="13">'[1]Shares per tech per carrier'!$E$23</definedName>
     <definedName name="Share_Lighting_Incandescent_Lamp" localSheetId="12">'[1]Shares per tech per carrier'!$E$21</definedName>
+    <definedName name="Share_Lighting_Incandescent_Lamp" localSheetId="15">'[1]Shares per tech per carrier'!$E$21</definedName>
+    <definedName name="Share_Lighting_Incandescent_Lamp" localSheetId="14">'[1]Shares per tech per carrier'!$E$21</definedName>
+    <definedName name="Share_Lighting_Incandescent_Lamp" localSheetId="13">'[1]Shares per tech per carrier'!$E$21</definedName>
     <definedName name="Share_Lighting_LED" localSheetId="12">'[1]Shares per tech per carrier'!$E$24</definedName>
+    <definedName name="Share_Lighting_LED" localSheetId="15">'[1]Shares per tech per carrier'!$E$24</definedName>
+    <definedName name="Share_Lighting_LED" localSheetId="14">'[1]Shares per tech per carrier'!$E$24</definedName>
+    <definedName name="Share_Lighting_LED" localSheetId="13">'[1]Shares per tech per carrier'!$E$24</definedName>
     <definedName name="Share_Space_Cooling_Electric_Airco" localSheetId="12">'[1]Shares per tech per carrier'!$E$18</definedName>
+    <definedName name="Share_Space_Cooling_Electric_Airco" localSheetId="15">'[1]Shares per tech per carrier'!$E$18</definedName>
+    <definedName name="Share_Space_Cooling_Electric_Airco" localSheetId="14">'[1]Shares per tech per carrier'!$E$18</definedName>
+    <definedName name="Share_Space_Cooling_Electric_Airco" localSheetId="13">'[1]Shares per tech per carrier'!$E$18</definedName>
     <definedName name="Share_Space_Cooling_Electric_Heat_Pump" localSheetId="12">'[1]Shares per tech per carrier'!$E$17</definedName>
+    <definedName name="Share_Space_Cooling_Electric_Heat_Pump" localSheetId="15">'[1]Shares per tech per carrier'!$E$17</definedName>
+    <definedName name="Share_Space_Cooling_Electric_Heat_Pump" localSheetId="14">'[1]Shares per tech per carrier'!$E$17</definedName>
+    <definedName name="Share_Space_Cooling_Electric_Heat_Pump" localSheetId="13">'[1]Shares per tech per carrier'!$E$17</definedName>
     <definedName name="Share_Space_Heating_Electric_Heat_Pump" localSheetId="12">'[1]Shares per tech per carrier'!$E$13</definedName>
+    <definedName name="Share_Space_Heating_Electric_Heat_Pump" localSheetId="15">'[1]Shares per tech per carrier'!$E$13</definedName>
+    <definedName name="Share_Space_Heating_Electric_Heat_Pump" localSheetId="14">'[1]Shares per tech per carrier'!$E$13</definedName>
+    <definedName name="Share_Space_Heating_Electric_Heat_Pump" localSheetId="13">'[1]Shares per tech per carrier'!$E$13</definedName>
     <definedName name="Share_Space_Heating_Electric_Heater" localSheetId="12">'[1]Shares per tech per carrier'!$E$14</definedName>
+    <definedName name="Share_Space_Heating_Electric_Heater" localSheetId="15">'[1]Shares per tech per carrier'!$E$14</definedName>
+    <definedName name="Share_Space_Heating_Electric_Heater" localSheetId="14">'[1]Shares per tech per carrier'!$E$14</definedName>
+    <definedName name="Share_Space_Heating_Electric_Heater" localSheetId="13">'[1]Shares per tech per carrier'!$E$14</definedName>
     <definedName name="Share_Space_Heating_Network_Gas_Heat_Pump" localSheetId="12">'[1]Shares per tech per carrier'!$E$10</definedName>
+    <definedName name="Share_Space_Heating_Network_Gas_Heat_Pump" localSheetId="15">'[1]Shares per tech per carrier'!$E$10</definedName>
+    <definedName name="Share_Space_Heating_Network_Gas_Heat_Pump" localSheetId="14">'[1]Shares per tech per carrier'!$E$10</definedName>
+    <definedName name="Share_Space_Heating_Network_Gas_Heat_Pump" localSheetId="13">'[1]Shares per tech per carrier'!$E$10</definedName>
     <definedName name="Share_Space_Heating_Network_Gas_Heater" localSheetId="12">'[1]Shares per tech per carrier'!$E$9</definedName>
+    <definedName name="Share_Space_Heating_Network_Gas_Heater" localSheetId="15">'[1]Shares per tech per carrier'!$E$9</definedName>
+    <definedName name="Share_Space_Heating_Network_Gas_Heater" localSheetId="14">'[1]Shares per tech per carrier'!$E$9</definedName>
+    <definedName name="Share_Space_Heating_Network_Gas_Heater" localSheetId="13">'[1]Shares per tech per carrier'!$E$9</definedName>
+    <definedName name="share_steel_blast_furnace_bat" localSheetId="17">Dashboard!#REF!</definedName>
+    <definedName name="share_steel_blast_furnace_bat" localSheetId="23">Dashboard!#REF!</definedName>
+    <definedName name="share_steel_blast_furnace_bat" localSheetId="19">Dashboard!#REF!</definedName>
+    <definedName name="share_steel_blast_furnace_bat" localSheetId="25">Dashboard!#REF!</definedName>
+    <definedName name="share_steel_blast_furnace_bat" localSheetId="22">Dashboard!#REF!</definedName>
+    <definedName name="share_steel_blast_furnace_bat" localSheetId="24">Dashboard!#REF!</definedName>
+    <definedName name="share_steel_blast_furnace_bat" localSheetId="18">Dashboard!#REF!</definedName>
+    <definedName name="share_steel_blast_furnace_bat" localSheetId="21">Dashboard!#REF!</definedName>
+    <definedName name="share_steel_blast_furnace_bat" localSheetId="26">Dashboard!#REF!</definedName>
+    <definedName name="share_steel_blast_furnace_bat" localSheetId="20">Dashboard!#REF!</definedName>
+    <definedName name="share_steel_blast_furnace_bat" localSheetId="27">Dashboard!#REF!</definedName>
+    <definedName name="share_steel_blast_furnace_bat" localSheetId="15">Dashboard!#REF!</definedName>
     <definedName name="share_steel_blast_furnace_bat" localSheetId="14">Dashboard!#REF!</definedName>
-    <definedName name="share_steel_blast_furnace_bat" localSheetId="20">Dashboard!#REF!</definedName>
-    <definedName name="share_steel_blast_furnace_bat" localSheetId="16">Dashboard!#REF!</definedName>
-    <definedName name="share_steel_blast_furnace_bat" localSheetId="22">Dashboard!#REF!</definedName>
-    <definedName name="share_steel_blast_furnace_bat" localSheetId="19">Dashboard!#REF!</definedName>
-    <definedName name="share_steel_blast_furnace_bat" localSheetId="21">Dashboard!#REF!</definedName>
-    <definedName name="share_steel_blast_furnace_bat" localSheetId="15">Dashboard!#REF!</definedName>
-    <definedName name="share_steel_blast_furnace_bat" localSheetId="18">Dashboard!#REF!</definedName>
-    <definedName name="share_steel_blast_furnace_bat" localSheetId="23">Dashboard!#REF!</definedName>
-    <definedName name="share_steel_blast_furnace_bat" localSheetId="17">Dashboard!#REF!</definedName>
+    <definedName name="share_steel_blast_furnace_bat" localSheetId="13">Dashboard!#REF!</definedName>
     <definedName name="share_steel_blast_furnace_bat" localSheetId="10">Dashboard!#REF!</definedName>
     <definedName name="share_steel_blast_furnace_bat" localSheetId="11">Dashboard!#REF!</definedName>
     <definedName name="share_steel_blast_furnace_bat">Dashboard!#REF!</definedName>
+    <definedName name="share_steel_blast_furnace_current" localSheetId="17">Dashboard!#REF!</definedName>
+    <definedName name="share_steel_blast_furnace_current" localSheetId="23">Dashboard!#REF!</definedName>
+    <definedName name="share_steel_blast_furnace_current" localSheetId="19">Dashboard!#REF!</definedName>
+    <definedName name="share_steel_blast_furnace_current" localSheetId="25">Dashboard!#REF!</definedName>
+    <definedName name="share_steel_blast_furnace_current" localSheetId="22">Dashboard!#REF!</definedName>
+    <definedName name="share_steel_blast_furnace_current" localSheetId="24">Dashboard!#REF!</definedName>
+    <definedName name="share_steel_blast_furnace_current" localSheetId="18">Dashboard!#REF!</definedName>
+    <definedName name="share_steel_blast_furnace_current" localSheetId="21">Dashboard!#REF!</definedName>
+    <definedName name="share_steel_blast_furnace_current" localSheetId="26">Dashboard!#REF!</definedName>
+    <definedName name="share_steel_blast_furnace_current" localSheetId="20">Dashboard!#REF!</definedName>
+    <definedName name="share_steel_blast_furnace_current" localSheetId="27">Dashboard!#REF!</definedName>
+    <definedName name="share_steel_blast_furnace_current" localSheetId="15">Dashboard!#REF!</definedName>
     <definedName name="share_steel_blast_furnace_current" localSheetId="14">Dashboard!#REF!</definedName>
-    <definedName name="share_steel_blast_furnace_current" localSheetId="20">Dashboard!#REF!</definedName>
-    <definedName name="share_steel_blast_furnace_current" localSheetId="16">Dashboard!#REF!</definedName>
-    <definedName name="share_steel_blast_furnace_current" localSheetId="22">Dashboard!#REF!</definedName>
-    <definedName name="share_steel_blast_furnace_current" localSheetId="19">Dashboard!#REF!</definedName>
-    <definedName name="share_steel_blast_furnace_current" localSheetId="21">Dashboard!#REF!</definedName>
-    <definedName name="share_steel_blast_furnace_current" localSheetId="15">Dashboard!#REF!</definedName>
-    <definedName name="share_steel_blast_furnace_current" localSheetId="18">Dashboard!#REF!</definedName>
-    <definedName name="share_steel_blast_furnace_current" localSheetId="23">Dashboard!#REF!</definedName>
-    <definedName name="share_steel_blast_furnace_current" localSheetId="17">Dashboard!#REF!</definedName>
+    <definedName name="share_steel_blast_furnace_current" localSheetId="13">Dashboard!#REF!</definedName>
     <definedName name="share_steel_blast_furnace_current" localSheetId="10">Dashboard!#REF!</definedName>
     <definedName name="share_steel_blast_furnace_current" localSheetId="11">Dashboard!#REF!</definedName>
     <definedName name="share_steel_blast_furnace_current">Dashboard!#REF!</definedName>
+    <definedName name="share_steel_cyclone" localSheetId="17">Dashboard!#REF!</definedName>
+    <definedName name="share_steel_cyclone" localSheetId="23">Dashboard!#REF!</definedName>
+    <definedName name="share_steel_cyclone" localSheetId="19">Dashboard!#REF!</definedName>
+    <definedName name="share_steel_cyclone" localSheetId="25">Dashboard!#REF!</definedName>
+    <definedName name="share_steel_cyclone" localSheetId="22">Dashboard!#REF!</definedName>
+    <definedName name="share_steel_cyclone" localSheetId="24">Dashboard!#REF!</definedName>
+    <definedName name="share_steel_cyclone" localSheetId="18">Dashboard!#REF!</definedName>
+    <definedName name="share_steel_cyclone" localSheetId="21">Dashboard!#REF!</definedName>
+    <definedName name="share_steel_cyclone" localSheetId="26">Dashboard!#REF!</definedName>
+    <definedName name="share_steel_cyclone" localSheetId="20">Dashboard!#REF!</definedName>
+    <definedName name="share_steel_cyclone" localSheetId="27">Dashboard!#REF!</definedName>
+    <definedName name="share_steel_cyclone" localSheetId="15">Dashboard!#REF!</definedName>
     <definedName name="share_steel_cyclone" localSheetId="14">Dashboard!#REF!</definedName>
-    <definedName name="share_steel_cyclone" localSheetId="20">Dashboard!#REF!</definedName>
-    <definedName name="share_steel_cyclone" localSheetId="16">Dashboard!#REF!</definedName>
-    <definedName name="share_steel_cyclone" localSheetId="22">Dashboard!#REF!</definedName>
-    <definedName name="share_steel_cyclone" localSheetId="19">Dashboard!#REF!</definedName>
-    <definedName name="share_steel_cyclone" localSheetId="21">Dashboard!#REF!</definedName>
-    <definedName name="share_steel_cyclone" localSheetId="15">Dashboard!#REF!</definedName>
-    <definedName name="share_steel_cyclone" localSheetId="18">Dashboard!#REF!</definedName>
-    <definedName name="share_steel_cyclone" localSheetId="23">Dashboard!#REF!</definedName>
-    <definedName name="share_steel_cyclone" localSheetId="17">Dashboard!#REF!</definedName>
+    <definedName name="share_steel_cyclone" localSheetId="13">Dashboard!#REF!</definedName>
     <definedName name="share_steel_cyclone" localSheetId="10">Dashboard!#REF!</definedName>
     <definedName name="share_steel_cyclone" localSheetId="11">Dashboard!#REF!</definedName>
     <definedName name="share_steel_cyclone">Dashboard!#REF!</definedName>
+    <definedName name="share_steel_electric" localSheetId="17">Dashboard!#REF!</definedName>
+    <definedName name="share_steel_electric" localSheetId="23">Dashboard!#REF!</definedName>
+    <definedName name="share_steel_electric" localSheetId="19">Dashboard!#REF!</definedName>
+    <definedName name="share_steel_electric" localSheetId="25">Dashboard!#REF!</definedName>
+    <definedName name="share_steel_electric" localSheetId="22">Dashboard!#REF!</definedName>
+    <definedName name="share_steel_electric" localSheetId="24">Dashboard!#REF!</definedName>
+    <definedName name="share_steel_electric" localSheetId="18">Dashboard!#REF!</definedName>
+    <definedName name="share_steel_electric" localSheetId="21">Dashboard!#REF!</definedName>
+    <definedName name="share_steel_electric" localSheetId="26">Dashboard!#REF!</definedName>
+    <definedName name="share_steel_electric" localSheetId="20">Dashboard!#REF!</definedName>
+    <definedName name="share_steel_electric" localSheetId="27">Dashboard!#REF!</definedName>
+    <definedName name="share_steel_electric" localSheetId="15">Dashboard!#REF!</definedName>
     <definedName name="share_steel_electric" localSheetId="14">Dashboard!#REF!</definedName>
-    <definedName name="share_steel_electric" localSheetId="20">Dashboard!#REF!</definedName>
-    <definedName name="share_steel_electric" localSheetId="16">Dashboard!#REF!</definedName>
-    <definedName name="share_steel_electric" localSheetId="22">Dashboard!#REF!</definedName>
-    <definedName name="share_steel_electric" localSheetId="19">Dashboard!#REF!</definedName>
-    <definedName name="share_steel_electric" localSheetId="21">Dashboard!#REF!</definedName>
-    <definedName name="share_steel_electric" localSheetId="15">Dashboard!#REF!</definedName>
-    <definedName name="share_steel_electric" localSheetId="18">Dashboard!#REF!</definedName>
-    <definedName name="share_steel_electric" localSheetId="23">Dashboard!#REF!</definedName>
-    <definedName name="share_steel_electric" localSheetId="17">Dashboard!#REF!</definedName>
+    <definedName name="share_steel_electric" localSheetId="13">Dashboard!#REF!</definedName>
     <definedName name="share_steel_electric" localSheetId="10">Dashboard!#REF!</definedName>
     <definedName name="share_steel_electric" localSheetId="11">Dashboard!#REF!</definedName>
     <definedName name="share_steel_electric">Dashboard!#REF!</definedName>
     <definedName name="Solar_PV_Roof_CaPS" localSheetId="12">'[1]PV solar area and production'!$E$13</definedName>
+    <definedName name="Solar_PV_Roof_CaPS" localSheetId="15">'[1]PV solar area and production'!$E$13</definedName>
+    <definedName name="Solar_PV_Roof_CaPS" localSheetId="14">'[1]PV solar area and production'!$E$13</definedName>
+    <definedName name="Solar_PV_Roof_CaPS" localSheetId="13">'[1]PV solar area and production'!$E$13</definedName>
     <definedName name="Solar_PV_Roof_Residential" localSheetId="12">'[1]IEA autoproducer prod.'!$AO$10</definedName>
+    <definedName name="Solar_PV_Roof_Residential" localSheetId="15">'[1]IEA autoproducer prod.'!$AO$10</definedName>
+    <definedName name="Solar_PV_Roof_Residential" localSheetId="14">'[1]IEA autoproducer prod.'!$AO$10</definedName>
+    <definedName name="Solar_PV_Roof_Residential" localSheetId="13">'[1]IEA autoproducer prod.'!$AO$10</definedName>
     <definedName name="Solar_PV_Roof_Total" localSheetId="12">'[1]Corrected energy balance'!$BG$95</definedName>
+    <definedName name="Solar_PV_Roof_Total" localSheetId="15">'[1]Corrected energy balance'!$BG$95</definedName>
+    <definedName name="Solar_PV_Roof_Total" localSheetId="14">'[1]Corrected energy balance'!$BG$95</definedName>
+    <definedName name="Solar_PV_Roof_Total" localSheetId="13">'[1]Corrected energy balance'!$BG$95</definedName>
     <definedName name="solver_adj" localSheetId="6" hidden="1">Dashboard!#REF!</definedName>
     <definedName name="solver_cvg" localSheetId="6" hidden="1">0.0001</definedName>
     <definedName name="solver_drv" localSheetId="6" hidden="1">1</definedName>
@@ -325,16 +556,20 @@
     <definedName name="solver_typ" localSheetId="6" hidden="1">3</definedName>
     <definedName name="solver_val" localSheetId="6" hidden="1">0</definedName>
     <definedName name="solver_ver" localSheetId="6" hidden="1">2</definedName>
+    <definedName name="steel_production" localSheetId="17">Dashboard!#REF!</definedName>
+    <definedName name="steel_production" localSheetId="23">Dashboard!#REF!</definedName>
+    <definedName name="steel_production" localSheetId="19">Dashboard!#REF!</definedName>
+    <definedName name="steel_production" localSheetId="25">Dashboard!#REF!</definedName>
+    <definedName name="steel_production" localSheetId="22">Dashboard!#REF!</definedName>
+    <definedName name="steel_production" localSheetId="24">Dashboard!#REF!</definedName>
+    <definedName name="steel_production" localSheetId="18">Dashboard!#REF!</definedName>
+    <definedName name="steel_production" localSheetId="21">Dashboard!#REF!</definedName>
+    <definedName name="steel_production" localSheetId="26">Dashboard!#REF!</definedName>
+    <definedName name="steel_production" localSheetId="20">Dashboard!#REF!</definedName>
+    <definedName name="steel_production" localSheetId="27">Dashboard!#REF!</definedName>
+    <definedName name="steel_production" localSheetId="15">Dashboard!#REF!</definedName>
     <definedName name="steel_production" localSheetId="14">Dashboard!#REF!</definedName>
-    <definedName name="steel_production" localSheetId="20">Dashboard!#REF!</definedName>
-    <definedName name="steel_production" localSheetId="16">Dashboard!#REF!</definedName>
-    <definedName name="steel_production" localSheetId="22">Dashboard!#REF!</definedName>
-    <definedName name="steel_production" localSheetId="19">Dashboard!#REF!</definedName>
-    <definedName name="steel_production" localSheetId="21">Dashboard!#REF!</definedName>
-    <definedName name="steel_production" localSheetId="15">Dashboard!#REF!</definedName>
-    <definedName name="steel_production" localSheetId="18">Dashboard!#REF!</definedName>
-    <definedName name="steel_production" localSheetId="23">Dashboard!#REF!</definedName>
-    <definedName name="steel_production" localSheetId="17">Dashboard!#REF!</definedName>
+    <definedName name="steel_production" localSheetId="13">Dashboard!#REF!</definedName>
     <definedName name="steel_production" localSheetId="10">Dashboard!#REF!</definedName>
     <definedName name="steel_production" localSheetId="11">Dashboard!#REF!</definedName>
     <definedName name="steel_production">Dashboard!#REF!</definedName>
@@ -372,7 +607,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="670" uniqueCount="415">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="453">
   <si>
     <t>Changelog</t>
   </si>
@@ -1352,9 +1587,6 @@
     <t>detailed_analysis</t>
   </si>
   <si>
-    <t>Overview of energetic and non-energetic final consumption in the Chemical industry. This data is exported to the Industry analysis using the purple export_to_industry_analysis sheet. The 'Cokes' column is included to ensure compatability with the Industry analysis. Cokes is not considered as a separate carrier, but aggregated in coal in this analysis.</t>
-  </si>
-  <si>
     <t>Should be smaller than non-energetic final consumption of crude oil of the chemical industry.</t>
   </si>
   <si>
@@ -1499,9 +1731,6 @@
     <t>industry_final_demand_for_chemical_crude_oil_non_energetic_parent_share</t>
   </si>
   <si>
-    <t>industry_final_demand_for_chemical_refineries_crude_oil_non_energetic</t>
-  </si>
-  <si>
     <t>industry_final_demand_for_chemical_fertilizers_crude_oil_non_energetic</t>
   </si>
   <si>
@@ -1595,18 +1824,6 @@
     <t>fertilizers_non_energetic_final_demand_coal</t>
   </si>
   <si>
-    <t>industry_chemicals_other_burner_coal.converter</t>
-  </si>
-  <si>
-    <t>industry_chemicals_other_burner_crude_oil.converter</t>
-  </si>
-  <si>
-    <t>industry_chemicals_other_burner_wood_pellets.converter</t>
-  </si>
-  <si>
-    <t>industry_chemicals_other_burner_network_gas.converter</t>
-  </si>
-  <si>
     <t>In this sheet the carriers from the energy balance are aggregated into the carriers that the ETM uses in the chemical sector. The energy use of the chemical sector is imported in the row 'Chemical and petrochemical' for energetic use and 'Memo: feedstock use in petrochemical industry' for non-energetic use. All of this energy is then allocated to the 'other' chemical industry, unless the optional analysis in the 'Dashboard' sheet has been performed. (In that case energy is allocated to the fertilizers industry, as specified by the user.) In addition, the own use of refineries is imported from the EB. It is part of the energy industry and therefore not part of the 'Chemical and petrochemical' nor 'feedstock use in petrochemical industry' posts. See "Assumptions" for a detailed description of aggregation. Cokes is not considered as seperate carrier, but aggregated in coal in this analysis.</t>
   </si>
   <si>
@@ -1616,17 +1833,150 @@
     <t>Split the chemical industry in three subsectors: refineries, fertilizers and other</t>
   </si>
   <si>
+    <t>industry_chemicals_refineries_burner_coal.converter</t>
+  </si>
+  <si>
+    <t>industry_chemicals_refineries_burner_crude_oil.converter</t>
+  </si>
+  <si>
+    <t>industry_chemicals_refineries_burner_wood_pellets.converter</t>
+  </si>
+  <si>
+    <t>industry_chemicals_refineries_burner_network_gas.converter</t>
+  </si>
+  <si>
+    <t>LPG (TJ)</t>
+  </si>
+  <si>
+    <t>Gasoline (TJ)</t>
+  </si>
+  <si>
+    <t>Kerosene (TJ)</t>
+  </si>
+  <si>
+    <t>Diesel (TJ)</t>
+  </si>
+  <si>
+    <t>Heavy fuel oil (TJ)</t>
+  </si>
+  <si>
+    <t>Refineries transformation</t>
+  </si>
+  <si>
+    <t>Refinery gas (TJ)</t>
+  </si>
+  <si>
+    <t>industry_refinery_transformation_crude_oil_efficiency</t>
+  </si>
+  <si>
+    <t>input.crude_oil</t>
+  </si>
+  <si>
+    <t>output.refinery_gas</t>
+  </si>
+  <si>
+    <t>output.lpg</t>
+  </si>
+  <si>
+    <t>output.gasoline</t>
+  </si>
+  <si>
+    <t>output.diesel</t>
+  </si>
+  <si>
+    <t>output.kerosene</t>
+  </si>
+  <si>
+    <t>output.heavy_fuel_oil</t>
+  </si>
+  <si>
+    <t>input.useable_heat</t>
+  </si>
+  <si>
+    <t>Refineries heat production</t>
+  </si>
+  <si>
+    <t>Efficiency</t>
+  </si>
+  <si>
+    <t>Input</t>
+  </si>
+  <si>
+    <t>Useable heat</t>
+  </si>
+  <si>
+    <t>Output</t>
+  </si>
+  <si>
+    <t>LPG</t>
+  </si>
+  <si>
+    <t>Gasoline</t>
+  </si>
+  <si>
+    <t>Diesel</t>
+  </si>
+  <si>
+    <t>Kerosene</t>
+  </si>
+  <si>
+    <t>Heavy fuel oil</t>
+  </si>
+  <si>
+    <t>Oil products</t>
+  </si>
+  <si>
+    <t>output.oil_products</t>
+  </si>
+  <si>
+    <t>Total (TJ)</t>
+  </si>
+  <si>
+    <t>Refineries efficiency</t>
+  </si>
+  <si>
+    <t>Loss</t>
+  </si>
+  <si>
+    <t>csv_refinery_transformation_eff</t>
+  </si>
+  <si>
+    <t>CSV-file containing the efficiency (input and output conversion) of the refineries</t>
+  </si>
+  <si>
     <t>Indicate "yes" to add the fertilizers sector; also expand row 38 to 53 to input the required data</t>
+  </si>
+  <si>
+    <t>Heat production from</t>
+  </si>
+  <si>
+    <t>Other oil products (TJ)</t>
+  </si>
+  <si>
+    <t>In this sheet the heat production in refineries is determined based on the final demand per carrier and heating efficiency of each technology.</t>
+  </si>
+  <si>
+    <t>Added sheets and calculations to determine the refinery efficiency</t>
+  </si>
+  <si>
+    <t xml:space="preserve">On this sheet the input and output of oil carriers from refineries from the Energy Balance are aggregated. </t>
+  </si>
+  <si>
+    <t>In this sheet, the refinery efficiency is calculated for this dataset. The non-energetic crude oil and useable heat demand together make up the input. The output is equal to the sum of all refinery products. The loss is equal to the useable heat input plus the oil input minus oil output. This means that if the oil output is larger than the oil input, the efficiency exceeds 100%. If this efficiency were to be capped at 100%, however, this would mean fewer refinery products than reported will be produced. For that reason the effiency is not capped. The input and output conversions ('shares') are then exported as a csv.</t>
+  </si>
+  <si>
+    <t>Overview of energetic and non-energetic final consumption in the Chemical industry. This data is exported to the Industry analysis using the purple export_to_industry_analysis sheet. The total non-energetic final consumption for non-energetic crude oil is corrected for the oil products which refineries produce for the petrochemical industry. The 'Cokes' column is included to ensure compatability with the Industry analysis. Cokes is not considered as a separate carrier, but aggregated in coal in this analysis.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
     <numFmt numFmtId="166" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
+    <numFmt numFmtId="167" formatCode="#,##0.000"/>
   </numFmts>
   <fonts count="26" x14ac:knownFonts="1">
     <font>
@@ -2469,7 +2819,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1989">
+  <cellStyleXfs count="2025">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -4459,8 +4809,44 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="332">
+  <cellXfs count="349">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -5063,6 +5449,49 @@
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="14" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="2" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -5106,7 +5535,7 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1989">
+  <cellStyles count="2025">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
@@ -6101,6 +6530,24 @@
     <cellStyle name="Followed Hyperlink" xfId="1984" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1986" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1988" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1990" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1992" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1994" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1996" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1998" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2000" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2002" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2004" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2006" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2008" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2010" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2012" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2014" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2016" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2018" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2020" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2022" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2024" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
@@ -7093,11 +7540,81 @@
     <cellStyle name="Hyperlink" xfId="1983" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1985" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1987" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1989" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1991" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1993" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1995" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1997" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1999" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2001" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2003" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2005" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2007" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2009" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2011" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2013" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2015" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2017" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2019" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2021" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2023" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
     <cellStyle name="Percent 2" xfId="772"/>
   </cellStyles>
-  <dxfs count="20">
+  <dxfs count="24">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -7689,14 +8206,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>65</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
+      <xdr:col>64</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
       <xdr:row>50</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -7707,7 +8224,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4533900" y="1701800"/>
+          <a:off x="4406900" y="1701800"/>
           <a:ext cx="9512300" cy="7988300"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8165,13 +8682,13 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>165100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -8180,7 +8697,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="431800" y="3213100"/>
+          <a:off x="431800" y="3378200"/>
           <a:ext cx="1295400" cy="571500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8685,14 +9202,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>43</xdr:col>
-      <xdr:colOff>6349</xdr:colOff>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>95249</xdr:colOff>
       <xdr:row>50</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>43</xdr:col>
-      <xdr:colOff>6349</xdr:colOff>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>95249</xdr:colOff>
       <xdr:row>51</xdr:row>
       <xdr:rowOff>69850</xdr:rowOff>
     </xdr:to>
@@ -8705,7 +9222,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9290049" y="9690100"/>
+          <a:off x="9163049" y="9690100"/>
           <a:ext cx="0" cy="260350"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -9382,6 +9899,531 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="37" name="Elbow Connector 195"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="7" idx="3"/>
+          <a:endCxn id="40" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1727200" y="2736850"/>
+          <a:ext cx="3886200" cy="1828800"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="40" name="Rectangle 39"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5613400" y="4279900"/>
+          <a:ext cx="1295400" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>Refineries transformation</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="48" name="Elbow Connector 195"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="149" idx="2"/>
+          <a:endCxn id="49" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9283700" y="3022600"/>
+          <a:ext cx="0" cy="355600"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="49" name="Rectangle 48"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8636000" y="3378200"/>
+          <a:ext cx="1295400" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>Refineries heat production</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>67</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="51" name="Elbow Connector 195"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="40" idx="3"/>
+          <a:endCxn id="54" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6908800" y="4565650"/>
+          <a:ext cx="7759700" cy="2019300"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 30687"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>67</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>73</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="54" name="Rectangle 53"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14668500" y="6299200"/>
+          <a:ext cx="1295400" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>Refineries efficiency</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>73</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>77</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="55" name="Elbow Connector 195"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15951200" y="6597650"/>
+          <a:ext cx="863600" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>77</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>83</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="56" name="Rectangle 55"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16814800" y="6273800"/>
+          <a:ext cx="1295400" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>csvs</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>67</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="59" name="Elbow Connector 195"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="49" idx="2"/>
+          <a:endCxn id="54" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="10658475" y="2574925"/>
+          <a:ext cx="2635250" cy="5384800"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="63" name="Elbow Connector 195"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="31" idx="3"/>
+          <a:endCxn id="49" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1727200" y="3663950"/>
+          <a:ext cx="6908800" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -9575,17 +10617,17 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>1371600</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="7152619" cy="276999"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="TextBox 1"/>
+        <xdr:cNvPr id="6" name="TextBox 5"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2197100" y="6908800"/>
+          <a:off x="2197100" y="6883400"/>
           <a:ext cx="7152619" cy="276999"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -10347,7 +11389,7 @@
       </c>
       <c r="C5" s="19">
         <f>MAX(Changelog!D:D)</f>
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="D5" s="7"/>
     </row>
@@ -10377,7 +11419,7 @@
       </c>
       <c r="C8" s="76">
         <f>MAX(Changelog!B:B)</f>
-        <v>42576</v>
+        <v>42594</v>
       </c>
       <c r="D8" s="7"/>
     </row>
@@ -10386,7 +11428,7 @@
         <v>4</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="D9" s="7"/>
     </row>
@@ -10587,7 +11629,7 @@
   <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -10661,14 +11703,14 @@
       <c r="K4" s="82"/>
       <c r="L4" s="82"/>
     </row>
-    <row r="5" spans="1:17" ht="75" customHeight="1">
+    <row r="5" spans="1:17" ht="113" customHeight="1">
       <c r="A5" s="82"/>
-      <c r="B5" s="326" t="s">
-        <v>326</v>
-      </c>
-      <c r="C5" s="327"/>
-      <c r="D5" s="327"/>
-      <c r="E5" s="328"/>
+      <c r="B5" s="343" t="s">
+        <v>452</v>
+      </c>
+      <c r="C5" s="344"/>
+      <c r="D5" s="344"/>
+      <c r="E5" s="345"/>
       <c r="F5" s="82"/>
       <c r="G5" s="82"/>
       <c r="H5" s="82"/>
@@ -10766,7 +11808,7 @@
     <row r="10" spans="1:17" ht="30">
       <c r="A10" s="82"/>
       <c r="B10" s="106" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C10" s="297">
         <f>'Fuel aggregation'!E$15+'Fuel aggregation'!E$16</f>
@@ -10973,7 +12015,7 @@
     <row r="15" spans="1:17" ht="30">
       <c r="A15" s="82"/>
       <c r="B15" s="106" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C15" s="297">
         <f>'Fuel aggregation'!E$22+'Fuel aggregation'!E$23</f>
@@ -10991,9 +12033,9 @@
         <f>'Fuel aggregation'!H$22+'Fuel aggregation'!$H23</f>
         <v>0</v>
       </c>
-      <c r="G15" s="299">
-        <f>'Fuel aggregation'!I$22+'Fuel aggregation'!$I23</f>
-        <v>0</v>
+      <c r="G15" s="299" t="e">
+        <f>SUM(G16:G18)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="H15" s="299">
         <f>'Fuel aggregation'!J$22+'Fuel aggregation'!$J23</f>
@@ -11132,9 +12174,9 @@
         <f>'Fuel aggregation'!H$25</f>
         <v>ERROR</v>
       </c>
-      <c r="G18" s="170" t="str">
-        <f>'Fuel aggregation'!I$25</f>
-        <v>ERROR</v>
+      <c r="G18" s="170" t="e">
+        <f>MAX('Fuel aggregation'!I$25 - 'Refineries transformation'!L11,0)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="H18" s="170" t="str">
         <f>'Fuel aggregation'!J$25</f>
@@ -11465,7 +12507,7 @@
     <mergeCell ref="B5:E5"/>
   </mergeCells>
   <conditionalFormatting sqref="C19:K19">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="7" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11481,13 +12523,13 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+  <sheetPr codeName="Sheet11" enableFormatConditionsCalculation="0">
     <tabColor theme="5" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="A1:Q61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F44" sqref="F44"/>
+      <selection activeCell="E11" sqref="E11:E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -11519,7 +12561,7 @@
     <row r="2" spans="1:14" ht="20">
       <c r="A2" s="82"/>
       <c r="B2" s="81" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C2" s="81"/>
       <c r="D2" s="8"/>
@@ -11567,13 +12609,13 @@
     </row>
     <row r="5" spans="1:14" ht="41" customHeight="1">
       <c r="A5" s="82"/>
-      <c r="B5" s="326" t="s">
-        <v>336</v>
-      </c>
-      <c r="C5" s="327"/>
-      <c r="D5" s="327"/>
-      <c r="E5" s="327"/>
-      <c r="F5" s="328"/>
+      <c r="B5" s="343" t="s">
+        <v>335</v>
+      </c>
+      <c r="C5" s="344"/>
+      <c r="D5" s="344"/>
+      <c r="E5" s="344"/>
+      <c r="F5" s="345"/>
       <c r="G5" s="82"/>
       <c r="H5" s="82"/>
       <c r="I5" s="82"/>
@@ -11601,7 +12643,7 @@
     <row r="7" spans="1:14">
       <c r="A7" s="82"/>
       <c r="B7" s="305" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C7" s="307"/>
       <c r="D7" s="101"/>
@@ -11623,16 +12665,16 @@
     <row r="9" spans="1:14">
       <c r="A9" s="82"/>
       <c r="B9" s="132" t="s">
+        <v>333</v>
+      </c>
+      <c r="C9" s="141" t="s">
         <v>334</v>
       </c>
-      <c r="C9" s="141" t="s">
-        <v>335</v>
-      </c>
       <c r="D9" s="155" t="s">
+        <v>336</v>
+      </c>
+      <c r="E9" s="156" t="s">
         <v>337</v>
-      </c>
-      <c r="E9" s="156" t="s">
-        <v>338</v>
       </c>
       <c r="F9" s="82"/>
       <c r="G9" s="82"/>
@@ -12190,7 +13232,7 @@
     <row r="40" spans="1:17" ht="30">
       <c r="A40" s="82"/>
       <c r="B40" s="304" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C40" s="302"/>
       <c r="D40" s="312"/>
@@ -12576,7 +13618,7 @@
     <mergeCell ref="B5:F5"/>
   </mergeCells>
   <conditionalFormatting sqref="D44:E44">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="6" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12592,13 +13634,13 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+  <sheetPr codeName="Sheet12" enableFormatConditionsCalculation="0">
     <tabColor theme="5" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="A1:Q61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J41" sqref="J41"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -12630,7 +13672,7 @@
     <row r="2" spans="1:14" ht="20">
       <c r="A2" s="82"/>
       <c r="B2" s="81" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C2" s="81"/>
       <c r="D2" s="8"/>
@@ -12678,13 +13720,13 @@
     </row>
     <row r="5" spans="1:14" ht="41" customHeight="1">
       <c r="A5" s="82"/>
-      <c r="B5" s="326" t="s">
-        <v>340</v>
-      </c>
-      <c r="C5" s="327"/>
-      <c r="D5" s="327"/>
-      <c r="E5" s="327"/>
-      <c r="F5" s="328"/>
+      <c r="B5" s="343" t="s">
+        <v>339</v>
+      </c>
+      <c r="C5" s="344"/>
+      <c r="D5" s="344"/>
+      <c r="E5" s="344"/>
+      <c r="F5" s="345"/>
       <c r="G5" s="82"/>
       <c r="H5" s="82"/>
       <c r="I5" s="82"/>
@@ -12712,7 +13754,7 @@
     <row r="7" spans="1:14">
       <c r="A7" s="82"/>
       <c r="B7" s="305" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C7" s="307"/>
       <c r="D7" s="101"/>
@@ -12734,16 +13776,16 @@
     <row r="9" spans="1:14">
       <c r="A9" s="82"/>
       <c r="B9" s="132" t="s">
+        <v>333</v>
+      </c>
+      <c r="C9" s="141" t="s">
         <v>334</v>
       </c>
-      <c r="C9" s="141" t="s">
-        <v>335</v>
-      </c>
       <c r="D9" s="155" t="s">
+        <v>336</v>
+      </c>
+      <c r="E9" s="156" t="s">
         <v>337</v>
-      </c>
-      <c r="E9" s="156" t="s">
-        <v>338</v>
       </c>
       <c r="F9" s="82"/>
       <c r="G9" s="82"/>
@@ -12959,9 +14001,9 @@
         <f>'Final demand'!G16</f>
         <v>0</v>
       </c>
-      <c r="E21" s="314">
+      <c r="E21" s="314" t="e">
         <f>IF(SUM($D$21:$D$23)=0,0,D21/SUM($D$21:$D$23))</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="F21" s="82"/>
       <c r="G21" s="82"/>
@@ -12980,9 +14022,9 @@
         <f>'Final demand'!G17</f>
         <v>0</v>
       </c>
-      <c r="E22" s="314">
+      <c r="E22" s="314" t="e">
         <f>IF(SUM($D$21:$D$23)=0,0,D22/SUM($D$21:$D$23))</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="F22" s="82"/>
       <c r="G22" s="82"/>
@@ -12997,13 +14039,13 @@
       <c r="C23" s="303" t="s">
         <v>82</v>
       </c>
-      <c r="D23" s="170" t="str">
+      <c r="D23" s="170" t="e">
         <f>'Final demand'!G18</f>
-        <v>ERROR</v>
-      </c>
-      <c r="E23" s="314">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E23" s="314" t="e">
         <f>IF(SUM($D$21:$D$23)=0,1,D23/SUM($D$21:$D$23))</f>
-        <v>1</v>
+        <v>#VALUE!</v>
       </c>
       <c r="F23" s="82"/>
       <c r="G23" s="82"/>
@@ -13549,7 +14591,7 @@
     <mergeCell ref="B5:F5"/>
   </mergeCells>
   <conditionalFormatting sqref="D29:E29">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13565,13 +14607,13 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet21" enableFormatConditionsCalculation="0">
+  <sheetPr codeName="Sheet14" enableFormatConditionsCalculation="0">
     <tabColor theme="8" tint="0.79998168889431442"/>
   </sheetPr>
   <dimension ref="B2:M26"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -13616,14 +14658,14 @@
       <c r="H4" s="8"/>
     </row>
     <row r="5" spans="2:13" ht="107" customHeight="1">
-      <c r="B5" s="329" t="s">
-        <v>411</v>
-      </c>
-      <c r="C5" s="330"/>
-      <c r="D5" s="330"/>
-      <c r="E5" s="330"/>
-      <c r="F5" s="330"/>
-      <c r="G5" s="331"/>
+      <c r="B5" s="346" t="s">
+        <v>405</v>
+      </c>
+      <c r="C5" s="347"/>
+      <c r="D5" s="347"/>
+      <c r="E5" s="347"/>
+      <c r="F5" s="347"/>
+      <c r="G5" s="348"/>
       <c r="H5" s="8"/>
     </row>
     <row r="6" spans="2:13" ht="16" thickBot="1"/>
@@ -14233,7 +15275,7 @@
     <mergeCell ref="B5:G5"/>
   </mergeCells>
   <conditionalFormatting sqref="E26:M26">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14249,7 +15291,759 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet22" enableFormatConditionsCalculation="0">
+  <sheetPr codeName="Sheet13" enableFormatConditionsCalculation="0">
+    <tabColor theme="8" tint="0.79998168889431442"/>
+  </sheetPr>
+  <dimension ref="B2:L12"/>
+  <sheetViews>
+    <sheetView topLeftCell="B3" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="82"/>
+    <col min="2" max="2" width="25.83203125" style="82" customWidth="1"/>
+    <col min="3" max="3" width="30.83203125" style="82" customWidth="1"/>
+    <col min="4" max="4" width="2.83203125" style="82" customWidth="1"/>
+    <col min="5" max="13" width="15.83203125" style="82" customWidth="1"/>
+    <col min="14" max="16384" width="10.83203125" style="82"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:12" ht="20">
+      <c r="B2" s="81" t="s">
+        <v>417</v>
+      </c>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+    </row>
+    <row r="3" spans="2:12">
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+    </row>
+    <row r="4" spans="2:12">
+      <c r="B4" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="8"/>
+    </row>
+    <row r="5" spans="2:12" ht="26" customHeight="1">
+      <c r="B5" s="346" t="s">
+        <v>450</v>
+      </c>
+      <c r="C5" s="347"/>
+      <c r="D5" s="347"/>
+      <c r="E5" s="347"/>
+      <c r="F5" s="347"/>
+      <c r="G5" s="347"/>
+      <c r="H5" s="348"/>
+      <c r="I5" s="8"/>
+    </row>
+    <row r="6" spans="2:12" ht="16" thickBot="1"/>
+    <row r="7" spans="2:12">
+      <c r="B7" s="138" t="s">
+        <v>208</v>
+      </c>
+      <c r="C7" s="107"/>
+      <c r="D7" s="139"/>
+      <c r="E7" s="107" t="s">
+        <v>430</v>
+      </c>
+      <c r="F7" s="328" t="s">
+        <v>432</v>
+      </c>
+      <c r="G7" s="107"/>
+      <c r="H7" s="108"/>
+      <c r="I7" s="108"/>
+      <c r="J7" s="108"/>
+      <c r="K7" s="108"/>
+      <c r="L7" s="109"/>
+    </row>
+    <row r="8" spans="2:12">
+      <c r="B8" s="131"/>
+      <c r="C8" s="110"/>
+      <c r="D8" s="140"/>
+      <c r="E8" s="327"/>
+      <c r="F8" s="329"/>
+      <c r="G8" s="110"/>
+      <c r="H8" s="110"/>
+      <c r="I8" s="110"/>
+      <c r="J8" s="110"/>
+      <c r="K8" s="110"/>
+      <c r="L8" s="111"/>
+    </row>
+    <row r="9" spans="2:12" ht="30">
+      <c r="B9" s="132" t="s">
+        <v>261</v>
+      </c>
+      <c r="C9" s="219"/>
+      <c r="D9" s="141"/>
+      <c r="E9" s="112" t="s">
+        <v>253</v>
+      </c>
+      <c r="F9" s="330" t="s">
+        <v>418</v>
+      </c>
+      <c r="G9" s="112" t="s">
+        <v>412</v>
+      </c>
+      <c r="H9" s="112" t="s">
+        <v>413</v>
+      </c>
+      <c r="I9" s="112" t="s">
+        <v>414</v>
+      </c>
+      <c r="J9" s="112" t="s">
+        <v>415</v>
+      </c>
+      <c r="K9" s="112" t="s">
+        <v>416</v>
+      </c>
+      <c r="L9" s="129" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12">
+      <c r="B10" s="133" t="s">
+        <v>202</v>
+      </c>
+      <c r="C10" s="220"/>
+      <c r="D10" s="142"/>
+      <c r="E10" s="113"/>
+      <c r="F10" s="331"/>
+      <c r="G10" s="113"/>
+      <c r="H10" s="113"/>
+      <c r="I10" s="113"/>
+      <c r="J10" s="113"/>
+      <c r="K10" s="113"/>
+      <c r="L10" s="130"/>
+    </row>
+    <row r="11" spans="2:12">
+      <c r="B11" s="134"/>
+      <c r="C11" s="246" t="s">
+        <v>309</v>
+      </c>
+      <c r="D11" s="143"/>
+      <c r="E11" s="165">
+        <f>-SUM('Corrected energy balance step 2'!U33:Z33)</f>
+        <v>0</v>
+      </c>
+      <c r="F11" s="332">
+        <f>SUMIF('Corrected energy balance step 2'!AA33,"&gt;0")</f>
+        <v>0</v>
+      </c>
+      <c r="G11" s="165">
+        <f>SUMIF('Corrected energy balance step 2'!AC33,"&gt;0")</f>
+        <v>0</v>
+      </c>
+      <c r="H11" s="165">
+        <f>SUMIF('Corrected energy balance step 2'!AD33:AF33,"&gt;0")</f>
+        <v>0</v>
+      </c>
+      <c r="I11" s="165">
+        <f>SUMIF('Corrected energy balance step 2'!AG33:AH33,"&gt;0")</f>
+        <v>0</v>
+      </c>
+      <c r="J11" s="165">
+        <f>SUMIF('Corrected energy balance step 2'!AI33,"&gt;0")</f>
+        <v>0</v>
+      </c>
+      <c r="K11" s="165">
+        <f>SUMIF('Corrected energy balance step 2'!AJ33,"&gt;0")</f>
+        <v>0</v>
+      </c>
+      <c r="L11" s="166">
+        <f>SUM('Corrected energy balance step 2'!AK33:AQ33,'Corrected energy balance step 2'!AB33)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" ht="16" thickBot="1">
+      <c r="B12" s="137"/>
+      <c r="C12" s="223"/>
+      <c r="D12" s="146"/>
+      <c r="E12" s="98"/>
+      <c r="F12" s="333"/>
+      <c r="G12" s="98"/>
+      <c r="H12" s="98"/>
+      <c r="I12" s="98"/>
+      <c r="J12" s="98"/>
+      <c r="K12" s="98"/>
+      <c r="L12" s="99"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B5:H5"/>
+  </mergeCells>
+  <conditionalFormatting sqref="E12:L12">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet27" enableFormatConditionsCalculation="0">
+    <tabColor theme="8" tint="0.79998168889431442"/>
+  </sheetPr>
+  <dimension ref="B2:I16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="82"/>
+    <col min="2" max="2" width="25.83203125" style="82" customWidth="1"/>
+    <col min="3" max="3" width="30.83203125" style="82" customWidth="1"/>
+    <col min="4" max="4" width="2.83203125" style="82" customWidth="1"/>
+    <col min="5" max="10" width="15.83203125" style="82" customWidth="1"/>
+    <col min="11" max="16384" width="10.83203125" style="82"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9" ht="20">
+      <c r="B2" s="81" t="s">
+        <v>428</v>
+      </c>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+    </row>
+    <row r="3" spans="2:9">
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+    </row>
+    <row r="4" spans="2:9">
+      <c r="B4" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="8"/>
+    </row>
+    <row r="5" spans="2:9" ht="37" customHeight="1">
+      <c r="B5" s="346" t="s">
+        <v>448</v>
+      </c>
+      <c r="C5" s="347"/>
+      <c r="D5" s="347"/>
+      <c r="E5" s="347"/>
+      <c r="F5" s="348"/>
+      <c r="G5" s="8"/>
+    </row>
+    <row r="6" spans="2:9" ht="16" thickBot="1"/>
+    <row r="7" spans="2:9">
+      <c r="B7" s="138" t="s">
+        <v>208</v>
+      </c>
+      <c r="C7" s="107"/>
+      <c r="D7" s="139"/>
+      <c r="E7" s="107"/>
+      <c r="F7" s="108"/>
+      <c r="G7" s="108"/>
+      <c r="H7" s="108"/>
+      <c r="I7" s="109"/>
+    </row>
+    <row r="8" spans="2:9">
+      <c r="B8" s="131"/>
+      <c r="C8" s="110"/>
+      <c r="D8" s="140"/>
+      <c r="E8" s="110"/>
+      <c r="F8" s="110"/>
+      <c r="G8" s="110"/>
+      <c r="H8" s="110"/>
+      <c r="I8" s="111"/>
+    </row>
+    <row r="9" spans="2:9">
+      <c r="B9" s="132"/>
+      <c r="C9" s="219"/>
+      <c r="D9" s="141"/>
+      <c r="E9" s="112" t="s">
+        <v>220</v>
+      </c>
+      <c r="F9" s="112" t="s">
+        <v>251</v>
+      </c>
+      <c r="G9" s="112" t="s">
+        <v>253</v>
+      </c>
+      <c r="H9" s="112" t="s">
+        <v>252</v>
+      </c>
+      <c r="I9" s="129" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9">
+      <c r="B10" s="133" t="s">
+        <v>207</v>
+      </c>
+      <c r="C10" s="220"/>
+      <c r="D10" s="142"/>
+      <c r="E10" s="113"/>
+      <c r="F10" s="113"/>
+      <c r="G10" s="113"/>
+      <c r="H10" s="113"/>
+      <c r="I10" s="130"/>
+    </row>
+    <row r="11" spans="2:9">
+      <c r="B11" s="134"/>
+      <c r="C11" s="246" t="s">
+        <v>309</v>
+      </c>
+      <c r="D11" s="143"/>
+      <c r="E11" s="165">
+        <f>'Final demand'!C11</f>
+        <v>0</v>
+      </c>
+      <c r="F11" s="165">
+        <f>'Final demand'!F11</f>
+        <v>0</v>
+      </c>
+      <c r="G11" s="165">
+        <f>'Final demand'!G11</f>
+        <v>0</v>
+      </c>
+      <c r="H11" s="165">
+        <f>'Final demand'!H11</f>
+        <v>0</v>
+      </c>
+      <c r="I11" s="166">
+        <f>'Final demand'!I11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9">
+      <c r="B12" s="215"/>
+      <c r="C12" s="221"/>
+      <c r="D12" s="216"/>
+      <c r="E12" s="217"/>
+      <c r="F12" s="217"/>
+      <c r="G12" s="217"/>
+      <c r="H12" s="217"/>
+      <c r="I12" s="218"/>
+    </row>
+    <row r="13" spans="2:9">
+      <c r="B13" s="318"/>
+      <c r="C13" s="319"/>
+      <c r="D13" s="320"/>
+      <c r="E13" s="321"/>
+      <c r="F13" s="321"/>
+      <c r="G13" s="321"/>
+      <c r="H13" s="321"/>
+      <c r="I13" s="322"/>
+    </row>
+    <row r="14" spans="2:9">
+      <c r="B14" s="135" t="s">
+        <v>446</v>
+      </c>
+      <c r="C14" s="246"/>
+      <c r="D14" s="143"/>
+      <c r="E14" s="167"/>
+      <c r="F14" s="167"/>
+      <c r="G14" s="167"/>
+      <c r="H14" s="167"/>
+      <c r="I14" s="168"/>
+    </row>
+    <row r="15" spans="2:9">
+      <c r="B15" s="134"/>
+      <c r="C15" s="246" t="s">
+        <v>309</v>
+      </c>
+      <c r="D15" s="143"/>
+      <c r="E15" s="167">
+        <f>E11*technical_specs!G12</f>
+        <v>0</v>
+      </c>
+      <c r="F15" s="167">
+        <f>F11*technical_specs!G15</f>
+        <v>0</v>
+      </c>
+      <c r="G15" s="167">
+        <f>G11*technical_specs!G13</f>
+        <v>0</v>
+      </c>
+      <c r="H15" s="167">
+        <f>H11*technical_specs!G14</f>
+        <v>0</v>
+      </c>
+      <c r="I15" s="168">
+        <f>I11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" ht="16" thickBot="1">
+      <c r="B16" s="137"/>
+      <c r="C16" s="223"/>
+      <c r="D16" s="146"/>
+      <c r="E16" s="98"/>
+      <c r="F16" s="98"/>
+      <c r="G16" s="98"/>
+      <c r="H16" s="98"/>
+      <c r="I16" s="99"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B5:F5"/>
+  </mergeCells>
+  <conditionalFormatting sqref="E16:I16">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet28" enableFormatConditionsCalculation="0">
+    <tabColor theme="5" tint="0.39997558519241921"/>
+  </sheetPr>
+  <dimension ref="B2:H24"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="82"/>
+    <col min="2" max="2" width="25.83203125" style="82" customWidth="1"/>
+    <col min="3" max="3" width="30.83203125" style="82" customWidth="1"/>
+    <col min="4" max="4" width="2.83203125" style="82" customWidth="1"/>
+    <col min="5" max="11" width="15.83203125" style="82" customWidth="1"/>
+    <col min="12" max="16384" width="10.83203125" style="82"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" ht="20">
+      <c r="B2" s="81" t="s">
+        <v>441</v>
+      </c>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+    </row>
+    <row r="3" spans="2:8">
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+    </row>
+    <row r="4" spans="2:8">
+      <c r="B4" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="8"/>
+    </row>
+    <row r="5" spans="2:8" ht="84" customHeight="1">
+      <c r="B5" s="346" t="s">
+        <v>451</v>
+      </c>
+      <c r="C5" s="347"/>
+      <c r="D5" s="347"/>
+      <c r="E5" s="347"/>
+      <c r="F5" s="347"/>
+      <c r="G5" s="348"/>
+      <c r="H5" s="8"/>
+    </row>
+    <row r="6" spans="2:8" ht="16" thickBot="1"/>
+    <row r="7" spans="2:8">
+      <c r="B7" s="138" t="s">
+        <v>208</v>
+      </c>
+      <c r="C7" s="107"/>
+      <c r="D7" s="139"/>
+      <c r="E7" s="108"/>
+      <c r="F7" s="325"/>
+    </row>
+    <row r="8" spans="2:8">
+      <c r="B8" s="131"/>
+      <c r="C8" s="110"/>
+      <c r="D8" s="140"/>
+      <c r="E8" s="110"/>
+      <c r="F8" s="111"/>
+    </row>
+    <row r="9" spans="2:8">
+      <c r="B9" s="132" t="s">
+        <v>429</v>
+      </c>
+      <c r="C9" s="219"/>
+      <c r="D9" s="141"/>
+      <c r="E9" s="112" t="s">
+        <v>440</v>
+      </c>
+      <c r="F9" s="129" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8">
+      <c r="B10" s="135" t="s">
+        <v>430</v>
+      </c>
+      <c r="C10" s="246"/>
+      <c r="D10" s="143"/>
+      <c r="E10" s="167"/>
+      <c r="F10" s="168"/>
+    </row>
+    <row r="11" spans="2:8">
+      <c r="B11" s="135"/>
+      <c r="C11" s="246" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" s="143"/>
+      <c r="E11" s="167">
+        <f>'Refineries transformation'!E11</f>
+        <v>0</v>
+      </c>
+      <c r="F11" s="324">
+        <f>IF(SUM($E$11:$E$12)=0,1,E11/SUM($E$11:$E$12))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8">
+      <c r="B12" s="135"/>
+      <c r="C12" s="246" t="s">
+        <v>431</v>
+      </c>
+      <c r="D12" s="143"/>
+      <c r="E12" s="167">
+        <f>SUMIF('Refineries heat production'!E15:I15,"&gt;0")</f>
+        <v>0</v>
+      </c>
+      <c r="F12" s="324">
+        <f>IF(SUM($E$11:$E$12)=0,0,E12/SUM($E$11:$E$12))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8">
+      <c r="B13" s="323"/>
+      <c r="C13" s="221"/>
+      <c r="D13" s="216"/>
+      <c r="E13" s="217"/>
+      <c r="F13" s="218"/>
+    </row>
+    <row r="14" spans="2:8">
+      <c r="B14" s="135"/>
+      <c r="C14" s="246"/>
+      <c r="D14" s="143"/>
+      <c r="E14" s="167"/>
+      <c r="F14" s="168"/>
+    </row>
+    <row r="15" spans="2:8">
+      <c r="B15" s="135" t="s">
+        <v>432</v>
+      </c>
+      <c r="C15" s="246"/>
+      <c r="D15" s="143"/>
+      <c r="E15" s="167"/>
+      <c r="F15" s="168"/>
+    </row>
+    <row r="16" spans="2:8">
+      <c r="B16" s="135"/>
+      <c r="C16" s="246" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16" s="143"/>
+      <c r="E16" s="167">
+        <f>'Refineries transformation'!F11</f>
+        <v>0</v>
+      </c>
+      <c r="F16" s="334">
+        <f t="shared" ref="F16:F22" si="0">IF(SUM($E$16:$E$23)=0,0,E16/SUM($E$16:$E$23))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6">
+      <c r="B17" s="134"/>
+      <c r="C17" s="246" t="s">
+        <v>433</v>
+      </c>
+      <c r="D17" s="143"/>
+      <c r="E17" s="167">
+        <f>'Refineries transformation'!G11</f>
+        <v>0</v>
+      </c>
+      <c r="F17" s="334">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6">
+      <c r="B18" s="134"/>
+      <c r="C18" s="246" t="s">
+        <v>434</v>
+      </c>
+      <c r="D18" s="143"/>
+      <c r="E18" s="167">
+        <f>'Refineries transformation'!H11</f>
+        <v>0</v>
+      </c>
+      <c r="F18" s="334">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6">
+      <c r="B19" s="134"/>
+      <c r="C19" s="246" t="s">
+        <v>436</v>
+      </c>
+      <c r="D19" s="143"/>
+      <c r="E19" s="167">
+        <f>'Refineries transformation'!I11</f>
+        <v>0</v>
+      </c>
+      <c r="F19" s="334">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6">
+      <c r="B20" s="134"/>
+      <c r="C20" s="246" t="s">
+        <v>435</v>
+      </c>
+      <c r="D20" s="143"/>
+      <c r="E20" s="167">
+        <f>'Refineries transformation'!J11</f>
+        <v>0</v>
+      </c>
+      <c r="F20" s="334">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6">
+      <c r="B21" s="134"/>
+      <c r="C21" s="246" t="s">
+        <v>437</v>
+      </c>
+      <c r="D21" s="143"/>
+      <c r="E21" s="167">
+        <f>'Refineries transformation'!K11</f>
+        <v>0</v>
+      </c>
+      <c r="F21" s="334">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6">
+      <c r="B22" s="134"/>
+      <c r="C22" s="246" t="s">
+        <v>438</v>
+      </c>
+      <c r="D22" s="143"/>
+      <c r="E22" s="167">
+        <f>'Refineries transformation'!L11</f>
+        <v>0</v>
+      </c>
+      <c r="F22" s="334">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6">
+      <c r="B23" s="134"/>
+      <c r="C23" s="326" t="s">
+        <v>442</v>
+      </c>
+      <c r="D23" s="143"/>
+      <c r="E23" s="167">
+        <f>E12+E11-SUM(E16:E22)</f>
+        <v>0</v>
+      </c>
+      <c r="F23" s="334">
+        <f>IF(SUM($E$16:$E$23)=0,1,E23/SUM($E$16:$E$23))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" ht="16" thickBot="1">
+      <c r="B24" s="137"/>
+      <c r="C24" s="223"/>
+      <c r="D24" s="146"/>
+      <c r="E24" s="98"/>
+      <c r="F24" s="99"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B5:G5"/>
+  </mergeCells>
+  <conditionalFormatting sqref="F24">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E24">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet15" enableFormatConditionsCalculation="0">
     <tabColor theme="7" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="A1:J6"/>
@@ -14391,9 +16185,9 @@
         <f>'Final demand'!F15</f>
         <v>0</v>
       </c>
-      <c r="F6" s="193">
+      <c r="F6" s="193" t="e">
         <f>'Final demand'!G15</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="G6" s="193">
         <f>'Final demand'!H15</f>
@@ -14423,9 +16217,153 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+  <sheetPr codeName="Sheet16" enableFormatConditionsCalculation="0">
+    <tabColor theme="7" tint="0.39997558519241921"/>
+  </sheetPr>
+  <dimension ref="A1:J10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="10" width="11.6640625" style="277" customWidth="1"/>
+    <col min="11" max="11" width="11.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="277" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="277" t="s">
+        <v>327</v>
+      </c>
+      <c r="B2" s="277" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="278" t="s">
+        <v>329</v>
+      </c>
+      <c r="B3" s="317">
+        <f>'Shares energetic final demand'!E11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="278" t="s">
+        <v>330</v>
+      </c>
+      <c r="B4" s="317">
+        <f>'Shares energetic final demand'!E12</f>
+        <v>0</v>
+      </c>
+      <c r="C4" s="296"/>
+      <c r="D4" s="193"/>
+      <c r="E4" s="193"/>
+      <c r="F4" s="193"/>
+      <c r="G4" s="193"/>
+      <c r="H4" s="193"/>
+      <c r="I4" s="193"/>
+      <c r="J4" s="193"/>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="278" t="s">
+        <v>331</v>
+      </c>
+      <c r="B5" s="317">
+        <f>'Shares energetic final demand'!E13</f>
+        <v>1</v>
+      </c>
+      <c r="C5" s="296"/>
+      <c r="D5" s="296"/>
+      <c r="E5" s="296"/>
+      <c r="F5" s="296"/>
+      <c r="G5" s="296"/>
+      <c r="H5" s="296"/>
+      <c r="I5" s="296"/>
+      <c r="J5" s="296"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="278"/>
+      <c r="B6" s="193"/>
+      <c r="C6" s="296"/>
+      <c r="D6" s="296"/>
+      <c r="E6" s="296"/>
+      <c r="F6" s="296"/>
+      <c r="G6" s="296"/>
+      <c r="H6" s="296"/>
+      <c r="I6" s="296"/>
+      <c r="J6" s="296"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="278"/>
+      <c r="B7" s="193"/>
+      <c r="C7" s="193"/>
+      <c r="D7" s="193"/>
+      <c r="E7" s="193"/>
+      <c r="F7" s="193"/>
+      <c r="G7" s="193"/>
+      <c r="H7" s="193"/>
+      <c r="I7" s="193"/>
+      <c r="J7" s="193"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="278"/>
+      <c r="B8" s="193"/>
+      <c r="C8" s="296"/>
+      <c r="D8" s="193"/>
+      <c r="E8" s="193"/>
+      <c r="F8" s="193"/>
+      <c r="G8" s="193"/>
+      <c r="H8" s="193"/>
+      <c r="I8" s="193"/>
+      <c r="J8" s="193"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="278"/>
+      <c r="B9" s="301"/>
+      <c r="C9" s="296"/>
+      <c r="D9" s="301"/>
+      <c r="E9" s="193"/>
+      <c r="F9" s="193"/>
+      <c r="G9" s="193"/>
+      <c r="H9" s="193"/>
+      <c r="I9" s="193"/>
+      <c r="J9" s="193"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="278"/>
+      <c r="B10" s="296"/>
+      <c r="C10" s="296"/>
+      <c r="D10" s="296"/>
+      <c r="E10" s="296"/>
+      <c r="F10" s="296"/>
+      <c r="G10" s="296"/>
+      <c r="H10" s="296"/>
+      <c r="I10" s="296"/>
+      <c r="J10" s="296"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet17" enableFormatConditionsCalculation="0">
     <tabColor theme="7" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="A1:J10"/>
@@ -14447,27 +16385,27 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="277" t="s">
+        <v>327</v>
+      </c>
+      <c r="B2" s="277" t="s">
         <v>328</v>
-      </c>
-      <c r="B2" s="277" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="278" t="s">
-        <v>330</v>
+        <v>344</v>
       </c>
       <c r="B3" s="317">
-        <f>'Shares energetic final demand'!E11</f>
+        <f>'Shares energetic final demand'!E16</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="278" t="s">
-        <v>331</v>
+        <v>345</v>
       </c>
       <c r="B4" s="317">
-        <f>'Shares energetic final demand'!E12</f>
+        <f>'Shares energetic final demand'!E17</f>
         <v>0</v>
       </c>
       <c r="C4" s="296"/>
@@ -14481,10 +16419,10 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="278" t="s">
-        <v>332</v>
+        <v>346</v>
       </c>
       <c r="B5" s="317">
-        <f>'Shares energetic final demand'!E13</f>
+        <f>'Shares energetic final demand'!E18</f>
         <v>1</v>
       </c>
       <c r="C5" s="296"/>
@@ -14567,9 +16505,140 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+  <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0">
+    <tabColor theme="2"/>
+  </sheetPr>
+  <dimension ref="B2:D15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="1"/>
+    <col min="2" max="2" width="20.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="50.83203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" style="90" customWidth="1"/>
+    <col min="5" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" ht="20">
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4">
+      <c r="B4" s="286" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="152" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4">
+      <c r="B5" s="6"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="153"/>
+    </row>
+    <row r="6" spans="2:4">
+      <c r="B6" s="77">
+        <v>41583</v>
+      </c>
+      <c r="C6" s="118" t="s">
+        <v>274</v>
+      </c>
+      <c r="D6" s="119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" ht="30">
+      <c r="B7" s="77">
+        <v>41611</v>
+      </c>
+      <c r="C7" s="122" t="s">
+        <v>296</v>
+      </c>
+      <c r="D7" s="128">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4">
+      <c r="B8" s="77">
+        <v>41618</v>
+      </c>
+      <c r="C8" s="121" t="s">
+        <v>297</v>
+      </c>
+      <c r="D8" s="128">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4">
+      <c r="B9" s="120">
+        <v>41682</v>
+      </c>
+      <c r="C9" s="121" t="s">
+        <v>308</v>
+      </c>
+      <c r="D9" s="128">
+        <v>1.03</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" ht="30">
+      <c r="B10" s="120">
+        <v>42576</v>
+      </c>
+      <c r="C10" s="122" t="s">
+        <v>407</v>
+      </c>
+      <c r="D10" s="128">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" ht="30">
+      <c r="B11" s="120">
+        <v>42594</v>
+      </c>
+      <c r="C11" s="122" t="s">
+        <v>449</v>
+      </c>
+      <c r="D11" s="128">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4">
+      <c r="B12" s="120"/>
+      <c r="C12" s="122"/>
+      <c r="D12" s="128"/>
+    </row>
+    <row r="13" spans="2:4">
+      <c r="B13" s="13"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="154"/>
+    </row>
+    <row r="15" spans="2:4">
+      <c r="C15" s="121"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet18" enableFormatConditionsCalculation="0">
     <tabColor theme="7" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="A1:J10"/>
@@ -14591,27 +16660,27 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="277" t="s">
+        <v>327</v>
+      </c>
+      <c r="B2" s="277" t="s">
         <v>328</v>
-      </c>
-      <c r="B2" s="277" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="278" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="B3" s="317">
-        <f>'Shares energetic final demand'!E16</f>
+        <f>'Shares energetic final demand'!E21</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="278" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="B4" s="317">
-        <f>'Shares energetic final demand'!E17</f>
+        <f>'Shares energetic final demand'!E22</f>
         <v>0</v>
       </c>
       <c r="C4" s="296"/>
@@ -14625,10 +16694,10 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="278" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B5" s="317">
-        <f>'Shares energetic final demand'!E18</f>
+        <f>'Shares energetic final demand'!E23</f>
         <v>1</v>
       </c>
       <c r="C5" s="296"/>
@@ -14711,9 +16780,297 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+  <sheetPr codeName="Sheet19" enableFormatConditionsCalculation="0">
+    <tabColor theme="7" tint="0.39997558519241921"/>
+  </sheetPr>
+  <dimension ref="A1:J10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="10" width="11.6640625" style="277" customWidth="1"/>
+    <col min="11" max="11" width="11.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="277" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="277" t="s">
+        <v>327</v>
+      </c>
+      <c r="B2" s="277" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="278" t="s">
+        <v>350</v>
+      </c>
+      <c r="B3" s="317">
+        <f>'Shares energetic final demand'!E26</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="278" t="s">
+        <v>351</v>
+      </c>
+      <c r="B4" s="317">
+        <f>'Shares energetic final demand'!E27</f>
+        <v>0</v>
+      </c>
+      <c r="C4" s="296"/>
+      <c r="D4" s="193"/>
+      <c r="E4" s="193"/>
+      <c r="F4" s="193"/>
+      <c r="G4" s="193"/>
+      <c r="H4" s="193"/>
+      <c r="I4" s="193"/>
+      <c r="J4" s="193"/>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="278" t="s">
+        <v>352</v>
+      </c>
+      <c r="B5" s="317">
+        <f>'Shares energetic final demand'!E28</f>
+        <v>1</v>
+      </c>
+      <c r="C5" s="296"/>
+      <c r="D5" s="296"/>
+      <c r="E5" s="296"/>
+      <c r="F5" s="296"/>
+      <c r="G5" s="296"/>
+      <c r="H5" s="296"/>
+      <c r="I5" s="296"/>
+      <c r="J5" s="296"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="278"/>
+      <c r="B6" s="193"/>
+      <c r="C6" s="296"/>
+      <c r="D6" s="296"/>
+      <c r="E6" s="296"/>
+      <c r="F6" s="296"/>
+      <c r="G6" s="296"/>
+      <c r="H6" s="296"/>
+      <c r="I6" s="296"/>
+      <c r="J6" s="296"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="278"/>
+      <c r="B7" s="193"/>
+      <c r="C7" s="193"/>
+      <c r="D7" s="193"/>
+      <c r="E7" s="193"/>
+      <c r="F7" s="193"/>
+      <c r="G7" s="193"/>
+      <c r="H7" s="193"/>
+      <c r="I7" s="193"/>
+      <c r="J7" s="193"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="278"/>
+      <c r="B8" s="193"/>
+      <c r="C8" s="296"/>
+      <c r="D8" s="193"/>
+      <c r="E8" s="193"/>
+      <c r="F8" s="193"/>
+      <c r="G8" s="193"/>
+      <c r="H8" s="193"/>
+      <c r="I8" s="193"/>
+      <c r="J8" s="193"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="278"/>
+      <c r="B9" s="301"/>
+      <c r="C9" s="296"/>
+      <c r="D9" s="301"/>
+      <c r="E9" s="193"/>
+      <c r="F9" s="193"/>
+      <c r="G9" s="193"/>
+      <c r="H9" s="193"/>
+      <c r="I9" s="193"/>
+      <c r="J9" s="193"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="278"/>
+      <c r="B10" s="296"/>
+      <c r="C10" s="296"/>
+      <c r="D10" s="296"/>
+      <c r="E10" s="296"/>
+      <c r="F10" s="296"/>
+      <c r="G10" s="296"/>
+      <c r="H10" s="296"/>
+      <c r="I10" s="296"/>
+      <c r="J10" s="296"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet20" enableFormatConditionsCalculation="0">
+    <tabColor theme="7" tint="0.39997558519241921"/>
+  </sheetPr>
+  <dimension ref="A1:J10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="10" width="11.6640625" style="277" customWidth="1"/>
+    <col min="11" max="11" width="11.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="277" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="277" t="s">
+        <v>327</v>
+      </c>
+      <c r="B2" s="277" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="278" t="s">
+        <v>353</v>
+      </c>
+      <c r="B3" s="317">
+        <f>'Shares energetic final demand'!E31</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="278" t="s">
+        <v>354</v>
+      </c>
+      <c r="B4" s="317">
+        <f>'Shares energetic final demand'!E32</f>
+        <v>0</v>
+      </c>
+      <c r="C4" s="296"/>
+      <c r="D4" s="193"/>
+      <c r="E4" s="193"/>
+      <c r="F4" s="193"/>
+      <c r="G4" s="193"/>
+      <c r="H4" s="193"/>
+      <c r="I4" s="193"/>
+      <c r="J4" s="193"/>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="278" t="s">
+        <v>355</v>
+      </c>
+      <c r="B5" s="317">
+        <f>'Shares energetic final demand'!E33</f>
+        <v>1</v>
+      </c>
+      <c r="C5" s="296"/>
+      <c r="D5" s="296"/>
+      <c r="E5" s="296"/>
+      <c r="F5" s="296"/>
+      <c r="G5" s="296"/>
+      <c r="H5" s="296"/>
+      <c r="I5" s="296"/>
+      <c r="J5" s="296"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="278"/>
+      <c r="B6" s="193"/>
+      <c r="C6" s="296"/>
+      <c r="D6" s="296"/>
+      <c r="E6" s="296"/>
+      <c r="F6" s="296"/>
+      <c r="G6" s="296"/>
+      <c r="H6" s="296"/>
+      <c r="I6" s="296"/>
+      <c r="J6" s="296"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="278"/>
+      <c r="B7" s="193"/>
+      <c r="C7" s="193"/>
+      <c r="D7" s="193"/>
+      <c r="E7" s="193"/>
+      <c r="F7" s="193"/>
+      <c r="G7" s="193"/>
+      <c r="H7" s="193"/>
+      <c r="I7" s="193"/>
+      <c r="J7" s="193"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="278"/>
+      <c r="B8" s="193"/>
+      <c r="C8" s="296"/>
+      <c r="D8" s="193"/>
+      <c r="E8" s="193"/>
+      <c r="F8" s="193"/>
+      <c r="G8" s="193"/>
+      <c r="H8" s="193"/>
+      <c r="I8" s="193"/>
+      <c r="J8" s="193"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="278"/>
+      <c r="B9" s="301"/>
+      <c r="C9" s="296"/>
+      <c r="D9" s="301"/>
+      <c r="E9" s="193"/>
+      <c r="F9" s="193"/>
+      <c r="G9" s="193"/>
+      <c r="H9" s="193"/>
+      <c r="I9" s="193"/>
+      <c r="J9" s="193"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="278"/>
+      <c r="B10" s="296"/>
+      <c r="C10" s="296"/>
+      <c r="D10" s="296"/>
+      <c r="E10" s="296"/>
+      <c r="F10" s="296"/>
+      <c r="G10" s="296"/>
+      <c r="H10" s="296"/>
+      <c r="I10" s="296"/>
+      <c r="J10" s="296"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet21" enableFormatConditionsCalculation="0">
     <tabColor theme="7" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="A1:J10"/>
@@ -14735,27 +17092,27 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="277" t="s">
+        <v>327</v>
+      </c>
+      <c r="B2" s="277" t="s">
         <v>328</v>
-      </c>
-      <c r="B2" s="277" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="278" t="s">
-        <v>348</v>
+        <v>362</v>
       </c>
       <c r="B3" s="317">
-        <f>'Shares energetic final demand'!E21</f>
+        <f>'Shares energetic final demand'!E36</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="278" t="s">
-        <v>349</v>
+        <v>363</v>
       </c>
       <c r="B4" s="317">
-        <f>'Shares energetic final demand'!E22</f>
+        <f>'Shares energetic final demand'!E37</f>
         <v>0</v>
       </c>
       <c r="C4" s="296"/>
@@ -14769,10 +17126,10 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="278" t="s">
-        <v>350</v>
+        <v>364</v>
       </c>
       <c r="B5" s="317">
-        <f>'Shares energetic final demand'!E23</f>
+        <f>'Shares energetic final demand'!E38</f>
         <v>1</v>
       </c>
       <c r="C5" s="296"/>
@@ -14855,9 +17212,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+  <sheetPr codeName="Sheet22" enableFormatConditionsCalculation="0">
     <tabColor theme="7" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="A1:J10"/>
@@ -14874,32 +17231,32 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="277" t="s">
-        <v>358</v>
+        <v>365</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="277" t="s">
+        <v>327</v>
+      </c>
+      <c r="B2" s="277" t="s">
         <v>328</v>
-      </c>
-      <c r="B2" s="277" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="278" t="s">
-        <v>351</v>
+        <v>366</v>
       </c>
       <c r="B3" s="317">
-        <f>'Shares energetic final demand'!E26</f>
+        <f>'Shares non-energ final demand'!E11</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="278" t="s">
-        <v>352</v>
+        <v>367</v>
       </c>
       <c r="B4" s="317">
-        <f>'Shares energetic final demand'!E27</f>
+        <f>'Shares non-energ final demand'!E12</f>
         <v>0</v>
       </c>
       <c r="C4" s="296"/>
@@ -14913,10 +17270,10 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="278" t="s">
-        <v>353</v>
+        <v>368</v>
       </c>
       <c r="B5" s="317">
-        <f>'Shares energetic final demand'!E28</f>
+        <f>'Shares non-energ final demand'!E13</f>
         <v>1</v>
       </c>
       <c r="C5" s="296"/>
@@ -14999,9 +17356,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+  <sheetPr codeName="Sheet23" enableFormatConditionsCalculation="0">
     <tabColor theme="7" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="A1:J10"/>
@@ -15018,32 +17375,32 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="277" t="s">
-        <v>357</v>
+        <v>369</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="277" t="s">
+        <v>327</v>
+      </c>
+      <c r="B2" s="277" t="s">
         <v>328</v>
-      </c>
-      <c r="B2" s="277" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="278" t="s">
-        <v>354</v>
+        <v>370</v>
       </c>
       <c r="B3" s="317">
-        <f>'Shares energetic final demand'!E31</f>
+        <f>'Shares non-energ final demand'!E16</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="278" t="s">
-        <v>355</v>
+        <v>371</v>
       </c>
       <c r="B4" s="317">
-        <f>'Shares energetic final demand'!E32</f>
+        <f>'Shares non-energ final demand'!E17</f>
         <v>0</v>
       </c>
       <c r="C4" s="296"/>
@@ -15057,10 +17414,10 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="278" t="s">
-        <v>356</v>
+        <v>372</v>
       </c>
       <c r="B5" s="317">
-        <f>'Shares energetic final demand'!E33</f>
+        <f>'Shares non-energ final demand'!E18</f>
         <v>1</v>
       </c>
       <c r="C5" s="296"/>
@@ -15143,116 +17500,132 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0">
-    <tabColor theme="2"/>
+  <sheetPr codeName="Sheet24" enableFormatConditionsCalculation="0">
+    <tabColor theme="7" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="B2:D13"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="1"/>
-    <col min="2" max="2" width="20.83203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="50.83203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" style="90" customWidth="1"/>
-    <col min="5" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="54" style="277" customWidth="1"/>
+    <col min="2" max="10" width="11.6640625" style="277" customWidth="1"/>
+    <col min="11" max="11" width="11.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" ht="20">
-      <c r="B2" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4">
-      <c r="B4" s="286" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="152" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4">
-      <c r="B5" s="6"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="153"/>
-    </row>
-    <row r="6" spans="2:4">
-      <c r="B6" s="77">
-        <v>41583</v>
-      </c>
-      <c r="C6" s="118" t="s">
-        <v>274</v>
-      </c>
-      <c r="D6" s="119">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" ht="30">
-      <c r="B7" s="77">
-        <v>41611</v>
-      </c>
-      <c r="C7" s="122" t="s">
-        <v>296</v>
-      </c>
-      <c r="D7" s="128">
-        <v>1.01</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4">
-      <c r="B8" s="77">
-        <v>41618</v>
-      </c>
-      <c r="C8" s="121" t="s">
-        <v>297</v>
-      </c>
-      <c r="D8" s="128">
-        <v>1.02</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4">
-      <c r="B9" s="120">
-        <v>41682</v>
-      </c>
-      <c r="C9" s="121" t="s">
-        <v>308</v>
-      </c>
-      <c r="D9" s="128">
-        <v>1.03</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" ht="30">
-      <c r="B10" s="120">
-        <v>42576</v>
-      </c>
-      <c r="C10" s="122" t="s">
-        <v>413</v>
-      </c>
-      <c r="D10" s="128">
-        <v>1.04</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4">
-      <c r="B11" s="120"/>
-      <c r="C11" s="121"/>
-      <c r="D11" s="128"/>
-    </row>
-    <row r="12" spans="2:4">
-      <c r="B12" s="120"/>
-      <c r="C12" s="122"/>
-      <c r="D12" s="128"/>
-    </row>
-    <row r="13" spans="2:4">
-      <c r="B13" s="13"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="154"/>
+    <row r="1" spans="1:10">
+      <c r="A1" s="277" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="277" t="s">
+        <v>327</v>
+      </c>
+      <c r="B2" s="277" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="278" t="s">
+        <v>374</v>
+      </c>
+      <c r="B3" s="317" t="e">
+        <f>'Shares non-energ final demand'!E22</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="278" t="s">
+        <v>375</v>
+      </c>
+      <c r="B4" s="317" t="e">
+        <f>'Shares non-energ final demand'!E23</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C4" s="296"/>
+      <c r="D4" s="193"/>
+      <c r="E4" s="193"/>
+      <c r="F4" s="193"/>
+      <c r="G4" s="193"/>
+      <c r="H4" s="193"/>
+      <c r="I4" s="193"/>
+      <c r="J4" s="193"/>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="C5" s="296"/>
+      <c r="D5" s="296"/>
+      <c r="E5" s="296"/>
+      <c r="F5" s="296"/>
+      <c r="G5" s="296"/>
+      <c r="H5" s="296"/>
+      <c r="I5" s="296"/>
+      <c r="J5" s="296"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="278"/>
+      <c r="B6" s="193"/>
+      <c r="C6" s="296"/>
+      <c r="D6" s="296"/>
+      <c r="E6" s="296"/>
+      <c r="F6" s="296"/>
+      <c r="G6" s="296"/>
+      <c r="H6" s="296"/>
+      <c r="I6" s="296"/>
+      <c r="J6" s="296"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="278"/>
+      <c r="B7" s="193"/>
+      <c r="C7" s="193"/>
+      <c r="D7" s="193"/>
+      <c r="E7" s="193"/>
+      <c r="F7" s="193"/>
+      <c r="G7" s="193"/>
+      <c r="H7" s="193"/>
+      <c r="I7" s="193"/>
+      <c r="J7" s="193"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="278"/>
+      <c r="B8" s="193"/>
+      <c r="C8" s="296"/>
+      <c r="D8" s="193"/>
+      <c r="E8" s="193"/>
+      <c r="F8" s="193"/>
+      <c r="G8" s="193"/>
+      <c r="H8" s="193"/>
+      <c r="I8" s="193"/>
+      <c r="J8" s="193"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="278"/>
+      <c r="B9" s="301"/>
+      <c r="C9" s="296"/>
+      <c r="D9" s="301"/>
+      <c r="E9" s="193"/>
+      <c r="F9" s="193"/>
+      <c r="G9" s="193"/>
+      <c r="H9" s="193"/>
+      <c r="I9" s="193"/>
+      <c r="J9" s="193"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="278"/>
+      <c r="B10" s="296"/>
+      <c r="C10" s="296"/>
+      <c r="D10" s="296"/>
+      <c r="E10" s="296"/>
+      <c r="F10" s="296"/>
+      <c r="G10" s="296"/>
+      <c r="H10" s="296"/>
+      <c r="I10" s="296"/>
+      <c r="J10" s="296"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -15265,9 +17638,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+  <sheetPr codeName="Sheet25" enableFormatConditionsCalculation="0">
     <tabColor theme="7" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="A1:J10"/>
@@ -15284,32 +17657,32 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="277" t="s">
-        <v>362</v>
+        <v>376</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="277" t="s">
+        <v>327</v>
+      </c>
+      <c r="B2" s="277" t="s">
         <v>328</v>
-      </c>
-      <c r="B2" s="277" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="278" t="s">
-        <v>363</v>
+        <v>377</v>
       </c>
       <c r="B3" s="317">
-        <f>'Shares energetic final demand'!E36</f>
+        <f>'Shares non-energ final demand'!E26</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="278" t="s">
-        <v>364</v>
+        <v>378</v>
       </c>
       <c r="B4" s="317">
-        <f>'Shares energetic final demand'!E37</f>
+        <f>'Shares non-energ final demand'!E27</f>
         <v>0</v>
       </c>
       <c r="C4" s="296"/>
@@ -15323,10 +17696,10 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="278" t="s">
-        <v>365</v>
+        <v>379</v>
       </c>
       <c r="B5" s="317">
-        <f>'Shares energetic final demand'!E38</f>
+        <f>'Shares non-energ final demand'!E28</f>
         <v>1</v>
       </c>
       <c r="C5" s="296"/>
@@ -15409,82 +17782,80 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+  <sheetPr codeName="Sheet26" enableFormatConditionsCalculation="0">
     <tabColor theme="7" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B5"/>
+      <selection activeCell="A11" sqref="A11:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="10" width="11.6640625" style="277" customWidth="1"/>
+    <col min="1" max="1" width="27" style="277" customWidth="1"/>
+    <col min="2" max="10" width="11.6640625" style="277" customWidth="1"/>
     <col min="11" max="11" width="11.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="277" t="s">
-        <v>366</v>
+        <v>419</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="277" t="s">
+        <v>327</v>
+      </c>
+      <c r="B2" s="277" t="s">
         <v>328</v>
-      </c>
-      <c r="B2" s="277" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="278" t="s">
-        <v>367</v>
+        <v>420</v>
       </c>
       <c r="B3" s="317">
-        <f>'Shares non-energ final demand'!E11</f>
-        <v>0</v>
+        <f>'Refineries efficiency'!F11</f>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="278" t="s">
-        <v>368</v>
+        <v>427</v>
       </c>
       <c r="B4" s="317">
-        <f>'Shares non-energ final demand'!E12</f>
-        <v>0</v>
-      </c>
-      <c r="C4" s="296"/>
-      <c r="D4" s="193"/>
-      <c r="E4" s="193"/>
-      <c r="F4" s="193"/>
-      <c r="G4" s="193"/>
-      <c r="H4" s="193"/>
-      <c r="I4" s="193"/>
-      <c r="J4" s="193"/>
+        <f>'Refineries efficiency'!F12</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="278" t="s">
-        <v>369</v>
+        <v>421</v>
       </c>
       <c r="B5" s="317">
-        <f>'Shares non-energ final demand'!E13</f>
-        <v>1</v>
+        <f>'Refineries efficiency'!F16</f>
+        <v>0</v>
       </c>
       <c r="C5" s="296"/>
-      <c r="D5" s="296"/>
-      <c r="E5" s="296"/>
-      <c r="F5" s="296"/>
-      <c r="G5" s="296"/>
-      <c r="H5" s="296"/>
-      <c r="I5" s="296"/>
-      <c r="J5" s="296"/>
+      <c r="D5" s="193"/>
+      <c r="E5" s="193"/>
+      <c r="F5" s="193"/>
+      <c r="G5" s="193"/>
+      <c r="H5" s="193"/>
+      <c r="I5" s="193"/>
+      <c r="J5" s="193"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="278"/>
-      <c r="B6" s="193"/>
+      <c r="A6" s="278" t="s">
+        <v>422</v>
+      </c>
+      <c r="B6" s="317">
+        <f>'Refineries efficiency'!F17</f>
+        <v>0</v>
+      </c>
       <c r="C6" s="296"/>
       <c r="D6" s="296"/>
       <c r="E6" s="296"/>
@@ -15495,21 +17866,31 @@
       <c r="J6" s="296"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="278"/>
-      <c r="B7" s="193"/>
-      <c r="C7" s="193"/>
-      <c r="D7" s="193"/>
-      <c r="E7" s="193"/>
-      <c r="F7" s="193"/>
-      <c r="G7" s="193"/>
-      <c r="H7" s="193"/>
-      <c r="I7" s="193"/>
-      <c r="J7" s="193"/>
+      <c r="A7" s="278" t="s">
+        <v>423</v>
+      </c>
+      <c r="B7" s="317">
+        <f>'Refineries efficiency'!F18</f>
+        <v>0</v>
+      </c>
+      <c r="C7" s="296"/>
+      <c r="D7" s="296"/>
+      <c r="E7" s="296"/>
+      <c r="F7" s="296"/>
+      <c r="G7" s="296"/>
+      <c r="H7" s="296"/>
+      <c r="I7" s="296"/>
+      <c r="J7" s="296"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="278"/>
-      <c r="B8" s="193"/>
-      <c r="C8" s="296"/>
+      <c r="A8" s="278" t="s">
+        <v>425</v>
+      </c>
+      <c r="B8" s="317">
+        <f>'Refineries efficiency'!F19</f>
+        <v>0</v>
+      </c>
+      <c r="C8" s="193"/>
       <c r="D8" s="193"/>
       <c r="E8" s="193"/>
       <c r="F8" s="193"/>
@@ -15519,10 +17900,15 @@
       <c r="J8" s="193"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="278"/>
-      <c r="B9" s="301"/>
+      <c r="A9" s="278" t="s">
+        <v>424</v>
+      </c>
+      <c r="B9" s="317">
+        <f>'Refineries efficiency'!F20</f>
+        <v>0</v>
+      </c>
       <c r="C9" s="296"/>
-      <c r="D9" s="301"/>
+      <c r="D9" s="193"/>
       <c r="E9" s="193"/>
       <c r="F9" s="193"/>
       <c r="G9" s="193"/>
@@ -15531,448 +17917,30 @@
       <c r="J9" s="193"/>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="278"/>
-      <c r="B10" s="296"/>
+      <c r="A10" s="278" t="s">
+        <v>426</v>
+      </c>
+      <c r="B10" s="317">
+        <f>'Refineries efficiency'!F21</f>
+        <v>0</v>
+      </c>
       <c r="C10" s="296"/>
-      <c r="D10" s="296"/>
-      <c r="E10" s="296"/>
-      <c r="F10" s="296"/>
-      <c r="G10" s="296"/>
-      <c r="H10" s="296"/>
-      <c r="I10" s="296"/>
-      <c r="J10" s="296"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
-    <tabColor theme="7" tint="0.39997558519241921"/>
-  </sheetPr>
-  <dimension ref="A1:J10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="1" max="10" width="11.6640625" style="277" customWidth="1"/>
-    <col min="11" max="11" width="11.1640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="277" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="277" t="s">
-        <v>328</v>
-      </c>
-      <c r="B2" s="277" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="278" t="s">
-        <v>371</v>
-      </c>
-      <c r="B3" s="317">
-        <f>'Shares non-energ final demand'!E16</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="278" t="s">
-        <v>372</v>
-      </c>
-      <c r="B4" s="317">
-        <f>'Shares non-energ final demand'!E17</f>
-        <v>0</v>
-      </c>
-      <c r="C4" s="296"/>
-      <c r="D4" s="193"/>
-      <c r="E4" s="193"/>
-      <c r="F4" s="193"/>
-      <c r="G4" s="193"/>
-      <c r="H4" s="193"/>
-      <c r="I4" s="193"/>
-      <c r="J4" s="193"/>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="278" t="s">
-        <v>373</v>
-      </c>
-      <c r="B5" s="317">
-        <f>'Shares non-energ final demand'!E18</f>
-        <v>1</v>
-      </c>
-      <c r="C5" s="296"/>
-      <c r="D5" s="296"/>
-      <c r="E5" s="296"/>
-      <c r="F5" s="296"/>
-      <c r="G5" s="296"/>
-      <c r="H5" s="296"/>
-      <c r="I5" s="296"/>
-      <c r="J5" s="296"/>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="278"/>
-      <c r="B6" s="193"/>
-      <c r="C6" s="296"/>
-      <c r="D6" s="296"/>
-      <c r="E6" s="296"/>
-      <c r="F6" s="296"/>
-      <c r="G6" s="296"/>
-      <c r="H6" s="296"/>
-      <c r="I6" s="296"/>
-      <c r="J6" s="296"/>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="278"/>
-      <c r="B7" s="193"/>
-      <c r="C7" s="193"/>
-      <c r="D7" s="193"/>
-      <c r="E7" s="193"/>
-      <c r="F7" s="193"/>
-      <c r="G7" s="193"/>
-      <c r="H7" s="193"/>
-      <c r="I7" s="193"/>
-      <c r="J7" s="193"/>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="278"/>
-      <c r="B8" s="193"/>
-      <c r="C8" s="296"/>
-      <c r="D8" s="193"/>
-      <c r="E8" s="193"/>
-      <c r="F8" s="193"/>
-      <c r="G8" s="193"/>
-      <c r="H8" s="193"/>
-      <c r="I8" s="193"/>
-      <c r="J8" s="193"/>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="278"/>
-      <c r="B9" s="301"/>
-      <c r="C9" s="296"/>
-      <c r="D9" s="301"/>
-      <c r="E9" s="193"/>
-      <c r="F9" s="193"/>
-      <c r="G9" s="193"/>
-      <c r="H9" s="193"/>
-      <c r="I9" s="193"/>
-      <c r="J9" s="193"/>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="278"/>
-      <c r="B10" s="296"/>
-      <c r="C10" s="296"/>
-      <c r="D10" s="296"/>
-      <c r="E10" s="296"/>
-      <c r="F10" s="296"/>
-      <c r="G10" s="296"/>
-      <c r="H10" s="296"/>
-      <c r="I10" s="296"/>
-      <c r="J10" s="296"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
-    <tabColor theme="7" tint="0.39997558519241921"/>
-  </sheetPr>
-  <dimension ref="A1:J10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="1" max="10" width="11.6640625" style="277" customWidth="1"/>
-    <col min="11" max="11" width="11.1640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="277" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="277" t="s">
-        <v>328</v>
-      </c>
-      <c r="B2" s="277" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="278" t="s">
-        <v>375</v>
-      </c>
-      <c r="B3" s="317">
-        <f>'Shares non-energ final demand'!E21</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="278" t="s">
-        <v>376</v>
-      </c>
-      <c r="B4" s="317">
-        <f>'Shares non-energ final demand'!E22</f>
-        <v>0</v>
-      </c>
-      <c r="C4" s="296"/>
-      <c r="D4" s="193"/>
-      <c r="E4" s="193"/>
-      <c r="F4" s="193"/>
-      <c r="G4" s="193"/>
-      <c r="H4" s="193"/>
-      <c r="I4" s="193"/>
-      <c r="J4" s="193"/>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="278" t="s">
-        <v>377</v>
-      </c>
-      <c r="B5" s="317">
-        <f>'Shares non-energ final demand'!E23</f>
-        <v>1</v>
-      </c>
-      <c r="C5" s="296"/>
-      <c r="D5" s="296"/>
-      <c r="E5" s="296"/>
-      <c r="F5" s="296"/>
-      <c r="G5" s="296"/>
-      <c r="H5" s="296"/>
-      <c r="I5" s="296"/>
-      <c r="J5" s="296"/>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="278"/>
-      <c r="B6" s="193"/>
-      <c r="C6" s="296"/>
-      <c r="D6" s="296"/>
-      <c r="E6" s="296"/>
-      <c r="F6" s="296"/>
-      <c r="G6" s="296"/>
-      <c r="H6" s="296"/>
-      <c r="I6" s="296"/>
-      <c r="J6" s="296"/>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="278"/>
-      <c r="B7" s="193"/>
-      <c r="C7" s="193"/>
-      <c r="D7" s="193"/>
-      <c r="E7" s="193"/>
-      <c r="F7" s="193"/>
-      <c r="G7" s="193"/>
-      <c r="H7" s="193"/>
-      <c r="I7" s="193"/>
-      <c r="J7" s="193"/>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="278"/>
-      <c r="B8" s="193"/>
-      <c r="C8" s="296"/>
-      <c r="D8" s="193"/>
-      <c r="E8" s="193"/>
-      <c r="F8" s="193"/>
-      <c r="G8" s="193"/>
-      <c r="H8" s="193"/>
-      <c r="I8" s="193"/>
-      <c r="J8" s="193"/>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="278"/>
-      <c r="B9" s="301"/>
-      <c r="C9" s="296"/>
-      <c r="D9" s="301"/>
-      <c r="E9" s="193"/>
-      <c r="F9" s="193"/>
-      <c r="G9" s="193"/>
-      <c r="H9" s="193"/>
-      <c r="I9" s="193"/>
-      <c r="J9" s="193"/>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="278"/>
-      <c r="B10" s="296"/>
-      <c r="C10" s="296"/>
-      <c r="D10" s="296"/>
-      <c r="E10" s="296"/>
-      <c r="F10" s="296"/>
-      <c r="G10" s="296"/>
-      <c r="H10" s="296"/>
-      <c r="I10" s="296"/>
-      <c r="J10" s="296"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
-    <tabColor theme="7" tint="0.39997558519241921"/>
-  </sheetPr>
-  <dimension ref="A1:J10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="1" max="10" width="11.6640625" style="277" customWidth="1"/>
-    <col min="11" max="11" width="11.1640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="277" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="277" t="s">
-        <v>328</v>
-      </c>
-      <c r="B2" s="277" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="278" t="s">
-        <v>379</v>
-      </c>
-      <c r="B3" s="317">
-        <f>'Shares non-energ final demand'!E26</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="278" t="s">
-        <v>380</v>
-      </c>
-      <c r="B4" s="317">
-        <f>'Shares non-energ final demand'!E27</f>
-        <v>0</v>
-      </c>
-      <c r="C4" s="296"/>
-      <c r="D4" s="193"/>
-      <c r="E4" s="193"/>
-      <c r="F4" s="193"/>
-      <c r="G4" s="193"/>
-      <c r="H4" s="193"/>
-      <c r="I4" s="193"/>
-      <c r="J4" s="193"/>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="278" t="s">
-        <v>381</v>
-      </c>
-      <c r="B5" s="317">
-        <f>'Shares non-energ final demand'!E28</f>
-        <v>1</v>
-      </c>
-      <c r="C5" s="296"/>
-      <c r="D5" s="296"/>
-      <c r="E5" s="296"/>
-      <c r="F5" s="296"/>
-      <c r="G5" s="296"/>
-      <c r="H5" s="296"/>
-      <c r="I5" s="296"/>
-      <c r="J5" s="296"/>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="278"/>
-      <c r="B6" s="193"/>
-      <c r="C6" s="296"/>
-      <c r="D6" s="296"/>
-      <c r="E6" s="296"/>
-      <c r="F6" s="296"/>
-      <c r="G6" s="296"/>
-      <c r="H6" s="296"/>
-      <c r="I6" s="296"/>
-      <c r="J6" s="296"/>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="278"/>
-      <c r="B7" s="193"/>
-      <c r="C7" s="193"/>
-      <c r="D7" s="193"/>
-      <c r="E7" s="193"/>
-      <c r="F7" s="193"/>
-      <c r="G7" s="193"/>
-      <c r="H7" s="193"/>
-      <c r="I7" s="193"/>
-      <c r="J7" s="193"/>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="278"/>
-      <c r="B8" s="193"/>
-      <c r="C8" s="296"/>
-      <c r="D8" s="193"/>
-      <c r="E8" s="193"/>
-      <c r="F8" s="193"/>
-      <c r="G8" s="193"/>
-      <c r="H8" s="193"/>
-      <c r="I8" s="193"/>
-      <c r="J8" s="193"/>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="278"/>
-      <c r="B9" s="301"/>
-      <c r="C9" s="296"/>
-      <c r="D9" s="301"/>
-      <c r="E9" s="193"/>
-      <c r="F9" s="193"/>
-      <c r="G9" s="193"/>
-      <c r="H9" s="193"/>
-      <c r="I9" s="193"/>
-      <c r="J9" s="193"/>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="278"/>
-      <c r="B10" s="296"/>
-      <c r="C10" s="296"/>
-      <c r="D10" s="296"/>
-      <c r="E10" s="296"/>
-      <c r="F10" s="296"/>
-      <c r="G10" s="296"/>
-      <c r="H10" s="296"/>
-      <c r="I10" s="296"/>
-      <c r="J10" s="296"/>
+      <c r="D10" s="301"/>
+      <c r="E10" s="193"/>
+      <c r="F10" s="193"/>
+      <c r="G10" s="193"/>
+      <c r="H10" s="193"/>
+      <c r="I10" s="193"/>
+      <c r="J10" s="193"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="278" t="s">
+        <v>439</v>
+      </c>
+      <c r="B11" s="317">
+        <f>'Refineries efficiency'!F22</f>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -15990,10 +17958,10 @@
   <sheetPr codeName="Sheet3" enableFormatConditionsCalculation="0">
     <tabColor theme="2"/>
   </sheetPr>
-  <dimension ref="B2:C28"/>
+  <dimension ref="B2:C29"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -16099,18 +18067,18 @@
     </row>
     <row r="15" spans="2:3" ht="30" customHeight="1">
       <c r="B15" s="96" t="s">
+        <v>341</v>
+      </c>
+      <c r="C15" s="150" t="s">
         <v>342</v>
-      </c>
-      <c r="C15" s="150" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="16" spans="2:3" ht="30" customHeight="1">
       <c r="B16" s="96" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C16" s="150" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="17" spans="2:3" ht="30" customHeight="1">
@@ -16131,82 +18099,90 @@
     </row>
     <row r="19" spans="2:3" ht="30" customHeight="1">
       <c r="B19" s="97" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C19" s="150" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="20" spans="2:3" ht="30" customHeight="1">
       <c r="B20" s="97" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C20" s="150" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="21" spans="2:3" ht="30" customHeight="1">
       <c r="B21" s="97" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C21" s="150" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="22" spans="2:3" ht="30" customHeight="1">
       <c r="B22" s="97" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C22" s="150" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="23" spans="2:3" ht="30" customHeight="1">
       <c r="B23" s="97" t="s">
+        <v>388</v>
+      </c>
+      <c r="C23" s="150" t="s">
         <v>390</v>
-      </c>
-      <c r="C23" s="150" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="24" spans="2:3" ht="30" customHeight="1">
       <c r="B24" s="97" t="s">
+        <v>389</v>
+      </c>
+      <c r="C24" s="150" t="s">
         <v>391</v>
-      </c>
-      <c r="C24" s="150" t="s">
-        <v>393</v>
       </c>
     </row>
     <row r="25" spans="2:3" ht="30" customHeight="1">
       <c r="B25" s="97" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C25" s="150" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="26" spans="2:3" ht="30" customHeight="1">
       <c r="B26" s="97" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C26" s="150" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="27" spans="2:3" ht="30" customHeight="1">
       <c r="B27" s="97" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C27" s="150" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="28" spans="2:3" ht="30" customHeight="1">
       <c r="B28" s="97" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C28" s="150" t="s">
-        <v>401</v>
+        <v>399</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" ht="30" customHeight="1">
+      <c r="B29" s="97" t="s">
+        <v>443</v>
+      </c>
+      <c r="C29" s="150" t="s">
+        <v>444</v>
       </c>
     </row>
   </sheetData>
@@ -16802,7 +18778,9 @@
   </sheetPr>
   <dimension ref="B2:C107"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
@@ -16825,10 +18803,10 @@
       <c r="C4" s="5"/>
     </row>
     <row r="5" spans="2:3" ht="75" customHeight="1">
-      <c r="B5" s="318" t="s">
+      <c r="B5" s="335" t="s">
         <v>248</v>
       </c>
-      <c r="C5" s="319"/>
+      <c r="C5" s="336"/>
     </row>
     <row r="6" spans="2:3" ht="16" thickBot="1"/>
     <row r="7" spans="2:3">
@@ -17484,32 +19462,32 @@
       <c r="K4" s="7"/>
     </row>
     <row r="5" spans="1:16">
-      <c r="B5" s="320" t="s">
+      <c r="B5" s="337" t="s">
         <v>307</v>
       </c>
-      <c r="C5" s="321"/>
-      <c r="D5" s="321"/>
-      <c r="E5" s="322"/>
+      <c r="C5" s="338"/>
+      <c r="D5" s="338"/>
+      <c r="E5" s="339"/>
       <c r="F5" s="8"/>
       <c r="I5" s="229"/>
       <c r="J5" s="8"/>
       <c r="K5" s="7"/>
     </row>
     <row r="6" spans="1:16">
-      <c r="B6" s="320"/>
-      <c r="C6" s="321"/>
-      <c r="D6" s="321"/>
-      <c r="E6" s="322"/>
+      <c r="B6" s="337"/>
+      <c r="C6" s="338"/>
+      <c r="D6" s="338"/>
+      <c r="E6" s="339"/>
       <c r="F6" s="8"/>
       <c r="I6" s="207"/>
       <c r="J6" s="8"/>
       <c r="K6" s="7"/>
     </row>
     <row r="7" spans="1:16">
-      <c r="B7" s="318"/>
-      <c r="C7" s="323"/>
-      <c r="D7" s="323"/>
-      <c r="E7" s="319"/>
+      <c r="B7" s="335"/>
+      <c r="C7" s="340"/>
+      <c r="D7" s="340"/>
+      <c r="E7" s="336"/>
       <c r="F7" s="151"/>
       <c r="I7" s="228"/>
       <c r="J7" s="9"/>
@@ -18058,9 +20036,9 @@
       <c r="D30" s="158" t="s">
         <v>225</v>
       </c>
-      <c r="E30" s="126">
+      <c r="E30" s="126" t="e">
         <f>'Final demand'!G15</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="F30" s="126"/>
       <c r="G30" s="202"/>
@@ -18240,7 +20218,7 @@
       <c r="A38" s="8"/>
       <c r="B38" s="28"/>
       <c r="C38" s="162" t="s">
-        <v>414</v>
+        <v>445</v>
       </c>
       <c r="D38" s="157"/>
       <c r="E38" s="291"/>
@@ -18598,7 +20576,7 @@
       <c r="M50" s="280"/>
       <c r="N50" s="8"/>
       <c r="O50" s="207" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="P50" s="7">
         <f t="shared" ref="P50:P52" si="1">IF(L50=TRUE,1,0)</f>
@@ -18633,7 +20611,7 @@
       <c r="M51" s="280"/>
       <c r="N51" s="8"/>
       <c r="O51" s="207" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="P51" s="7">
         <f t="shared" si="1"/>
@@ -18659,7 +20637,7 @@
       <c r="I52" s="291"/>
       <c r="J52" s="8"/>
       <c r="K52" s="289" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="L52" s="242" t="b">
         <f>IF(E52&lt;='Fuel aggregation'!I22, TRUE, FALSE)</f>
@@ -18668,7 +20646,7 @@
       <c r="M52" s="280"/>
       <c r="N52" s="8"/>
       <c r="O52" s="207" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="P52" s="7">
         <f t="shared" si="1"/>
@@ -18697,82 +20675,82 @@
     <mergeCell ref="B5:E7"/>
   </mergeCells>
   <conditionalFormatting sqref="L18">
-    <cfRule type="cellIs" dxfId="19" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="19" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L14">
-    <cfRule type="cellIs" dxfId="18" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="17" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L13">
-    <cfRule type="cellIs" dxfId="17" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="16" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L28">
-    <cfRule type="cellIs" dxfId="16" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="15" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L24">
-    <cfRule type="cellIs" dxfId="15" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="14" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L34">
-    <cfRule type="cellIs" dxfId="14" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="13" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L38">
-    <cfRule type="cellIs" dxfId="13" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="12" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L42">
-    <cfRule type="cellIs" dxfId="12" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="11" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L43">
-    <cfRule type="cellIs" dxfId="11" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="10" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L44">
-    <cfRule type="cellIs" dxfId="10" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="9" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L45">
-    <cfRule type="cellIs" dxfId="9" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="8" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L46">
-    <cfRule type="cellIs" dxfId="8" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="7" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L47">
-    <cfRule type="cellIs" dxfId="7" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="6" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L50">
-    <cfRule type="cellIs" dxfId="6" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="5" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L51">
-    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="4" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L52">
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18872,10 +20850,10 @@
   <dimension ref="B2:BO101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="7" topLeftCell="K8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="7" topLeftCell="X8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="V33" sqref="V33"/>
+      <selection pane="bottomRight" activeCell="Z7" sqref="Z7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -25704,8 +27682,8 @@
   </sheetPr>
   <dimension ref="B1:M18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -25750,11 +27728,11 @@
       <c r="M4" s="8"/>
     </row>
     <row r="5" spans="2:13" ht="60" customHeight="1">
-      <c r="B5" s="324" t="s">
+      <c r="B5" s="341" t="s">
         <v>300</v>
       </c>
-      <c r="C5" s="325"/>
-      <c r="D5" s="325"/>
+      <c r="C5" s="342"/>
+      <c r="D5" s="342"/>
       <c r="E5" s="272"/>
       <c r="F5" s="45"/>
       <c r="G5" s="45"/>
@@ -25834,7 +27812,7 @@
       </c>
       <c r="D12" s="274"/>
       <c r="E12" s="274" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="F12" s="275"/>
       <c r="G12" s="276">
@@ -25849,7 +27827,7 @@
       </c>
       <c r="D13" s="274"/>
       <c r="E13" s="274" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="F13" s="275"/>
       <c r="G13" s="276">
@@ -25864,7 +27842,7 @@
       </c>
       <c r="D14" s="274"/>
       <c r="E14" s="274" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="F14" s="275"/>
       <c r="G14" s="276">
@@ -25879,7 +27857,7 @@
       </c>
       <c r="D15" s="274"/>
       <c r="E15" s="274" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="F15" s="275"/>
       <c r="G15" s="276">

--- a/analyses/4b_chemical_industry_analysis.xlsx
+++ b/analyses/4b_chemical_industry_analysis.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27322"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26405"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16100" tabRatio="835" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="-20" windowWidth="38400" windowHeight="23520" tabRatio="835" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Cover Sheet" sheetId="34" r:id="rId1"/>
@@ -23,39 +23,43 @@
     <sheet name="Refineries transformation" sheetId="109" r:id="rId14"/>
     <sheet name="Refineries heat production" sheetId="111" r:id="rId15"/>
     <sheet name="Refineries efficiency" sheetId="112" r:id="rId16"/>
-    <sheet name="csv_export_to_industry_analysis" sheetId="96" r:id="rId17"/>
-    <sheet name="csv_chemical_coal_e_ps" sheetId="97" r:id="rId18"/>
-    <sheet name="csv_chemical_network_gas_e_ps" sheetId="100" r:id="rId19"/>
-    <sheet name="csv_chemical_crude_oil_e_ps" sheetId="101" r:id="rId20"/>
-    <sheet name="csv_chemical_wood_pellets_e_ps" sheetId="102" r:id="rId21"/>
-    <sheet name="csv_chemical_steam_hot_water_ps" sheetId="103" r:id="rId22"/>
-    <sheet name="csv_chemical_electricity_ps" sheetId="104" r:id="rId23"/>
-    <sheet name="csv_chemical_coal_non_e_ps" sheetId="105" r:id="rId24"/>
-    <sheet name="csv_chemical_gas_non_e_ps" sheetId="106" r:id="rId25"/>
-    <sheet name="csv_chemical_crude_oil_non_e_ps" sheetId="107" r:id="rId26"/>
-    <sheet name="csv_chemical_wood_non_e_ps" sheetId="108" r:id="rId27"/>
-    <sheet name="csv_refinery_transformation_eff" sheetId="110" r:id="rId28"/>
+    <sheet name="Steam methane reformer input" sheetId="113" r:id="rId17"/>
+    <sheet name="csv_export_to_industry_analysis" sheetId="96" r:id="rId18"/>
+    <sheet name="csv_chemical_coal_e_ps" sheetId="97" r:id="rId19"/>
+    <sheet name="csv_chemical_network_gas_e_ps" sheetId="100" r:id="rId20"/>
+    <sheet name="csv_chemical_crude_oil_e_ps" sheetId="101" r:id="rId21"/>
+    <sheet name="csv_chemical_wood_pellets_e_ps" sheetId="102" r:id="rId22"/>
+    <sheet name="csv_chemical_steam_hot_water_ps" sheetId="103" r:id="rId23"/>
+    <sheet name="csv_chemical_electricity_ps" sheetId="104" r:id="rId24"/>
+    <sheet name="csv_chemical_coal_non_e_ps" sheetId="105" r:id="rId25"/>
+    <sheet name="csv_chemical_gas_non_e_ps" sheetId="106" r:id="rId26"/>
+    <sheet name="csv_chemical_crude_oil_non_e_ps" sheetId="107" r:id="rId27"/>
+    <sheet name="csv_chemical_wood_non_e_ps" sheetId="108" r:id="rId28"/>
+    <sheet name="csv_refinery_transformation_eff" sheetId="110" r:id="rId29"/>
+    <sheet name="csv_steam_methane_reformer_eff" sheetId="114" r:id="rId30"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId29"/>
+    <externalReference r:id="rId31"/>
   </externalReferences>
   <definedNames>
-    <definedName name="aluminium_production" localSheetId="17">Dashboard!#REF!</definedName>
+    <definedName name="aluminium_production" localSheetId="18">Dashboard!#REF!</definedName>
+    <definedName name="aluminium_production" localSheetId="24">Dashboard!#REF!</definedName>
+    <definedName name="aluminium_production" localSheetId="20">Dashboard!#REF!</definedName>
+    <definedName name="aluminium_production" localSheetId="26">Dashboard!#REF!</definedName>
     <definedName name="aluminium_production" localSheetId="23">Dashboard!#REF!</definedName>
+    <definedName name="aluminium_production" localSheetId="25">Dashboard!#REF!</definedName>
     <definedName name="aluminium_production" localSheetId="19">Dashboard!#REF!</definedName>
-    <definedName name="aluminium_production" localSheetId="25">Dashboard!#REF!</definedName>
     <definedName name="aluminium_production" localSheetId="22">Dashboard!#REF!</definedName>
-    <definedName name="aluminium_production" localSheetId="24">Dashboard!#REF!</definedName>
-    <definedName name="aluminium_production" localSheetId="18">Dashboard!#REF!</definedName>
+    <definedName name="aluminium_production" localSheetId="27">Dashboard!#REF!</definedName>
     <definedName name="aluminium_production" localSheetId="21">Dashboard!#REF!</definedName>
-    <definedName name="aluminium_production" localSheetId="26">Dashboard!#REF!</definedName>
-    <definedName name="aluminium_production" localSheetId="20">Dashboard!#REF!</definedName>
-    <definedName name="aluminium_production" localSheetId="27">Dashboard!#REF!</definedName>
+    <definedName name="aluminium_production" localSheetId="28">Dashboard!#REF!</definedName>
+    <definedName name="aluminium_production" localSheetId="29">Dashboard!#REF!</definedName>
     <definedName name="aluminium_production" localSheetId="15">Dashboard!#REF!</definedName>
     <definedName name="aluminium_production" localSheetId="14">Dashboard!#REF!</definedName>
     <definedName name="aluminium_production" localSheetId="13">Dashboard!#REF!</definedName>
     <definedName name="aluminium_production" localSheetId="10">Dashboard!#REF!</definedName>
     <definedName name="aluminium_production" localSheetId="11">Dashboard!#REF!</definedName>
+    <definedName name="aluminium_production" localSheetId="16">Dashboard!#REF!</definedName>
     <definedName name="aluminium_production">Dashboard!#REF!</definedName>
     <definedName name="base_year">Dashboard!$E$14</definedName>
     <definedName name="country">Dashboard!$E$13</definedName>
@@ -65,12 +69,14 @@
     <definedName name="Eff_Airco" localSheetId="13">'[1]Technological specifications'!$F$25</definedName>
     <definedName name="Eff_Airco" localSheetId="10">'Shares energetic final demand'!#REF!</definedName>
     <definedName name="Eff_Airco" localSheetId="11">'Shares non-energ final demand'!#REF!</definedName>
+    <definedName name="Eff_Airco" localSheetId="16">'[1]Technological specifications'!$F$25</definedName>
     <definedName name="Eff_Biomass_Heater" localSheetId="12">'[1]Technological specifications'!$F$19</definedName>
     <definedName name="Eff_Biomass_Heater" localSheetId="15">'[1]Technological specifications'!$F$19</definedName>
     <definedName name="Eff_Biomass_Heater" localSheetId="14">'[1]Technological specifications'!$F$19</definedName>
     <definedName name="Eff_Biomass_Heater" localSheetId="13">'[1]Technological specifications'!$F$19</definedName>
     <definedName name="Eff_Biomass_Heater" localSheetId="10">'Shares energetic final demand'!#REF!</definedName>
     <definedName name="Eff_Biomass_Heater" localSheetId="11">'Shares non-energ final demand'!#REF!</definedName>
+    <definedName name="Eff_Biomass_Heater" localSheetId="16">'[1]Technological specifications'!$F$19</definedName>
     <definedName name="Eff_Centralized_Heater" localSheetId="4">#REF!</definedName>
     <definedName name="Eff_Centralized_Heater" localSheetId="12">'[1]Technological specifications'!#REF!</definedName>
     <definedName name="Eff_Centralized_Heater" localSheetId="15">'[1]Technological specifications'!#REF!</definedName>
@@ -78,66 +84,77 @@
     <definedName name="Eff_Centralized_Heater" localSheetId="13">'[1]Technological specifications'!#REF!</definedName>
     <definedName name="Eff_Centralized_Heater" localSheetId="10">'Shares energetic final demand'!#REF!</definedName>
     <definedName name="Eff_Centralized_Heater" localSheetId="11">'Shares non-energ final demand'!#REF!</definedName>
+    <definedName name="Eff_Centralized_Heater" localSheetId="16">'[1]Technological specifications'!#REF!</definedName>
     <definedName name="Eff_Coal_Heater" localSheetId="12">'[1]Technological specifications'!$F$17</definedName>
     <definedName name="Eff_Coal_Heater" localSheetId="15">'[1]Technological specifications'!$F$17</definedName>
     <definedName name="Eff_Coal_Heater" localSheetId="14">'[1]Technological specifications'!$F$17</definedName>
     <definedName name="Eff_Coal_Heater" localSheetId="13">'[1]Technological specifications'!$F$17</definedName>
     <definedName name="Eff_Coal_Heater" localSheetId="10">'Shares energetic final demand'!#REF!</definedName>
     <definedName name="Eff_Coal_Heater" localSheetId="11">'Shares non-energ final demand'!#REF!</definedName>
+    <definedName name="Eff_Coal_Heater" localSheetId="16">'[1]Technological specifications'!$F$17</definedName>
     <definedName name="Eff_Distr_Heater" localSheetId="12">'[1]Technological specifications'!$F$20</definedName>
     <definedName name="Eff_Distr_Heater" localSheetId="15">'[1]Technological specifications'!$F$20</definedName>
     <definedName name="Eff_Distr_Heater" localSheetId="14">'[1]Technological specifications'!$F$20</definedName>
     <definedName name="Eff_Distr_Heater" localSheetId="13">'[1]Technological specifications'!$F$20</definedName>
     <definedName name="Eff_Distr_Heater" localSheetId="10">'Shares energetic final demand'!#REF!</definedName>
     <definedName name="Eff_Distr_Heater" localSheetId="11">'Shares non-energ final demand'!#REF!</definedName>
+    <definedName name="Eff_Distr_Heater" localSheetId="16">'[1]Technological specifications'!$F$20</definedName>
     <definedName name="Eff_Elec_Cold_Pump" localSheetId="12">'[1]Technological specifications'!$F$24</definedName>
     <definedName name="Eff_Elec_Cold_Pump" localSheetId="15">'[1]Technological specifications'!$F$24</definedName>
     <definedName name="Eff_Elec_Cold_Pump" localSheetId="14">'[1]Technological specifications'!$F$24</definedName>
     <definedName name="Eff_Elec_Cold_Pump" localSheetId="13">'[1]Technological specifications'!$F$24</definedName>
     <definedName name="Eff_Elec_Cold_Pump" localSheetId="10">'Shares energetic final demand'!#REF!</definedName>
     <definedName name="Eff_Elec_Cold_Pump" localSheetId="11">'Shares non-energ final demand'!#REF!</definedName>
+    <definedName name="Eff_Elec_Cold_Pump" localSheetId="16">'[1]Technological specifications'!$F$24</definedName>
     <definedName name="Eff_Elec_Heat_Pump" localSheetId="12">'[1]Technological specifications'!$F$14</definedName>
     <definedName name="Eff_Elec_Heat_Pump" localSheetId="15">'[1]Technological specifications'!$F$14</definedName>
     <definedName name="Eff_Elec_Heat_Pump" localSheetId="14">'[1]Technological specifications'!$F$14</definedName>
     <definedName name="Eff_Elec_Heat_Pump" localSheetId="13">'[1]Technological specifications'!$F$14</definedName>
     <definedName name="Eff_Elec_Heat_Pump" localSheetId="10">'Shares energetic final demand'!#REF!</definedName>
     <definedName name="Eff_Elec_Heat_Pump" localSheetId="11">'Shares non-energ final demand'!#REF!</definedName>
+    <definedName name="Eff_Elec_Heat_Pump" localSheetId="16">'[1]Technological specifications'!$F$14</definedName>
     <definedName name="Eff_Elec_Heater" localSheetId="12">'[1]Technological specifications'!$F$15</definedName>
     <definedName name="Eff_Elec_Heater" localSheetId="15">'[1]Technological specifications'!$F$15</definedName>
     <definedName name="Eff_Elec_Heater" localSheetId="14">'[1]Technological specifications'!$F$15</definedName>
     <definedName name="Eff_Elec_Heater" localSheetId="13">'[1]Technological specifications'!$F$15</definedName>
     <definedName name="Eff_Elec_Heater" localSheetId="10">'Shares energetic final demand'!#REF!</definedName>
     <definedName name="Eff_Elec_Heater" localSheetId="11">'Shares non-energ final demand'!#REF!</definedName>
+    <definedName name="Eff_Elec_Heater" localSheetId="16">'[1]Technological specifications'!$F$15</definedName>
     <definedName name="Eff_Fluo_Lamp" localSheetId="12">'[1]Technological specifications'!$F$29</definedName>
     <definedName name="Eff_Fluo_Lamp" localSheetId="15">'[1]Technological specifications'!$F$29</definedName>
     <definedName name="Eff_Fluo_Lamp" localSheetId="14">'[1]Technological specifications'!$F$29</definedName>
     <definedName name="Eff_Fluo_Lamp" localSheetId="13">'[1]Technological specifications'!$F$29</definedName>
     <definedName name="Eff_Fluo_Lamp" localSheetId="10">'Shares energetic final demand'!#REF!</definedName>
     <definedName name="Eff_Fluo_Lamp" localSheetId="11">'Shares non-energ final demand'!#REF!</definedName>
+    <definedName name="Eff_Fluo_Lamp" localSheetId="16">'[1]Technological specifications'!$F$29</definedName>
     <definedName name="Eff_Fluo_Tube" localSheetId="12">'[1]Technological specifications'!$F$30</definedName>
     <definedName name="Eff_Fluo_Tube" localSheetId="15">'[1]Technological specifications'!$F$30</definedName>
     <definedName name="Eff_Fluo_Tube" localSheetId="14">'[1]Technological specifications'!$F$30</definedName>
     <definedName name="Eff_Fluo_Tube" localSheetId="13">'[1]Technological specifications'!$F$30</definedName>
     <definedName name="Eff_Fluo_Tube" localSheetId="10">'Shares energetic final demand'!#REF!</definedName>
     <definedName name="Eff_Fluo_Tube" localSheetId="11">'Shares non-energ final demand'!#REF!</definedName>
+    <definedName name="Eff_Fluo_Tube" localSheetId="16">'[1]Technological specifications'!$F$30</definedName>
     <definedName name="Eff_Gas_Cold_Pump" localSheetId="12">'[1]Technological specifications'!$F$23</definedName>
     <definedName name="Eff_Gas_Cold_Pump" localSheetId="15">'[1]Technological specifications'!$F$23</definedName>
     <definedName name="Eff_Gas_Cold_Pump" localSheetId="14">'[1]Technological specifications'!$F$23</definedName>
     <definedName name="Eff_Gas_Cold_Pump" localSheetId="13">'[1]Technological specifications'!$F$23</definedName>
     <definedName name="Eff_Gas_Cold_Pump" localSheetId="10">'Shares energetic final demand'!#REF!</definedName>
     <definedName name="Eff_Gas_Cold_Pump" localSheetId="11">'Shares non-energ final demand'!#REF!</definedName>
+    <definedName name="Eff_Gas_Cold_Pump" localSheetId="16">'[1]Technological specifications'!$F$23</definedName>
     <definedName name="Eff_Gas_Heat_Pump" localSheetId="12">'[1]Technological specifications'!$F$13</definedName>
     <definedName name="Eff_Gas_Heat_Pump" localSheetId="15">'[1]Technological specifications'!$F$13</definedName>
     <definedName name="Eff_Gas_Heat_Pump" localSheetId="14">'[1]Technological specifications'!$F$13</definedName>
     <definedName name="Eff_Gas_Heat_Pump" localSheetId="13">'[1]Technological specifications'!$F$13</definedName>
     <definedName name="Eff_Gas_Heat_Pump" localSheetId="10">'Shares energetic final demand'!#REF!</definedName>
     <definedName name="Eff_Gas_Heat_Pump" localSheetId="11">'Shares non-energ final demand'!#REF!</definedName>
+    <definedName name="Eff_Gas_Heat_Pump" localSheetId="16">'[1]Technological specifications'!$F$13</definedName>
     <definedName name="Eff_Gas_Heater" localSheetId="12">'[1]Technological specifications'!$F$12</definedName>
     <definedName name="Eff_Gas_Heater" localSheetId="15">'[1]Technological specifications'!$F$12</definedName>
     <definedName name="Eff_Gas_Heater" localSheetId="14">'[1]Technological specifications'!$F$12</definedName>
     <definedName name="Eff_Gas_Heater" localSheetId="13">'[1]Technological specifications'!$F$12</definedName>
     <definedName name="Eff_Gas_Heater" localSheetId="10">'Shares energetic final demand'!#REF!</definedName>
     <definedName name="Eff_Gas_Heater" localSheetId="11">'Shares non-energ final demand'!#REF!</definedName>
+    <definedName name="Eff_Gas_Heater" localSheetId="16">'[1]Technological specifications'!$F$12</definedName>
     <definedName name="Eff_Gas_Heater">'Final demand'!$E$11</definedName>
     <definedName name="Eff_Geothermal_Heater" localSheetId="4">#REF!</definedName>
     <definedName name="Eff_Geothermal_Heater" localSheetId="12">'[1]Technological specifications'!#REF!</definedName>
@@ -146,54 +163,65 @@
     <definedName name="Eff_Geothermal_Heater" localSheetId="13">'[1]Technological specifications'!#REF!</definedName>
     <definedName name="Eff_Geothermal_Heater" localSheetId="10">'Shares energetic final demand'!#REF!</definedName>
     <definedName name="Eff_Geothermal_Heater" localSheetId="11">'Shares non-energ final demand'!#REF!</definedName>
+    <definedName name="Eff_Geothermal_Heater" localSheetId="16">'[1]Technological specifications'!#REF!</definedName>
     <definedName name="Eff_Incan_Lamp" localSheetId="12">'[1]Technological specifications'!$F$28</definedName>
     <definedName name="Eff_Incan_Lamp" localSheetId="15">'[1]Technological specifications'!$F$28</definedName>
     <definedName name="Eff_Incan_Lamp" localSheetId="14">'[1]Technological specifications'!$F$28</definedName>
     <definedName name="Eff_Incan_Lamp" localSheetId="13">'[1]Technological specifications'!$F$28</definedName>
     <definedName name="Eff_Incan_Lamp" localSheetId="10">'Shares energetic final demand'!#REF!</definedName>
     <definedName name="Eff_Incan_Lamp" localSheetId="11">'Shares non-energ final demand'!#REF!</definedName>
+    <definedName name="Eff_Incan_Lamp" localSheetId="16">'[1]Technological specifications'!$F$28</definedName>
     <definedName name="Eff_LED_Lamp" localSheetId="12">'[1]Technological specifications'!$F$31</definedName>
     <definedName name="Eff_LED_Lamp" localSheetId="15">'[1]Technological specifications'!$F$31</definedName>
     <definedName name="Eff_LED_Lamp" localSheetId="14">'[1]Technological specifications'!$F$31</definedName>
     <definedName name="Eff_LED_Lamp" localSheetId="13">'[1]Technological specifications'!$F$31</definedName>
     <definedName name="Eff_LED_Lamp" localSheetId="10">'Shares energetic final demand'!#REF!</definedName>
     <definedName name="Eff_LED_Lamp" localSheetId="11">'Shares non-energ final demand'!#REF!</definedName>
+    <definedName name="Eff_LED_Lamp" localSheetId="16">'[1]Technological specifications'!$F$31</definedName>
     <definedName name="Eff_Oil_Heater" localSheetId="12">'[1]Technological specifications'!$F$18</definedName>
     <definedName name="Eff_Oil_Heater" localSheetId="15">'[1]Technological specifications'!$F$18</definedName>
     <definedName name="Eff_Oil_Heater" localSheetId="14">'[1]Technological specifications'!$F$18</definedName>
     <definedName name="Eff_Oil_Heater" localSheetId="13">'[1]Technological specifications'!$F$18</definedName>
     <definedName name="Eff_Oil_Heater" localSheetId="10">'Shares energetic final demand'!#REF!</definedName>
     <definedName name="Eff_Oil_Heater" localSheetId="11">'Shares non-energ final demand'!#REF!</definedName>
+    <definedName name="Eff_Oil_Heater" localSheetId="16">'[1]Technological specifications'!$F$18</definedName>
     <definedName name="Eff_Solar_Heater" localSheetId="12">'[1]Technological specifications'!$F$16</definedName>
     <definedName name="Eff_Solar_Heater" localSheetId="15">'[1]Technological specifications'!$F$16</definedName>
     <definedName name="Eff_Solar_Heater" localSheetId="14">'[1]Technological specifications'!$F$16</definedName>
     <definedName name="Eff_Solar_Heater" localSheetId="13">'[1]Technological specifications'!$F$16</definedName>
     <definedName name="Eff_Solar_Heater" localSheetId="10">'Shares energetic final demand'!#REF!</definedName>
     <definedName name="Eff_Solar_Heater" localSheetId="11">'Shares non-energ final demand'!#REF!</definedName>
+    <definedName name="Eff_Solar_Heater" localSheetId="16">'[1]Technological specifications'!$F$16</definedName>
     <definedName name="Final_Demand_Comm_and_Publ_Services" localSheetId="12">'[1]Corrected energy balance'!$BN$84</definedName>
     <definedName name="Final_Demand_Comm_and_Publ_Services" localSheetId="15">'[1]Corrected energy balance'!$BN$84</definedName>
     <definedName name="Final_Demand_Comm_and_Publ_Services" localSheetId="14">'[1]Corrected energy balance'!$BN$84</definedName>
     <definedName name="Final_Demand_Comm_and_Publ_Services" localSheetId="13">'[1]Corrected energy balance'!$BN$84</definedName>
+    <definedName name="Final_Demand_Comm_and_Publ_Services" localSheetId="16">'[1]Corrected energy balance'!$BN$84</definedName>
     <definedName name="Final_Demand_Electrical_Appliances" localSheetId="12">'[1]Final demand per energy carrier'!$F$41</definedName>
     <definedName name="Final_Demand_Electrical_Appliances" localSheetId="15">'[1]Final demand per energy carrier'!$F$41</definedName>
     <definedName name="Final_Demand_Electrical_Appliances" localSheetId="14">'[1]Final demand per energy carrier'!$F$41</definedName>
     <definedName name="Final_Demand_Electrical_Appliances" localSheetId="13">'[1]Final demand per energy carrier'!$F$41</definedName>
+    <definedName name="Final_Demand_Electrical_Appliances" localSheetId="16">'[1]Final demand per energy carrier'!$F$41</definedName>
     <definedName name="Final_Demand_Lighting" localSheetId="12">[1]Dashboard!$D$26</definedName>
     <definedName name="Final_Demand_Lighting" localSheetId="15">[1]Dashboard!$D$26</definedName>
     <definedName name="Final_Demand_Lighting" localSheetId="14">[1]Dashboard!$D$26</definedName>
     <definedName name="Final_Demand_Lighting" localSheetId="13">[1]Dashboard!$D$26</definedName>
+    <definedName name="Final_Demand_Lighting" localSheetId="16">[1]Dashboard!$D$26</definedName>
     <definedName name="Final_Demand_Other_Appliances" localSheetId="12">[1]Dashboard!$D$29</definedName>
     <definedName name="Final_Demand_Other_Appliances" localSheetId="15">[1]Dashboard!$D$29</definedName>
     <definedName name="Final_Demand_Other_Appliances" localSheetId="14">[1]Dashboard!$D$29</definedName>
     <definedName name="Final_Demand_Other_Appliances" localSheetId="13">[1]Dashboard!$D$29</definedName>
+    <definedName name="Final_Demand_Other_Appliances" localSheetId="16">[1]Dashboard!$D$29</definedName>
     <definedName name="Final_Demand_Space_Cooling" localSheetId="12">[1]Dashboard!$D$25</definedName>
     <definedName name="Final_Demand_Space_Cooling" localSheetId="15">[1]Dashboard!$D$25</definedName>
     <definedName name="Final_Demand_Space_Cooling" localSheetId="14">[1]Dashboard!$D$25</definedName>
     <definedName name="Final_Demand_Space_Cooling" localSheetId="13">[1]Dashboard!$D$25</definedName>
+    <definedName name="Final_Demand_Space_Cooling" localSheetId="16">[1]Dashboard!$D$25</definedName>
     <definedName name="Final_demand_Space_Heating" localSheetId="12">[1]Dashboard!$D$24</definedName>
     <definedName name="Final_demand_Space_Heating" localSheetId="15">[1]Dashboard!$D$24</definedName>
     <definedName name="Final_demand_Space_Heating" localSheetId="14">[1]Dashboard!$D$24</definedName>
     <definedName name="Final_demand_Space_Heating" localSheetId="13">[1]Dashboard!$D$24</definedName>
+    <definedName name="Final_demand_Space_Heating" localSheetId="16">[1]Dashboard!$D$24</definedName>
     <definedName name="GWh_to_TJ" localSheetId="9">[1]Assumptions!$C$131</definedName>
     <definedName name="GWh_to_TJ" localSheetId="12">[1]Assumptions!$C$131</definedName>
     <definedName name="GWh_to_TJ" localSheetId="15">[1]Assumptions!$C$131</definedName>
@@ -201,6 +229,7 @@
     <definedName name="GWh_to_TJ" localSheetId="13">[1]Assumptions!$C$131</definedName>
     <definedName name="GWh_to_TJ" localSheetId="10">[1]Assumptions!$C$131</definedName>
     <definedName name="GWh_to_TJ" localSheetId="11">[1]Assumptions!$C$131</definedName>
+    <definedName name="GWh_to_TJ" localSheetId="16">[1]Assumptions!$C$131</definedName>
     <definedName name="GWh_to_TJ" localSheetId="8">[1]Assumptions!$C$131</definedName>
     <definedName name="Heat_eff_Biogas_CHP" localSheetId="4">#REF!</definedName>
     <definedName name="Heat_eff_Biogas_CHP" localSheetId="12">'[1]Technological specifications'!#REF!</definedName>
@@ -209,6 +238,7 @@
     <definedName name="Heat_eff_Biogas_CHP" localSheetId="13">'[1]Technological specifications'!#REF!</definedName>
     <definedName name="Heat_eff_Biogas_CHP" localSheetId="10">'Shares energetic final demand'!#REF!</definedName>
     <definedName name="Heat_eff_Biogas_CHP" localSheetId="11">'Shares non-energ final demand'!#REF!</definedName>
+    <definedName name="Heat_eff_Biogas_CHP" localSheetId="16">'[1]Technological specifications'!#REF!</definedName>
     <definedName name="Heat_Eff_Biomass_CHP" localSheetId="4">#REF!</definedName>
     <definedName name="Heat_Eff_Biomass_CHP" localSheetId="9">'Final demand'!#REF!</definedName>
     <definedName name="Heat_Eff_Biomass_CHP" localSheetId="12">'[1]Technological specifications'!#REF!</definedName>
@@ -217,6 +247,7 @@
     <definedName name="Heat_Eff_Biomass_CHP" localSheetId="13">'[1]Technological specifications'!#REF!</definedName>
     <definedName name="Heat_Eff_Biomass_CHP" localSheetId="10">'Shares energetic final demand'!#REF!</definedName>
     <definedName name="Heat_Eff_Biomass_CHP" localSheetId="11">'Shares non-energ final demand'!#REF!</definedName>
+    <definedName name="Heat_Eff_Biomass_CHP" localSheetId="16">'[1]Technological specifications'!#REF!</definedName>
     <definedName name="Heat_Eff_Gas_CHP" localSheetId="4">#REF!</definedName>
     <definedName name="Heat_Eff_Gas_CHP" localSheetId="9">'Final demand'!#REF!</definedName>
     <definedName name="Heat_Eff_Gas_CHP" localSheetId="12">'[1]Technological specifications'!#REF!</definedName>
@@ -225,308 +256,362 @@
     <definedName name="Heat_Eff_Gas_CHP" localSheetId="13">'[1]Technological specifications'!#REF!</definedName>
     <definedName name="Heat_Eff_Gas_CHP" localSheetId="10">'Shares energetic final demand'!#REF!</definedName>
     <definedName name="Heat_Eff_Gas_CHP" localSheetId="11">'Shares non-energ final demand'!#REF!</definedName>
+    <definedName name="Heat_Eff_Gas_CHP" localSheetId="16">'[1]Technological specifications'!#REF!</definedName>
     <definedName name="Perc_Final_Demand_Lighting_Fluo_Lamps" localSheetId="12">'[1]Technology split of final deman'!$G$31</definedName>
     <definedName name="Perc_Final_Demand_Lighting_Fluo_Lamps" localSheetId="15">'[1]Technology split of final deman'!$G$31</definedName>
     <definedName name="Perc_Final_Demand_Lighting_Fluo_Lamps" localSheetId="14">'[1]Technology split of final deman'!$G$31</definedName>
     <definedName name="Perc_Final_Demand_Lighting_Fluo_Lamps" localSheetId="13">'[1]Technology split of final deman'!$G$31</definedName>
+    <definedName name="Perc_Final_Demand_Lighting_Fluo_Lamps" localSheetId="16">'[1]Technology split of final deman'!$G$31</definedName>
     <definedName name="Perc_Final_Demand_Lighting_Fluo_Tubes" localSheetId="12">'[1]Technology split of final deman'!$G$32</definedName>
     <definedName name="Perc_Final_Demand_Lighting_Fluo_Tubes" localSheetId="15">'[1]Technology split of final deman'!$G$32</definedName>
     <definedName name="Perc_Final_Demand_Lighting_Fluo_Tubes" localSheetId="14">'[1]Technology split of final deman'!$G$32</definedName>
     <definedName name="Perc_Final_Demand_Lighting_Fluo_Tubes" localSheetId="13">'[1]Technology split of final deman'!$G$32</definedName>
+    <definedName name="Perc_Final_Demand_Lighting_Fluo_Tubes" localSheetId="16">'[1]Technology split of final deman'!$G$32</definedName>
     <definedName name="Perc_Final_Demand_Lighting_Incan_Lamps" localSheetId="12">'[1]Technology split of final deman'!$G$30</definedName>
     <definedName name="Perc_Final_Demand_Lighting_Incan_Lamps" localSheetId="15">'[1]Technology split of final deman'!$G$30</definedName>
     <definedName name="Perc_Final_Demand_Lighting_Incan_Lamps" localSheetId="14">'[1]Technology split of final deman'!$G$30</definedName>
     <definedName name="Perc_Final_Demand_Lighting_Incan_Lamps" localSheetId="13">'[1]Technology split of final deman'!$G$30</definedName>
+    <definedName name="Perc_Final_Demand_Lighting_Incan_Lamps" localSheetId="16">'[1]Technology split of final deman'!$G$30</definedName>
     <definedName name="Perc_Final_Demand_Lighting_LED_Lamps" localSheetId="12">'[1]Technology split of final deman'!$G$33</definedName>
     <definedName name="Perc_Final_Demand_Lighting_LED_Lamps" localSheetId="15">'[1]Technology split of final deman'!$G$33</definedName>
     <definedName name="Perc_Final_Demand_Lighting_LED_Lamps" localSheetId="14">'[1]Technology split of final deman'!$G$33</definedName>
     <definedName name="Perc_Final_Demand_Lighting_LED_Lamps" localSheetId="13">'[1]Technology split of final deman'!$G$33</definedName>
+    <definedName name="Perc_Final_Demand_Lighting_LED_Lamps" localSheetId="16">'[1]Technology split of final deman'!$G$33</definedName>
     <definedName name="Perc_Final_Demand_Space_Cooling_Airco" localSheetId="12">'[1]Technology split of final deman'!$G$25</definedName>
     <definedName name="Perc_Final_Demand_Space_Cooling_Airco" localSheetId="15">'[1]Technology split of final deman'!$G$25</definedName>
     <definedName name="Perc_Final_Demand_Space_Cooling_Airco" localSheetId="14">'[1]Technology split of final deman'!$G$25</definedName>
     <definedName name="Perc_Final_Demand_Space_Cooling_Airco" localSheetId="13">'[1]Technology split of final deman'!$G$25</definedName>
+    <definedName name="Perc_Final_Demand_Space_Cooling_Airco" localSheetId="16">'[1]Technology split of final deman'!$G$25</definedName>
     <definedName name="Perc_Final_Demand_Space_Cooling_Elec_Heat_Pump" localSheetId="12">'[1]Technology split of final deman'!$G$24</definedName>
     <definedName name="Perc_Final_Demand_Space_Cooling_Elec_Heat_Pump" localSheetId="15">'[1]Technology split of final deman'!$G$24</definedName>
     <definedName name="Perc_Final_Demand_Space_Cooling_Elec_Heat_Pump" localSheetId="14">'[1]Technology split of final deman'!$G$24</definedName>
     <definedName name="Perc_Final_Demand_Space_Cooling_Elec_Heat_Pump" localSheetId="13">'[1]Technology split of final deman'!$G$24</definedName>
+    <definedName name="Perc_Final_Demand_Space_Cooling_Elec_Heat_Pump" localSheetId="16">'[1]Technology split of final deman'!$G$24</definedName>
     <definedName name="Perc_Final_Demand_Space_Cooling_Gas_Heat_Pump" localSheetId="12">'[1]Technology split of final deman'!$G$23</definedName>
     <definedName name="Perc_Final_Demand_Space_Cooling_Gas_Heat_Pump" localSheetId="15">'[1]Technology split of final deman'!$G$23</definedName>
     <definedName name="Perc_Final_Demand_Space_Cooling_Gas_Heat_Pump" localSheetId="14">'[1]Technology split of final deman'!$G$23</definedName>
     <definedName name="Perc_Final_Demand_Space_Cooling_Gas_Heat_Pump" localSheetId="13">'[1]Technology split of final deman'!$G$23</definedName>
+    <definedName name="Perc_Final_Demand_Space_Cooling_Gas_Heat_Pump" localSheetId="16">'[1]Technology split of final deman'!$G$23</definedName>
     <definedName name="Perc_Final_Demand_Space_Heating_Biomass_Heater" localSheetId="12">'[1]Technology split of final deman'!$G$17</definedName>
     <definedName name="Perc_Final_Demand_Space_Heating_Biomass_Heater" localSheetId="15">'[1]Technology split of final deman'!$G$17</definedName>
     <definedName name="Perc_Final_Demand_Space_Heating_Biomass_Heater" localSheetId="14">'[1]Technology split of final deman'!$G$17</definedName>
     <definedName name="Perc_Final_Demand_Space_Heating_Biomass_Heater" localSheetId="13">'[1]Technology split of final deman'!$G$17</definedName>
+    <definedName name="Perc_Final_Demand_Space_Heating_Biomass_Heater" localSheetId="16">'[1]Technology split of final deman'!$G$17</definedName>
     <definedName name="Perc_Final_Demand_Space_Heating_Coal_Heater" localSheetId="12">'[1]Technology split of final deman'!$G$13</definedName>
     <definedName name="Perc_Final_Demand_Space_Heating_Coal_Heater" localSheetId="15">'[1]Technology split of final deman'!$G$13</definedName>
     <definedName name="Perc_Final_Demand_Space_Heating_Coal_Heater" localSheetId="14">'[1]Technology split of final deman'!$G$13</definedName>
     <definedName name="Perc_Final_Demand_Space_Heating_Coal_Heater" localSheetId="13">'[1]Technology split of final deman'!$G$13</definedName>
+    <definedName name="Perc_Final_Demand_Space_Heating_Coal_Heater" localSheetId="16">'[1]Technology split of final deman'!$G$13</definedName>
     <definedName name="Perc_Final_Demand_Space_Heating_District_Heating" localSheetId="12">'[1]Technology split of final deman'!$G$16</definedName>
     <definedName name="Perc_Final_Demand_Space_Heating_District_Heating" localSheetId="15">'[1]Technology split of final deman'!$G$16</definedName>
     <definedName name="Perc_Final_Demand_Space_Heating_District_Heating" localSheetId="14">'[1]Technology split of final deman'!$G$16</definedName>
     <definedName name="Perc_Final_Demand_Space_Heating_District_Heating" localSheetId="13">'[1]Technology split of final deman'!$G$16</definedName>
+    <definedName name="Perc_Final_Demand_Space_Heating_District_Heating" localSheetId="16">'[1]Technology split of final deman'!$G$16</definedName>
     <definedName name="Perc_Final_Demand_Space_Heating_Elec_Heat_Pump" localSheetId="12">'[1]Technology split of final deman'!$G$11</definedName>
     <definedName name="Perc_Final_Demand_Space_Heating_Elec_Heat_Pump" localSheetId="15">'[1]Technology split of final deman'!$G$11</definedName>
     <definedName name="Perc_Final_Demand_Space_Heating_Elec_Heat_Pump" localSheetId="14">'[1]Technology split of final deman'!$G$11</definedName>
     <definedName name="Perc_Final_Demand_Space_Heating_Elec_Heat_Pump" localSheetId="13">'[1]Technology split of final deman'!$G$11</definedName>
+    <definedName name="Perc_Final_Demand_Space_Heating_Elec_Heat_Pump" localSheetId="16">'[1]Technology split of final deman'!$G$11</definedName>
     <definedName name="Perc_Final_Demand_Space_Heating_Elec_Heater" localSheetId="12">'[1]Technology split of final deman'!$G$12</definedName>
     <definedName name="Perc_Final_Demand_Space_Heating_Elec_Heater" localSheetId="15">'[1]Technology split of final deman'!$G$12</definedName>
     <definedName name="Perc_Final_Demand_Space_Heating_Elec_Heater" localSheetId="14">'[1]Technology split of final deman'!$G$12</definedName>
     <definedName name="Perc_Final_Demand_Space_Heating_Elec_Heater" localSheetId="13">'[1]Technology split of final deman'!$G$12</definedName>
+    <definedName name="Perc_Final_Demand_Space_Heating_Elec_Heater" localSheetId="16">'[1]Technology split of final deman'!$G$12</definedName>
     <definedName name="Perc_Final_Demand_Space_Heating_Gas_Heat_Pump" localSheetId="12">'[1]Technology split of final deman'!$G$10</definedName>
     <definedName name="Perc_Final_Demand_Space_Heating_Gas_Heat_Pump" localSheetId="15">'[1]Technology split of final deman'!$G$10</definedName>
     <definedName name="Perc_Final_Demand_Space_Heating_Gas_Heat_Pump" localSheetId="14">'[1]Technology split of final deman'!$G$10</definedName>
     <definedName name="Perc_Final_Demand_Space_Heating_Gas_Heat_Pump" localSheetId="13">'[1]Technology split of final deman'!$G$10</definedName>
+    <definedName name="Perc_Final_Demand_Space_Heating_Gas_Heat_Pump" localSheetId="16">'[1]Technology split of final deman'!$G$10</definedName>
     <definedName name="Perc_Final_Demand_Space_Heating_Gas_Heater" localSheetId="12">'[1]Technology split of final deman'!$G$9</definedName>
     <definedName name="Perc_Final_Demand_Space_Heating_Gas_Heater" localSheetId="15">'[1]Technology split of final deman'!$G$9</definedName>
     <definedName name="Perc_Final_Demand_Space_Heating_Gas_Heater" localSheetId="14">'[1]Technology split of final deman'!$G$9</definedName>
     <definedName name="Perc_Final_Demand_Space_Heating_Gas_Heater" localSheetId="13">'[1]Technology split of final deman'!$G$9</definedName>
+    <definedName name="Perc_Final_Demand_Space_Heating_Gas_Heater" localSheetId="16">'[1]Technology split of final deman'!$G$9</definedName>
     <definedName name="Perc_Final_Demand_Space_Heating_Oil_Heater" localSheetId="12">'[1]Technology split of final deman'!$G$14</definedName>
     <definedName name="Perc_Final_Demand_Space_Heating_Oil_Heater" localSheetId="15">'[1]Technology split of final deman'!$G$14</definedName>
     <definedName name="Perc_Final_Demand_Space_Heating_Oil_Heater" localSheetId="14">'[1]Technology split of final deman'!$G$14</definedName>
     <definedName name="Perc_Final_Demand_Space_Heating_Oil_Heater" localSheetId="13">'[1]Technology split of final deman'!$G$14</definedName>
+    <definedName name="Perc_Final_Demand_Space_Heating_Oil_Heater" localSheetId="16">'[1]Technology split of final deman'!$G$14</definedName>
     <definedName name="Perc_Final_Demand_Space_Heating_Solar_Heater" localSheetId="12">'[1]Technology split of final deman'!$G$18</definedName>
     <definedName name="Perc_Final_Demand_Space_Heating_Solar_Heater" localSheetId="15">'[1]Technology split of final deman'!$G$18</definedName>
     <definedName name="Perc_Final_Demand_Space_Heating_Solar_Heater" localSheetId="14">'[1]Technology split of final deman'!$G$18</definedName>
     <definedName name="Perc_Final_Demand_Space_Heating_Solar_Heater" localSheetId="13">'[1]Technology split of final deman'!$G$18</definedName>
+    <definedName name="Perc_Final_Demand_Space_Heating_Solar_Heater" localSheetId="16">'[1]Technology split of final deman'!$G$18</definedName>
     <definedName name="Perc_Heat_Delivered_Biomass_Heater" localSheetId="12">'[1]Tech split of useful demand'!$G$17</definedName>
     <definedName name="Perc_Heat_Delivered_Biomass_Heater" localSheetId="15">'[1]Tech split of useful demand'!$G$17</definedName>
     <definedName name="Perc_Heat_Delivered_Biomass_Heater" localSheetId="14">'[1]Tech split of useful demand'!$G$17</definedName>
     <definedName name="Perc_Heat_Delivered_Biomass_Heater" localSheetId="13">'[1]Tech split of useful demand'!$G$17</definedName>
+    <definedName name="Perc_Heat_Delivered_Biomass_Heater" localSheetId="16">'[1]Tech split of useful demand'!$G$17</definedName>
     <definedName name="Perc_Heat_Delivered_District_Heat" localSheetId="12">'[1]Tech split of useful demand'!$G$16</definedName>
     <definedName name="Perc_Heat_Delivered_District_Heat" localSheetId="15">'[1]Tech split of useful demand'!$G$16</definedName>
     <definedName name="Perc_Heat_Delivered_District_Heat" localSheetId="14">'[1]Tech split of useful demand'!$G$16</definedName>
     <definedName name="Perc_Heat_Delivered_District_Heat" localSheetId="13">'[1]Tech split of useful demand'!$G$16</definedName>
+    <definedName name="Perc_Heat_Delivered_District_Heat" localSheetId="16">'[1]Tech split of useful demand'!$G$16</definedName>
     <definedName name="Perc_Heat_Delivered_Solar_Thermal" localSheetId="12">'[1]Tech split of useful demand'!$G$18</definedName>
     <definedName name="Perc_Heat_Delivered_Solar_Thermal" localSheetId="15">'[1]Tech split of useful demand'!$G$18</definedName>
     <definedName name="Perc_Heat_Delivered_Solar_Thermal" localSheetId="14">'[1]Tech split of useful demand'!$G$18</definedName>
     <definedName name="Perc_Heat_Delivered_Solar_Thermal" localSheetId="13">'[1]Tech split of useful demand'!$G$18</definedName>
+    <definedName name="Perc_Heat_Delivered_Solar_Thermal" localSheetId="16">'[1]Tech split of useful demand'!$G$18</definedName>
     <definedName name="Perc_Roof_for_PV" localSheetId="12">'[1]PV solar area and production'!$E$22</definedName>
     <definedName name="Perc_Roof_for_PV" localSheetId="15">'[1]PV solar area and production'!$E$22</definedName>
     <definedName name="Perc_Roof_for_PV" localSheetId="14">'[1]PV solar area and production'!$E$22</definedName>
     <definedName name="Perc_Roof_for_PV" localSheetId="13">'[1]PV solar area and production'!$E$22</definedName>
-    <definedName name="share_aluminium_carbothermal_reduction" localSheetId="17">Dashboard!#REF!</definedName>
+    <definedName name="Perc_Roof_for_PV" localSheetId="16">'[1]PV solar area and production'!$E$22</definedName>
+    <definedName name="share_aluminium_carbothermal_reduction" localSheetId="18">Dashboard!#REF!</definedName>
+    <definedName name="share_aluminium_carbothermal_reduction" localSheetId="24">Dashboard!#REF!</definedName>
+    <definedName name="share_aluminium_carbothermal_reduction" localSheetId="20">Dashboard!#REF!</definedName>
+    <definedName name="share_aluminium_carbothermal_reduction" localSheetId="26">Dashboard!#REF!</definedName>
     <definedName name="share_aluminium_carbothermal_reduction" localSheetId="23">Dashboard!#REF!</definedName>
+    <definedName name="share_aluminium_carbothermal_reduction" localSheetId="25">Dashboard!#REF!</definedName>
     <definedName name="share_aluminium_carbothermal_reduction" localSheetId="19">Dashboard!#REF!</definedName>
-    <definedName name="share_aluminium_carbothermal_reduction" localSheetId="25">Dashboard!#REF!</definedName>
     <definedName name="share_aluminium_carbothermal_reduction" localSheetId="22">Dashboard!#REF!</definedName>
-    <definedName name="share_aluminium_carbothermal_reduction" localSheetId="24">Dashboard!#REF!</definedName>
-    <definedName name="share_aluminium_carbothermal_reduction" localSheetId="18">Dashboard!#REF!</definedName>
+    <definedName name="share_aluminium_carbothermal_reduction" localSheetId="27">Dashboard!#REF!</definedName>
     <definedName name="share_aluminium_carbothermal_reduction" localSheetId="21">Dashboard!#REF!</definedName>
-    <definedName name="share_aluminium_carbothermal_reduction" localSheetId="26">Dashboard!#REF!</definedName>
-    <definedName name="share_aluminium_carbothermal_reduction" localSheetId="20">Dashboard!#REF!</definedName>
-    <definedName name="share_aluminium_carbothermal_reduction" localSheetId="27">Dashboard!#REF!</definedName>
+    <definedName name="share_aluminium_carbothermal_reduction" localSheetId="28">Dashboard!#REF!</definedName>
+    <definedName name="share_aluminium_carbothermal_reduction" localSheetId="29">Dashboard!#REF!</definedName>
     <definedName name="share_aluminium_carbothermal_reduction" localSheetId="15">Dashboard!#REF!</definedName>
     <definedName name="share_aluminium_carbothermal_reduction" localSheetId="14">Dashboard!#REF!</definedName>
     <definedName name="share_aluminium_carbothermal_reduction" localSheetId="13">Dashboard!#REF!</definedName>
     <definedName name="share_aluminium_carbothermal_reduction" localSheetId="10">Dashboard!#REF!</definedName>
     <definedName name="share_aluminium_carbothermal_reduction" localSheetId="11">Dashboard!#REF!</definedName>
+    <definedName name="share_aluminium_carbothermal_reduction" localSheetId="16">Dashboard!#REF!</definedName>
     <definedName name="share_aluminium_carbothermal_reduction">Dashboard!#REF!</definedName>
-    <definedName name="share_aluminium_electrolysis_bat" localSheetId="17">Dashboard!#REF!</definedName>
+    <definedName name="share_aluminium_electrolysis_bat" localSheetId="18">Dashboard!#REF!</definedName>
+    <definedName name="share_aluminium_electrolysis_bat" localSheetId="24">Dashboard!#REF!</definedName>
+    <definedName name="share_aluminium_electrolysis_bat" localSheetId="20">Dashboard!#REF!</definedName>
+    <definedName name="share_aluminium_electrolysis_bat" localSheetId="26">Dashboard!#REF!</definedName>
     <definedName name="share_aluminium_electrolysis_bat" localSheetId="23">Dashboard!#REF!</definedName>
+    <definedName name="share_aluminium_electrolysis_bat" localSheetId="25">Dashboard!#REF!</definedName>
     <definedName name="share_aluminium_electrolysis_bat" localSheetId="19">Dashboard!#REF!</definedName>
-    <definedName name="share_aluminium_electrolysis_bat" localSheetId="25">Dashboard!#REF!</definedName>
     <definedName name="share_aluminium_electrolysis_bat" localSheetId="22">Dashboard!#REF!</definedName>
-    <definedName name="share_aluminium_electrolysis_bat" localSheetId="24">Dashboard!#REF!</definedName>
-    <definedName name="share_aluminium_electrolysis_bat" localSheetId="18">Dashboard!#REF!</definedName>
+    <definedName name="share_aluminium_electrolysis_bat" localSheetId="27">Dashboard!#REF!</definedName>
     <definedName name="share_aluminium_electrolysis_bat" localSheetId="21">Dashboard!#REF!</definedName>
-    <definedName name="share_aluminium_electrolysis_bat" localSheetId="26">Dashboard!#REF!</definedName>
-    <definedName name="share_aluminium_electrolysis_bat" localSheetId="20">Dashboard!#REF!</definedName>
-    <definedName name="share_aluminium_electrolysis_bat" localSheetId="27">Dashboard!#REF!</definedName>
+    <definedName name="share_aluminium_electrolysis_bat" localSheetId="28">Dashboard!#REF!</definedName>
+    <definedName name="share_aluminium_electrolysis_bat" localSheetId="29">Dashboard!#REF!</definedName>
     <definedName name="share_aluminium_electrolysis_bat" localSheetId="15">Dashboard!#REF!</definedName>
     <definedName name="share_aluminium_electrolysis_bat" localSheetId="14">Dashboard!#REF!</definedName>
     <definedName name="share_aluminium_electrolysis_bat" localSheetId="13">Dashboard!#REF!</definedName>
     <definedName name="share_aluminium_electrolysis_bat" localSheetId="10">Dashboard!#REF!</definedName>
     <definedName name="share_aluminium_electrolysis_bat" localSheetId="11">Dashboard!#REF!</definedName>
+    <definedName name="share_aluminium_electrolysis_bat" localSheetId="16">Dashboard!#REF!</definedName>
     <definedName name="share_aluminium_electrolysis_bat">Dashboard!#REF!</definedName>
-    <definedName name="share_aluminium_electrolysis_current" localSheetId="17">Dashboard!#REF!</definedName>
+    <definedName name="share_aluminium_electrolysis_current" localSheetId="18">Dashboard!#REF!</definedName>
+    <definedName name="share_aluminium_electrolysis_current" localSheetId="24">Dashboard!#REF!</definedName>
+    <definedName name="share_aluminium_electrolysis_current" localSheetId="20">Dashboard!#REF!</definedName>
+    <definedName name="share_aluminium_electrolysis_current" localSheetId="26">Dashboard!#REF!</definedName>
     <definedName name="share_aluminium_electrolysis_current" localSheetId="23">Dashboard!#REF!</definedName>
+    <definedName name="share_aluminium_electrolysis_current" localSheetId="25">Dashboard!#REF!</definedName>
     <definedName name="share_aluminium_electrolysis_current" localSheetId="19">Dashboard!#REF!</definedName>
-    <definedName name="share_aluminium_electrolysis_current" localSheetId="25">Dashboard!#REF!</definedName>
     <definedName name="share_aluminium_electrolysis_current" localSheetId="22">Dashboard!#REF!</definedName>
-    <definedName name="share_aluminium_electrolysis_current" localSheetId="24">Dashboard!#REF!</definedName>
-    <definedName name="share_aluminium_electrolysis_current" localSheetId="18">Dashboard!#REF!</definedName>
+    <definedName name="share_aluminium_electrolysis_current" localSheetId="27">Dashboard!#REF!</definedName>
     <definedName name="share_aluminium_electrolysis_current" localSheetId="21">Dashboard!#REF!</definedName>
-    <definedName name="share_aluminium_electrolysis_current" localSheetId="26">Dashboard!#REF!</definedName>
-    <definedName name="share_aluminium_electrolysis_current" localSheetId="20">Dashboard!#REF!</definedName>
-    <definedName name="share_aluminium_electrolysis_current" localSheetId="27">Dashboard!#REF!</definedName>
+    <definedName name="share_aluminium_electrolysis_current" localSheetId="28">Dashboard!#REF!</definedName>
+    <definedName name="share_aluminium_electrolysis_current" localSheetId="29">Dashboard!#REF!</definedName>
     <definedName name="share_aluminium_electrolysis_current" localSheetId="15">Dashboard!#REF!</definedName>
     <definedName name="share_aluminium_electrolysis_current" localSheetId="14">Dashboard!#REF!</definedName>
     <definedName name="share_aluminium_electrolysis_current" localSheetId="13">Dashboard!#REF!</definedName>
     <definedName name="share_aluminium_electrolysis_current" localSheetId="10">Dashboard!#REF!</definedName>
     <definedName name="share_aluminium_electrolysis_current" localSheetId="11">Dashboard!#REF!</definedName>
+    <definedName name="share_aluminium_electrolysis_current" localSheetId="16">Dashboard!#REF!</definedName>
     <definedName name="share_aluminium_electrolysis_current">Dashboard!#REF!</definedName>
-    <definedName name="share_aluminium_melting_oven" localSheetId="17">Dashboard!#REF!</definedName>
+    <definedName name="share_aluminium_melting_oven" localSheetId="18">Dashboard!#REF!</definedName>
+    <definedName name="share_aluminium_melting_oven" localSheetId="24">Dashboard!#REF!</definedName>
+    <definedName name="share_aluminium_melting_oven" localSheetId="20">Dashboard!#REF!</definedName>
+    <definedName name="share_aluminium_melting_oven" localSheetId="26">Dashboard!#REF!</definedName>
     <definedName name="share_aluminium_melting_oven" localSheetId="23">Dashboard!#REF!</definedName>
+    <definedName name="share_aluminium_melting_oven" localSheetId="25">Dashboard!#REF!</definedName>
     <definedName name="share_aluminium_melting_oven" localSheetId="19">Dashboard!#REF!</definedName>
-    <definedName name="share_aluminium_melting_oven" localSheetId="25">Dashboard!#REF!</definedName>
     <definedName name="share_aluminium_melting_oven" localSheetId="22">Dashboard!#REF!</definedName>
-    <definedName name="share_aluminium_melting_oven" localSheetId="24">Dashboard!#REF!</definedName>
-    <definedName name="share_aluminium_melting_oven" localSheetId="18">Dashboard!#REF!</definedName>
+    <definedName name="share_aluminium_melting_oven" localSheetId="27">Dashboard!#REF!</definedName>
     <definedName name="share_aluminium_melting_oven" localSheetId="21">Dashboard!#REF!</definedName>
-    <definedName name="share_aluminium_melting_oven" localSheetId="26">Dashboard!#REF!</definedName>
-    <definedName name="share_aluminium_melting_oven" localSheetId="20">Dashboard!#REF!</definedName>
-    <definedName name="share_aluminium_melting_oven" localSheetId="27">Dashboard!#REF!</definedName>
+    <definedName name="share_aluminium_melting_oven" localSheetId="28">Dashboard!#REF!</definedName>
+    <definedName name="share_aluminium_melting_oven" localSheetId="29">Dashboard!#REF!</definedName>
     <definedName name="share_aluminium_melting_oven" localSheetId="15">Dashboard!#REF!</definedName>
     <definedName name="share_aluminium_melting_oven" localSheetId="14">Dashboard!#REF!</definedName>
     <definedName name="share_aluminium_melting_oven" localSheetId="13">Dashboard!#REF!</definedName>
     <definedName name="share_aluminium_melting_oven" localSheetId="10">Dashboard!#REF!</definedName>
     <definedName name="share_aluminium_melting_oven" localSheetId="11">Dashboard!#REF!</definedName>
+    <definedName name="share_aluminium_melting_oven" localSheetId="16">Dashboard!#REF!</definedName>
     <definedName name="share_aluminium_melting_oven">Dashboard!#REF!</definedName>
-    <definedName name="share_blast_furnace_burner_coal_gas" localSheetId="17">Dashboard!#REF!</definedName>
+    <definedName name="share_blast_furnace_burner_coal_gas" localSheetId="18">Dashboard!#REF!</definedName>
+    <definedName name="share_blast_furnace_burner_coal_gas" localSheetId="24">Dashboard!#REF!</definedName>
+    <definedName name="share_blast_furnace_burner_coal_gas" localSheetId="20">Dashboard!#REF!</definedName>
+    <definedName name="share_blast_furnace_burner_coal_gas" localSheetId="26">Dashboard!#REF!</definedName>
     <definedName name="share_blast_furnace_burner_coal_gas" localSheetId="23">Dashboard!#REF!</definedName>
+    <definedName name="share_blast_furnace_burner_coal_gas" localSheetId="25">Dashboard!#REF!</definedName>
     <definedName name="share_blast_furnace_burner_coal_gas" localSheetId="19">Dashboard!#REF!</definedName>
-    <definedName name="share_blast_furnace_burner_coal_gas" localSheetId="25">Dashboard!#REF!</definedName>
     <definedName name="share_blast_furnace_burner_coal_gas" localSheetId="22">Dashboard!#REF!</definedName>
-    <definedName name="share_blast_furnace_burner_coal_gas" localSheetId="24">Dashboard!#REF!</definedName>
-    <definedName name="share_blast_furnace_burner_coal_gas" localSheetId="18">Dashboard!#REF!</definedName>
+    <definedName name="share_blast_furnace_burner_coal_gas" localSheetId="27">Dashboard!#REF!</definedName>
     <definedName name="share_blast_furnace_burner_coal_gas" localSheetId="21">Dashboard!#REF!</definedName>
-    <definedName name="share_blast_furnace_burner_coal_gas" localSheetId="26">Dashboard!#REF!</definedName>
-    <definedName name="share_blast_furnace_burner_coal_gas" localSheetId="20">Dashboard!#REF!</definedName>
-    <definedName name="share_blast_furnace_burner_coal_gas" localSheetId="27">Dashboard!#REF!</definedName>
+    <definedName name="share_blast_furnace_burner_coal_gas" localSheetId="28">Dashboard!#REF!</definedName>
+    <definedName name="share_blast_furnace_burner_coal_gas" localSheetId="29">Dashboard!#REF!</definedName>
     <definedName name="share_blast_furnace_burner_coal_gas" localSheetId="15">Dashboard!#REF!</definedName>
     <definedName name="share_blast_furnace_burner_coal_gas" localSheetId="14">Dashboard!#REF!</definedName>
     <definedName name="share_blast_furnace_burner_coal_gas" localSheetId="13">Dashboard!#REF!</definedName>
     <definedName name="share_blast_furnace_burner_coal_gas" localSheetId="10">Dashboard!#REF!</definedName>
     <definedName name="share_blast_furnace_burner_coal_gas" localSheetId="11">Dashboard!#REF!</definedName>
+    <definedName name="share_blast_furnace_burner_coal_gas" localSheetId="16">Dashboard!#REF!</definedName>
     <definedName name="share_blast_furnace_burner_coal_gas">Dashboard!#REF!</definedName>
-    <definedName name="share_blast_furnace_burner_network_gas" localSheetId="17">Dashboard!#REF!</definedName>
+    <definedName name="share_blast_furnace_burner_network_gas" localSheetId="18">Dashboard!#REF!</definedName>
+    <definedName name="share_blast_furnace_burner_network_gas" localSheetId="24">Dashboard!#REF!</definedName>
+    <definedName name="share_blast_furnace_burner_network_gas" localSheetId="20">Dashboard!#REF!</definedName>
+    <definedName name="share_blast_furnace_burner_network_gas" localSheetId="26">Dashboard!#REF!</definedName>
     <definedName name="share_blast_furnace_burner_network_gas" localSheetId="23">Dashboard!#REF!</definedName>
+    <definedName name="share_blast_furnace_burner_network_gas" localSheetId="25">Dashboard!#REF!</definedName>
     <definedName name="share_blast_furnace_burner_network_gas" localSheetId="19">Dashboard!#REF!</definedName>
-    <definedName name="share_blast_furnace_burner_network_gas" localSheetId="25">Dashboard!#REF!</definedName>
     <definedName name="share_blast_furnace_burner_network_gas" localSheetId="22">Dashboard!#REF!</definedName>
-    <definedName name="share_blast_furnace_burner_network_gas" localSheetId="24">Dashboard!#REF!</definedName>
-    <definedName name="share_blast_furnace_burner_network_gas" localSheetId="18">Dashboard!#REF!</definedName>
+    <definedName name="share_blast_furnace_burner_network_gas" localSheetId="27">Dashboard!#REF!</definedName>
     <definedName name="share_blast_furnace_burner_network_gas" localSheetId="21">Dashboard!#REF!</definedName>
-    <definedName name="share_blast_furnace_burner_network_gas" localSheetId="26">Dashboard!#REF!</definedName>
-    <definedName name="share_blast_furnace_burner_network_gas" localSheetId="20">Dashboard!#REF!</definedName>
-    <definedName name="share_blast_furnace_burner_network_gas" localSheetId="27">Dashboard!#REF!</definedName>
+    <definedName name="share_blast_furnace_burner_network_gas" localSheetId="28">Dashboard!#REF!</definedName>
+    <definedName name="share_blast_furnace_burner_network_gas" localSheetId="29">Dashboard!#REF!</definedName>
     <definedName name="share_blast_furnace_burner_network_gas" localSheetId="15">Dashboard!#REF!</definedName>
     <definedName name="share_blast_furnace_burner_network_gas" localSheetId="14">Dashboard!#REF!</definedName>
     <definedName name="share_blast_furnace_burner_network_gas" localSheetId="13">Dashboard!#REF!</definedName>
     <definedName name="share_blast_furnace_burner_network_gas" localSheetId="10">Dashboard!#REF!</definedName>
     <definedName name="share_blast_furnace_burner_network_gas" localSheetId="11">Dashboard!#REF!</definedName>
+    <definedName name="share_blast_furnace_burner_network_gas" localSheetId="16">Dashboard!#REF!</definedName>
     <definedName name="share_blast_furnace_burner_network_gas">Dashboard!#REF!</definedName>
     <definedName name="Share_Lighting_Fluorescent_Lamp" localSheetId="12">'[1]Shares per tech per carrier'!$E$22</definedName>
     <definedName name="Share_Lighting_Fluorescent_Lamp" localSheetId="15">'[1]Shares per tech per carrier'!$E$22</definedName>
     <definedName name="Share_Lighting_Fluorescent_Lamp" localSheetId="14">'[1]Shares per tech per carrier'!$E$22</definedName>
     <definedName name="Share_Lighting_Fluorescent_Lamp" localSheetId="13">'[1]Shares per tech per carrier'!$E$22</definedName>
+    <definedName name="Share_Lighting_Fluorescent_Lamp" localSheetId="16">'[1]Shares per tech per carrier'!$E$22</definedName>
     <definedName name="Share_Lighting_Fluorescent_Tube" localSheetId="12">'[1]Shares per tech per carrier'!$E$23</definedName>
     <definedName name="Share_Lighting_Fluorescent_Tube" localSheetId="15">'[1]Shares per tech per carrier'!$E$23</definedName>
     <definedName name="Share_Lighting_Fluorescent_Tube" localSheetId="14">'[1]Shares per tech per carrier'!$E$23</definedName>
     <definedName name="Share_Lighting_Fluorescent_Tube" localSheetId="13">'[1]Shares per tech per carrier'!$E$23</definedName>
+    <definedName name="Share_Lighting_Fluorescent_Tube" localSheetId="16">'[1]Shares per tech per carrier'!$E$23</definedName>
     <definedName name="Share_Lighting_Incandescent_Lamp" localSheetId="12">'[1]Shares per tech per carrier'!$E$21</definedName>
     <definedName name="Share_Lighting_Incandescent_Lamp" localSheetId="15">'[1]Shares per tech per carrier'!$E$21</definedName>
     <definedName name="Share_Lighting_Incandescent_Lamp" localSheetId="14">'[1]Shares per tech per carrier'!$E$21</definedName>
     <definedName name="Share_Lighting_Incandescent_Lamp" localSheetId="13">'[1]Shares per tech per carrier'!$E$21</definedName>
+    <definedName name="Share_Lighting_Incandescent_Lamp" localSheetId="16">'[1]Shares per tech per carrier'!$E$21</definedName>
     <definedName name="Share_Lighting_LED" localSheetId="12">'[1]Shares per tech per carrier'!$E$24</definedName>
     <definedName name="Share_Lighting_LED" localSheetId="15">'[1]Shares per tech per carrier'!$E$24</definedName>
     <definedName name="Share_Lighting_LED" localSheetId="14">'[1]Shares per tech per carrier'!$E$24</definedName>
     <definedName name="Share_Lighting_LED" localSheetId="13">'[1]Shares per tech per carrier'!$E$24</definedName>
+    <definedName name="Share_Lighting_LED" localSheetId="16">'[1]Shares per tech per carrier'!$E$24</definedName>
     <definedName name="Share_Space_Cooling_Electric_Airco" localSheetId="12">'[1]Shares per tech per carrier'!$E$18</definedName>
     <definedName name="Share_Space_Cooling_Electric_Airco" localSheetId="15">'[1]Shares per tech per carrier'!$E$18</definedName>
     <definedName name="Share_Space_Cooling_Electric_Airco" localSheetId="14">'[1]Shares per tech per carrier'!$E$18</definedName>
     <definedName name="Share_Space_Cooling_Electric_Airco" localSheetId="13">'[1]Shares per tech per carrier'!$E$18</definedName>
+    <definedName name="Share_Space_Cooling_Electric_Airco" localSheetId="16">'[1]Shares per tech per carrier'!$E$18</definedName>
     <definedName name="Share_Space_Cooling_Electric_Heat_Pump" localSheetId="12">'[1]Shares per tech per carrier'!$E$17</definedName>
     <definedName name="Share_Space_Cooling_Electric_Heat_Pump" localSheetId="15">'[1]Shares per tech per carrier'!$E$17</definedName>
     <definedName name="Share_Space_Cooling_Electric_Heat_Pump" localSheetId="14">'[1]Shares per tech per carrier'!$E$17</definedName>
     <definedName name="Share_Space_Cooling_Electric_Heat_Pump" localSheetId="13">'[1]Shares per tech per carrier'!$E$17</definedName>
+    <definedName name="Share_Space_Cooling_Electric_Heat_Pump" localSheetId="16">'[1]Shares per tech per carrier'!$E$17</definedName>
     <definedName name="Share_Space_Heating_Electric_Heat_Pump" localSheetId="12">'[1]Shares per tech per carrier'!$E$13</definedName>
     <definedName name="Share_Space_Heating_Electric_Heat_Pump" localSheetId="15">'[1]Shares per tech per carrier'!$E$13</definedName>
     <definedName name="Share_Space_Heating_Electric_Heat_Pump" localSheetId="14">'[1]Shares per tech per carrier'!$E$13</definedName>
     <definedName name="Share_Space_Heating_Electric_Heat_Pump" localSheetId="13">'[1]Shares per tech per carrier'!$E$13</definedName>
+    <definedName name="Share_Space_Heating_Electric_Heat_Pump" localSheetId="16">'[1]Shares per tech per carrier'!$E$13</definedName>
     <definedName name="Share_Space_Heating_Electric_Heater" localSheetId="12">'[1]Shares per tech per carrier'!$E$14</definedName>
     <definedName name="Share_Space_Heating_Electric_Heater" localSheetId="15">'[1]Shares per tech per carrier'!$E$14</definedName>
     <definedName name="Share_Space_Heating_Electric_Heater" localSheetId="14">'[1]Shares per tech per carrier'!$E$14</definedName>
     <definedName name="Share_Space_Heating_Electric_Heater" localSheetId="13">'[1]Shares per tech per carrier'!$E$14</definedName>
+    <definedName name="Share_Space_Heating_Electric_Heater" localSheetId="16">'[1]Shares per tech per carrier'!$E$14</definedName>
     <definedName name="Share_Space_Heating_Network_Gas_Heat_Pump" localSheetId="12">'[1]Shares per tech per carrier'!$E$10</definedName>
     <definedName name="Share_Space_Heating_Network_Gas_Heat_Pump" localSheetId="15">'[1]Shares per tech per carrier'!$E$10</definedName>
     <definedName name="Share_Space_Heating_Network_Gas_Heat_Pump" localSheetId="14">'[1]Shares per tech per carrier'!$E$10</definedName>
     <definedName name="Share_Space_Heating_Network_Gas_Heat_Pump" localSheetId="13">'[1]Shares per tech per carrier'!$E$10</definedName>
+    <definedName name="Share_Space_Heating_Network_Gas_Heat_Pump" localSheetId="16">'[1]Shares per tech per carrier'!$E$10</definedName>
     <definedName name="Share_Space_Heating_Network_Gas_Heater" localSheetId="12">'[1]Shares per tech per carrier'!$E$9</definedName>
     <definedName name="Share_Space_Heating_Network_Gas_Heater" localSheetId="15">'[1]Shares per tech per carrier'!$E$9</definedName>
     <definedName name="Share_Space_Heating_Network_Gas_Heater" localSheetId="14">'[1]Shares per tech per carrier'!$E$9</definedName>
     <definedName name="Share_Space_Heating_Network_Gas_Heater" localSheetId="13">'[1]Shares per tech per carrier'!$E$9</definedName>
-    <definedName name="share_steel_blast_furnace_bat" localSheetId="17">Dashboard!#REF!</definedName>
+    <definedName name="Share_Space_Heating_Network_Gas_Heater" localSheetId="16">'[1]Shares per tech per carrier'!$E$9</definedName>
+    <definedName name="share_steel_blast_furnace_bat" localSheetId="18">Dashboard!#REF!</definedName>
+    <definedName name="share_steel_blast_furnace_bat" localSheetId="24">Dashboard!#REF!</definedName>
+    <definedName name="share_steel_blast_furnace_bat" localSheetId="20">Dashboard!#REF!</definedName>
+    <definedName name="share_steel_blast_furnace_bat" localSheetId="26">Dashboard!#REF!</definedName>
     <definedName name="share_steel_blast_furnace_bat" localSheetId="23">Dashboard!#REF!</definedName>
+    <definedName name="share_steel_blast_furnace_bat" localSheetId="25">Dashboard!#REF!</definedName>
     <definedName name="share_steel_blast_furnace_bat" localSheetId="19">Dashboard!#REF!</definedName>
-    <definedName name="share_steel_blast_furnace_bat" localSheetId="25">Dashboard!#REF!</definedName>
     <definedName name="share_steel_blast_furnace_bat" localSheetId="22">Dashboard!#REF!</definedName>
-    <definedName name="share_steel_blast_furnace_bat" localSheetId="24">Dashboard!#REF!</definedName>
-    <definedName name="share_steel_blast_furnace_bat" localSheetId="18">Dashboard!#REF!</definedName>
+    <definedName name="share_steel_blast_furnace_bat" localSheetId="27">Dashboard!#REF!</definedName>
     <definedName name="share_steel_blast_furnace_bat" localSheetId="21">Dashboard!#REF!</definedName>
-    <definedName name="share_steel_blast_furnace_bat" localSheetId="26">Dashboard!#REF!</definedName>
-    <definedName name="share_steel_blast_furnace_bat" localSheetId="20">Dashboard!#REF!</definedName>
-    <definedName name="share_steel_blast_furnace_bat" localSheetId="27">Dashboard!#REF!</definedName>
+    <definedName name="share_steel_blast_furnace_bat" localSheetId="28">Dashboard!#REF!</definedName>
+    <definedName name="share_steel_blast_furnace_bat" localSheetId="29">Dashboard!#REF!</definedName>
     <definedName name="share_steel_blast_furnace_bat" localSheetId="15">Dashboard!#REF!</definedName>
     <definedName name="share_steel_blast_furnace_bat" localSheetId="14">Dashboard!#REF!</definedName>
     <definedName name="share_steel_blast_furnace_bat" localSheetId="13">Dashboard!#REF!</definedName>
     <definedName name="share_steel_blast_furnace_bat" localSheetId="10">Dashboard!#REF!</definedName>
     <definedName name="share_steel_blast_furnace_bat" localSheetId="11">Dashboard!#REF!</definedName>
+    <definedName name="share_steel_blast_furnace_bat" localSheetId="16">Dashboard!#REF!</definedName>
     <definedName name="share_steel_blast_furnace_bat">Dashboard!#REF!</definedName>
-    <definedName name="share_steel_blast_furnace_current" localSheetId="17">Dashboard!#REF!</definedName>
+    <definedName name="share_steel_blast_furnace_current" localSheetId="18">Dashboard!#REF!</definedName>
+    <definedName name="share_steel_blast_furnace_current" localSheetId="24">Dashboard!#REF!</definedName>
+    <definedName name="share_steel_blast_furnace_current" localSheetId="20">Dashboard!#REF!</definedName>
+    <definedName name="share_steel_blast_furnace_current" localSheetId="26">Dashboard!#REF!</definedName>
     <definedName name="share_steel_blast_furnace_current" localSheetId="23">Dashboard!#REF!</definedName>
+    <definedName name="share_steel_blast_furnace_current" localSheetId="25">Dashboard!#REF!</definedName>
     <definedName name="share_steel_blast_furnace_current" localSheetId="19">Dashboard!#REF!</definedName>
-    <definedName name="share_steel_blast_furnace_current" localSheetId="25">Dashboard!#REF!</definedName>
     <definedName name="share_steel_blast_furnace_current" localSheetId="22">Dashboard!#REF!</definedName>
-    <definedName name="share_steel_blast_furnace_current" localSheetId="24">Dashboard!#REF!</definedName>
-    <definedName name="share_steel_blast_furnace_current" localSheetId="18">Dashboard!#REF!</definedName>
+    <definedName name="share_steel_blast_furnace_current" localSheetId="27">Dashboard!#REF!</definedName>
     <definedName name="share_steel_blast_furnace_current" localSheetId="21">Dashboard!#REF!</definedName>
-    <definedName name="share_steel_blast_furnace_current" localSheetId="26">Dashboard!#REF!</definedName>
-    <definedName name="share_steel_blast_furnace_current" localSheetId="20">Dashboard!#REF!</definedName>
-    <definedName name="share_steel_blast_furnace_current" localSheetId="27">Dashboard!#REF!</definedName>
+    <definedName name="share_steel_blast_furnace_current" localSheetId="28">Dashboard!#REF!</definedName>
+    <definedName name="share_steel_blast_furnace_current" localSheetId="29">Dashboard!#REF!</definedName>
     <definedName name="share_steel_blast_furnace_current" localSheetId="15">Dashboard!#REF!</definedName>
     <definedName name="share_steel_blast_furnace_current" localSheetId="14">Dashboard!#REF!</definedName>
     <definedName name="share_steel_blast_furnace_current" localSheetId="13">Dashboard!#REF!</definedName>
     <definedName name="share_steel_blast_furnace_current" localSheetId="10">Dashboard!#REF!</definedName>
     <definedName name="share_steel_blast_furnace_current" localSheetId="11">Dashboard!#REF!</definedName>
+    <definedName name="share_steel_blast_furnace_current" localSheetId="16">Dashboard!#REF!</definedName>
     <definedName name="share_steel_blast_furnace_current">Dashboard!#REF!</definedName>
-    <definedName name="share_steel_cyclone" localSheetId="17">Dashboard!#REF!</definedName>
+    <definedName name="share_steel_cyclone" localSheetId="18">Dashboard!#REF!</definedName>
+    <definedName name="share_steel_cyclone" localSheetId="24">Dashboard!#REF!</definedName>
+    <definedName name="share_steel_cyclone" localSheetId="20">Dashboard!#REF!</definedName>
+    <definedName name="share_steel_cyclone" localSheetId="26">Dashboard!#REF!</definedName>
     <definedName name="share_steel_cyclone" localSheetId="23">Dashboard!#REF!</definedName>
+    <definedName name="share_steel_cyclone" localSheetId="25">Dashboard!#REF!</definedName>
     <definedName name="share_steel_cyclone" localSheetId="19">Dashboard!#REF!</definedName>
-    <definedName name="share_steel_cyclone" localSheetId="25">Dashboard!#REF!</definedName>
     <definedName name="share_steel_cyclone" localSheetId="22">Dashboard!#REF!</definedName>
-    <definedName name="share_steel_cyclone" localSheetId="24">Dashboard!#REF!</definedName>
-    <definedName name="share_steel_cyclone" localSheetId="18">Dashboard!#REF!</definedName>
+    <definedName name="share_steel_cyclone" localSheetId="27">Dashboard!#REF!</definedName>
     <definedName name="share_steel_cyclone" localSheetId="21">Dashboard!#REF!</definedName>
-    <definedName name="share_steel_cyclone" localSheetId="26">Dashboard!#REF!</definedName>
-    <definedName name="share_steel_cyclone" localSheetId="20">Dashboard!#REF!</definedName>
-    <definedName name="share_steel_cyclone" localSheetId="27">Dashboard!#REF!</definedName>
+    <definedName name="share_steel_cyclone" localSheetId="28">Dashboard!#REF!</definedName>
+    <definedName name="share_steel_cyclone" localSheetId="29">Dashboard!#REF!</definedName>
     <definedName name="share_steel_cyclone" localSheetId="15">Dashboard!#REF!</definedName>
     <definedName name="share_steel_cyclone" localSheetId="14">Dashboard!#REF!</definedName>
     <definedName name="share_steel_cyclone" localSheetId="13">Dashboard!#REF!</definedName>
     <definedName name="share_steel_cyclone" localSheetId="10">Dashboard!#REF!</definedName>
     <definedName name="share_steel_cyclone" localSheetId="11">Dashboard!#REF!</definedName>
+    <definedName name="share_steel_cyclone" localSheetId="16">Dashboard!#REF!</definedName>
     <definedName name="share_steel_cyclone">Dashboard!#REF!</definedName>
-    <definedName name="share_steel_electric" localSheetId="17">Dashboard!#REF!</definedName>
+    <definedName name="share_steel_electric" localSheetId="18">Dashboard!#REF!</definedName>
+    <definedName name="share_steel_electric" localSheetId="24">Dashboard!#REF!</definedName>
+    <definedName name="share_steel_electric" localSheetId="20">Dashboard!#REF!</definedName>
+    <definedName name="share_steel_electric" localSheetId="26">Dashboard!#REF!</definedName>
     <definedName name="share_steel_electric" localSheetId="23">Dashboard!#REF!</definedName>
+    <definedName name="share_steel_electric" localSheetId="25">Dashboard!#REF!</definedName>
     <definedName name="share_steel_electric" localSheetId="19">Dashboard!#REF!</definedName>
-    <definedName name="share_steel_electric" localSheetId="25">Dashboard!#REF!</definedName>
     <definedName name="share_steel_electric" localSheetId="22">Dashboard!#REF!</definedName>
-    <definedName name="share_steel_electric" localSheetId="24">Dashboard!#REF!</definedName>
-    <definedName name="share_steel_electric" localSheetId="18">Dashboard!#REF!</definedName>
+    <definedName name="share_steel_electric" localSheetId="27">Dashboard!#REF!</definedName>
     <definedName name="share_steel_electric" localSheetId="21">Dashboard!#REF!</definedName>
-    <definedName name="share_steel_electric" localSheetId="26">Dashboard!#REF!</definedName>
-    <definedName name="share_steel_electric" localSheetId="20">Dashboard!#REF!</definedName>
-    <definedName name="share_steel_electric" localSheetId="27">Dashboard!#REF!</definedName>
+    <definedName name="share_steel_electric" localSheetId="28">Dashboard!#REF!</definedName>
+    <definedName name="share_steel_electric" localSheetId="29">Dashboard!#REF!</definedName>
     <definedName name="share_steel_electric" localSheetId="15">Dashboard!#REF!</definedName>
     <definedName name="share_steel_electric" localSheetId="14">Dashboard!#REF!</definedName>
     <definedName name="share_steel_electric" localSheetId="13">Dashboard!#REF!</definedName>
     <definedName name="share_steel_electric" localSheetId="10">Dashboard!#REF!</definedName>
     <definedName name="share_steel_electric" localSheetId="11">Dashboard!#REF!</definedName>
+    <definedName name="share_steel_electric" localSheetId="16">Dashboard!#REF!</definedName>
     <definedName name="share_steel_electric">Dashboard!#REF!</definedName>
     <definedName name="Solar_PV_Roof_CaPS" localSheetId="12">'[1]PV solar area and production'!$E$13</definedName>
     <definedName name="Solar_PV_Roof_CaPS" localSheetId="15">'[1]PV solar area and production'!$E$13</definedName>
     <definedName name="Solar_PV_Roof_CaPS" localSheetId="14">'[1]PV solar area and production'!$E$13</definedName>
     <definedName name="Solar_PV_Roof_CaPS" localSheetId="13">'[1]PV solar area and production'!$E$13</definedName>
+    <definedName name="Solar_PV_Roof_CaPS" localSheetId="16">'[1]PV solar area and production'!$E$13</definedName>
     <definedName name="Solar_PV_Roof_Residential" localSheetId="12">'[1]IEA autoproducer prod.'!$AO$10</definedName>
     <definedName name="Solar_PV_Roof_Residential" localSheetId="15">'[1]IEA autoproducer prod.'!$AO$10</definedName>
     <definedName name="Solar_PV_Roof_Residential" localSheetId="14">'[1]IEA autoproducer prod.'!$AO$10</definedName>
     <definedName name="Solar_PV_Roof_Residential" localSheetId="13">'[1]IEA autoproducer prod.'!$AO$10</definedName>
+    <definedName name="Solar_PV_Roof_Residential" localSheetId="16">'[1]IEA autoproducer prod.'!$AO$10</definedName>
     <definedName name="Solar_PV_Roof_Total" localSheetId="12">'[1]Corrected energy balance'!$BG$95</definedName>
     <definedName name="Solar_PV_Roof_Total" localSheetId="15">'[1]Corrected energy balance'!$BG$95</definedName>
     <definedName name="Solar_PV_Roof_Total" localSheetId="14">'[1]Corrected energy balance'!$BG$95</definedName>
     <definedName name="Solar_PV_Roof_Total" localSheetId="13">'[1]Corrected energy balance'!$BG$95</definedName>
+    <definedName name="Solar_PV_Roof_Total" localSheetId="16">'[1]Corrected energy balance'!$BG$95</definedName>
     <definedName name="solver_adj" localSheetId="6" hidden="1">Dashboard!#REF!</definedName>
     <definedName name="solver_cvg" localSheetId="6" hidden="1">0.0001</definedName>
     <definedName name="solver_drv" localSheetId="6" hidden="1">1</definedName>
@@ -556,22 +641,24 @@
     <definedName name="solver_typ" localSheetId="6" hidden="1">3</definedName>
     <definedName name="solver_val" localSheetId="6" hidden="1">0</definedName>
     <definedName name="solver_ver" localSheetId="6" hidden="1">2</definedName>
-    <definedName name="steel_production" localSheetId="17">Dashboard!#REF!</definedName>
+    <definedName name="steel_production" localSheetId="18">Dashboard!#REF!</definedName>
+    <definedName name="steel_production" localSheetId="24">Dashboard!#REF!</definedName>
+    <definedName name="steel_production" localSheetId="20">Dashboard!#REF!</definedName>
+    <definedName name="steel_production" localSheetId="26">Dashboard!#REF!</definedName>
     <definedName name="steel_production" localSheetId="23">Dashboard!#REF!</definedName>
+    <definedName name="steel_production" localSheetId="25">Dashboard!#REF!</definedName>
     <definedName name="steel_production" localSheetId="19">Dashboard!#REF!</definedName>
-    <definedName name="steel_production" localSheetId="25">Dashboard!#REF!</definedName>
     <definedName name="steel_production" localSheetId="22">Dashboard!#REF!</definedName>
-    <definedName name="steel_production" localSheetId="24">Dashboard!#REF!</definedName>
-    <definedName name="steel_production" localSheetId="18">Dashboard!#REF!</definedName>
+    <definedName name="steel_production" localSheetId="27">Dashboard!#REF!</definedName>
     <definedName name="steel_production" localSheetId="21">Dashboard!#REF!</definedName>
-    <definedName name="steel_production" localSheetId="26">Dashboard!#REF!</definedName>
-    <definedName name="steel_production" localSheetId="20">Dashboard!#REF!</definedName>
-    <definedName name="steel_production" localSheetId="27">Dashboard!#REF!</definedName>
+    <definedName name="steel_production" localSheetId="28">Dashboard!#REF!</definedName>
+    <definedName name="steel_production" localSheetId="29">Dashboard!#REF!</definedName>
     <definedName name="steel_production" localSheetId="15">Dashboard!#REF!</definedName>
     <definedName name="steel_production" localSheetId="14">Dashboard!#REF!</definedName>
     <definedName name="steel_production" localSheetId="13">Dashboard!#REF!</definedName>
     <definedName name="steel_production" localSheetId="10">Dashboard!#REF!</definedName>
     <definedName name="steel_production" localSheetId="11">Dashboard!#REF!</definedName>
+    <definedName name="steel_production" localSheetId="16">Dashboard!#REF!</definedName>
     <definedName name="steel_production">Dashboard!#REF!</definedName>
   </definedNames>
   <calcPr calcId="140001" concurrentCalc="0"/>
@@ -607,7 +694,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="453">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="464">
   <si>
     <t>Changelog</t>
   </si>
@@ -1962,10 +2049,43 @@
     <t xml:space="preserve">On this sheet the input and output of oil carriers from refineries from the Energy Balance are aggregated. </t>
   </si>
   <si>
-    <t>In this sheet, the refinery efficiency is calculated for this dataset. The non-energetic crude oil and useable heat demand together make up the input. The output is equal to the sum of all refinery products. The loss is equal to the useable heat input plus the oil input minus oil output. This means that if the oil output is larger than the oil input, the efficiency exceeds 100%. If this efficiency were to be capped at 100%, however, this would mean fewer refinery products than reported will be produced. For that reason the effiency is not capped. The input and output conversions ('shares') are then exported as a csv.</t>
-  </si>
-  <si>
     <t>Overview of energetic and non-energetic final consumption in the Chemical industry. This data is exported to the Industry analysis using the purple export_to_industry_analysis sheet. The total non-energetic final consumption for non-energetic crude oil is corrected for the oil products which refineries produce for the petrochemical industry. The 'Cokes' column is included to ensure compatability with the Industry analysis. Cokes is not considered as a separate carrier, but aggregated in coal in this analysis.</t>
+  </si>
+  <si>
+    <t>In this sheet, the refinery efficiency is calculated for this dataset. The non-energetic crude oil and useable heat demand together make up the input. The output is equal to the sum of all refinery products. The loss is equal to the useable heat input plus the oil input minus oil output. This means that if the oil output is larger than the oil input, the efficiency exceeds 100%. If this efficiency were to be capped at 100%, however, this would mean fewer refinery products than reported will be produced. For that reason the efficiency is not capped. The input and output conversions ('shares') are then exported as a csv.</t>
+  </si>
+  <si>
+    <t>Network gas non energetic</t>
+  </si>
+  <si>
+    <t>Steam methane reformer input</t>
+  </si>
+  <si>
+    <t>On this page the fuel input for the steam methane reformer is determined.</t>
+  </si>
+  <si>
+    <t>Added steam methane reformer inputs sheets</t>
+  </si>
+  <si>
+    <t>Overview of oil input and oil products output of the refineries</t>
+  </si>
+  <si>
+    <t>Determination of heat production of refineries</t>
+  </si>
+  <si>
+    <t>An overview of the oil and heat input as well as the oil products output of the refinery</t>
+  </si>
+  <si>
+    <t>Determination of the input shares of heat and natural gas to the steam methane reformer in the fertilizers industry</t>
+  </si>
+  <si>
+    <t>csv_steam_methane_reformer_eff</t>
+  </si>
+  <si>
+    <t>input.network_gas</t>
+  </si>
+  <si>
+    <t>industry_chemicals_fertilizers_steam_methane_reformer_hydrogen_efficiency</t>
   </si>
 </sst>
 </file>
@@ -2819,7 +2939,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2025">
+  <cellStyleXfs count="2059">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -4845,8 +4965,42 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="349">
+  <cellXfs count="351">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -5534,8 +5688,14 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="14" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2025">
+  <cellStyles count="2059">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
@@ -6548,6 +6708,23 @@
     <cellStyle name="Followed Hyperlink" xfId="2020" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="2022" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="2024" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2026" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2028" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2030" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2032" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2034" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2036" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2038" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2040" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2042" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2044" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2046" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2048" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2050" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2052" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2054" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2056" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2058" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
@@ -7558,11 +7735,54 @@
     <cellStyle name="Hyperlink" xfId="2019" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2021" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2023" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2025" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2027" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2029" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2031" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2033" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2035" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2037" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2039" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2041" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2043" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2045" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2047" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2049" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2051" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2053" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2055" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2057" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
     <cellStyle name="Percent 2" xfId="772"/>
   </cellStyles>
-  <dxfs count="24">
+  <dxfs count="26">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -11389,7 +11609,7 @@
       </c>
       <c r="C5" s="19">
         <f>MAX(Changelog!D:D)</f>
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="D5" s="7"/>
     </row>
@@ -11419,7 +11639,7 @@
       </c>
       <c r="C8" s="76">
         <f>MAX(Changelog!B:B)</f>
-        <v>42594</v>
+        <v>42615</v>
       </c>
       <c r="D8" s="7"/>
     </row>
@@ -11706,7 +11926,7 @@
     <row r="5" spans="1:17" ht="113" customHeight="1">
       <c r="A5" s="82"/>
       <c r="B5" s="343" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C5" s="344"/>
       <c r="D5" s="344"/>
@@ -12507,7 +12727,7 @@
     <mergeCell ref="B5:E5"/>
   </mergeCells>
   <conditionalFormatting sqref="C19:K19">
-    <cfRule type="cellIs" dxfId="7" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="9" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13618,7 +13838,7 @@
     <mergeCell ref="B5:F5"/>
   </mergeCells>
   <conditionalFormatting sqref="D44:E44">
-    <cfRule type="cellIs" dxfId="6" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="8" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14591,7 +14811,7 @@
     <mergeCell ref="B5:F5"/>
   </mergeCells>
   <conditionalFormatting sqref="D29:E29">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="7" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15275,7 +15495,7 @@
     <mergeCell ref="B5:G5"/>
   </mergeCells>
   <conditionalFormatting sqref="E26:M26">
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="6" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15492,7 +15712,7 @@
     <mergeCell ref="B5:H5"/>
   </mergeCells>
   <conditionalFormatting sqref="E12:L12">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15721,7 +15941,7 @@
     <mergeCell ref="B5:F5"/>
   </mergeCells>
   <conditionalFormatting sqref="E16:I16">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15742,8 +15962,8 @@
   </sheetPr>
   <dimension ref="B2:H24"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -15782,14 +16002,14 @@
       </c>
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
-      <c r="E4" s="5"/>
+      <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="5"/>
       <c r="H4" s="8"/>
     </row>
     <row r="5" spans="2:8" ht="84" customHeight="1">
       <c r="B5" s="346" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C5" s="347"/>
       <c r="D5" s="347"/>
@@ -16022,11 +16242,257 @@
     <mergeCell ref="B5:G5"/>
   </mergeCells>
   <conditionalFormatting sqref="F24">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E24">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
+    <tabColor theme="5" tint="0.39997558519241921"/>
+  </sheetPr>
+  <dimension ref="B2:H21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="82"/>
+    <col min="2" max="2" width="25.83203125" style="82" customWidth="1"/>
+    <col min="3" max="3" width="30.83203125" style="82" customWidth="1"/>
+    <col min="4" max="4" width="2.83203125" style="82" customWidth="1"/>
+    <col min="5" max="11" width="15.83203125" style="82" customWidth="1"/>
+    <col min="12" max="16384" width="10.83203125" style="82"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" ht="20">
+      <c r="B2" s="81" t="s">
+        <v>454</v>
+      </c>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+    </row>
+    <row r="3" spans="2:8">
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+    </row>
+    <row r="4" spans="2:8">
+      <c r="B4" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="8"/>
+    </row>
+    <row r="5" spans="2:8" ht="24" customHeight="1">
+      <c r="B5" s="346" t="s">
+        <v>455</v>
+      </c>
+      <c r="C5" s="347"/>
+      <c r="D5" s="347"/>
+      <c r="E5" s="347"/>
+      <c r="F5" s="347"/>
+      <c r="G5" s="348"/>
+      <c r="H5" s="8"/>
+    </row>
+    <row r="6" spans="2:8" ht="16" thickBot="1"/>
+    <row r="7" spans="2:8">
+      <c r="B7" s="138" t="s">
+        <v>208</v>
+      </c>
+      <c r="C7" s="107"/>
+      <c r="D7" s="139"/>
+      <c r="E7" s="108"/>
+      <c r="F7" s="325"/>
+    </row>
+    <row r="8" spans="2:8">
+      <c r="B8" s="131"/>
+      <c r="C8" s="110"/>
+      <c r="D8" s="140"/>
+      <c r="E8" s="110"/>
+      <c r="F8" s="111"/>
+    </row>
+    <row r="9" spans="2:8">
+      <c r="B9" s="132" t="s">
+        <v>429</v>
+      </c>
+      <c r="C9" s="219"/>
+      <c r="D9" s="141"/>
+      <c r="E9" s="112" t="s">
+        <v>440</v>
+      </c>
+      <c r="F9" s="129" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8">
+      <c r="B10" s="135" t="s">
+        <v>446</v>
+      </c>
+      <c r="C10" s="246"/>
+      <c r="D10" s="143"/>
+      <c r="E10" s="167"/>
+      <c r="F10" s="168"/>
+    </row>
+    <row r="11" spans="2:8">
+      <c r="B11" s="135"/>
+      <c r="C11" s="246" t="s">
+        <v>190</v>
+      </c>
+      <c r="D11" s="143"/>
+      <c r="E11" s="167" t="e">
+        <f>Dashboard!E42*technical_specs!G12</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F11" s="334"/>
+    </row>
+    <row r="12" spans="2:8">
+      <c r="B12" s="134"/>
+      <c r="C12" s="246" t="s">
+        <v>209</v>
+      </c>
+      <c r="D12" s="143"/>
+      <c r="E12" s="167" t="e">
+        <f>Dashboard!E43*technical_specs!G15</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F12" s="334"/>
+    </row>
+    <row r="13" spans="2:8">
+      <c r="B13" s="134"/>
+      <c r="C13" s="246" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" s="143"/>
+      <c r="E13" s="167" t="e">
+        <f>Dashboard!E44*technical_specs!G13</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F13" s="334"/>
+    </row>
+    <row r="14" spans="2:8">
+      <c r="B14" s="134"/>
+      <c r="C14" s="246" t="s">
+        <v>192</v>
+      </c>
+      <c r="D14" s="143"/>
+      <c r="E14" s="167" t="e">
+        <f>Dashboard!E45*technical_specs!G14</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F14" s="334"/>
+    </row>
+    <row r="15" spans="2:8">
+      <c r="B15" s="134"/>
+      <c r="C15" s="246" t="s">
+        <v>104</v>
+      </c>
+      <c r="D15" s="143"/>
+      <c r="E15" s="167" t="str">
+        <f>Dashboard!E46</f>
+        <v/>
+      </c>
+      <c r="F15" s="334"/>
+    </row>
+    <row r="16" spans="2:8">
+      <c r="B16" s="134"/>
+      <c r="C16" s="246"/>
+      <c r="D16" s="143"/>
+      <c r="E16" s="167"/>
+      <c r="F16" s="334"/>
+    </row>
+    <row r="17" spans="2:6">
+      <c r="B17" s="318"/>
+      <c r="C17" s="349"/>
+      <c r="D17" s="320"/>
+      <c r="E17" s="321"/>
+      <c r="F17" s="350"/>
+    </row>
+    <row r="18" spans="2:6">
+      <c r="B18" s="135" t="s">
+        <v>430</v>
+      </c>
+      <c r="C18" s="246"/>
+      <c r="D18" s="143"/>
+      <c r="E18" s="167"/>
+      <c r="F18" s="168"/>
+    </row>
+    <row r="19" spans="2:6">
+      <c r="B19" s="135"/>
+      <c r="C19" s="246" t="s">
+        <v>453</v>
+      </c>
+      <c r="D19" s="143"/>
+      <c r="E19" s="167" t="str">
+        <f>Dashboard!E51</f>
+        <v/>
+      </c>
+      <c r="F19" s="324" t="e">
+        <f>IF(SUM($E$19:$E$20)=0,1,E19/SUM($E$19:$E$20))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6">
+      <c r="B20" s="135"/>
+      <c r="C20" s="246" t="s">
+        <v>431</v>
+      </c>
+      <c r="D20" s="143"/>
+      <c r="E20" s="167" t="e">
+        <f>SUM(E11:E15)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F20" s="324" t="e">
+        <f>IF(SUM($E$19:$E$20)=0,0,E20/SUM($E$19:$E$20))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" ht="16" thickBot="1">
+      <c r="B21" s="137"/>
+      <c r="C21" s="223"/>
+      <c r="D21" s="146"/>
+      <c r="E21" s="98"/>
+      <c r="F21" s="99"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B5:G5"/>
+  </mergeCells>
+  <conditionalFormatting sqref="F21">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E24">
+  <conditionalFormatting sqref="E21">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -16041,7 +16507,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet15" enableFormatConditionsCalculation="0">
     <tabColor theme="7" tint="0.39997558519241921"/>
@@ -16217,7 +16683,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet16" enableFormatConditionsCalculation="0">
     <tabColor theme="7" tint="0.39997558519241921"/>
@@ -16361,7 +16827,149 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0">
+    <tabColor theme="2"/>
+  </sheetPr>
+  <dimension ref="B2:D16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="1"/>
+    <col min="2" max="2" width="20.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="50.83203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" style="90" customWidth="1"/>
+    <col min="5" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" ht="20">
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4">
+      <c r="B4" s="286" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="152" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4">
+      <c r="B5" s="6"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="153"/>
+    </row>
+    <row r="6" spans="2:4">
+      <c r="B6" s="77">
+        <v>41583</v>
+      </c>
+      <c r="C6" s="118" t="s">
+        <v>274</v>
+      </c>
+      <c r="D6" s="119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" ht="30">
+      <c r="B7" s="77">
+        <v>41611</v>
+      </c>
+      <c r="C7" s="122" t="s">
+        <v>296</v>
+      </c>
+      <c r="D7" s="128">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4">
+      <c r="B8" s="77">
+        <v>41618</v>
+      </c>
+      <c r="C8" s="121" t="s">
+        <v>297</v>
+      </c>
+      <c r="D8" s="128">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4">
+      <c r="B9" s="120">
+        <v>41682</v>
+      </c>
+      <c r="C9" s="121" t="s">
+        <v>308</v>
+      </c>
+      <c r="D9" s="128">
+        <v>1.03</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" ht="30">
+      <c r="B10" s="120">
+        <v>42576</v>
+      </c>
+      <c r="C10" s="122" t="s">
+        <v>407</v>
+      </c>
+      <c r="D10" s="128">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" ht="30">
+      <c r="B11" s="120">
+        <v>42594</v>
+      </c>
+      <c r="C11" s="122" t="s">
+        <v>449</v>
+      </c>
+      <c r="D11" s="128">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4">
+      <c r="B12" s="120">
+        <v>42615</v>
+      </c>
+      <c r="C12" s="122" t="s">
+        <v>456</v>
+      </c>
+      <c r="D12" s="128">
+        <v>1.06</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4">
+      <c r="B13" s="120"/>
+      <c r="C13" s="122"/>
+      <c r="D13" s="128"/>
+    </row>
+    <row r="14" spans="2:4">
+      <c r="B14" s="13"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="154"/>
+    </row>
+    <row r="16" spans="2:4">
+      <c r="C16" s="121"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet17" enableFormatConditionsCalculation="0">
     <tabColor theme="7" tint="0.39997558519241921"/>
@@ -16505,138 +17113,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0">
-    <tabColor theme="2"/>
-  </sheetPr>
-  <dimension ref="B2:D15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="1" max="1" width="10.83203125" style="1"/>
-    <col min="2" max="2" width="20.83203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="50.83203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" style="90" customWidth="1"/>
-    <col min="5" max="16384" width="10.83203125" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:4" ht="20">
-      <c r="B2" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4">
-      <c r="B4" s="286" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="152" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4">
-      <c r="B5" s="6"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="153"/>
-    </row>
-    <row r="6" spans="2:4">
-      <c r="B6" s="77">
-        <v>41583</v>
-      </c>
-      <c r="C6" s="118" t="s">
-        <v>274</v>
-      </c>
-      <c r="D6" s="119">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" ht="30">
-      <c r="B7" s="77">
-        <v>41611</v>
-      </c>
-      <c r="C7" s="122" t="s">
-        <v>296</v>
-      </c>
-      <c r="D7" s="128">
-        <v>1.01</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4">
-      <c r="B8" s="77">
-        <v>41618</v>
-      </c>
-      <c r="C8" s="121" t="s">
-        <v>297</v>
-      </c>
-      <c r="D8" s="128">
-        <v>1.02</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4">
-      <c r="B9" s="120">
-        <v>41682</v>
-      </c>
-      <c r="C9" s="121" t="s">
-        <v>308</v>
-      </c>
-      <c r="D9" s="128">
-        <v>1.03</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" ht="30">
-      <c r="B10" s="120">
-        <v>42576</v>
-      </c>
-      <c r="C10" s="122" t="s">
-        <v>407</v>
-      </c>
-      <c r="D10" s="128">
-        <v>1.04</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" ht="30">
-      <c r="B11" s="120">
-        <v>42594</v>
-      </c>
-      <c r="C11" s="122" t="s">
-        <v>449</v>
-      </c>
-      <c r="D11" s="128">
-        <v>1.05</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4">
-      <c r="B12" s="120"/>
-      <c r="C12" s="122"/>
-      <c r="D12" s="128"/>
-    </row>
-    <row r="13" spans="2:4">
-      <c r="B13" s="13"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="154"/>
-    </row>
-    <row r="15" spans="2:4">
-      <c r="C15" s="121"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet18" enableFormatConditionsCalculation="0">
     <tabColor theme="7" tint="0.39997558519241921"/>
@@ -16780,7 +17257,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet19" enableFormatConditionsCalculation="0">
     <tabColor theme="7" tint="0.39997558519241921"/>
@@ -16924,7 +17401,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet20" enableFormatConditionsCalculation="0">
     <tabColor theme="7" tint="0.39997558519241921"/>
@@ -17068,7 +17545,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet21" enableFormatConditionsCalculation="0">
     <tabColor theme="7" tint="0.39997558519241921"/>
@@ -17212,7 +17689,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet22" enableFormatConditionsCalculation="0">
     <tabColor theme="7" tint="0.39997558519241921"/>
@@ -17356,7 +17833,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet23" enableFormatConditionsCalculation="0">
     <tabColor theme="7" tint="0.39997558519241921"/>
@@ -17500,7 +17977,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet24" enableFormatConditionsCalculation="0">
     <tabColor theme="7" tint="0.39997558519241921"/>
@@ -17638,7 +18115,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet25" enableFormatConditionsCalculation="0">
     <tabColor theme="7" tint="0.39997558519241921"/>
@@ -17782,7 +18259,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet26" enableFormatConditionsCalculation="0">
     <tabColor theme="7" tint="0.39997558519241921"/>
@@ -17958,10 +18435,10 @@
   <sheetPr codeName="Sheet3" enableFormatConditionsCalculation="0">
     <tabColor theme="2"/>
   </sheetPr>
-  <dimension ref="B2:C29"/>
+  <dimension ref="B2:C34"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -18090,100 +18567,275 @@
       </c>
     </row>
     <row r="18" spans="2:3" ht="30" customHeight="1">
-      <c r="B18" s="97" t="s">
-        <v>255</v>
-      </c>
-      <c r="C18" s="150" t="s">
-        <v>226</v>
+      <c r="B18" s="95" t="s">
+        <v>417</v>
+      </c>
+      <c r="C18" s="149" t="s">
+        <v>457</v>
       </c>
     </row>
     <row r="19" spans="2:3" ht="30" customHeight="1">
-      <c r="B19" s="97" t="s">
-        <v>380</v>
-      </c>
-      <c r="C19" s="150" t="s">
-        <v>381</v>
+      <c r="B19" s="95" t="s">
+        <v>428</v>
+      </c>
+      <c r="C19" s="149" t="s">
+        <v>458</v>
       </c>
     </row>
     <row r="20" spans="2:3" ht="30" customHeight="1">
-      <c r="B20" s="97" t="s">
-        <v>382</v>
+      <c r="B20" s="96" t="s">
+        <v>441</v>
       </c>
       <c r="C20" s="150" t="s">
-        <v>383</v>
+        <v>459</v>
       </c>
     </row>
     <row r="21" spans="2:3" ht="30" customHeight="1">
-      <c r="B21" s="97" t="s">
-        <v>384</v>
+      <c r="B21" s="96" t="s">
+        <v>454</v>
       </c>
       <c r="C21" s="150" t="s">
-        <v>385</v>
+        <v>460</v>
       </c>
     </row>
     <row r="22" spans="2:3" ht="30" customHeight="1">
       <c r="B22" s="97" t="s">
-        <v>386</v>
+        <v>255</v>
       </c>
       <c r="C22" s="150" t="s">
-        <v>387</v>
+        <v>226</v>
       </c>
     </row>
     <row r="23" spans="2:3" ht="30" customHeight="1">
       <c r="B23" s="97" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="C23" s="150" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
     </row>
     <row r="24" spans="2:3" ht="30" customHeight="1">
       <c r="B24" s="97" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="C24" s="150" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
     </row>
     <row r="25" spans="2:3" ht="30" customHeight="1">
       <c r="B25" s="97" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="C25" s="150" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
     </row>
     <row r="26" spans="2:3" ht="30" customHeight="1">
       <c r="B26" s="97" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="C26" s="150" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
     </row>
     <row r="27" spans="2:3" ht="30" customHeight="1">
       <c r="B27" s="97" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="C27" s="150" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
     </row>
     <row r="28" spans="2:3" ht="30" customHeight="1">
       <c r="B28" s="97" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="C28" s="150" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
     </row>
     <row r="29" spans="2:3" ht="30" customHeight="1">
       <c r="B29" s="97" t="s">
+        <v>392</v>
+      </c>
+      <c r="C29" s="150" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" ht="30" customHeight="1">
+      <c r="B30" s="97" t="s">
+        <v>395</v>
+      </c>
+      <c r="C30" s="150" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" ht="30" customHeight="1">
+      <c r="B31" s="97" t="s">
+        <v>396</v>
+      </c>
+      <c r="C31" s="150" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3" ht="30" customHeight="1">
+      <c r="B32" s="97" t="s">
+        <v>398</v>
+      </c>
+      <c r="C32" s="150" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" ht="30" customHeight="1">
+      <c r="B33" s="97" t="s">
         <v>443</v>
       </c>
-      <c r="C29" s="150" t="s">
+      <c r="C33" s="150" t="s">
         <v>444</v>
       </c>
+    </row>
+    <row r="34" spans="2:3" ht="30" customHeight="1">
+      <c r="B34" s="97" t="s">
+        <v>461</v>
+      </c>
+      <c r="C34" s="150" t="s">
+        <v>444</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
+    <tabColor theme="7" tint="0.39997558519241921"/>
+  </sheetPr>
+  <dimension ref="A1:J11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="27" style="277" customWidth="1"/>
+    <col min="2" max="10" width="11.6640625" style="277" customWidth="1"/>
+    <col min="11" max="11" width="11.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="277" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="277" t="s">
+        <v>327</v>
+      </c>
+      <c r="B2" s="277" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="278" t="s">
+        <v>462</v>
+      </c>
+      <c r="B3" s="317" t="e">
+        <f>'Steam methane reformer input'!F19</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="278" t="s">
+        <v>427</v>
+      </c>
+      <c r="B4" s="317" t="e">
+        <f>'Steam methane reformer input'!F20</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="B5" s="317"/>
+      <c r="C5" s="296"/>
+      <c r="D5" s="193"/>
+      <c r="E5" s="193"/>
+      <c r="F5" s="193"/>
+      <c r="G5" s="193"/>
+      <c r="H5" s="193"/>
+      <c r="I5" s="193"/>
+      <c r="J5" s="193"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="278"/>
+      <c r="B6" s="317"/>
+      <c r="C6" s="296"/>
+      <c r="D6" s="296"/>
+      <c r="E6" s="296"/>
+      <c r="F6" s="296"/>
+      <c r="G6" s="296"/>
+      <c r="H6" s="296"/>
+      <c r="I6" s="296"/>
+      <c r="J6" s="296"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="278"/>
+      <c r="B7" s="317"/>
+      <c r="C7" s="296"/>
+      <c r="D7" s="296"/>
+      <c r="E7" s="296"/>
+      <c r="F7" s="296"/>
+      <c r="G7" s="296"/>
+      <c r="H7" s="296"/>
+      <c r="I7" s="296"/>
+      <c r="J7" s="296"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="278"/>
+      <c r="B8" s="317"/>
+      <c r="C8" s="193"/>
+      <c r="D8" s="193"/>
+      <c r="E8" s="193"/>
+      <c r="F8" s="193"/>
+      <c r="G8" s="193"/>
+      <c r="H8" s="193"/>
+      <c r="I8" s="193"/>
+      <c r="J8" s="193"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="278"/>
+      <c r="B9" s="317"/>
+      <c r="C9" s="296"/>
+      <c r="D9" s="193"/>
+      <c r="E9" s="193"/>
+      <c r="F9" s="193"/>
+      <c r="G9" s="193"/>
+      <c r="H9" s="193"/>
+      <c r="I9" s="193"/>
+      <c r="J9" s="193"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="278"/>
+      <c r="B10" s="317"/>
+      <c r="C10" s="296"/>
+      <c r="D10" s="301"/>
+      <c r="E10" s="193"/>
+      <c r="F10" s="193"/>
+      <c r="G10" s="193"/>
+      <c r="H10" s="193"/>
+      <c r="I10" s="193"/>
+      <c r="J10" s="193"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="278"/>
+      <c r="B11" s="317"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -20242,7 +20894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:16" hidden="1" outlineLevel="1">
+    <row r="39" spans="1:16" outlineLevel="1">
       <c r="A39" s="8"/>
       <c r="B39" s="31"/>
       <c r="C39" s="257"/>
@@ -20260,7 +20912,7 @@
       <c r="O39" s="207"/>
       <c r="P39" s="208"/>
     </row>
-    <row r="40" spans="1:16" hidden="1" outlineLevel="1">
+    <row r="40" spans="1:16" outlineLevel="1">
       <c r="A40" s="8"/>
       <c r="B40" s="28" t="s">
         <v>310</v>
@@ -20280,7 +20932,7 @@
       <c r="O40" s="207"/>
       <c r="P40" s="208"/>
     </row>
-    <row r="41" spans="1:16" ht="16" hidden="1" outlineLevel="1" thickBot="1">
+    <row r="41" spans="1:16" ht="16" outlineLevel="1" thickBot="1">
       <c r="A41" s="8"/>
       <c r="B41" s="22" t="s">
         <v>283</v>
@@ -20300,7 +20952,7 @@
       <c r="O41" s="207"/>
       <c r="P41" s="208"/>
     </row>
-    <row r="42" spans="1:16" ht="16" hidden="1" outlineLevel="1" thickBot="1">
+    <row r="42" spans="1:16" ht="16" outlineLevel="1" thickBot="1">
       <c r="A42" s="8"/>
       <c r="B42" s="22"/>
       <c r="C42" s="258" t="s">
@@ -20335,7 +20987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:16" ht="16" hidden="1" outlineLevel="1" thickBot="1">
+    <row r="43" spans="1:16" ht="16" outlineLevel="1" thickBot="1">
       <c r="A43" s="8"/>
       <c r="B43" s="22"/>
       <c r="C43" s="258" t="s">
@@ -20370,7 +21022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:16" ht="16" hidden="1" outlineLevel="1" thickBot="1">
+    <row r="44" spans="1:16" ht="16" outlineLevel="1" thickBot="1">
       <c r="A44" s="8"/>
       <c r="B44" s="22"/>
       <c r="C44" s="258" t="s">
@@ -20405,7 +21057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:16" ht="16" hidden="1" outlineLevel="1" thickBot="1">
+    <row r="45" spans="1:16" ht="16" outlineLevel="1" thickBot="1">
       <c r="A45" s="8"/>
       <c r="B45" s="22"/>
       <c r="C45" s="258" t="s">
@@ -20440,7 +21092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:16" ht="16" hidden="1" outlineLevel="1" thickBot="1">
+    <row r="46" spans="1:16" ht="16" outlineLevel="1" thickBot="1">
       <c r="A46" s="8"/>
       <c r="B46" s="22"/>
       <c r="C46" s="258" t="s">
@@ -20475,7 +21127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:16" ht="16" hidden="1" outlineLevel="1" thickBot="1">
+    <row r="47" spans="1:16" ht="16" outlineLevel="1" thickBot="1">
       <c r="A47" s="8"/>
       <c r="B47" s="22"/>
       <c r="C47" s="258" t="s">
@@ -20510,7 +21162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:16" hidden="1" outlineLevel="1">
+    <row r="48" spans="1:16" outlineLevel="1">
       <c r="A48" s="8"/>
       <c r="B48" s="22"/>
       <c r="C48" s="202"/>
@@ -20528,7 +21180,7 @@
       <c r="O48" s="207"/>
       <c r="P48" s="7"/>
     </row>
-    <row r="49" spans="1:16" ht="16" hidden="1" outlineLevel="1" thickBot="1">
+    <row r="49" spans="1:16" ht="16" outlineLevel="1" thickBot="1">
       <c r="A49" s="8"/>
       <c r="B49" s="22" t="s">
         <v>284</v>
@@ -20548,7 +21200,7 @@
       <c r="O49" s="207"/>
       <c r="P49" s="208"/>
     </row>
-    <row r="50" spans="1:16" ht="16" hidden="1" outlineLevel="1" thickBot="1">
+    <row r="50" spans="1:16" ht="16" outlineLevel="1" thickBot="1">
       <c r="A50" s="8"/>
       <c r="B50" s="22"/>
       <c r="C50" s="258" t="s">
@@ -20583,7 +21235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:16" ht="16" hidden="1" outlineLevel="1" thickBot="1">
+    <row r="51" spans="1:16" ht="16" outlineLevel="1" thickBot="1">
       <c r="A51" s="8"/>
       <c r="B51" s="22"/>
       <c r="C51" s="258" t="s">
@@ -20618,7 +21270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:16" ht="16" hidden="1" outlineLevel="1" thickBot="1">
+    <row r="52" spans="1:16" ht="16" outlineLevel="1" thickBot="1">
       <c r="A52" s="8"/>
       <c r="B52" s="22"/>
       <c r="C52" s="258" t="s">
@@ -20653,7 +21305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:16" ht="16" collapsed="1" thickBot="1">
+    <row r="53" spans="1:16" ht="16" thickBot="1">
       <c r="B53" s="33"/>
       <c r="C53" s="46"/>
       <c r="D53" s="159"/>
@@ -20675,82 +21327,82 @@
     <mergeCell ref="B5:E7"/>
   </mergeCells>
   <conditionalFormatting sqref="L18">
-    <cfRule type="cellIs" dxfId="23" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="19" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L14">
-    <cfRule type="cellIs" dxfId="22" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="17" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L13">
-    <cfRule type="cellIs" dxfId="21" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="16" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L28">
-    <cfRule type="cellIs" dxfId="20" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="15" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L24">
-    <cfRule type="cellIs" dxfId="19" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="14" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L34">
-    <cfRule type="cellIs" dxfId="18" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="13" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L38">
-    <cfRule type="cellIs" dxfId="17" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="12" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L42">
-    <cfRule type="cellIs" dxfId="16" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="11" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L43">
-    <cfRule type="cellIs" dxfId="15" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="10" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L44">
-    <cfRule type="cellIs" dxfId="14" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="9" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L45">
-    <cfRule type="cellIs" dxfId="13" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="8" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L46">
-    <cfRule type="cellIs" dxfId="12" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="7" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L47">
-    <cfRule type="cellIs" dxfId="11" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="6" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L50">
-    <cfRule type="cellIs" dxfId="10" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="5" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L51">
-    <cfRule type="cellIs" dxfId="9" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="4" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L52">
-    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>

--- a/analyses/4b_chemical_industry_analysis.xlsx
+++ b/analyses/4b_chemical_industry_analysis.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26405"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27526"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-20" windowWidth="38400" windowHeight="23520" tabRatio="835" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="835" firstSheet="25" activeTab="28"/>
   </bookViews>
   <sheets>
     <sheet name="Cover Sheet" sheetId="34" r:id="rId1"/>
@@ -2013,9 +2013,6 @@
     <t>Oil products</t>
   </si>
   <si>
-    <t>output.oil_products</t>
-  </si>
-  <si>
     <t>Total (TJ)</t>
   </si>
   <si>
@@ -2086,6 +2083,9 @@
   </si>
   <si>
     <t>industry_chemicals_fertilizers_steam_methane_reformer_hydrogen_efficiency</t>
+  </si>
+  <si>
+    <t>output.crude_oil</t>
   </si>
 </sst>
 </file>
@@ -5646,6 +5646,12 @@
     <xf numFmtId="167" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="14" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -5687,12 +5693,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2059">
@@ -11580,16 +11580,16 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="1"/>
-    <col min="2" max="2" width="13.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.625" style="1"/>
+    <col min="2" max="2" width="13.375" style="1" customWidth="1"/>
     <col min="3" max="3" width="44" style="1" customWidth="1"/>
-    <col min="4" max="7" width="10.83203125" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="10.83203125" style="1"/>
+    <col min="4" max="7" width="10.875" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="10.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" ht="20">
+    <row r="2" spans="2:4" ht="21">
       <c r="B2" s="2" t="s">
         <v>186</v>
       </c>
@@ -11685,14 +11685,14 @@
       </c>
       <c r="D14" s="7"/>
     </row>
-    <row r="15" spans="2:4" ht="16" thickBot="1">
+    <row r="15" spans="2:4" ht="17" thickBot="1">
       <c r="B15" s="14"/>
       <c r="C15" s="12" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="7"/>
     </row>
-    <row r="16" spans="2:4" ht="16" thickBot="1">
+    <row r="16" spans="2:4" ht="17" thickBot="1">
       <c r="B16" s="14"/>
       <c r="C16" s="16" t="s">
         <v>12</v>
@@ -11852,14 +11852,14 @@
       <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="10.625" style="1"/>
     <col min="2" max="2" width="24.5" style="1" customWidth="1"/>
-    <col min="3" max="4" width="14.33203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.33203125" style="90" customWidth="1"/>
-    <col min="6" max="10" width="14.33203125" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="10.83203125" style="1"/>
+    <col min="3" max="4" width="14.375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.375" style="90" customWidth="1"/>
+    <col min="6" max="10" width="14.375" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="10.625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
@@ -11876,7 +11876,7 @@
       <c r="L1" s="82"/>
       <c r="M1" s="82"/>
     </row>
-    <row r="2" spans="1:17" ht="20">
+    <row r="2" spans="1:17" ht="21">
       <c r="A2" s="82"/>
       <c r="B2" s="81" t="s">
         <v>207</v>
@@ -11925,12 +11925,12 @@
     </row>
     <row r="5" spans="1:17" ht="113" customHeight="1">
       <c r="A5" s="82"/>
-      <c r="B5" s="343" t="s">
-        <v>451</v>
-      </c>
-      <c r="C5" s="344"/>
-      <c r="D5" s="344"/>
-      <c r="E5" s="345"/>
+      <c r="B5" s="345" t="s">
+        <v>450</v>
+      </c>
+      <c r="C5" s="346"/>
+      <c r="D5" s="346"/>
+      <c r="E5" s="347"/>
       <c r="F5" s="82"/>
       <c r="G5" s="82"/>
       <c r="H5" s="82"/>
@@ -11939,7 +11939,7 @@
       <c r="K5" s="82"/>
       <c r="L5" s="82"/>
     </row>
-    <row r="6" spans="1:17" ht="16" thickBot="1">
+    <row r="6" spans="1:17" ht="17" thickBot="1">
       <c r="A6" s="82"/>
       <c r="B6" s="82"/>
       <c r="C6" s="82"/>
@@ -11988,7 +11988,7 @@
       <c r="M8" s="82"/>
       <c r="N8" s="82"/>
     </row>
-    <row r="9" spans="1:17" ht="30">
+    <row r="9" spans="1:17">
       <c r="A9" s="82"/>
       <c r="B9" s="115"/>
       <c r="C9" s="155" t="s">
@@ -12025,7 +12025,7 @@
       <c r="P9" s="82"/>
       <c r="Q9" s="82"/>
     </row>
-    <row r="10" spans="1:17" ht="30">
+    <row r="10" spans="1:17" ht="32">
       <c r="A10" s="82"/>
       <c r="B10" s="106" t="s">
         <v>402</v>
@@ -12232,7 +12232,7 @@
       <c r="P14" s="82"/>
       <c r="Q14" s="82"/>
     </row>
-    <row r="15" spans="1:17" ht="30">
+    <row r="15" spans="1:17" ht="32">
       <c r="A15" s="82"/>
       <c r="B15" s="106" t="s">
         <v>403</v>
@@ -12421,7 +12421,7 @@
       <c r="P18" s="82"/>
       <c r="Q18" s="82"/>
     </row>
-    <row r="19" spans="1:17" ht="16" thickBot="1">
+    <row r="19" spans="1:17" ht="17" thickBot="1">
       <c r="A19" s="82"/>
       <c r="B19" s="114"/>
       <c r="C19" s="171"/>
@@ -12752,15 +12752,15 @@
       <selection activeCell="E11" sqref="E11:E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="1"/>
-    <col min="2" max="3" width="21.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="21.1640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="22.1640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" style="90" customWidth="1"/>
-    <col min="7" max="11" width="14.33203125" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="10.625" style="1"/>
+    <col min="2" max="3" width="21.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="21.125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="22.125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.375" style="90" customWidth="1"/>
+    <col min="7" max="11" width="14.375" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="10.625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -12778,7 +12778,7 @@
       <c r="M1" s="82"/>
       <c r="N1" s="82"/>
     </row>
-    <row r="2" spans="1:14" ht="20">
+    <row r="2" spans="1:14" ht="21">
       <c r="A2" s="82"/>
       <c r="B2" s="81" t="s">
         <v>341</v>
@@ -12829,13 +12829,13 @@
     </row>
     <row r="5" spans="1:14" ht="41" customHeight="1">
       <c r="A5" s="82"/>
-      <c r="B5" s="343" t="s">
+      <c r="B5" s="345" t="s">
         <v>335</v>
       </c>
-      <c r="C5" s="344"/>
-      <c r="D5" s="344"/>
-      <c r="E5" s="344"/>
-      <c r="F5" s="345"/>
+      <c r="C5" s="346"/>
+      <c r="D5" s="346"/>
+      <c r="E5" s="346"/>
+      <c r="F5" s="347"/>
       <c r="G5" s="82"/>
       <c r="H5" s="82"/>
       <c r="I5" s="82"/>
@@ -12844,7 +12844,7 @@
       <c r="L5" s="82"/>
       <c r="M5" s="82"/>
     </row>
-    <row r="6" spans="1:14" ht="16" thickBot="1">
+    <row r="6" spans="1:14" ht="17" thickBot="1">
       <c r="A6" s="82"/>
       <c r="B6" s="82"/>
       <c r="C6" s="82"/>
@@ -13449,7 +13449,7 @@
       <c r="J39" s="82"/>
       <c r="K39" s="82"/>
     </row>
-    <row r="40" spans="1:17" ht="30">
+    <row r="40" spans="1:17" ht="32">
       <c r="A40" s="82"/>
       <c r="B40" s="304" t="s">
         <v>338</v>
@@ -13527,7 +13527,7 @@
       <c r="J43" s="82"/>
       <c r="K43" s="82"/>
     </row>
-    <row r="44" spans="1:17" ht="16" thickBot="1">
+    <row r="44" spans="1:17" ht="17" thickBot="1">
       <c r="A44" s="82"/>
       <c r="B44" s="137"/>
       <c r="C44" s="146"/>
@@ -13863,15 +13863,15 @@
       <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="1"/>
-    <col min="2" max="3" width="21.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="21.1640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="22.1640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" style="90" customWidth="1"/>
-    <col min="7" max="11" width="14.33203125" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="10.625" style="1"/>
+    <col min="2" max="3" width="21.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="21.125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="22.125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.375" style="90" customWidth="1"/>
+    <col min="7" max="11" width="14.375" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="10.625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -13889,7 +13889,7 @@
       <c r="M1" s="82"/>
       <c r="N1" s="82"/>
     </row>
-    <row r="2" spans="1:14" ht="20">
+    <row r="2" spans="1:14" ht="21">
       <c r="A2" s="82"/>
       <c r="B2" s="81" t="s">
         <v>340</v>
@@ -13940,13 +13940,13 @@
     </row>
     <row r="5" spans="1:14" ht="41" customHeight="1">
       <c r="A5" s="82"/>
-      <c r="B5" s="343" t="s">
+      <c r="B5" s="345" t="s">
         <v>339</v>
       </c>
-      <c r="C5" s="344"/>
-      <c r="D5" s="344"/>
-      <c r="E5" s="344"/>
-      <c r="F5" s="345"/>
+      <c r="C5" s="346"/>
+      <c r="D5" s="346"/>
+      <c r="E5" s="346"/>
+      <c r="F5" s="347"/>
       <c r="G5" s="82"/>
       <c r="H5" s="82"/>
       <c r="I5" s="82"/>
@@ -13955,7 +13955,7 @@
       <c r="L5" s="82"/>
       <c r="M5" s="82"/>
     </row>
-    <row r="6" spans="1:14" ht="16" thickBot="1">
+    <row r="6" spans="1:14" ht="17" thickBot="1">
       <c r="A6" s="82"/>
       <c r="B6" s="82"/>
       <c r="C6" s="82"/>
@@ -14365,7 +14365,7 @@
       <c r="J28" s="82"/>
       <c r="K28" s="82"/>
     </row>
-    <row r="29" spans="1:11" ht="16" thickBot="1">
+    <row r="29" spans="1:11" ht="17" thickBot="1">
       <c r="A29" s="82"/>
       <c r="B29" s="137"/>
       <c r="C29" s="146"/>
@@ -14836,17 +14836,17 @@
       <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="82"/>
-    <col min="2" max="2" width="25.83203125" style="82" customWidth="1"/>
-    <col min="3" max="3" width="30.83203125" style="82" customWidth="1"/>
-    <col min="4" max="4" width="2.83203125" style="82" customWidth="1"/>
-    <col min="5" max="13" width="15.83203125" style="82" customWidth="1"/>
-    <col min="14" max="16384" width="10.83203125" style="82"/>
+    <col min="1" max="1" width="10.625" style="82"/>
+    <col min="2" max="2" width="25.875" style="82" customWidth="1"/>
+    <col min="3" max="3" width="30.875" style="82" customWidth="1"/>
+    <col min="4" max="4" width="2.875" style="82" customWidth="1"/>
+    <col min="5" max="13" width="15.875" style="82" customWidth="1"/>
+    <col min="14" max="16384" width="10.625" style="82"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" ht="20">
+    <row r="2" spans="2:13" ht="21">
       <c r="B2" s="81" t="s">
         <v>199</v>
       </c>
@@ -14878,17 +14878,17 @@
       <c r="H4" s="8"/>
     </row>
     <row r="5" spans="2:13" ht="107" customHeight="1">
-      <c r="B5" s="346" t="s">
+      <c r="B5" s="348" t="s">
         <v>405</v>
       </c>
-      <c r="C5" s="347"/>
-      <c r="D5" s="347"/>
-      <c r="E5" s="347"/>
-      <c r="F5" s="347"/>
-      <c r="G5" s="348"/>
+      <c r="C5" s="349"/>
+      <c r="D5" s="349"/>
+      <c r="E5" s="349"/>
+      <c r="F5" s="349"/>
+      <c r="G5" s="350"/>
       <c r="H5" s="8"/>
     </row>
-    <row r="6" spans="2:13" ht="16" thickBot="1"/>
+    <row r="6" spans="2:13" ht="17" thickBot="1"/>
     <row r="7" spans="2:13">
       <c r="B7" s="138" t="s">
         <v>208</v>
@@ -15025,7 +15025,7 @@
       <c r="L12" s="217"/>
       <c r="M12" s="218"/>
     </row>
-    <row r="13" spans="2:13" ht="30">
+    <row r="13" spans="2:13">
       <c r="B13" s="135" t="s">
         <v>277</v>
       </c>
@@ -15263,7 +15263,7 @@
       <c r="L19" s="217"/>
       <c r="M19" s="218"/>
     </row>
-    <row r="20" spans="2:13" ht="30">
+    <row r="20" spans="2:13" ht="32">
       <c r="B20" s="135" t="s">
         <v>278</v>
       </c>
@@ -15476,7 +15476,7 @@
         <v>ERROR</v>
       </c>
     </row>
-    <row r="26" spans="2:13" ht="16" thickBot="1">
+    <row r="26" spans="2:13" ht="17" thickBot="1">
       <c r="B26" s="137"/>
       <c r="C26" s="223"/>
       <c r="D26" s="146"/>
@@ -15520,17 +15520,17 @@
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="82"/>
-    <col min="2" max="2" width="25.83203125" style="82" customWidth="1"/>
-    <col min="3" max="3" width="30.83203125" style="82" customWidth="1"/>
-    <col min="4" max="4" width="2.83203125" style="82" customWidth="1"/>
-    <col min="5" max="13" width="15.83203125" style="82" customWidth="1"/>
-    <col min="14" max="16384" width="10.83203125" style="82"/>
+    <col min="1" max="1" width="10.625" style="82"/>
+    <col min="2" max="2" width="25.875" style="82" customWidth="1"/>
+    <col min="3" max="3" width="30.875" style="82" customWidth="1"/>
+    <col min="4" max="4" width="2.875" style="82" customWidth="1"/>
+    <col min="5" max="13" width="15.875" style="82" customWidth="1"/>
+    <col min="14" max="16384" width="10.625" style="82"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" ht="20">
+    <row r="2" spans="2:12" ht="21">
       <c r="B2" s="81" t="s">
         <v>417</v>
       </c>
@@ -15565,18 +15565,18 @@
       <c r="I4" s="8"/>
     </row>
     <row r="5" spans="2:12" ht="26" customHeight="1">
-      <c r="B5" s="346" t="s">
-        <v>450</v>
-      </c>
-      <c r="C5" s="347"/>
-      <c r="D5" s="347"/>
-      <c r="E5" s="347"/>
-      <c r="F5" s="347"/>
-      <c r="G5" s="347"/>
-      <c r="H5" s="348"/>
+      <c r="B5" s="348" t="s">
+        <v>449</v>
+      </c>
+      <c r="C5" s="349"/>
+      <c r="D5" s="349"/>
+      <c r="E5" s="349"/>
+      <c r="F5" s="349"/>
+      <c r="G5" s="349"/>
+      <c r="H5" s="350"/>
       <c r="I5" s="8"/>
     </row>
-    <row r="6" spans="2:12" ht="16" thickBot="1"/>
+    <row r="6" spans="2:12" ht="17" thickBot="1"/>
     <row r="7" spans="2:12">
       <c r="B7" s="138" t="s">
         <v>208</v>
@@ -15609,7 +15609,7 @@
       <c r="K8" s="110"/>
       <c r="L8" s="111"/>
     </row>
-    <row r="9" spans="2:12" ht="30">
+    <row r="9" spans="2:12" ht="32">
       <c r="B9" s="132" t="s">
         <v>261</v>
       </c>
@@ -15637,7 +15637,7 @@
         <v>416</v>
       </c>
       <c r="L9" s="129" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="10" spans="2:12">
@@ -15694,7 +15694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:12" ht="16" thickBot="1">
+    <row r="12" spans="2:12" ht="17" thickBot="1">
       <c r="B12" s="137"/>
       <c r="C12" s="223"/>
       <c r="D12" s="146"/>
@@ -15737,17 +15737,17 @@
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="82"/>
-    <col min="2" max="2" width="25.83203125" style="82" customWidth="1"/>
-    <col min="3" max="3" width="30.83203125" style="82" customWidth="1"/>
-    <col min="4" max="4" width="2.83203125" style="82" customWidth="1"/>
-    <col min="5" max="10" width="15.83203125" style="82" customWidth="1"/>
-    <col min="11" max="16384" width="10.83203125" style="82"/>
+    <col min="1" max="1" width="10.625" style="82"/>
+    <col min="2" max="2" width="25.875" style="82" customWidth="1"/>
+    <col min="3" max="3" width="30.875" style="82" customWidth="1"/>
+    <col min="4" max="4" width="2.875" style="82" customWidth="1"/>
+    <col min="5" max="10" width="15.875" style="82" customWidth="1"/>
+    <col min="11" max="16384" width="10.625" style="82"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" ht="20">
+    <row r="2" spans="2:9" ht="21">
       <c r="B2" s="81" t="s">
         <v>428</v>
       </c>
@@ -15776,16 +15776,16 @@
       <c r="G4" s="8"/>
     </row>
     <row r="5" spans="2:9" ht="37" customHeight="1">
-      <c r="B5" s="346" t="s">
-        <v>448</v>
-      </c>
-      <c r="C5" s="347"/>
-      <c r="D5" s="347"/>
-      <c r="E5" s="347"/>
-      <c r="F5" s="348"/>
+      <c r="B5" s="348" t="s">
+        <v>447</v>
+      </c>
+      <c r="C5" s="349"/>
+      <c r="D5" s="349"/>
+      <c r="E5" s="349"/>
+      <c r="F5" s="350"/>
       <c r="G5" s="8"/>
     </row>
-    <row r="6" spans="2:9" ht="16" thickBot="1"/>
+    <row r="6" spans="2:9" ht="17" thickBot="1"/>
     <row r="7" spans="2:9">
       <c r="B7" s="138" t="s">
         <v>208</v>
@@ -15889,7 +15889,7 @@
     </row>
     <row r="14" spans="2:9">
       <c r="B14" s="135" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C14" s="246"/>
       <c r="D14" s="143"/>
@@ -15926,7 +15926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:9" ht="16" thickBot="1">
+    <row r="16" spans="2:9" ht="17" thickBot="1">
       <c r="B16" s="137"/>
       <c r="C16" s="223"/>
       <c r="D16" s="146"/>
@@ -15966,19 +15966,19 @@
       <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="82"/>
-    <col min="2" max="2" width="25.83203125" style="82" customWidth="1"/>
-    <col min="3" max="3" width="30.83203125" style="82" customWidth="1"/>
-    <col min="4" max="4" width="2.83203125" style="82" customWidth="1"/>
-    <col min="5" max="11" width="15.83203125" style="82" customWidth="1"/>
-    <col min="12" max="16384" width="10.83203125" style="82"/>
+    <col min="1" max="1" width="10.625" style="82"/>
+    <col min="2" max="2" width="25.875" style="82" customWidth="1"/>
+    <col min="3" max="3" width="30.875" style="82" customWidth="1"/>
+    <col min="4" max="4" width="2.875" style="82" customWidth="1"/>
+    <col min="5" max="11" width="15.875" style="82" customWidth="1"/>
+    <col min="12" max="16384" width="10.625" style="82"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" ht="20">
+    <row r="2" spans="2:8" ht="21">
       <c r="B2" s="81" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C2" s="81"/>
       <c r="D2" s="81"/>
@@ -16008,17 +16008,17 @@
       <c r="H4" s="8"/>
     </row>
     <row r="5" spans="2:8" ht="84" customHeight="1">
-      <c r="B5" s="346" t="s">
-        <v>452</v>
-      </c>
-      <c r="C5" s="347"/>
-      <c r="D5" s="347"/>
-      <c r="E5" s="347"/>
-      <c r="F5" s="347"/>
-      <c r="G5" s="348"/>
+      <c r="B5" s="348" t="s">
+        <v>451</v>
+      </c>
+      <c r="C5" s="349"/>
+      <c r="D5" s="349"/>
+      <c r="E5" s="349"/>
+      <c r="F5" s="349"/>
+      <c r="G5" s="350"/>
       <c r="H5" s="8"/>
     </row>
-    <row r="6" spans="2:8" ht="16" thickBot="1"/>
+    <row r="6" spans="2:8" ht="17" thickBot="1"/>
     <row r="7" spans="2:8">
       <c r="B7" s="138" t="s">
         <v>208</v>
@@ -16042,7 +16042,7 @@
       <c r="C9" s="219"/>
       <c r="D9" s="141"/>
       <c r="E9" s="112" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="F9" s="129" t="s">
         <v>337</v>
@@ -16218,7 +16218,7 @@
     <row r="23" spans="2:6">
       <c r="B23" s="134"/>
       <c r="C23" s="326" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D23" s="143"/>
       <c r="E23" s="167">
@@ -16230,7 +16230,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:6" ht="16" thickBot="1">
+    <row r="24" spans="2:6" ht="17" thickBot="1">
       <c r="B24" s="137"/>
       <c r="C24" s="223"/>
       <c r="D24" s="146"/>
@@ -16272,19 +16272,19 @@
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="82"/>
-    <col min="2" max="2" width="25.83203125" style="82" customWidth="1"/>
-    <col min="3" max="3" width="30.83203125" style="82" customWidth="1"/>
-    <col min="4" max="4" width="2.83203125" style="82" customWidth="1"/>
-    <col min="5" max="11" width="15.83203125" style="82" customWidth="1"/>
-    <col min="12" max="16384" width="10.83203125" style="82"/>
+    <col min="1" max="1" width="10.625" style="82"/>
+    <col min="2" max="2" width="25.875" style="82" customWidth="1"/>
+    <col min="3" max="3" width="30.875" style="82" customWidth="1"/>
+    <col min="4" max="4" width="2.875" style="82" customWidth="1"/>
+    <col min="5" max="11" width="15.875" style="82" customWidth="1"/>
+    <col min="12" max="16384" width="10.625" style="82"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" ht="20">
+    <row r="2" spans="2:8" ht="21">
       <c r="B2" s="81" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C2" s="81"/>
       <c r="D2" s="81"/>
@@ -16314,17 +16314,17 @@
       <c r="H4" s="8"/>
     </row>
     <row r="5" spans="2:8" ht="24" customHeight="1">
-      <c r="B5" s="346" t="s">
-        <v>455</v>
-      </c>
-      <c r="C5" s="347"/>
-      <c r="D5" s="347"/>
-      <c r="E5" s="347"/>
-      <c r="F5" s="347"/>
-      <c r="G5" s="348"/>
+      <c r="B5" s="348" t="s">
+        <v>454</v>
+      </c>
+      <c r="C5" s="349"/>
+      <c r="D5" s="349"/>
+      <c r="E5" s="349"/>
+      <c r="F5" s="349"/>
+      <c r="G5" s="350"/>
       <c r="H5" s="8"/>
     </row>
-    <row r="6" spans="2:8" ht="16" thickBot="1"/>
+    <row r="6" spans="2:8" ht="17" thickBot="1"/>
     <row r="7" spans="2:8">
       <c r="B7" s="138" t="s">
         <v>208</v>
@@ -16348,7 +16348,7 @@
       <c r="C9" s="219"/>
       <c r="D9" s="141"/>
       <c r="E9" s="112" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="F9" s="129" t="s">
         <v>337</v>
@@ -16356,7 +16356,7 @@
     </row>
     <row r="10" spans="2:8">
       <c r="B10" s="135" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C10" s="246"/>
       <c r="D10" s="143"/>
@@ -16432,10 +16432,10 @@
     </row>
     <row r="17" spans="2:6">
       <c r="B17" s="318"/>
-      <c r="C17" s="349"/>
+      <c r="C17" s="335"/>
       <c r="D17" s="320"/>
       <c r="E17" s="321"/>
-      <c r="F17" s="350"/>
+      <c r="F17" s="336"/>
     </row>
     <row r="18" spans="2:6">
       <c r="B18" s="135" t="s">
@@ -16449,7 +16449,7 @@
     <row r="19" spans="2:6">
       <c r="B19" s="135"/>
       <c r="C19" s="246" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D19" s="143"/>
       <c r="E19" s="167" t="str">
@@ -16476,7 +16476,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="21" spans="2:6" ht="16" thickBot="1">
+    <row r="21" spans="2:6" ht="17" thickBot="1">
       <c r="B21" s="137"/>
       <c r="C21" s="223"/>
       <c r="D21" s="146"/>
@@ -16518,10 +16518,10 @@
       <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="10" width="11.6640625" style="277" customWidth="1"/>
-    <col min="11" max="11" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="10" width="11.625" style="277" customWidth="1"/>
+    <col min="11" max="11" width="11.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -16694,10 +16694,10 @@
       <selection activeCell="B3" sqref="B3:B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="10" width="11.6640625" style="277" customWidth="1"/>
-    <col min="11" max="11" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="10" width="11.625" style="277" customWidth="1"/>
+    <col min="11" max="11" width="11.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -16838,16 +16838,16 @@
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="1"/>
-    <col min="2" max="2" width="20.83203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="50.83203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" style="90" customWidth="1"/>
-    <col min="5" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="10.625" style="1"/>
+    <col min="2" max="2" width="20.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="50.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.875" style="90" customWidth="1"/>
+    <col min="5" max="16384" width="10.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" ht="20">
+    <row r="2" spans="2:4" ht="21">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -16879,7 +16879,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:4" ht="30">
+    <row r="7" spans="2:4">
       <c r="B7" s="77">
         <v>41611</v>
       </c>
@@ -16912,7 +16912,7 @@
         <v>1.03</v>
       </c>
     </row>
-    <row r="10" spans="2:4" ht="30">
+    <row r="10" spans="2:4" ht="32">
       <c r="B10" s="120">
         <v>42576</v>
       </c>
@@ -16923,12 +16923,12 @@
         <v>1.04</v>
       </c>
     </row>
-    <row r="11" spans="2:4" ht="30">
+    <row r="11" spans="2:4">
       <c r="B11" s="120">
         <v>42594</v>
       </c>
       <c r="C11" s="122" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D11" s="128">
         <v>1.05</v>
@@ -16939,7 +16939,7 @@
         <v>42615</v>
       </c>
       <c r="C12" s="122" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D12" s="128">
         <v>1.06</v>
@@ -16980,10 +16980,10 @@
       <selection activeCell="B3" sqref="B3:B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="10" width="11.6640625" style="277" customWidth="1"/>
-    <col min="11" max="11" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="10" width="11.625" style="277" customWidth="1"/>
+    <col min="11" max="11" width="11.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -17124,10 +17124,10 @@
       <selection activeCell="B3" sqref="B3:B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="10" width="11.6640625" style="277" customWidth="1"/>
-    <col min="11" max="11" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="10" width="11.625" style="277" customWidth="1"/>
+    <col min="11" max="11" width="11.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -17268,10 +17268,10 @@
       <selection activeCell="B3" sqref="B3:B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="10" width="11.6640625" style="277" customWidth="1"/>
-    <col min="11" max="11" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="10" width="11.625" style="277" customWidth="1"/>
+    <col min="11" max="11" width="11.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -17412,10 +17412,10 @@
       <selection activeCell="B3" sqref="B3:B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="10" width="11.6640625" style="277" customWidth="1"/>
-    <col min="11" max="11" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="10" width="11.625" style="277" customWidth="1"/>
+    <col min="11" max="11" width="11.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -17556,10 +17556,10 @@
       <selection activeCell="B3" sqref="B3:B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="10" width="11.6640625" style="277" customWidth="1"/>
-    <col min="11" max="11" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="10" width="11.625" style="277" customWidth="1"/>
+    <col min="11" max="11" width="11.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -17700,10 +17700,10 @@
       <selection activeCell="B3" sqref="B3:B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="10" width="11.6640625" style="277" customWidth="1"/>
-    <col min="11" max="11" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="10" width="11.625" style="277" customWidth="1"/>
+    <col min="11" max="11" width="11.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -17844,10 +17844,10 @@
       <selection activeCell="B3" sqref="B3:B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="10" width="11.6640625" style="277" customWidth="1"/>
-    <col min="11" max="11" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="10" width="11.625" style="277" customWidth="1"/>
+    <col min="11" max="11" width="11.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -17988,11 +17988,11 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="54" style="277" customWidth="1"/>
-    <col min="2" max="10" width="11.6640625" style="277" customWidth="1"/>
-    <col min="11" max="11" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="10" width="11.625" style="277" customWidth="1"/>
+    <col min="11" max="11" width="11.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -18126,10 +18126,10 @@
       <selection activeCell="B3" sqref="B3:B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="10" width="11.6640625" style="277" customWidth="1"/>
-    <col min="11" max="11" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="10" width="11.625" style="277" customWidth="1"/>
+    <col min="11" max="11" width="11.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -18266,15 +18266,15 @@
   </sheetPr>
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:XFD11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="27" style="277" customWidth="1"/>
-    <col min="2" max="10" width="11.6640625" style="277" customWidth="1"/>
-    <col min="11" max="11" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="10" width="11.625" style="277" customWidth="1"/>
+    <col min="11" max="11" width="11.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -18412,7 +18412,7 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="278" t="s">
-        <v>439</v>
+        <v>463</v>
       </c>
       <c r="B11" s="317">
         <f>'Refineries efficiency'!F22</f>
@@ -18441,15 +18441,15 @@
       <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="1"/>
-    <col min="2" max="2" width="35.83203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="100.83203125" style="116" customWidth="1"/>
-    <col min="4" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="10.625" style="1"/>
+    <col min="2" max="2" width="35.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="100.875" style="116" customWidth="1"/>
+    <col min="4" max="16384" width="10.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" ht="20">
+    <row r="2" spans="2:3" ht="21">
       <c r="B2" s="2" t="s">
         <v>20</v>
       </c>
@@ -18571,7 +18571,7 @@
         <v>417</v>
       </c>
       <c r="C18" s="149" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="19" spans="2:3" ht="30" customHeight="1">
@@ -18579,23 +18579,23 @@
         <v>428</v>
       </c>
       <c r="C19" s="149" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="20" spans="2:3" ht="30" customHeight="1">
       <c r="B20" s="96" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C20" s="150" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="21" spans="2:3" ht="30" customHeight="1">
       <c r="B21" s="96" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C21" s="150" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="22" spans="2:3" ht="30" customHeight="1">
@@ -18688,18 +18688,18 @@
     </row>
     <row r="33" spans="2:3" ht="30" customHeight="1">
       <c r="B33" s="97" t="s">
+        <v>442</v>
+      </c>
+      <c r="C33" s="150" t="s">
         <v>443</v>
-      </c>
-      <c r="C33" s="150" t="s">
-        <v>444</v>
       </c>
     </row>
     <row r="34" spans="2:3" ht="30" customHeight="1">
       <c r="B34" s="97" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C34" s="150" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
   </sheetData>
@@ -18724,16 +18724,16 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="27" style="277" customWidth="1"/>
-    <col min="2" max="10" width="11.6640625" style="277" customWidth="1"/>
-    <col min="11" max="11" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="10" width="11.625" style="277" customWidth="1"/>
+    <col min="11" max="11" width="11.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="277" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -18746,7 +18746,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="278" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B3" s="317" t="e">
         <f>'Steam methane reformer input'!F19</f>
@@ -18857,14 +18857,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="1"/>
-    <col min="2" max="2" width="140.83203125" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="10.625" style="1"/>
+    <col min="2" max="2" width="140.875" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="10.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2" ht="20">
+    <row r="2" spans="2:2" ht="21">
       <c r="B2" s="2" t="s">
         <v>22</v>
       </c>
@@ -18877,7 +18877,7 @@
     <row r="5" spans="2:2">
       <c r="B5" s="42"/>
     </row>
-    <row r="6" spans="2:2" ht="60">
+    <row r="6" spans="2:2" ht="64">
       <c r="B6" s="267" t="s">
         <v>305</v>
       </c>
@@ -18927,7 +18927,7 @@
     <row r="18" spans="2:2">
       <c r="B18" s="42"/>
     </row>
-    <row r="19" spans="2:2" ht="90">
+    <row r="19" spans="2:2" ht="80">
       <c r="B19" s="124" t="s">
         <v>247</v>
       </c>
@@ -18958,9 +18958,9 @@
       <selection activeCell="CV35" sqref="CV35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="2.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="2.875" defaultRowHeight="16" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="16384" width="2.83203125" style="1"/>
+    <col min="1" max="16384" width="2.875" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:80" ht="20" customHeight="1">
@@ -19329,7 +19329,7 @@
       <c r="BU6" s="52"/>
       <c r="BV6" s="52"/>
     </row>
-    <row r="7" spans="2:80" ht="23">
+    <row r="7" spans="2:80" ht="25">
       <c r="B7" s="52"/>
       <c r="C7" s="64" t="s">
         <v>182</v>
@@ -19434,15 +19434,15 @@
       <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="1"/>
-    <col min="2" max="2" width="25.83203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="75.83203125" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="10.625" style="1"/>
+    <col min="2" max="2" width="25.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="75.875" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="10.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" ht="20">
+    <row r="2" spans="2:3" ht="21">
       <c r="B2" s="2" t="s">
         <v>23</v>
       </c>
@@ -19455,12 +19455,12 @@
       <c r="C4" s="5"/>
     </row>
     <row r="5" spans="2:3" ht="75" customHeight="1">
-      <c r="B5" s="335" t="s">
+      <c r="B5" s="337" t="s">
         <v>248</v>
       </c>
-      <c r="C5" s="336"/>
-    </row>
-    <row r="6" spans="2:3" ht="16" thickBot="1"/>
+      <c r="C5" s="338"/>
+    </row>
+    <row r="6" spans="2:3" ht="17" thickBot="1"/>
     <row r="7" spans="2:3">
       <c r="B7" s="20" t="s">
         <v>28</v>
@@ -19485,13 +19485,13 @@
       </c>
       <c r="C10" s="27"/>
     </row>
-    <row r="11" spans="2:3" ht="30">
+    <row r="11" spans="2:3" ht="32">
       <c r="B11" s="22"/>
       <c r="C11" s="266" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="12" spans="2:3" ht="30">
+    <row r="12" spans="2:3" ht="32">
       <c r="B12" s="22"/>
       <c r="C12" s="266" t="s">
         <v>287</v>
@@ -19503,7 +19503,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="14" spans="2:3" ht="30">
+    <row r="14" spans="2:3" ht="32">
       <c r="B14" s="22"/>
       <c r="C14" s="266" t="s">
         <v>306</v>
@@ -19515,14 +19515,14 @@
         <v>227</v>
       </c>
     </row>
-    <row r="16" spans="2:3" ht="16" thickBot="1">
+    <row r="16" spans="2:3" ht="17" thickBot="1">
       <c r="B16" s="33"/>
       <c r="C16" s="65"/>
     </row>
     <row r="17" spans="2:3" s="8" customFormat="1">
       <c r="C17" s="45"/>
     </row>
-    <row r="18" spans="2:3" ht="16" thickBot="1">
+    <row r="18" spans="2:3" ht="17" thickBot="1">
       <c r="B18" s="12"/>
       <c r="C18" s="12"/>
     </row>
@@ -19554,11 +19554,11 @@
         <v>286</v>
       </c>
     </row>
-    <row r="24" spans="2:3" ht="16" thickBot="1">
+    <row r="24" spans="2:3" ht="17" thickBot="1">
       <c r="B24" s="85"/>
       <c r="C24" s="87"/>
     </row>
-    <row r="25" spans="2:3" ht="16" thickBot="1"/>
+    <row r="25" spans="2:3" ht="17" thickBot="1"/>
     <row r="26" spans="2:3">
       <c r="B26" s="20" t="s">
         <v>189</v>
@@ -19999,11 +19999,11 @@
         <v>26</v>
       </c>
     </row>
-    <row r="99" spans="2:3" ht="16" thickBot="1">
+    <row r="99" spans="2:3" ht="17" thickBot="1">
       <c r="B99" s="33"/>
       <c r="C99" s="36"/>
     </row>
-    <row r="100" spans="2:3" ht="16" thickBot="1"/>
+    <row r="100" spans="2:3" ht="17" thickBot="1"/>
     <row r="101" spans="2:3">
       <c r="B101" s="20" t="s">
         <v>201</v>
@@ -20034,7 +20034,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="106" spans="2:3" ht="16" thickBot="1">
+    <row r="106" spans="2:3" ht="17" thickBot="1">
       <c r="B106" s="33"/>
       <c r="C106" s="47"/>
     </row>
@@ -20063,29 +20063,29 @@
   </sheetPr>
   <dimension ref="A2:P53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" outlineLevelRow="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="1"/>
-    <col min="2" max="2" width="18.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="77.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="4.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="2.83203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="13.33203125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="2.83203125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="45.33203125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="4.33203125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="79.6640625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="9.1640625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="65.83203125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="2.83203125" style="1" customWidth="1"/>
-    <col min="15" max="16" width="13.33203125" style="204" customWidth="1"/>
-    <col min="17" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="10.625" style="1"/>
+    <col min="2" max="2" width="18.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="77.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="4.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="2.875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="13.375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="2.875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="45.375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="4.375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="79.625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="9.125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="65.875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="2.875" style="1" customWidth="1"/>
+    <col min="15" max="16" width="13.375" style="204" customWidth="1"/>
+    <col min="17" max="16384" width="10.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:16" ht="20">
+    <row r="2" spans="1:16" ht="21">
       <c r="B2" s="2" t="s">
         <v>24</v>
       </c>
@@ -20095,7 +20095,7 @@
       <c r="J2" s="11"/>
       <c r="K2" s="5"/>
     </row>
-    <row r="3" spans="1:16" ht="20">
+    <row r="3" spans="1:16" ht="21">
       <c r="B3" s="2"/>
       <c r="I3" s="209"/>
       <c r="J3" s="8"/>
@@ -20114,38 +20114,38 @@
       <c r="K4" s="7"/>
     </row>
     <row r="5" spans="1:16">
-      <c r="B5" s="337" t="s">
+      <c r="B5" s="339" t="s">
         <v>307</v>
       </c>
-      <c r="C5" s="338"/>
-      <c r="D5" s="338"/>
-      <c r="E5" s="339"/>
+      <c r="C5" s="340"/>
+      <c r="D5" s="340"/>
+      <c r="E5" s="341"/>
       <c r="F5" s="8"/>
       <c r="I5" s="229"/>
       <c r="J5" s="8"/>
       <c r="K5" s="7"/>
     </row>
     <row r="6" spans="1:16">
-      <c r="B6" s="337"/>
-      <c r="C6" s="338"/>
-      <c r="D6" s="338"/>
-      <c r="E6" s="339"/>
+      <c r="B6" s="339"/>
+      <c r="C6" s="340"/>
+      <c r="D6" s="340"/>
+      <c r="E6" s="341"/>
       <c r="F6" s="8"/>
       <c r="I6" s="207"/>
       <c r="J6" s="8"/>
       <c r="K6" s="7"/>
     </row>
     <row r="7" spans="1:16">
-      <c r="B7" s="335"/>
-      <c r="C7" s="340"/>
-      <c r="D7" s="340"/>
-      <c r="E7" s="336"/>
+      <c r="B7" s="337"/>
+      <c r="C7" s="342"/>
+      <c r="D7" s="342"/>
+      <c r="E7" s="338"/>
       <c r="F7" s="151"/>
       <c r="I7" s="228"/>
       <c r="J7" s="9"/>
       <c r="K7" s="10"/>
     </row>
-    <row r="8" spans="1:16" ht="16" thickBot="1"/>
+    <row r="8" spans="1:16" ht="17" thickBot="1"/>
     <row r="9" spans="1:16">
       <c r="B9" s="20" t="s">
         <v>23</v>
@@ -20848,7 +20848,7 @@
       <c r="O36" s="207"/>
       <c r="P36" s="208"/>
     </row>
-    <row r="37" spans="1:16" ht="16" thickBot="1">
+    <row r="37" spans="1:16" ht="17" thickBot="1">
       <c r="A37" s="8"/>
       <c r="B37" s="28"/>
       <c r="C37" s="12"/>
@@ -20866,11 +20866,11 @@
       <c r="O37" s="207"/>
       <c r="P37" s="208"/>
     </row>
-    <row r="38" spans="1:16" ht="16" thickBot="1">
+    <row r="38" spans="1:16" ht="17" thickBot="1">
       <c r="A38" s="8"/>
       <c r="B38" s="28"/>
       <c r="C38" s="162" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D38" s="157"/>
       <c r="E38" s="291"/>
@@ -20932,7 +20932,7 @@
       <c r="O40" s="207"/>
       <c r="P40" s="208"/>
     </row>
-    <row r="41" spans="1:16" ht="16" outlineLevel="1" thickBot="1">
+    <row r="41" spans="1:16" ht="17" outlineLevel="1" thickBot="1">
       <c r="A41" s="8"/>
       <c r="B41" s="22" t="s">
         <v>283</v>
@@ -20952,7 +20952,7 @@
       <c r="O41" s="207"/>
       <c r="P41" s="208"/>
     </row>
-    <row r="42" spans="1:16" ht="16" outlineLevel="1" thickBot="1">
+    <row r="42" spans="1:16" ht="17" outlineLevel="1" thickBot="1">
       <c r="A42" s="8"/>
       <c r="B42" s="22"/>
       <c r="C42" s="258" t="s">
@@ -20987,7 +20987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:16" ht="16" outlineLevel="1" thickBot="1">
+    <row r="43" spans="1:16" ht="17" outlineLevel="1" thickBot="1">
       <c r="A43" s="8"/>
       <c r="B43" s="22"/>
       <c r="C43" s="258" t="s">
@@ -21022,7 +21022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:16" ht="16" outlineLevel="1" thickBot="1">
+    <row r="44" spans="1:16" ht="17" outlineLevel="1" thickBot="1">
       <c r="A44" s="8"/>
       <c r="B44" s="22"/>
       <c r="C44" s="258" t="s">
@@ -21057,7 +21057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:16" ht="16" outlineLevel="1" thickBot="1">
+    <row r="45" spans="1:16" ht="17" outlineLevel="1" thickBot="1">
       <c r="A45" s="8"/>
       <c r="B45" s="22"/>
       <c r="C45" s="258" t="s">
@@ -21092,7 +21092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:16" ht="16" outlineLevel="1" thickBot="1">
+    <row r="46" spans="1:16" ht="17" outlineLevel="1" thickBot="1">
       <c r="A46" s="8"/>
       <c r="B46" s="22"/>
       <c r="C46" s="258" t="s">
@@ -21127,7 +21127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:16" ht="16" outlineLevel="1" thickBot="1">
+    <row r="47" spans="1:16" ht="17" outlineLevel="1" thickBot="1">
       <c r="A47" s="8"/>
       <c r="B47" s="22"/>
       <c r="C47" s="258" t="s">
@@ -21180,7 +21180,7 @@
       <c r="O48" s="207"/>
       <c r="P48" s="7"/>
     </row>
-    <row r="49" spans="1:16" ht="16" outlineLevel="1" thickBot="1">
+    <row r="49" spans="1:16" ht="17" outlineLevel="1" thickBot="1">
       <c r="A49" s="8"/>
       <c r="B49" s="22" t="s">
         <v>284</v>
@@ -21200,7 +21200,7 @@
       <c r="O49" s="207"/>
       <c r="P49" s="208"/>
     </row>
-    <row r="50" spans="1:16" ht="16" outlineLevel="1" thickBot="1">
+    <row r="50" spans="1:16" ht="17" outlineLevel="1" thickBot="1">
       <c r="A50" s="8"/>
       <c r="B50" s="22"/>
       <c r="C50" s="258" t="s">
@@ -21235,7 +21235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:16" ht="16" outlineLevel="1" thickBot="1">
+    <row r="51" spans="1:16" ht="17" outlineLevel="1" thickBot="1">
       <c r="A51" s="8"/>
       <c r="B51" s="22"/>
       <c r="C51" s="258" t="s">
@@ -21270,7 +21270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:16" ht="16" outlineLevel="1" thickBot="1">
+    <row r="52" spans="1:16" ht="17" outlineLevel="1" thickBot="1">
       <c r="A52" s="8"/>
       <c r="B52" s="22"/>
       <c r="C52" s="258" t="s">
@@ -21305,7 +21305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:16" ht="16" thickBot="1">
+    <row r="53" spans="1:16" ht="17" thickBot="1">
       <c r="B53" s="33"/>
       <c r="C53" s="46"/>
       <c r="D53" s="159"/>
@@ -21508,15 +21508,15 @@
       <selection pane="bottomRight" activeCell="Z7" sqref="Z7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="1"/>
-    <col min="2" max="2" width="50.83203125" style="1" customWidth="1"/>
-    <col min="3" max="67" width="13.6640625" style="1" customWidth="1"/>
-    <col min="68" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="10.625" style="1"/>
+    <col min="2" max="2" width="50.875" style="1" customWidth="1"/>
+    <col min="3" max="67" width="13.625" style="1" customWidth="1"/>
+    <col min="68" max="16384" width="10.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:67" ht="20">
+    <row r="2" spans="2:67" ht="21">
       <c r="B2" s="2" t="s">
         <v>265</v>
       </c>
@@ -21529,7 +21529,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="5" spans="2:67" ht="30">
+    <row r="5" spans="2:67" ht="32">
       <c r="B5" s="125" t="s">
         <v>256</v>
       </c>
@@ -22155,7 +22155,7 @@
       <c r="BN13" s="183"/>
       <c r="BO13" s="184"/>
     </row>
-    <row r="14" spans="2:67" ht="16" thickBot="1">
+    <row r="14" spans="2:67" ht="17" thickBot="1">
       <c r="B14" s="181" t="s">
         <v>112</v>
       </c>
@@ -22225,7 +22225,7 @@
       <c r="BN14" s="183"/>
       <c r="BO14" s="184"/>
     </row>
-    <row r="15" spans="2:67" ht="16" thickBot="1">
+    <row r="15" spans="2:67" ht="17" thickBot="1">
       <c r="B15" s="185" t="s">
         <v>113</v>
       </c>
@@ -22365,7 +22365,7 @@
       <c r="BN16" s="183"/>
       <c r="BO16" s="184"/>
     </row>
-    <row r="17" spans="2:67" ht="16" thickBot="1">
+    <row r="17" spans="2:67" ht="17" thickBot="1">
       <c r="B17" s="181" t="s">
         <v>115</v>
       </c>
@@ -22435,7 +22435,7 @@
       <c r="BN17" s="183"/>
       <c r="BO17" s="184"/>
     </row>
-    <row r="18" spans="2:67" ht="16" thickBot="1">
+    <row r="18" spans="2:67" ht="17" thickBot="1">
       <c r="B18" s="185" t="s">
         <v>116</v>
       </c>
@@ -23905,7 +23905,7 @@
       <c r="BN38" s="183"/>
       <c r="BO38" s="184"/>
     </row>
-    <row r="39" spans="2:67" ht="16" thickBot="1">
+    <row r="39" spans="2:67" ht="17" thickBot="1">
       <c r="B39" s="181" t="s">
         <v>129</v>
       </c>
@@ -23975,7 +23975,7 @@
       <c r="BN39" s="183"/>
       <c r="BO39" s="184"/>
     </row>
-    <row r="40" spans="2:67" ht="16" thickBot="1">
+    <row r="40" spans="2:67" ht="17" thickBot="1">
       <c r="B40" s="185" t="s">
         <v>130</v>
       </c>
@@ -25235,7 +25235,7 @@
       <c r="BN57" s="183"/>
       <c r="BO57" s="184"/>
     </row>
-    <row r="58" spans="2:67" ht="16" thickBot="1">
+    <row r="58" spans="2:67" ht="17" thickBot="1">
       <c r="B58" s="181" t="s">
         <v>139</v>
       </c>
@@ -25305,7 +25305,7 @@
       <c r="BN58" s="183"/>
       <c r="BO58" s="184"/>
     </row>
-    <row r="59" spans="2:67" ht="16" thickBot="1">
+    <row r="59" spans="2:67" ht="17" thickBot="1">
       <c r="B59" s="185" t="s">
         <v>140</v>
       </c>
@@ -25375,7 +25375,7 @@
       <c r="BN59" s="187"/>
       <c r="BO59" s="188"/>
     </row>
-    <row r="60" spans="2:67" ht="16" thickBot="1">
+    <row r="60" spans="2:67" ht="17" thickBot="1">
       <c r="B60" s="185" t="s">
         <v>25</v>
       </c>
@@ -26285,7 +26285,7 @@
       <c r="BN72" s="183"/>
       <c r="BO72" s="184"/>
     </row>
-    <row r="73" spans="2:67" ht="16" thickBot="1">
+    <row r="73" spans="2:67" ht="17" thickBot="1">
       <c r="B73" s="181" t="s">
         <v>153</v>
       </c>
@@ -26355,7 +26355,7 @@
       <c r="BN73" s="183"/>
       <c r="BO73" s="184"/>
     </row>
-    <row r="74" spans="2:67" ht="16" thickBot="1">
+    <row r="74" spans="2:67" ht="17" thickBot="1">
       <c r="B74" s="185" t="s">
         <v>154</v>
       </c>
@@ -26775,7 +26775,7 @@
       <c r="BN79" s="183"/>
       <c r="BO79" s="184"/>
     </row>
-    <row r="80" spans="2:67" ht="16" thickBot="1">
+    <row r="80" spans="2:67" ht="17" thickBot="1">
       <c r="B80" s="181" t="s">
         <v>160</v>
       </c>
@@ -26845,7 +26845,7 @@
       <c r="BN80" s="183"/>
       <c r="BO80" s="184"/>
     </row>
-    <row r="81" spans="2:67" ht="16" thickBot="1">
+    <row r="81" spans="2:67" ht="17" thickBot="1">
       <c r="B81" s="185" t="s">
         <v>82</v>
       </c>
@@ -27195,7 +27195,7 @@
       <c r="BN85" s="183"/>
       <c r="BO85" s="184"/>
     </row>
-    <row r="86" spans="2:67" ht="16" thickBot="1">
+    <row r="86" spans="2:67" ht="17" thickBot="1">
       <c r="B86" s="181" t="s">
         <v>165</v>
       </c>
@@ -27265,7 +27265,7 @@
       <c r="BN86" s="183"/>
       <c r="BO86" s="184"/>
     </row>
-    <row r="87" spans="2:67" ht="16" thickBot="1">
+    <row r="87" spans="2:67" ht="17" thickBot="1">
       <c r="B87" s="185" t="s">
         <v>166</v>
       </c>
@@ -27545,7 +27545,7 @@
       <c r="BN90" s="183"/>
       <c r="BO90" s="184"/>
     </row>
-    <row r="91" spans="2:67" ht="16" thickBot="1">
+    <row r="91" spans="2:67" ht="17" thickBot="1">
       <c r="B91" s="181" t="s">
         <v>170</v>
       </c>
@@ -27615,7 +27615,7 @@
       <c r="BN91" s="183"/>
       <c r="BO91" s="184"/>
     </row>
-    <row r="92" spans="2:67" ht="16" thickBot="1">
+    <row r="92" spans="2:67" ht="17" thickBot="1">
       <c r="B92" s="185" t="s">
         <v>171</v>
       </c>
@@ -27895,7 +27895,7 @@
       <c r="BN95" s="183"/>
       <c r="BO95" s="184"/>
     </row>
-    <row r="96" spans="2:67" ht="16" thickBot="1">
+    <row r="96" spans="2:67" ht="17" thickBot="1">
       <c r="B96" s="181" t="s">
         <v>175</v>
       </c>
@@ -27965,7 +27965,7 @@
       <c r="BN96" s="183"/>
       <c r="BO96" s="184"/>
     </row>
-    <row r="97" spans="2:67" ht="16" thickBot="1">
+    <row r="97" spans="2:67" ht="17" thickBot="1">
       <c r="B97" s="185" t="s">
         <v>176</v>
       </c>
@@ -28245,7 +28245,7 @@
       <c r="BN100" s="183"/>
       <c r="BO100" s="184"/>
     </row>
-    <row r="101" spans="2:67" ht="16" thickBot="1">
+    <row r="101" spans="2:67" ht="17" thickBot="1">
       <c r="B101" s="196" t="s">
         <v>180</v>
       </c>
@@ -28338,22 +28338,22 @@
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="1"/>
-    <col min="2" max="2" width="21.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="41.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="41.1640625" style="1" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="52.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="19" width="14.1640625" style="1" customWidth="1"/>
-    <col min="20" max="21" width="20.83203125" style="1" customWidth="1"/>
-    <col min="22" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="10.625" style="1"/>
+    <col min="2" max="2" width="21.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="41.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.125" style="1" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="52.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="19" width="14.125" style="1" customWidth="1"/>
+    <col min="20" max="21" width="20.875" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="10.625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:13">
       <c r="E1" s="90"/>
     </row>
-    <row r="2" spans="2:13" ht="20">
+    <row r="2" spans="2:13" ht="21">
       <c r="B2" s="81" t="s">
         <v>203</v>
       </c>
@@ -28380,11 +28380,11 @@
       <c r="M4" s="8"/>
     </row>
     <row r="5" spans="2:13" ht="60" customHeight="1">
-      <c r="B5" s="341" t="s">
+      <c r="B5" s="343" t="s">
         <v>300</v>
       </c>
-      <c r="C5" s="342"/>
-      <c r="D5" s="342"/>
+      <c r="C5" s="344"/>
+      <c r="D5" s="344"/>
       <c r="E5" s="272"/>
       <c r="F5" s="45"/>
       <c r="G5" s="45"/>
@@ -28395,7 +28395,7 @@
       <c r="L5" s="45"/>
       <c r="M5" s="45"/>
     </row>
-    <row r="6" spans="2:13" ht="16" thickBot="1">
+    <row r="6" spans="2:13" ht="17" thickBot="1">
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
@@ -28517,7 +28517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:13" ht="16" thickBot="1">
+    <row r="16" spans="2:13" ht="17" thickBot="1">
       <c r="B16" s="85"/>
       <c r="C16" s="86"/>
       <c r="D16" s="86"/>

--- a/analyses/4b_chemical_industry_analysis.xlsx
+++ b/analyses/4b_chemical_industry_analysis.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27526"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28421"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="835" firstSheet="25" activeTab="28"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="835" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Cover Sheet" sheetId="34" r:id="rId1"/>
@@ -30,30 +30,32 @@
     <sheet name="csv_chemical_crude_oil_e_ps" sheetId="101" r:id="rId21"/>
     <sheet name="csv_chemical_wood_pellets_e_ps" sheetId="102" r:id="rId22"/>
     <sheet name="csv_chemical_steam_hot_water_ps" sheetId="103" r:id="rId23"/>
-    <sheet name="csv_chemical_electricity_ps" sheetId="104" r:id="rId24"/>
-    <sheet name="csv_chemical_coal_non_e_ps" sheetId="105" r:id="rId25"/>
-    <sheet name="csv_chemical_gas_non_e_ps" sheetId="106" r:id="rId26"/>
-    <sheet name="csv_chemical_crude_oil_non_e_ps" sheetId="107" r:id="rId27"/>
-    <sheet name="csv_chemical_wood_non_e_ps" sheetId="108" r:id="rId28"/>
-    <sheet name="csv_refinery_transformation_eff" sheetId="110" r:id="rId29"/>
-    <sheet name="csv_steam_methane_reformer_eff" sheetId="114" r:id="rId30"/>
+    <sheet name="csv_chemical_o_electricity_e_ps" sheetId="115" r:id="rId24"/>
+    <sheet name="csv_chemical_electricity_ps" sheetId="104" r:id="rId25"/>
+    <sheet name="csv_chemical_coal_non_e_ps" sheetId="105" r:id="rId26"/>
+    <sheet name="csv_chemical_gas_non_e_ps" sheetId="106" r:id="rId27"/>
+    <sheet name="csv_chemical_crude_oil_non_e_ps" sheetId="107" r:id="rId28"/>
+    <sheet name="csv_chemical_wood_non_e_ps" sheetId="108" r:id="rId29"/>
+    <sheet name="csv_refinery_transformation_eff" sheetId="110" r:id="rId30"/>
+    <sheet name="csv_steam_methane_reformer_eff" sheetId="114" r:id="rId31"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId31"/>
+    <externalReference r:id="rId32"/>
+    <externalReference r:id="rId33"/>
   </externalReferences>
   <definedNames>
     <definedName name="aluminium_production" localSheetId="18">Dashboard!#REF!</definedName>
+    <definedName name="aluminium_production" localSheetId="25">Dashboard!#REF!</definedName>
+    <definedName name="aluminium_production" localSheetId="20">Dashboard!#REF!</definedName>
+    <definedName name="aluminium_production" localSheetId="27">Dashboard!#REF!</definedName>
     <definedName name="aluminium_production" localSheetId="24">Dashboard!#REF!</definedName>
-    <definedName name="aluminium_production" localSheetId="20">Dashboard!#REF!</definedName>
     <definedName name="aluminium_production" localSheetId="26">Dashboard!#REF!</definedName>
-    <definedName name="aluminium_production" localSheetId="23">Dashboard!#REF!</definedName>
-    <definedName name="aluminium_production" localSheetId="25">Dashboard!#REF!</definedName>
     <definedName name="aluminium_production" localSheetId="19">Dashboard!#REF!</definedName>
     <definedName name="aluminium_production" localSheetId="22">Dashboard!#REF!</definedName>
-    <definedName name="aluminium_production" localSheetId="27">Dashboard!#REF!</definedName>
+    <definedName name="aluminium_production" localSheetId="28">Dashboard!#REF!</definedName>
     <definedName name="aluminium_production" localSheetId="21">Dashboard!#REF!</definedName>
-    <definedName name="aluminium_production" localSheetId="28">Dashboard!#REF!</definedName>
     <definedName name="aluminium_production" localSheetId="29">Dashboard!#REF!</definedName>
+    <definedName name="aluminium_production" localSheetId="30">Dashboard!#REF!</definedName>
     <definedName name="aluminium_production" localSheetId="15">Dashboard!#REF!</definedName>
     <definedName name="aluminium_production" localSheetId="14">Dashboard!#REF!</definedName>
     <definedName name="aluminium_production" localSheetId="13">Dashboard!#REF!</definedName>
@@ -358,17 +360,17 @@
     <definedName name="Perc_Roof_for_PV" localSheetId="13">'[1]PV solar area and production'!$E$22</definedName>
     <definedName name="Perc_Roof_for_PV" localSheetId="16">'[1]PV solar area and production'!$E$22</definedName>
     <definedName name="share_aluminium_carbothermal_reduction" localSheetId="18">Dashboard!#REF!</definedName>
+    <definedName name="share_aluminium_carbothermal_reduction" localSheetId="25">Dashboard!#REF!</definedName>
+    <definedName name="share_aluminium_carbothermal_reduction" localSheetId="20">Dashboard!#REF!</definedName>
+    <definedName name="share_aluminium_carbothermal_reduction" localSheetId="27">Dashboard!#REF!</definedName>
     <definedName name="share_aluminium_carbothermal_reduction" localSheetId="24">Dashboard!#REF!</definedName>
-    <definedName name="share_aluminium_carbothermal_reduction" localSheetId="20">Dashboard!#REF!</definedName>
     <definedName name="share_aluminium_carbothermal_reduction" localSheetId="26">Dashboard!#REF!</definedName>
-    <definedName name="share_aluminium_carbothermal_reduction" localSheetId="23">Dashboard!#REF!</definedName>
-    <definedName name="share_aluminium_carbothermal_reduction" localSheetId="25">Dashboard!#REF!</definedName>
     <definedName name="share_aluminium_carbothermal_reduction" localSheetId="19">Dashboard!#REF!</definedName>
     <definedName name="share_aluminium_carbothermal_reduction" localSheetId="22">Dashboard!#REF!</definedName>
-    <definedName name="share_aluminium_carbothermal_reduction" localSheetId="27">Dashboard!#REF!</definedName>
+    <definedName name="share_aluminium_carbothermal_reduction" localSheetId="28">Dashboard!#REF!</definedName>
     <definedName name="share_aluminium_carbothermal_reduction" localSheetId="21">Dashboard!#REF!</definedName>
-    <definedName name="share_aluminium_carbothermal_reduction" localSheetId="28">Dashboard!#REF!</definedName>
     <definedName name="share_aluminium_carbothermal_reduction" localSheetId="29">Dashboard!#REF!</definedName>
+    <definedName name="share_aluminium_carbothermal_reduction" localSheetId="30">Dashboard!#REF!</definedName>
     <definedName name="share_aluminium_carbothermal_reduction" localSheetId="15">Dashboard!#REF!</definedName>
     <definedName name="share_aluminium_carbothermal_reduction" localSheetId="14">Dashboard!#REF!</definedName>
     <definedName name="share_aluminium_carbothermal_reduction" localSheetId="13">Dashboard!#REF!</definedName>
@@ -377,17 +379,17 @@
     <definedName name="share_aluminium_carbothermal_reduction" localSheetId="16">Dashboard!#REF!</definedName>
     <definedName name="share_aluminium_carbothermal_reduction">Dashboard!#REF!</definedName>
     <definedName name="share_aluminium_electrolysis_bat" localSheetId="18">Dashboard!#REF!</definedName>
+    <definedName name="share_aluminium_electrolysis_bat" localSheetId="25">Dashboard!#REF!</definedName>
+    <definedName name="share_aluminium_electrolysis_bat" localSheetId="20">Dashboard!#REF!</definedName>
+    <definedName name="share_aluminium_electrolysis_bat" localSheetId="27">Dashboard!#REF!</definedName>
     <definedName name="share_aluminium_electrolysis_bat" localSheetId="24">Dashboard!#REF!</definedName>
-    <definedName name="share_aluminium_electrolysis_bat" localSheetId="20">Dashboard!#REF!</definedName>
     <definedName name="share_aluminium_electrolysis_bat" localSheetId="26">Dashboard!#REF!</definedName>
-    <definedName name="share_aluminium_electrolysis_bat" localSheetId="23">Dashboard!#REF!</definedName>
-    <definedName name="share_aluminium_electrolysis_bat" localSheetId="25">Dashboard!#REF!</definedName>
     <definedName name="share_aluminium_electrolysis_bat" localSheetId="19">Dashboard!#REF!</definedName>
     <definedName name="share_aluminium_electrolysis_bat" localSheetId="22">Dashboard!#REF!</definedName>
-    <definedName name="share_aluminium_electrolysis_bat" localSheetId="27">Dashboard!#REF!</definedName>
+    <definedName name="share_aluminium_electrolysis_bat" localSheetId="28">Dashboard!#REF!</definedName>
     <definedName name="share_aluminium_electrolysis_bat" localSheetId="21">Dashboard!#REF!</definedName>
-    <definedName name="share_aluminium_electrolysis_bat" localSheetId="28">Dashboard!#REF!</definedName>
     <definedName name="share_aluminium_electrolysis_bat" localSheetId="29">Dashboard!#REF!</definedName>
+    <definedName name="share_aluminium_electrolysis_bat" localSheetId="30">Dashboard!#REF!</definedName>
     <definedName name="share_aluminium_electrolysis_bat" localSheetId="15">Dashboard!#REF!</definedName>
     <definedName name="share_aluminium_electrolysis_bat" localSheetId="14">Dashboard!#REF!</definedName>
     <definedName name="share_aluminium_electrolysis_bat" localSheetId="13">Dashboard!#REF!</definedName>
@@ -396,17 +398,17 @@
     <definedName name="share_aluminium_electrolysis_bat" localSheetId="16">Dashboard!#REF!</definedName>
     <definedName name="share_aluminium_electrolysis_bat">Dashboard!#REF!</definedName>
     <definedName name="share_aluminium_electrolysis_current" localSheetId="18">Dashboard!#REF!</definedName>
+    <definedName name="share_aluminium_electrolysis_current" localSheetId="25">Dashboard!#REF!</definedName>
+    <definedName name="share_aluminium_electrolysis_current" localSheetId="20">Dashboard!#REF!</definedName>
+    <definedName name="share_aluminium_electrolysis_current" localSheetId="27">Dashboard!#REF!</definedName>
     <definedName name="share_aluminium_electrolysis_current" localSheetId="24">Dashboard!#REF!</definedName>
-    <definedName name="share_aluminium_electrolysis_current" localSheetId="20">Dashboard!#REF!</definedName>
     <definedName name="share_aluminium_electrolysis_current" localSheetId="26">Dashboard!#REF!</definedName>
-    <definedName name="share_aluminium_electrolysis_current" localSheetId="23">Dashboard!#REF!</definedName>
-    <definedName name="share_aluminium_electrolysis_current" localSheetId="25">Dashboard!#REF!</definedName>
     <definedName name="share_aluminium_electrolysis_current" localSheetId="19">Dashboard!#REF!</definedName>
     <definedName name="share_aluminium_electrolysis_current" localSheetId="22">Dashboard!#REF!</definedName>
-    <definedName name="share_aluminium_electrolysis_current" localSheetId="27">Dashboard!#REF!</definedName>
+    <definedName name="share_aluminium_electrolysis_current" localSheetId="28">Dashboard!#REF!</definedName>
     <definedName name="share_aluminium_electrolysis_current" localSheetId="21">Dashboard!#REF!</definedName>
-    <definedName name="share_aluminium_electrolysis_current" localSheetId="28">Dashboard!#REF!</definedName>
     <definedName name="share_aluminium_electrolysis_current" localSheetId="29">Dashboard!#REF!</definedName>
+    <definedName name="share_aluminium_electrolysis_current" localSheetId="30">Dashboard!#REF!</definedName>
     <definedName name="share_aluminium_electrolysis_current" localSheetId="15">Dashboard!#REF!</definedName>
     <definedName name="share_aluminium_electrolysis_current" localSheetId="14">Dashboard!#REF!</definedName>
     <definedName name="share_aluminium_electrolysis_current" localSheetId="13">Dashboard!#REF!</definedName>
@@ -415,17 +417,17 @@
     <definedName name="share_aluminium_electrolysis_current" localSheetId="16">Dashboard!#REF!</definedName>
     <definedName name="share_aluminium_electrolysis_current">Dashboard!#REF!</definedName>
     <definedName name="share_aluminium_melting_oven" localSheetId="18">Dashboard!#REF!</definedName>
+    <definedName name="share_aluminium_melting_oven" localSheetId="25">Dashboard!#REF!</definedName>
+    <definedName name="share_aluminium_melting_oven" localSheetId="20">Dashboard!#REF!</definedName>
+    <definedName name="share_aluminium_melting_oven" localSheetId="27">Dashboard!#REF!</definedName>
     <definedName name="share_aluminium_melting_oven" localSheetId="24">Dashboard!#REF!</definedName>
-    <definedName name="share_aluminium_melting_oven" localSheetId="20">Dashboard!#REF!</definedName>
     <definedName name="share_aluminium_melting_oven" localSheetId="26">Dashboard!#REF!</definedName>
-    <definedName name="share_aluminium_melting_oven" localSheetId="23">Dashboard!#REF!</definedName>
-    <definedName name="share_aluminium_melting_oven" localSheetId="25">Dashboard!#REF!</definedName>
     <definedName name="share_aluminium_melting_oven" localSheetId="19">Dashboard!#REF!</definedName>
     <definedName name="share_aluminium_melting_oven" localSheetId="22">Dashboard!#REF!</definedName>
-    <definedName name="share_aluminium_melting_oven" localSheetId="27">Dashboard!#REF!</definedName>
+    <definedName name="share_aluminium_melting_oven" localSheetId="28">Dashboard!#REF!</definedName>
     <definedName name="share_aluminium_melting_oven" localSheetId="21">Dashboard!#REF!</definedName>
-    <definedName name="share_aluminium_melting_oven" localSheetId="28">Dashboard!#REF!</definedName>
     <definedName name="share_aluminium_melting_oven" localSheetId="29">Dashboard!#REF!</definedName>
+    <definedName name="share_aluminium_melting_oven" localSheetId="30">Dashboard!#REF!</definedName>
     <definedName name="share_aluminium_melting_oven" localSheetId="15">Dashboard!#REF!</definedName>
     <definedName name="share_aluminium_melting_oven" localSheetId="14">Dashboard!#REF!</definedName>
     <definedName name="share_aluminium_melting_oven" localSheetId="13">Dashboard!#REF!</definedName>
@@ -434,17 +436,17 @@
     <definedName name="share_aluminium_melting_oven" localSheetId="16">Dashboard!#REF!</definedName>
     <definedName name="share_aluminium_melting_oven">Dashboard!#REF!</definedName>
     <definedName name="share_blast_furnace_burner_coal_gas" localSheetId="18">Dashboard!#REF!</definedName>
+    <definedName name="share_blast_furnace_burner_coal_gas" localSheetId="25">Dashboard!#REF!</definedName>
+    <definedName name="share_blast_furnace_burner_coal_gas" localSheetId="20">Dashboard!#REF!</definedName>
+    <definedName name="share_blast_furnace_burner_coal_gas" localSheetId="27">Dashboard!#REF!</definedName>
     <definedName name="share_blast_furnace_burner_coal_gas" localSheetId="24">Dashboard!#REF!</definedName>
-    <definedName name="share_blast_furnace_burner_coal_gas" localSheetId="20">Dashboard!#REF!</definedName>
     <definedName name="share_blast_furnace_burner_coal_gas" localSheetId="26">Dashboard!#REF!</definedName>
-    <definedName name="share_blast_furnace_burner_coal_gas" localSheetId="23">Dashboard!#REF!</definedName>
-    <definedName name="share_blast_furnace_burner_coal_gas" localSheetId="25">Dashboard!#REF!</definedName>
     <definedName name="share_blast_furnace_burner_coal_gas" localSheetId="19">Dashboard!#REF!</definedName>
     <definedName name="share_blast_furnace_burner_coal_gas" localSheetId="22">Dashboard!#REF!</definedName>
-    <definedName name="share_blast_furnace_burner_coal_gas" localSheetId="27">Dashboard!#REF!</definedName>
+    <definedName name="share_blast_furnace_burner_coal_gas" localSheetId="28">Dashboard!#REF!</definedName>
     <definedName name="share_blast_furnace_burner_coal_gas" localSheetId="21">Dashboard!#REF!</definedName>
-    <definedName name="share_blast_furnace_burner_coal_gas" localSheetId="28">Dashboard!#REF!</definedName>
     <definedName name="share_blast_furnace_burner_coal_gas" localSheetId="29">Dashboard!#REF!</definedName>
+    <definedName name="share_blast_furnace_burner_coal_gas" localSheetId="30">Dashboard!#REF!</definedName>
     <definedName name="share_blast_furnace_burner_coal_gas" localSheetId="15">Dashboard!#REF!</definedName>
     <definedName name="share_blast_furnace_burner_coal_gas" localSheetId="14">Dashboard!#REF!</definedName>
     <definedName name="share_blast_furnace_burner_coal_gas" localSheetId="13">Dashboard!#REF!</definedName>
@@ -453,17 +455,17 @@
     <definedName name="share_blast_furnace_burner_coal_gas" localSheetId="16">Dashboard!#REF!</definedName>
     <definedName name="share_blast_furnace_burner_coal_gas">Dashboard!#REF!</definedName>
     <definedName name="share_blast_furnace_burner_network_gas" localSheetId="18">Dashboard!#REF!</definedName>
+    <definedName name="share_blast_furnace_burner_network_gas" localSheetId="25">Dashboard!#REF!</definedName>
+    <definedName name="share_blast_furnace_burner_network_gas" localSheetId="20">Dashboard!#REF!</definedName>
+    <definedName name="share_blast_furnace_burner_network_gas" localSheetId="27">Dashboard!#REF!</definedName>
     <definedName name="share_blast_furnace_burner_network_gas" localSheetId="24">Dashboard!#REF!</definedName>
-    <definedName name="share_blast_furnace_burner_network_gas" localSheetId="20">Dashboard!#REF!</definedName>
     <definedName name="share_blast_furnace_burner_network_gas" localSheetId="26">Dashboard!#REF!</definedName>
-    <definedName name="share_blast_furnace_burner_network_gas" localSheetId="23">Dashboard!#REF!</definedName>
-    <definedName name="share_blast_furnace_burner_network_gas" localSheetId="25">Dashboard!#REF!</definedName>
     <definedName name="share_blast_furnace_burner_network_gas" localSheetId="19">Dashboard!#REF!</definedName>
     <definedName name="share_blast_furnace_burner_network_gas" localSheetId="22">Dashboard!#REF!</definedName>
-    <definedName name="share_blast_furnace_burner_network_gas" localSheetId="27">Dashboard!#REF!</definedName>
+    <definedName name="share_blast_furnace_burner_network_gas" localSheetId="28">Dashboard!#REF!</definedName>
     <definedName name="share_blast_furnace_burner_network_gas" localSheetId="21">Dashboard!#REF!</definedName>
-    <definedName name="share_blast_furnace_burner_network_gas" localSheetId="28">Dashboard!#REF!</definedName>
     <definedName name="share_blast_furnace_burner_network_gas" localSheetId="29">Dashboard!#REF!</definedName>
+    <definedName name="share_blast_furnace_burner_network_gas" localSheetId="30">Dashboard!#REF!</definedName>
     <definedName name="share_blast_furnace_burner_network_gas" localSheetId="15">Dashboard!#REF!</definedName>
     <definedName name="share_blast_furnace_burner_network_gas" localSheetId="14">Dashboard!#REF!</definedName>
     <definedName name="share_blast_furnace_burner_network_gas" localSheetId="13">Dashboard!#REF!</definedName>
@@ -522,17 +524,17 @@
     <definedName name="Share_Space_Heating_Network_Gas_Heater" localSheetId="13">'[1]Shares per tech per carrier'!$E$9</definedName>
     <definedName name="Share_Space_Heating_Network_Gas_Heater" localSheetId="16">'[1]Shares per tech per carrier'!$E$9</definedName>
     <definedName name="share_steel_blast_furnace_bat" localSheetId="18">Dashboard!#REF!</definedName>
+    <definedName name="share_steel_blast_furnace_bat" localSheetId="25">Dashboard!#REF!</definedName>
+    <definedName name="share_steel_blast_furnace_bat" localSheetId="20">Dashboard!#REF!</definedName>
+    <definedName name="share_steel_blast_furnace_bat" localSheetId="27">Dashboard!#REF!</definedName>
     <definedName name="share_steel_blast_furnace_bat" localSheetId="24">Dashboard!#REF!</definedName>
-    <definedName name="share_steel_blast_furnace_bat" localSheetId="20">Dashboard!#REF!</definedName>
     <definedName name="share_steel_blast_furnace_bat" localSheetId="26">Dashboard!#REF!</definedName>
-    <definedName name="share_steel_blast_furnace_bat" localSheetId="23">Dashboard!#REF!</definedName>
-    <definedName name="share_steel_blast_furnace_bat" localSheetId="25">Dashboard!#REF!</definedName>
     <definedName name="share_steel_blast_furnace_bat" localSheetId="19">Dashboard!#REF!</definedName>
     <definedName name="share_steel_blast_furnace_bat" localSheetId="22">Dashboard!#REF!</definedName>
-    <definedName name="share_steel_blast_furnace_bat" localSheetId="27">Dashboard!#REF!</definedName>
+    <definedName name="share_steel_blast_furnace_bat" localSheetId="28">Dashboard!#REF!</definedName>
     <definedName name="share_steel_blast_furnace_bat" localSheetId="21">Dashboard!#REF!</definedName>
-    <definedName name="share_steel_blast_furnace_bat" localSheetId="28">Dashboard!#REF!</definedName>
     <definedName name="share_steel_blast_furnace_bat" localSheetId="29">Dashboard!#REF!</definedName>
+    <definedName name="share_steel_blast_furnace_bat" localSheetId="30">Dashboard!#REF!</definedName>
     <definedName name="share_steel_blast_furnace_bat" localSheetId="15">Dashboard!#REF!</definedName>
     <definedName name="share_steel_blast_furnace_bat" localSheetId="14">Dashboard!#REF!</definedName>
     <definedName name="share_steel_blast_furnace_bat" localSheetId="13">Dashboard!#REF!</definedName>
@@ -541,17 +543,17 @@
     <definedName name="share_steel_blast_furnace_bat" localSheetId="16">Dashboard!#REF!</definedName>
     <definedName name="share_steel_blast_furnace_bat">Dashboard!#REF!</definedName>
     <definedName name="share_steel_blast_furnace_current" localSheetId="18">Dashboard!#REF!</definedName>
+    <definedName name="share_steel_blast_furnace_current" localSheetId="25">Dashboard!#REF!</definedName>
+    <definedName name="share_steel_blast_furnace_current" localSheetId="20">Dashboard!#REF!</definedName>
+    <definedName name="share_steel_blast_furnace_current" localSheetId="27">Dashboard!#REF!</definedName>
     <definedName name="share_steel_blast_furnace_current" localSheetId="24">Dashboard!#REF!</definedName>
-    <definedName name="share_steel_blast_furnace_current" localSheetId="20">Dashboard!#REF!</definedName>
     <definedName name="share_steel_blast_furnace_current" localSheetId="26">Dashboard!#REF!</definedName>
-    <definedName name="share_steel_blast_furnace_current" localSheetId="23">Dashboard!#REF!</definedName>
-    <definedName name="share_steel_blast_furnace_current" localSheetId="25">Dashboard!#REF!</definedName>
     <definedName name="share_steel_blast_furnace_current" localSheetId="19">Dashboard!#REF!</definedName>
     <definedName name="share_steel_blast_furnace_current" localSheetId="22">Dashboard!#REF!</definedName>
-    <definedName name="share_steel_blast_furnace_current" localSheetId="27">Dashboard!#REF!</definedName>
+    <definedName name="share_steel_blast_furnace_current" localSheetId="28">Dashboard!#REF!</definedName>
     <definedName name="share_steel_blast_furnace_current" localSheetId="21">Dashboard!#REF!</definedName>
-    <definedName name="share_steel_blast_furnace_current" localSheetId="28">Dashboard!#REF!</definedName>
     <definedName name="share_steel_blast_furnace_current" localSheetId="29">Dashboard!#REF!</definedName>
+    <definedName name="share_steel_blast_furnace_current" localSheetId="30">Dashboard!#REF!</definedName>
     <definedName name="share_steel_blast_furnace_current" localSheetId="15">Dashboard!#REF!</definedName>
     <definedName name="share_steel_blast_furnace_current" localSheetId="14">Dashboard!#REF!</definedName>
     <definedName name="share_steel_blast_furnace_current" localSheetId="13">Dashboard!#REF!</definedName>
@@ -560,17 +562,17 @@
     <definedName name="share_steel_blast_furnace_current" localSheetId="16">Dashboard!#REF!</definedName>
     <definedName name="share_steel_blast_furnace_current">Dashboard!#REF!</definedName>
     <definedName name="share_steel_cyclone" localSheetId="18">Dashboard!#REF!</definedName>
+    <definedName name="share_steel_cyclone" localSheetId="25">Dashboard!#REF!</definedName>
+    <definedName name="share_steel_cyclone" localSheetId="20">Dashboard!#REF!</definedName>
+    <definedName name="share_steel_cyclone" localSheetId="27">Dashboard!#REF!</definedName>
     <definedName name="share_steel_cyclone" localSheetId="24">Dashboard!#REF!</definedName>
-    <definedName name="share_steel_cyclone" localSheetId="20">Dashboard!#REF!</definedName>
     <definedName name="share_steel_cyclone" localSheetId="26">Dashboard!#REF!</definedName>
-    <definedName name="share_steel_cyclone" localSheetId="23">Dashboard!#REF!</definedName>
-    <definedName name="share_steel_cyclone" localSheetId="25">Dashboard!#REF!</definedName>
     <definedName name="share_steel_cyclone" localSheetId="19">Dashboard!#REF!</definedName>
     <definedName name="share_steel_cyclone" localSheetId="22">Dashboard!#REF!</definedName>
-    <definedName name="share_steel_cyclone" localSheetId="27">Dashboard!#REF!</definedName>
+    <definedName name="share_steel_cyclone" localSheetId="28">Dashboard!#REF!</definedName>
     <definedName name="share_steel_cyclone" localSheetId="21">Dashboard!#REF!</definedName>
-    <definedName name="share_steel_cyclone" localSheetId="28">Dashboard!#REF!</definedName>
     <definedName name="share_steel_cyclone" localSheetId="29">Dashboard!#REF!</definedName>
+    <definedName name="share_steel_cyclone" localSheetId="30">Dashboard!#REF!</definedName>
     <definedName name="share_steel_cyclone" localSheetId="15">Dashboard!#REF!</definedName>
     <definedName name="share_steel_cyclone" localSheetId="14">Dashboard!#REF!</definedName>
     <definedName name="share_steel_cyclone" localSheetId="13">Dashboard!#REF!</definedName>
@@ -579,17 +581,17 @@
     <definedName name="share_steel_cyclone" localSheetId="16">Dashboard!#REF!</definedName>
     <definedName name="share_steel_cyclone">Dashboard!#REF!</definedName>
     <definedName name="share_steel_electric" localSheetId="18">Dashboard!#REF!</definedName>
+    <definedName name="share_steel_electric" localSheetId="25">Dashboard!#REF!</definedName>
+    <definedName name="share_steel_electric" localSheetId="20">Dashboard!#REF!</definedName>
+    <definedName name="share_steel_electric" localSheetId="27">Dashboard!#REF!</definedName>
     <definedName name="share_steel_electric" localSheetId="24">Dashboard!#REF!</definedName>
-    <definedName name="share_steel_electric" localSheetId="20">Dashboard!#REF!</definedName>
     <definedName name="share_steel_electric" localSheetId="26">Dashboard!#REF!</definedName>
-    <definedName name="share_steel_electric" localSheetId="23">Dashboard!#REF!</definedName>
-    <definedName name="share_steel_electric" localSheetId="25">Dashboard!#REF!</definedName>
     <definedName name="share_steel_electric" localSheetId="19">Dashboard!#REF!</definedName>
     <definedName name="share_steel_electric" localSheetId="22">Dashboard!#REF!</definedName>
-    <definedName name="share_steel_electric" localSheetId="27">Dashboard!#REF!</definedName>
+    <definedName name="share_steel_electric" localSheetId="28">Dashboard!#REF!</definedName>
     <definedName name="share_steel_electric" localSheetId="21">Dashboard!#REF!</definedName>
-    <definedName name="share_steel_electric" localSheetId="28">Dashboard!#REF!</definedName>
     <definedName name="share_steel_electric" localSheetId="29">Dashboard!#REF!</definedName>
+    <definedName name="share_steel_electric" localSheetId="30">Dashboard!#REF!</definedName>
     <definedName name="share_steel_electric" localSheetId="15">Dashboard!#REF!</definedName>
     <definedName name="share_steel_electric" localSheetId="14">Dashboard!#REF!</definedName>
     <definedName name="share_steel_electric" localSheetId="13">Dashboard!#REF!</definedName>
@@ -642,17 +644,17 @@
     <definedName name="solver_val" localSheetId="6" hidden="1">0</definedName>
     <definedName name="solver_ver" localSheetId="6" hidden="1">2</definedName>
     <definedName name="steel_production" localSheetId="18">Dashboard!#REF!</definedName>
+    <definedName name="steel_production" localSheetId="25">Dashboard!#REF!</definedName>
+    <definedName name="steel_production" localSheetId="20">Dashboard!#REF!</definedName>
+    <definedName name="steel_production" localSheetId="27">Dashboard!#REF!</definedName>
     <definedName name="steel_production" localSheetId="24">Dashboard!#REF!</definedName>
-    <definedName name="steel_production" localSheetId="20">Dashboard!#REF!</definedName>
     <definedName name="steel_production" localSheetId="26">Dashboard!#REF!</definedName>
-    <definedName name="steel_production" localSheetId="23">Dashboard!#REF!</definedName>
-    <definedName name="steel_production" localSheetId="25">Dashboard!#REF!</definedName>
     <definedName name="steel_production" localSheetId="19">Dashboard!#REF!</definedName>
     <definedName name="steel_production" localSheetId="22">Dashboard!#REF!</definedName>
-    <definedName name="steel_production" localSheetId="27">Dashboard!#REF!</definedName>
+    <definedName name="steel_production" localSheetId="28">Dashboard!#REF!</definedName>
     <definedName name="steel_production" localSheetId="21">Dashboard!#REF!</definedName>
-    <definedName name="steel_production" localSheetId="28">Dashboard!#REF!</definedName>
     <definedName name="steel_production" localSheetId="29">Dashboard!#REF!</definedName>
+    <definedName name="steel_production" localSheetId="30">Dashboard!#REF!</definedName>
     <definedName name="steel_production" localSheetId="15">Dashboard!#REF!</definedName>
     <definedName name="steel_production" localSheetId="14">Dashboard!#REF!</definedName>
     <definedName name="steel_production" localSheetId="13">Dashboard!#REF!</definedName>
@@ -665,6 +667,9 @@
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
+    </ext>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
   </extLst>
 </workbook>
@@ -694,7 +699,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="464">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="787" uniqueCount="479">
   <si>
     <t>Changelog</t>
   </si>
@@ -2086,19 +2091,72 @@
   </si>
   <si>
     <t>output.crude_oil</t>
+  </si>
+  <si>
+    <t>industry_useful_demand_for_chemical_other_electricity</t>
+  </si>
+  <si>
+    <t>industry_chemicals_other_heater_electricity</t>
+  </si>
+  <si>
+    <t>industry_chemicals_other_heatpump_water_water_electricity</t>
+  </si>
+  <si>
+    <t>industry_chemicals_other_steam_recompression_electricity</t>
+  </si>
+  <si>
+    <t>chemical_other_electricity</t>
+  </si>
+  <si>
+    <t>chemicals_other_heater_electricity</t>
+  </si>
+  <si>
+    <t>chemicals_other_heatpump_water_water</t>
+  </si>
+  <si>
+    <t>industry_final_demand_for_chemical_other_electricity_parent_share</t>
+  </si>
+  <si>
+    <t>Final electricity demand chemical other electricity</t>
+  </si>
+  <si>
+    <t>Split should sum to 100%</t>
+  </si>
+  <si>
+    <t>chemicals_other_steam_recompression_electricity</t>
+  </si>
+  <si>
+    <t>Electricity consumption for steam recompression</t>
+  </si>
+  <si>
+    <t>General electricity consumption</t>
+  </si>
+  <si>
+    <t>Electricity consumption for resistive heaters</t>
+  </si>
+  <si>
+    <t>Electricity consumption for heat pumps</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="4">
+  <numFmts count="5">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
     <numFmt numFmtId="166" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
     <numFmt numFmtId="167" formatCode="#,##0.000"/>
   </numFmts>
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="27" x14ac:knownFonts="1">
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2355,7 +2413,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="50">
+  <borders count="51">
     <border>
       <left/>
       <right/>
@@ -2938,2102 +2996,2130 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2059">
+  <cellStyleXfs count="2074">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="351">
+  <cellXfs count="366">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -5041,15 +5127,15 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5057,55 +5143,55 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -5114,85 +5200,85 @@
     <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="15" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="15" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="12" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="15" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="20" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="21" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5210,83 +5296,83 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="14" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="5" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="15" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="15" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="14" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="15" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="12" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="12" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="14" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="14" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="14" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="15" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="15" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="15" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="12" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="12" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5298,32 +5384,32 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="44" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="8" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="9" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="14" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="15" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="5" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -5365,72 +5451,72 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="22" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="23" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="23" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="8" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="9" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="8" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="9" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="15" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -5444,15 +5530,15 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5470,87 +5556,87 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="3" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="4" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="5" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="8" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="9" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="24" fillId="0" borderId="14" xfId="772" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="25" fillId="0" borderId="14" xfId="772" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="5" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -5569,22 +5655,22 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="12" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="12" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="4" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="5" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5603,55 +5689,82 @@
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="8" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="9" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="8" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="9" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="12" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="15" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="14" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="15" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="15" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="2" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="15" fillId="2" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="167" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="15" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="167" fontId="0" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="42" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -5676,26 +5789,29 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="2" borderId="0" xfId="2061" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="1" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2059">
+  <cellStyles count="2074">
+    <cellStyle name="Comma" xfId="2061" builtinId="3"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
@@ -6725,6 +6841,13 @@
     <cellStyle name="Followed Hyperlink" xfId="2054" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="2056" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="2058" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2060" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2063" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2065" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2067" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2069" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2071" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2073" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
@@ -7752,11 +7875,18 @@
     <cellStyle name="Hyperlink" xfId="2053" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2055" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2057" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2059" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2062" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2064" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2066" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2068" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2070" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2072" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
     <cellStyle name="Percent 2" xfId="772"/>
   </cellStyles>
-  <dxfs count="26">
+  <dxfs count="30">
     <dxf>
       <font>
         <b/>
@@ -7884,6 +8014,46 @@
         <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCFFCC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCFFCC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCFFCC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCFFCC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -10836,7 +11006,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1371600</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="7152619" cy="276999"/>
@@ -11249,6 +11419,28 @@
 </externalLink>
 </file>
 
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Cover sheet"/>
+      <sheetName val="Dashboard"/>
+      <sheetName val="analysis_manager.xlsm"/>
+    </sheetNames>
+    <definedNames>
+      <definedName name="export_data_button"/>
+      <definedName name="import_data_button"/>
+      <definedName name="select_dashboard_values"/>
+    </definedNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -11848,8 +12040,8 @@
   </sheetPr>
   <dimension ref="A1:Q36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
@@ -11925,12 +12117,12 @@
     </row>
     <row r="5" spans="1:17" ht="113" customHeight="1">
       <c r="A5" s="82"/>
-      <c r="B5" s="345" t="s">
+      <c r="B5" s="358" t="s">
         <v>450</v>
       </c>
-      <c r="C5" s="346"/>
-      <c r="D5" s="346"/>
-      <c r="E5" s="347"/>
+      <c r="C5" s="359"/>
+      <c r="D5" s="359"/>
+      <c r="E5" s="360"/>
       <c r="F5" s="82"/>
       <c r="G5" s="82"/>
       <c r="H5" s="82"/>
@@ -12748,8 +12940,8 @@
   </sheetPr>
   <dimension ref="A1:Q61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11:E12"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
@@ -12829,13 +13021,13 @@
     </row>
     <row r="5" spans="1:14" ht="41" customHeight="1">
       <c r="A5" s="82"/>
-      <c r="B5" s="345" t="s">
+      <c r="B5" s="358" t="s">
         <v>335</v>
       </c>
-      <c r="C5" s="346"/>
-      <c r="D5" s="346"/>
-      <c r="E5" s="346"/>
-      <c r="F5" s="347"/>
+      <c r="C5" s="359"/>
+      <c r="D5" s="359"/>
+      <c r="E5" s="359"/>
+      <c r="F5" s="360"/>
       <c r="G5" s="82"/>
       <c r="H5" s="82"/>
       <c r="I5" s="82"/>
@@ -13940,13 +14132,13 @@
     </row>
     <row r="5" spans="1:14" ht="41" customHeight="1">
       <c r="A5" s="82"/>
-      <c r="B5" s="345" t="s">
+      <c r="B5" s="358" t="s">
         <v>339</v>
       </c>
-      <c r="C5" s="346"/>
-      <c r="D5" s="346"/>
-      <c r="E5" s="346"/>
-      <c r="F5" s="347"/>
+      <c r="C5" s="359"/>
+      <c r="D5" s="359"/>
+      <c r="E5" s="359"/>
+      <c r="F5" s="360"/>
       <c r="G5" s="82"/>
       <c r="H5" s="82"/>
       <c r="I5" s="82"/>
@@ -14833,7 +15025,7 @@
   <dimension ref="B2:M26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
@@ -14878,14 +15070,14 @@
       <c r="H4" s="8"/>
     </row>
     <row r="5" spans="2:13" ht="107" customHeight="1">
-      <c r="B5" s="348" t="s">
+      <c r="B5" s="361" t="s">
         <v>405</v>
       </c>
-      <c r="C5" s="349"/>
-      <c r="D5" s="349"/>
-      <c r="E5" s="349"/>
-      <c r="F5" s="349"/>
-      <c r="G5" s="350"/>
+      <c r="C5" s="362"/>
+      <c r="D5" s="362"/>
+      <c r="E5" s="362"/>
+      <c r="F5" s="362"/>
+      <c r="G5" s="363"/>
       <c r="H5" s="8"/>
     </row>
     <row r="6" spans="2:13" ht="17" thickBot="1"/>
@@ -15174,7 +15366,7 @@
       </c>
       <c r="D17" s="145"/>
       <c r="E17" s="165">
-        <f>IF(Dashboard!E38="yes",Dashboard!E42,0)</f>
+        <f>IF(Dashboard!E47="yes",Dashboard!E51,0)</f>
         <v>0</v>
       </c>
       <c r="F17" s="268" t="s">
@@ -15184,23 +15376,23 @@
         <v>0</v>
       </c>
       <c r="H17" s="165">
-        <f>IF(Dashboard!E38="yes",Dashboard!E43,0)</f>
+        <f>IF(Dashboard!E47="yes",Dashboard!E52,0)</f>
         <v>0</v>
       </c>
       <c r="I17" s="295">
-        <f>IF(Dashboard!E38="yes",Dashboard!E44,0)</f>
+        <f>IF(Dashboard!E47="yes",Dashboard!E53,0)</f>
         <v>0</v>
       </c>
       <c r="J17" s="295">
-        <f>IF(Dashboard!E38="yes",Dashboard!E45,0)</f>
+        <f>IF(Dashboard!E47="yes",Dashboard!E54,0)</f>
         <v>0</v>
       </c>
       <c r="K17" s="295">
-        <f>IF(Dashboard!E38="yes",Dashboard!E46,0)</f>
+        <f>IF(Dashboard!E47="yes",Dashboard!E55,0)</f>
         <v>0</v>
       </c>
       <c r="L17" s="295">
-        <f>IF(Dashboard!E38="yes",Dashboard!E47,0)</f>
+        <f>IF(Dashboard!E47="yes",Dashboard!E56,0)</f>
         <v>0</v>
       </c>
       <c r="M17" s="166">
@@ -15214,38 +15406,38 @@
       </c>
       <c r="D18" s="145"/>
       <c r="E18" s="165" t="str">
-        <f>IF(Dashboard!$E$38="yes",E$15-E$17,IF(Dashboard!$E$38="no",E$15,"ERROR"))</f>
+        <f>IF(Dashboard!$E$47="yes",E$15-E$17,IF(Dashboard!$E$47="no",E$15,"ERROR"))</f>
         <v>ERROR</v>
       </c>
       <c r="F18" s="268" t="s">
         <v>292</v>
       </c>
       <c r="G18" s="165" t="str">
-        <f>IF(Dashboard!$E$38="yes",G$15-G$17,IF(Dashboard!$E$38="no",G$15,"ERROR"))</f>
+        <f>IF(Dashboard!$E$47="yes",G$15-G$17,IF(Dashboard!$E$47="no",G$15,"ERROR"))</f>
         <v>ERROR</v>
       </c>
       <c r="H18" s="165" t="str">
-        <f>IF(Dashboard!$E$38="yes",H$15-H$17,IF(Dashboard!$E$38="no",H$15,"ERROR"))</f>
+        <f>IF(Dashboard!$E$47="yes",H$15-H$17,IF(Dashboard!$E$47="no",H$15,"ERROR"))</f>
         <v>ERROR</v>
       </c>
       <c r="I18" s="165" t="str">
-        <f>IF(Dashboard!$E$38="yes",I$15-I$17,IF(Dashboard!$E$38="no",I$15,"ERROR"))</f>
+        <f>IF(Dashboard!$E$47="yes",I$15-I$17,IF(Dashboard!$E$47="no",I$15,"ERROR"))</f>
         <v>ERROR</v>
       </c>
       <c r="J18" s="165" t="str">
-        <f>IF(Dashboard!$E$38="yes",J$15-J$17,IF(Dashboard!$E$38="no",J$15,"ERROR"))</f>
+        <f>IF(Dashboard!$E$47="yes",J$15-J$17,IF(Dashboard!$E$47="no",J$15,"ERROR"))</f>
         <v>ERROR</v>
       </c>
       <c r="K18" s="165" t="str">
-        <f>IF(Dashboard!$E$38="yes",K$15-K$17,IF(Dashboard!$E$38="no",K$15,"ERROR"))</f>
+        <f>IF(Dashboard!$E$47="yes",K$15-K$17,IF(Dashboard!$E$47="no",K$15,"ERROR"))</f>
         <v>ERROR</v>
       </c>
       <c r="L18" s="165" t="str">
-        <f>IF(Dashboard!$E$38="yes",L$15-L$17,IF(Dashboard!$E$38="no",L$15,"ERROR"))</f>
+        <f>IF(Dashboard!$E$47="yes",L$15-L$17,IF(Dashboard!$E$47="no",L$15,"ERROR"))</f>
         <v>ERROR</v>
       </c>
       <c r="M18" s="166" t="str">
-        <f>IF(Dashboard!$E$38="yes",M$15-M$17,IF(Dashboard!$E$38="no",M$15,"ERROR"))</f>
+        <f>IF(Dashboard!$E$47="yes",M$15-M$17,IF(Dashboard!$E$47="no",M$15,"ERROR"))</f>
         <v>ERROR</v>
       </c>
     </row>
@@ -15404,7 +15596,7 @@
       </c>
       <c r="D24" s="143"/>
       <c r="E24" s="165">
-        <f>IF(Dashboard!E38="yes",Dashboard!E50,0)</f>
+        <f>IF(Dashboard!E47="yes",Dashboard!E59,0)</f>
         <v>0</v>
       </c>
       <c r="F24" s="268" t="s">
@@ -15414,11 +15606,11 @@
         <v>0</v>
       </c>
       <c r="H24" s="165">
-        <f>IF(Dashboard!E38="yes",Dashboard!E51,0)</f>
+        <f>IF(Dashboard!E47="yes",Dashboard!E60,0)</f>
         <v>0</v>
       </c>
       <c r="I24" s="165">
-        <f>IF(Dashboard!E38="yes",Dashboard!E52,0)</f>
+        <f>IF(Dashboard!E47="yes",Dashboard!E61,0)</f>
         <v>0</v>
       </c>
       <c r="J24" s="165">
@@ -15441,38 +15633,38 @@
       </c>
       <c r="D25" s="143"/>
       <c r="E25" s="165" t="str">
-        <f>IF(Dashboard!$E$38="yes",E$22-E$24,IF(Dashboard!$E$38="no",E$22,"ERROR"))</f>
+        <f>IF(Dashboard!$E$47="yes",E$22-E$24,IF(Dashboard!$E$47="no",E$22,"ERROR"))</f>
         <v>ERROR</v>
       </c>
       <c r="F25" s="268" t="s">
         <v>292</v>
       </c>
       <c r="G25" s="165" t="str">
-        <f>IF(Dashboard!$E$38="yes",G$22-G$24,IF(Dashboard!$E$38="no",G$22,"ERROR"))</f>
+        <f>IF(Dashboard!$E$47="yes",G$22-G$24,IF(Dashboard!$E$47="no",G$22,"ERROR"))</f>
         <v>ERROR</v>
       </c>
       <c r="H25" s="165" t="str">
-        <f>IF(Dashboard!$E$38="yes",H$22-H$24,IF(Dashboard!$E$38="no",H$22,"ERROR"))</f>
+        <f>IF(Dashboard!$E$47="yes",H$22-H$24,IF(Dashboard!$E$47="no",H$22,"ERROR"))</f>
         <v>ERROR</v>
       </c>
       <c r="I25" s="165" t="str">
-        <f>IF(Dashboard!$E$38="yes",I$22-I$24,IF(Dashboard!$E$38="no",I$22,"ERROR"))</f>
+        <f>IF(Dashboard!$E$47="yes",I$22-I$24,IF(Dashboard!$E$47="no",I$22,"ERROR"))</f>
         <v>ERROR</v>
       </c>
       <c r="J25" s="165" t="str">
-        <f>IF(Dashboard!$E$38="yes",J$22-J$24,IF(Dashboard!$E$38="no",J$22,"ERROR"))</f>
+        <f>IF(Dashboard!$E$47="yes",J$22-J$24,IF(Dashboard!$E$47="no",J$22,"ERROR"))</f>
         <v>ERROR</v>
       </c>
       <c r="K25" s="165" t="str">
-        <f>IF(Dashboard!$E$38="yes",K$22-K$24,IF(Dashboard!$E$38="no",K$22,"ERROR"))</f>
+        <f>IF(Dashboard!$E$47="yes",K$22-K$24,IF(Dashboard!$E$47="no",K$22,"ERROR"))</f>
         <v>ERROR</v>
       </c>
       <c r="L25" s="165" t="str">
-        <f>IF(Dashboard!$E$38="yes",L$22-L$24,IF(Dashboard!$E$38="no",L$22,"ERROR"))</f>
+        <f>IF(Dashboard!$E$47="yes",L$22-L$24,IF(Dashboard!$E$47="no",L$22,"ERROR"))</f>
         <v>ERROR</v>
       </c>
       <c r="M25" s="166" t="str">
-        <f>IF(Dashboard!$E$38="yes",M$22-M$24,IF(Dashboard!$E$38="no",M$22,"ERROR"))</f>
+        <f>IF(Dashboard!$E$47="yes",M$22-M$24,IF(Dashboard!$E$47="no",M$22,"ERROR"))</f>
         <v>ERROR</v>
       </c>
     </row>
@@ -15565,15 +15757,15 @@
       <c r="I4" s="8"/>
     </row>
     <row r="5" spans="2:12" ht="26" customHeight="1">
-      <c r="B5" s="348" t="s">
+      <c r="B5" s="361" t="s">
         <v>449</v>
       </c>
-      <c r="C5" s="349"/>
-      <c r="D5" s="349"/>
-      <c r="E5" s="349"/>
-      <c r="F5" s="349"/>
-      <c r="G5" s="349"/>
-      <c r="H5" s="350"/>
+      <c r="C5" s="362"/>
+      <c r="D5" s="362"/>
+      <c r="E5" s="362"/>
+      <c r="F5" s="362"/>
+      <c r="G5" s="362"/>
+      <c r="H5" s="363"/>
       <c r="I5" s="8"/>
     </row>
     <row r="6" spans="2:12" ht="17" thickBot="1"/>
@@ -15776,13 +15968,13 @@
       <c r="G4" s="8"/>
     </row>
     <row r="5" spans="2:9" ht="37" customHeight="1">
-      <c r="B5" s="348" t="s">
+      <c r="B5" s="361" t="s">
         <v>447</v>
       </c>
-      <c r="C5" s="349"/>
-      <c r="D5" s="349"/>
-      <c r="E5" s="349"/>
-      <c r="F5" s="350"/>
+      <c r="C5" s="362"/>
+      <c r="D5" s="362"/>
+      <c r="E5" s="362"/>
+      <c r="F5" s="363"/>
       <c r="G5" s="8"/>
     </row>
     <row r="6" spans="2:9" ht="17" thickBot="1"/>
@@ -16008,14 +16200,14 @@
       <c r="H4" s="8"/>
     </row>
     <row r="5" spans="2:8" ht="84" customHeight="1">
-      <c r="B5" s="348" t="s">
+      <c r="B5" s="361" t="s">
         <v>451</v>
       </c>
-      <c r="C5" s="349"/>
-      <c r="D5" s="349"/>
-      <c r="E5" s="349"/>
-      <c r="F5" s="349"/>
-      <c r="G5" s="350"/>
+      <c r="C5" s="362"/>
+      <c r="D5" s="362"/>
+      <c r="E5" s="362"/>
+      <c r="F5" s="362"/>
+      <c r="G5" s="363"/>
       <c r="H5" s="8"/>
     </row>
     <row r="6" spans="2:8" ht="17" thickBot="1"/>
@@ -16314,14 +16506,14 @@
       <c r="H4" s="8"/>
     </row>
     <row r="5" spans="2:8" ht="24" customHeight="1">
-      <c r="B5" s="348" t="s">
+      <c r="B5" s="361" t="s">
         <v>454</v>
       </c>
-      <c r="C5" s="349"/>
-      <c r="D5" s="349"/>
-      <c r="E5" s="349"/>
-      <c r="F5" s="349"/>
-      <c r="G5" s="350"/>
+      <c r="C5" s="362"/>
+      <c r="D5" s="362"/>
+      <c r="E5" s="362"/>
+      <c r="F5" s="362"/>
+      <c r="G5" s="363"/>
       <c r="H5" s="8"/>
     </row>
     <row r="6" spans="2:8" ht="17" thickBot="1"/>
@@ -16369,9 +16561,9 @@
         <v>190</v>
       </c>
       <c r="D11" s="143"/>
-      <c r="E11" s="167" t="e">
-        <f>Dashboard!E42*technical_specs!G12</f>
-        <v>#VALUE!</v>
+      <c r="E11" s="167">
+        <f>Dashboard!E51*technical_specs!G12</f>
+        <v>0</v>
       </c>
       <c r="F11" s="334"/>
     </row>
@@ -16381,9 +16573,9 @@
         <v>209</v>
       </c>
       <c r="D12" s="143"/>
-      <c r="E12" s="167" t="e">
-        <f>Dashboard!E43*technical_specs!G15</f>
-        <v>#VALUE!</v>
+      <c r="E12" s="167">
+        <f>Dashboard!E52*technical_specs!G15</f>
+        <v>0</v>
       </c>
       <c r="F12" s="334"/>
     </row>
@@ -16393,9 +16585,9 @@
         <v>51</v>
       </c>
       <c r="D13" s="143"/>
-      <c r="E13" s="167" t="e">
-        <f>Dashboard!E44*technical_specs!G13</f>
-        <v>#VALUE!</v>
+      <c r="E13" s="167">
+        <f>Dashboard!E53*technical_specs!G13</f>
+        <v>0</v>
       </c>
       <c r="F13" s="334"/>
     </row>
@@ -16405,9 +16597,9 @@
         <v>192</v>
       </c>
       <c r="D14" s="143"/>
-      <c r="E14" s="167" t="e">
-        <f>Dashboard!E45*technical_specs!G14</f>
-        <v>#VALUE!</v>
+      <c r="E14" s="167">
+        <f>Dashboard!E54*technical_specs!G14</f>
+        <v>0</v>
       </c>
       <c r="F14" s="334"/>
     </row>
@@ -16417,9 +16609,9 @@
         <v>104</v>
       </c>
       <c r="D15" s="143"/>
-      <c r="E15" s="167" t="str">
-        <f>Dashboard!E46</f>
-        <v/>
+      <c r="E15" s="167">
+        <f>Dashboard!E55</f>
+        <v>0</v>
       </c>
       <c r="F15" s="334"/>
     </row>
@@ -16452,13 +16644,13 @@
         <v>452</v>
       </c>
       <c r="D19" s="143"/>
-      <c r="E19" s="167" t="str">
-        <f>Dashboard!E51</f>
-        <v/>
-      </c>
-      <c r="F19" s="324" t="e">
+      <c r="E19" s="167">
+        <f>Dashboard!E60</f>
+        <v>0</v>
+      </c>
+      <c r="F19" s="324">
         <f>IF(SUM($E$19:$E$20)=0,1,E19/SUM($E$19:$E$20))</f>
-        <v>#VALUE!</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="2:6">
@@ -16467,13 +16659,13 @@
         <v>431</v>
       </c>
       <c r="D20" s="143"/>
-      <c r="E20" s="167" t="e">
+      <c r="E20" s="167">
         <f>SUM(E11:E15)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F20" s="324" t="e">
+        <v>0</v>
+      </c>
+      <c r="F20" s="324">
         <f>IF(SUM($E$19:$E$20)=0,0,E20/SUM($E$19:$E$20))</f>
-        <v>#VALUE!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="2:6" ht="17" thickBot="1">
@@ -17121,7 +17313,7 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B5"/>
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
@@ -17265,7 +17457,7 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B5"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
@@ -17409,7 +17601,7 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B5"/>
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
@@ -17547,18 +17739,95 @@
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
+    <tabColor theme="7" tint="0.39997558519241921"/>
+  </sheetPr>
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="52.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>327</v>
+      </c>
+      <c r="B2" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>464</v>
+      </c>
+      <c r="B3" s="349">
+        <f>Dashboard!E39</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>465</v>
+      </c>
+      <c r="B4" s="349">
+        <f>Dashboard!E41</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>466</v>
+      </c>
+      <c r="B5" s="349">
+        <f>Dashboard!E42</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>467</v>
+      </c>
+      <c r="B6" s="349">
+        <f>Dashboard!E43</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet21" enableFormatConditionsCalculation="0">
     <tabColor theme="7" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B5"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="10" width="11.625" style="277" customWidth="1"/>
+    <col min="1" max="1" width="52.5" style="277" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.5" style="277" bestFit="1" customWidth="1"/>
+    <col min="3" max="10" width="11.625" style="277" customWidth="1"/>
     <col min="11" max="11" width="11.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -17689,7 +17958,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet22" enableFormatConditionsCalculation="0">
     <tabColor theme="7" tint="0.39997558519241921"/>
@@ -17833,7 +18102,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet23" enableFormatConditionsCalculation="0">
     <tabColor theme="7" tint="0.39997558519241921"/>
@@ -17977,7 +18246,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet24" enableFormatConditionsCalculation="0">
     <tabColor theme="7" tint="0.39997558519241921"/>
@@ -18115,15 +18384,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet25" enableFormatConditionsCalculation="0">
     <tabColor theme="7" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B5"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16:G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
@@ -18247,177 +18516,6 @@
       <c r="H10" s="296"/>
       <c r="I10" s="296"/>
       <c r="J10" s="296"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet26" enableFormatConditionsCalculation="0">
-    <tabColor theme="7" tint="0.39997558519241921"/>
-  </sheetPr>
-  <dimension ref="A1:J11"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="1" max="1" width="27" style="277" customWidth="1"/>
-    <col min="2" max="10" width="11.625" style="277" customWidth="1"/>
-    <col min="11" max="11" width="11.125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="277" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="277" t="s">
-        <v>327</v>
-      </c>
-      <c r="B2" s="277" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="278" t="s">
-        <v>420</v>
-      </c>
-      <c r="B3" s="317">
-        <f>'Refineries efficiency'!F11</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="278" t="s">
-        <v>427</v>
-      </c>
-      <c r="B4" s="317">
-        <f>'Refineries efficiency'!F12</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="278" t="s">
-        <v>421</v>
-      </c>
-      <c r="B5" s="317">
-        <f>'Refineries efficiency'!F16</f>
-        <v>0</v>
-      </c>
-      <c r="C5" s="296"/>
-      <c r="D5" s="193"/>
-      <c r="E5" s="193"/>
-      <c r="F5" s="193"/>
-      <c r="G5" s="193"/>
-      <c r="H5" s="193"/>
-      <c r="I5" s="193"/>
-      <c r="J5" s="193"/>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="278" t="s">
-        <v>422</v>
-      </c>
-      <c r="B6" s="317">
-        <f>'Refineries efficiency'!F17</f>
-        <v>0</v>
-      </c>
-      <c r="C6" s="296"/>
-      <c r="D6" s="296"/>
-      <c r="E6" s="296"/>
-      <c r="F6" s="296"/>
-      <c r="G6" s="296"/>
-      <c r="H6" s="296"/>
-      <c r="I6" s="296"/>
-      <c r="J6" s="296"/>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="278" t="s">
-        <v>423</v>
-      </c>
-      <c r="B7" s="317">
-        <f>'Refineries efficiency'!F18</f>
-        <v>0</v>
-      </c>
-      <c r="C7" s="296"/>
-      <c r="D7" s="296"/>
-      <c r="E7" s="296"/>
-      <c r="F7" s="296"/>
-      <c r="G7" s="296"/>
-      <c r="H7" s="296"/>
-      <c r="I7" s="296"/>
-      <c r="J7" s="296"/>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="278" t="s">
-        <v>425</v>
-      </c>
-      <c r="B8" s="317">
-        <f>'Refineries efficiency'!F19</f>
-        <v>0</v>
-      </c>
-      <c r="C8" s="193"/>
-      <c r="D8" s="193"/>
-      <c r="E8" s="193"/>
-      <c r="F8" s="193"/>
-      <c r="G8" s="193"/>
-      <c r="H8" s="193"/>
-      <c r="I8" s="193"/>
-      <c r="J8" s="193"/>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="278" t="s">
-        <v>424</v>
-      </c>
-      <c r="B9" s="317">
-        <f>'Refineries efficiency'!F20</f>
-        <v>0</v>
-      </c>
-      <c r="C9" s="296"/>
-      <c r="D9" s="193"/>
-      <c r="E9" s="193"/>
-      <c r="F9" s="193"/>
-      <c r="G9" s="193"/>
-      <c r="H9" s="193"/>
-      <c r="I9" s="193"/>
-      <c r="J9" s="193"/>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="278" t="s">
-        <v>426</v>
-      </c>
-      <c r="B10" s="317">
-        <f>'Refineries efficiency'!F21</f>
-        <v>0</v>
-      </c>
-      <c r="C10" s="296"/>
-      <c r="D10" s="301"/>
-      <c r="E10" s="193"/>
-      <c r="F10" s="193"/>
-      <c r="G10" s="193"/>
-      <c r="H10" s="193"/>
-      <c r="I10" s="193"/>
-      <c r="J10" s="193"/>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="278" t="s">
-        <v>463</v>
-      </c>
-      <c r="B11" s="317">
-        <f>'Refineries efficiency'!F22</f>
-        <v>0</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -18715,6 +18813,177 @@
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet26" enableFormatConditionsCalculation="0">
+    <tabColor theme="7" tint="0.39997558519241921"/>
+  </sheetPr>
+  <dimension ref="A1:J11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="27" style="277" customWidth="1"/>
+    <col min="2" max="10" width="11.625" style="277" customWidth="1"/>
+    <col min="11" max="11" width="11.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="277" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="277" t="s">
+        <v>327</v>
+      </c>
+      <c r="B2" s="277" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="278" t="s">
+        <v>420</v>
+      </c>
+      <c r="B3" s="317">
+        <f>'Refineries efficiency'!F11</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="278" t="s">
+        <v>427</v>
+      </c>
+      <c r="B4" s="317">
+        <f>'Refineries efficiency'!F12</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="278" t="s">
+        <v>421</v>
+      </c>
+      <c r="B5" s="317">
+        <f>'Refineries efficiency'!F16</f>
+        <v>0</v>
+      </c>
+      <c r="C5" s="296"/>
+      <c r="D5" s="193"/>
+      <c r="E5" s="193"/>
+      <c r="F5" s="193"/>
+      <c r="G5" s="193"/>
+      <c r="H5" s="193"/>
+      <c r="I5" s="193"/>
+      <c r="J5" s="193"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="278" t="s">
+        <v>422</v>
+      </c>
+      <c r="B6" s="317">
+        <f>'Refineries efficiency'!F17</f>
+        <v>0</v>
+      </c>
+      <c r="C6" s="296"/>
+      <c r="D6" s="296"/>
+      <c r="E6" s="296"/>
+      <c r="F6" s="296"/>
+      <c r="G6" s="296"/>
+      <c r="H6" s="296"/>
+      <c r="I6" s="296"/>
+      <c r="J6" s="296"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="278" t="s">
+        <v>423</v>
+      </c>
+      <c r="B7" s="317">
+        <f>'Refineries efficiency'!F18</f>
+        <v>0</v>
+      </c>
+      <c r="C7" s="296"/>
+      <c r="D7" s="296"/>
+      <c r="E7" s="296"/>
+      <c r="F7" s="296"/>
+      <c r="G7" s="296"/>
+      <c r="H7" s="296"/>
+      <c r="I7" s="296"/>
+      <c r="J7" s="296"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="278" t="s">
+        <v>425</v>
+      </c>
+      <c r="B8" s="317">
+        <f>'Refineries efficiency'!F19</f>
+        <v>0</v>
+      </c>
+      <c r="C8" s="193"/>
+      <c r="D8" s="193"/>
+      <c r="E8" s="193"/>
+      <c r="F8" s="193"/>
+      <c r="G8" s="193"/>
+      <c r="H8" s="193"/>
+      <c r="I8" s="193"/>
+      <c r="J8" s="193"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="278" t="s">
+        <v>424</v>
+      </c>
+      <c r="B9" s="317">
+        <f>'Refineries efficiency'!F20</f>
+        <v>0</v>
+      </c>
+      <c r="C9" s="296"/>
+      <c r="D9" s="193"/>
+      <c r="E9" s="193"/>
+      <c r="F9" s="193"/>
+      <c r="G9" s="193"/>
+      <c r="H9" s="193"/>
+      <c r="I9" s="193"/>
+      <c r="J9" s="193"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="278" t="s">
+        <v>426</v>
+      </c>
+      <c r="B10" s="317">
+        <f>'Refineries efficiency'!F21</f>
+        <v>0</v>
+      </c>
+      <c r="C10" s="296"/>
+      <c r="D10" s="301"/>
+      <c r="E10" s="193"/>
+      <c r="F10" s="193"/>
+      <c r="G10" s="193"/>
+      <c r="H10" s="193"/>
+      <c r="I10" s="193"/>
+      <c r="J10" s="193"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="278" t="s">
+        <v>463</v>
+      </c>
+      <c r="B11" s="317">
+        <f>'Refineries efficiency'!F22</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="7" tint="0.39997558519241921"/>
   </sheetPr>
@@ -18748,18 +19017,18 @@
       <c r="A3" s="278" t="s">
         <v>461</v>
       </c>
-      <c r="B3" s="317" t="e">
+      <c r="B3" s="317">
         <f>'Steam methane reformer input'!F19</f>
-        <v>#VALUE!</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="278" t="s">
         <v>427</v>
       </c>
-      <c r="B4" s="317" t="e">
+      <c r="B4" s="317">
         <f>'Steam methane reformer input'!F20</f>
-        <v>#VALUE!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -19411,7 +19680,7 @@
       <c r="CB9" s="48"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
+  <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.75000000000000011" right="0.75000000000000011" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="44" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
@@ -19455,10 +19724,10 @@
       <c r="C4" s="5"/>
     </row>
     <row r="5" spans="2:3" ht="75" customHeight="1">
-      <c r="B5" s="337" t="s">
+      <c r="B5" s="350" t="s">
         <v>248</v>
       </c>
-      <c r="C5" s="338"/>
+      <c r="C5" s="351"/>
     </row>
     <row r="6" spans="2:3" ht="17" thickBot="1"/>
     <row r="7" spans="2:3">
@@ -20061,9 +20330,11 @@
   <sheetPr codeName="Sheet7" enableFormatConditionsCalculation="0">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A2:P53"/>
+  <dimension ref="A2:P62"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="106" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" outlineLevelRow="1" x14ac:dyDescent="0"/>
   <cols>
@@ -20114,32 +20385,32 @@
       <c r="K4" s="7"/>
     </row>
     <row r="5" spans="1:16">
-      <c r="B5" s="339" t="s">
+      <c r="B5" s="352" t="s">
         <v>307</v>
       </c>
-      <c r="C5" s="340"/>
-      <c r="D5" s="340"/>
-      <c r="E5" s="341"/>
+      <c r="C5" s="353"/>
+      <c r="D5" s="353"/>
+      <c r="E5" s="354"/>
       <c r="F5" s="8"/>
       <c r="I5" s="229"/>
       <c r="J5" s="8"/>
       <c r="K5" s="7"/>
     </row>
     <row r="6" spans="1:16">
-      <c r="B6" s="339"/>
-      <c r="C6" s="340"/>
-      <c r="D6" s="340"/>
-      <c r="E6" s="341"/>
+      <c r="B6" s="352"/>
+      <c r="C6" s="353"/>
+      <c r="D6" s="353"/>
+      <c r="E6" s="354"/>
       <c r="F6" s="8"/>
       <c r="I6" s="207"/>
       <c r="J6" s="8"/>
       <c r="K6" s="7"/>
     </row>
     <row r="7" spans="1:16">
-      <c r="B7" s="337"/>
-      <c r="C7" s="342"/>
-      <c r="D7" s="342"/>
-      <c r="E7" s="338"/>
+      <c r="B7" s="350"/>
+      <c r="C7" s="355"/>
+      <c r="D7" s="355"/>
+      <c r="E7" s="351"/>
       <c r="F7" s="151"/>
       <c r="I7" s="228"/>
       <c r="J7" s="9"/>
@@ -20258,7 +20529,7 @@
         <v>194</v>
       </c>
       <c r="L13" s="279" t="b">
-        <f>IF(OR(AND(E38="no",COUNTIF(P13:P15,0)+COUNTIF(P13:P15,FALSE)=0),(AND(E38="yes",COUNTIF(P:P,0)+COUNTIF(P:P,FALSE)=0))),TRUE,FALSE)</f>
+        <f>IF(OR(AND(E47="no",COUNTIF(P13:P15,0)+COUNTIF(P13:P15,FALSE)=0),(AND(E47="yes",COUNTIF(P:P,0)+COUNTIF(P:P,FALSE)=0))),TRUE,FALSE)</f>
         <v>0</v>
       </c>
       <c r="M13" s="238" t="str">
@@ -20289,7 +20560,7 @@
         <v>195</v>
       </c>
       <c r="L14" s="279" t="b">
-        <f>IF(OR(AND(E38="no",COUNTBLANK(C13:C14)-COUNTBLANK(E13:E14)=0),(AND(E38="yes",COUNTBLANK(C:C)-COUNTBLANK(E:E)=0))),TRUE,FALSE)</f>
+        <f>IF(OR(AND(E47="no",COUNTBLANK(C13:C14)-COUNTBLANK(E13:E14)=0),(AND(E47="yes",COUNTBLANK(C:C)-COUNTBLANK(E:E)=0))),TRUE,FALSE)</f>
         <v>0</v>
       </c>
       <c r="M14" s="238" t="str">
@@ -20832,8 +21103,10 @@
     </row>
     <row r="36" spans="1:16">
       <c r="A36" s="8"/>
-      <c r="B36" s="22"/>
-      <c r="C36" s="258"/>
+      <c r="B36" s="28" t="s">
+        <v>472</v>
+      </c>
+      <c r="C36" s="158"/>
       <c r="D36" s="158"/>
       <c r="E36" s="126"/>
       <c r="F36" s="126"/>
@@ -20848,561 +21121,759 @@
       <c r="O36" s="207"/>
       <c r="P36" s="208"/>
     </row>
-    <row r="37" spans="1:16" ht="17" thickBot="1">
+    <row r="37" spans="1:16">
       <c r="A37" s="8"/>
       <c r="B37" s="28"/>
-      <c r="C37" s="12"/>
-      <c r="D37" s="157"/>
-      <c r="E37" s="290"/>
-      <c r="F37" s="75"/>
+      <c r="C37" s="293" t="e">
+        <f>"The final electricity demand of the chemical other sector is "&amp;ROUND('Fuel aggregation'!L18,0)&amp;" TJ, indicate below how this is divided among teneral electricity use and the heating heating technologies"</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D37" s="158"/>
+      <c r="E37" s="126"/>
+      <c r="F37" s="126"/>
       <c r="G37" s="202"/>
       <c r="H37" s="8"/>
       <c r="I37" s="8"/>
       <c r="J37" s="8"/>
       <c r="K37" s="289"/>
-      <c r="L37" s="244"/>
-      <c r="M37" s="280"/>
+      <c r="L37" s="200"/>
+      <c r="M37" s="239"/>
       <c r="N37" s="8"/>
       <c r="O37" s="207"/>
       <c r="P37" s="208"/>
     </row>
     <row r="38" spans="1:16" ht="17" thickBot="1">
       <c r="A38" s="8"/>
-      <c r="B38" s="28"/>
-      <c r="C38" s="162" t="s">
-        <v>444</v>
-      </c>
-      <c r="D38" s="157"/>
-      <c r="E38" s="291"/>
-      <c r="F38" s="75"/>
+      <c r="B38" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="C38" s="294"/>
+      <c r="D38" s="158"/>
+      <c r="E38" s="126"/>
+      <c r="F38" s="126"/>
       <c r="G38" s="202"/>
       <c r="H38" s="8"/>
       <c r="I38" s="8"/>
       <c r="J38" s="8"/>
       <c r="K38" s="289"/>
-      <c r="L38" s="242" t="b">
-        <f>IF(OR(E38="yes",E38="no"), TRUE, FALSE)</f>
-        <v>0</v>
-      </c>
+      <c r="L38" s="244"/>
       <c r="M38" s="280"/>
       <c r="N38" s="8"/>
-      <c r="O38" s="207" t="s">
-        <v>325</v>
-      </c>
-      <c r="P38" s="7">
-        <f>IF(L38=TRUE,1,0)</f>
+      <c r="O38" s="207"/>
+      <c r="P38" s="208"/>
+    </row>
+    <row r="39" spans="1:16" ht="17" thickBot="1">
+      <c r="B39" s="22"/>
+      <c r="C39" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="D39" s="158"/>
+      <c r="E39" s="365"/>
+      <c r="G39" s="364"/>
+      <c r="J39" s="8"/>
+      <c r="K39" s="345" t="s">
+        <v>473</v>
+      </c>
+      <c r="L39" s="242" t="b">
+        <f>IF(SUM(E$39:E$43)=1, TRUE, FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:16" outlineLevel="1">
-      <c r="A39" s="8"/>
-      <c r="B39" s="31"/>
-      <c r="C39" s="257"/>
-      <c r="D39" s="160"/>
-      <c r="E39" s="259"/>
-      <c r="F39" s="259"/>
-      <c r="G39" s="203"/>
-      <c r="H39" s="9"/>
-      <c r="I39" s="9"/>
-      <c r="J39" s="9"/>
-      <c r="K39" s="41"/>
-      <c r="L39" s="260"/>
-      <c r="M39" s="240"/>
+      <c r="M39" s="280" t="str">
+        <f>IF(L39=TRUE, "", "Split does not sum to 100%")</f>
+        <v>Split does not sum to 100%</v>
+      </c>
       <c r="N39" s="8"/>
-      <c r="O39" s="207"/>
-      <c r="P39" s="208"/>
-    </row>
-    <row r="40" spans="1:16" outlineLevel="1">
-      <c r="A40" s="8"/>
-      <c r="B40" s="28" t="s">
-        <v>310</v>
-      </c>
-      <c r="C40" s="158"/>
+      <c r="O39" s="207" t="s">
+        <v>468</v>
+      </c>
+      <c r="P39" s="7">
+        <f>IF(L39=TRUE,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" ht="17" thickBot="1">
+      <c r="B40" s="22" t="s">
+        <v>282</v>
+      </c>
       <c r="D40" s="158"/>
-      <c r="E40" s="126"/>
-      <c r="F40" s="126"/>
-      <c r="G40" s="202"/>
-      <c r="H40" s="8"/>
-      <c r="I40" s="8"/>
+      <c r="E40" s="337"/>
       <c r="J40" s="8"/>
-      <c r="K40" s="40"/>
-      <c r="L40" s="200"/>
-      <c r="M40" s="239"/>
+      <c r="K40" s="345"/>
+      <c r="L40" s="244"/>
+      <c r="M40" s="280"/>
       <c r="N40" s="8"/>
       <c r="O40" s="207"/>
-      <c r="P40" s="208"/>
-    </row>
-    <row r="41" spans="1:16" ht="17" outlineLevel="1" thickBot="1">
+    </row>
+    <row r="41" spans="1:16" ht="17" thickBot="1">
       <c r="A41" s="8"/>
-      <c r="B41" s="22" t="s">
-        <v>283</v>
-      </c>
-      <c r="C41" s="294"/>
+      <c r="B41" s="22"/>
+      <c r="C41" s="1" t="s">
+        <v>477</v>
+      </c>
       <c r="D41" s="158"/>
-      <c r="E41" s="126"/>
+      <c r="E41" s="365"/>
       <c r="F41" s="126"/>
       <c r="G41" s="202"/>
       <c r="H41" s="8"/>
       <c r="I41" s="8"/>
       <c r="J41" s="8"/>
-      <c r="K41" s="289"/>
-      <c r="L41" s="244"/>
-      <c r="M41" s="280"/>
+      <c r="K41" s="345" t="s">
+        <v>473</v>
+      </c>
+      <c r="L41" s="242" t="b">
+        <f>IF(SUM(E$39:E$43)=1, TRUE, FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="M41" s="280" t="str">
+        <f>IF(L41=TRUE, "", "Split does not sum to 100%")</f>
+        <v>Split does not sum to 100%</v>
+      </c>
       <c r="N41" s="8"/>
-      <c r="O41" s="207"/>
-      <c r="P41" s="208"/>
-    </row>
-    <row r="42" spans="1:16" ht="17" outlineLevel="1" thickBot="1">
+      <c r="O41" s="207" t="s">
+        <v>469</v>
+      </c>
+      <c r="P41" s="7">
+        <f>IF(L41=TRUE,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" ht="17" thickBot="1">
       <c r="A42" s="8"/>
       <c r="B42" s="22"/>
-      <c r="C42" s="258" t="s">
-        <v>190</v>
-      </c>
-      <c r="D42" s="158" t="s">
-        <v>225</v>
-      </c>
-      <c r="E42" s="291" t="str">
-        <f>IF(E38="no",0,"")</f>
-        <v/>
-      </c>
+      <c r="C42" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="D42" s="158"/>
+      <c r="E42" s="365"/>
       <c r="F42" s="126"/>
       <c r="G42" s="202"/>
       <c r="H42" s="8"/>
-      <c r="I42" s="291"/>
+      <c r="I42" s="8"/>
       <c r="J42" s="8"/>
-      <c r="K42" s="289" t="s">
-        <v>315</v>
+      <c r="K42" s="345" t="s">
+        <v>473</v>
       </c>
       <c r="L42" s="242" t="b">
-        <f>IF((E42)&lt;='Fuel aggregation'!E15, TRUE, FALSE)</f>
+        <f>IF(SUM(E$39:E$43)=1, TRUE, FALSE)</f>
         <v>0</v>
       </c>
-      <c r="M42" s="280"/>
+      <c r="M42" s="280" t="str">
+        <f>IF(L42=TRUE, "", "Split does not sum to 100%")</f>
+        <v>Split does not sum to 100%</v>
+      </c>
       <c r="N42" s="8"/>
       <c r="O42" s="207" t="s">
-        <v>319</v>
+        <v>470</v>
       </c>
       <c r="P42" s="7">
-        <f t="shared" ref="P42:P47" si="0">IF(L42=TRUE,1,0)</f>
+        <f>IF(L42=TRUE,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:16" ht="17" outlineLevel="1" thickBot="1">
+    <row r="43" spans="1:16" ht="17" thickBot="1">
       <c r="A43" s="8"/>
       <c r="B43" s="22"/>
-      <c r="C43" s="258" t="s">
-        <v>209</v>
-      </c>
-      <c r="D43" s="158" t="s">
-        <v>225</v>
-      </c>
-      <c r="E43" s="291" t="str">
-        <f>IF(E38="no",0,"")</f>
-        <v/>
-      </c>
+      <c r="C43" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="D43" s="158"/>
+      <c r="E43" s="365"/>
       <c r="F43" s="126"/>
       <c r="G43" s="202"/>
       <c r="H43" s="8"/>
-      <c r="I43" s="291"/>
+      <c r="I43" s="8"/>
       <c r="J43" s="8"/>
-      <c r="K43" s="289" t="s">
-        <v>316</v>
+      <c r="K43" s="345" t="s">
+        <v>473</v>
       </c>
       <c r="L43" s="242" t="b">
-        <f>IF((E43)&lt;='Fuel aggregation'!H15, TRUE, FALSE)</f>
+        <f>IF(SUM(E$39:E$43)=1, TRUE, FALSE)</f>
         <v>0</v>
       </c>
-      <c r="M43" s="280"/>
+      <c r="M43" s="280" t="str">
+        <f>IF(L43=TRUE, "", "Split does not sum to 100%")</f>
+        <v>Split does not sum to 100%</v>
+      </c>
       <c r="N43" s="8"/>
       <c r="O43" s="207" t="s">
-        <v>320</v>
+        <v>474</v>
       </c>
       <c r="P43" s="7">
-        <f t="shared" si="0"/>
+        <f>IF(L43=TRUE,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:16" ht="17" outlineLevel="1" thickBot="1">
+    <row r="44" spans="1:16">
       <c r="A44" s="8"/>
       <c r="B44" s="22"/>
-      <c r="C44" s="258" t="s">
-        <v>51</v>
-      </c>
-      <c r="D44" s="158" t="s">
-        <v>225</v>
-      </c>
-      <c r="E44" s="291" t="str">
-        <f>IF(E38="no",0,"")</f>
-        <v/>
-      </c>
-      <c r="F44" s="126"/>
-      <c r="G44" s="202"/>
-      <c r="H44" s="8"/>
-      <c r="I44" s="291"/>
-      <c r="J44" s="8"/>
-      <c r="K44" s="289" t="s">
-        <v>312</v>
-      </c>
-      <c r="L44" s="242" t="b">
-        <f>IF((E44)&lt;='Fuel aggregation'!I15, TRUE, FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="M44" s="280"/>
+      <c r="K44" s="346"/>
+      <c r="L44" s="348"/>
+      <c r="M44" s="347"/>
       <c r="N44" s="8"/>
-      <c r="O44" s="207" t="s">
-        <v>324</v>
-      </c>
-      <c r="P44" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16" ht="17" outlineLevel="1" thickBot="1">
+      <c r="O44" s="207"/>
+    </row>
+    <row r="45" spans="1:16" s="4" customFormat="1">
       <c r="A45" s="8"/>
-      <c r="B45" s="22"/>
-      <c r="C45" s="258" t="s">
-        <v>192</v>
-      </c>
-      <c r="D45" s="158" t="s">
-        <v>225</v>
-      </c>
-      <c r="E45" s="291" t="str">
-        <f>IF(E38="no",0,"")</f>
-        <v/>
-      </c>
-      <c r="F45" s="126"/>
-      <c r="G45" s="202"/>
-      <c r="H45" s="8"/>
-      <c r="I45" s="291"/>
-      <c r="J45" s="8"/>
-      <c r="K45" s="289" t="s">
-        <v>317</v>
-      </c>
-      <c r="L45" s="242" t="b">
-        <f>IF((E45)&lt;='Fuel aggregation'!J15, TRUE, FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="M45" s="280"/>
-      <c r="N45" s="8"/>
-      <c r="O45" s="207" t="s">
-        <v>323</v>
-      </c>
-      <c r="P45" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:16" ht="17" outlineLevel="1" thickBot="1">
+      <c r="B45" s="338"/>
+      <c r="C45" s="339"/>
+      <c r="D45" s="340"/>
+      <c r="E45" s="341"/>
+      <c r="F45" s="341"/>
+      <c r="G45" s="342"/>
+      <c r="K45" s="343"/>
+      <c r="L45" s="200"/>
+      <c r="M45" s="344"/>
+      <c r="O45" s="205"/>
+      <c r="P45" s="206"/>
+    </row>
+    <row r="46" spans="1:16" ht="17" thickBot="1">
       <c r="A46" s="8"/>
-      <c r="B46" s="22"/>
-      <c r="C46" s="258" t="s">
-        <v>104</v>
-      </c>
-      <c r="D46" s="292" t="s">
-        <v>225</v>
-      </c>
-      <c r="E46" s="291" t="str">
-        <f>IF(E38="no",0,"")</f>
-        <v/>
-      </c>
-      <c r="F46" s="126"/>
+      <c r="B46" s="28"/>
+      <c r="C46" s="12"/>
+      <c r="D46" s="157"/>
+      <c r="E46" s="290"/>
+      <c r="F46" s="75"/>
       <c r="G46" s="202"/>
       <c r="H46" s="8"/>
-      <c r="I46" s="291"/>
+      <c r="I46" s="8"/>
       <c r="J46" s="8"/>
-      <c r="K46" s="289" t="s">
-        <v>318</v>
-      </c>
-      <c r="L46" s="242" t="b">
-        <f>IF((E46)&lt;='Fuel aggregation'!K15, TRUE, FALSE)</f>
-        <v>0</v>
-      </c>
+      <c r="K46" s="289"/>
+      <c r="L46" s="244"/>
       <c r="M46" s="280"/>
       <c r="N46" s="8"/>
-      <c r="O46" s="207" t="s">
-        <v>322</v>
-      </c>
-      <c r="P46" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:16" ht="17" outlineLevel="1" thickBot="1">
+      <c r="O46" s="207"/>
+      <c r="P46" s="208"/>
+    </row>
+    <row r="47" spans="1:16" ht="17" thickBot="1">
       <c r="A47" s="8"/>
-      <c r="B47" s="22"/>
-      <c r="C47" s="258" t="s">
-        <v>103</v>
-      </c>
-      <c r="D47" s="158" t="s">
-        <v>225</v>
-      </c>
-      <c r="E47" s="291" t="str">
-        <f>IF(E38="no",0,"")</f>
-        <v/>
-      </c>
-      <c r="F47" s="126"/>
+      <c r="B47" s="28"/>
+      <c r="C47" s="162" t="s">
+        <v>444</v>
+      </c>
+      <c r="D47" s="157"/>
+      <c r="E47" s="291"/>
+      <c r="F47" s="75"/>
       <c r="G47" s="202"/>
       <c r="H47" s="8"/>
-      <c r="I47" s="291"/>
+      <c r="I47" s="8"/>
       <c r="J47" s="8"/>
-      <c r="K47" s="289" t="s">
-        <v>314</v>
-      </c>
+      <c r="K47" s="289"/>
       <c r="L47" s="242" t="b">
-        <f>IF((E47)&lt;='Fuel aggregation'!L15, TRUE, FALSE)</f>
+        <f>IF(OR(E47="yes",E47="no"), TRUE, FALSE)</f>
         <v>0</v>
       </c>
       <c r="M47" s="280"/>
       <c r="N47" s="8"/>
       <c r="O47" s="207" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="P47" s="7">
-        <f t="shared" si="0"/>
+        <f>IF(L47=TRUE,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:16" outlineLevel="1">
       <c r="A48" s="8"/>
-      <c r="B48" s="22"/>
-      <c r="C48" s="202"/>
-      <c r="D48" s="202"/>
-      <c r="E48" s="202"/>
-      <c r="F48" s="126"/>
-      <c r="G48" s="202"/>
-      <c r="H48" s="8"/>
-      <c r="I48" s="8"/>
-      <c r="J48" s="8"/>
-      <c r="K48" s="289"/>
-      <c r="L48" s="244"/>
-      <c r="M48" s="280"/>
+      <c r="B48" s="31"/>
+      <c r="C48" s="257"/>
+      <c r="D48" s="160"/>
+      <c r="E48" s="259"/>
+      <c r="F48" s="259"/>
+      <c r="G48" s="203"/>
+      <c r="H48" s="9"/>
+      <c r="I48" s="9"/>
+      <c r="J48" s="9"/>
+      <c r="K48" s="41"/>
+      <c r="L48" s="260"/>
+      <c r="M48" s="240"/>
       <c r="N48" s="8"/>
       <c r="O48" s="207"/>
-      <c r="P48" s="7"/>
-    </row>
-    <row r="49" spans="1:16" ht="17" outlineLevel="1" thickBot="1">
+      <c r="P48" s="208"/>
+    </row>
+    <row r="49" spans="1:16" outlineLevel="1">
       <c r="A49" s="8"/>
-      <c r="B49" s="22" t="s">
-        <v>284</v>
-      </c>
-      <c r="C49" s="293"/>
-      <c r="D49" s="202"/>
-      <c r="E49" s="202"/>
+      <c r="B49" s="28" t="s">
+        <v>310</v>
+      </c>
+      <c r="C49" s="158"/>
+      <c r="D49" s="158"/>
+      <c r="E49" s="126"/>
       <c r="F49" s="126"/>
       <c r="G49" s="202"/>
       <c r="H49" s="8"/>
       <c r="I49" s="8"/>
       <c r="J49" s="8"/>
-      <c r="K49" s="289"/>
-      <c r="L49" s="244"/>
-      <c r="M49" s="280"/>
+      <c r="K49" s="40"/>
+      <c r="L49" s="200"/>
+      <c r="M49" s="239"/>
       <c r="N49" s="8"/>
       <c r="O49" s="207"/>
       <c r="P49" s="208"/>
     </row>
     <row r="50" spans="1:16" ht="17" outlineLevel="1" thickBot="1">
       <c r="A50" s="8"/>
-      <c r="B50" s="22"/>
-      <c r="C50" s="258" t="s">
-        <v>190</v>
-      </c>
-      <c r="D50" s="158" t="s">
-        <v>225</v>
-      </c>
-      <c r="E50" s="291" t="str">
-        <f>IF(E38="no",0,"")</f>
-        <v/>
-      </c>
+      <c r="B50" s="22" t="s">
+        <v>283</v>
+      </c>
+      <c r="C50" s="294"/>
+      <c r="D50" s="158"/>
+      <c r="E50" s="126"/>
       <c r="F50" s="126"/>
       <c r="G50" s="202"/>
       <c r="H50" s="8"/>
-      <c r="I50" s="291"/>
+      <c r="I50" s="8"/>
       <c r="J50" s="8"/>
-      <c r="K50" s="289" t="s">
-        <v>313</v>
-      </c>
-      <c r="L50" s="242" t="b">
-        <f>IF((E50)&lt;='Fuel aggregation'!E22, TRUE, FALSE)</f>
-        <v>0</v>
-      </c>
+      <c r="K50" s="289"/>
+      <c r="L50" s="244"/>
       <c r="M50" s="280"/>
       <c r="N50" s="8"/>
-      <c r="O50" s="207" t="s">
-        <v>404</v>
-      </c>
-      <c r="P50" s="7">
-        <f t="shared" ref="P50:P52" si="1">IF(L50=TRUE,1,0)</f>
-        <v>0</v>
-      </c>
+      <c r="O50" s="207"/>
+      <c r="P50" s="208"/>
     </row>
     <row r="51" spans="1:16" ht="17" outlineLevel="1" thickBot="1">
       <c r="A51" s="8"/>
       <c r="B51" s="22"/>
       <c r="C51" s="258" t="s">
-        <v>209</v>
+        <v>190</v>
       </c>
       <c r="D51" s="158" t="s">
         <v>225</v>
       </c>
-      <c r="E51" s="291" t="str">
-        <f>IF(E38="no",0,"")</f>
-        <v/>
-      </c>
+      <c r="E51" s="291"/>
       <c r="F51" s="126"/>
       <c r="G51" s="202"/>
       <c r="H51" s="8"/>
       <c r="I51" s="291"/>
       <c r="J51" s="8"/>
       <c r="K51" s="289" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="L51" s="242" t="b">
-        <f>IF((E51)&lt;='Fuel aggregation'!H22, TRUE, FALSE)</f>
-        <v>0</v>
+        <f>IF((E51)&lt;='Fuel aggregation'!E15, TRUE, FALSE)</f>
+        <v>1</v>
       </c>
       <c r="M51" s="280"/>
       <c r="N51" s="8"/>
       <c r="O51" s="207" t="s">
-        <v>400</v>
+        <v>319</v>
       </c>
       <c r="P51" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" ref="P51:P56" si="0">IF(L51=TRUE,1,0)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:16" ht="17" outlineLevel="1" thickBot="1">
       <c r="A52" s="8"/>
       <c r="B52" s="22"/>
       <c r="C52" s="258" t="s">
-        <v>51</v>
+        <v>209</v>
       </c>
       <c r="D52" s="158" t="s">
         <v>225</v>
       </c>
-      <c r="E52" s="291" t="str">
-        <f>IF(E38="no",0,"")</f>
-        <v/>
-      </c>
+      <c r="E52" s="291"/>
       <c r="F52" s="126"/>
       <c r="G52" s="202"/>
       <c r="H52" s="8"/>
       <c r="I52" s="291"/>
       <c r="J52" s="8"/>
       <c r="K52" s="289" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="L52" s="242" t="b">
-        <f>IF(E52&lt;='Fuel aggregation'!I22, TRUE, FALSE)</f>
-        <v>0</v>
+        <f>IF((E52)&lt;='Fuel aggregation'!H15, TRUE, FALSE)</f>
+        <v>1</v>
       </c>
       <c r="M52" s="280"/>
       <c r="N52" s="8"/>
       <c r="O52" s="207" t="s">
+        <v>320</v>
+      </c>
+      <c r="P52" s="7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" ht="17" outlineLevel="1" thickBot="1">
+      <c r="A53" s="8"/>
+      <c r="B53" s="22"/>
+      <c r="C53" s="258" t="s">
+        <v>51</v>
+      </c>
+      <c r="D53" s="158" t="s">
+        <v>225</v>
+      </c>
+      <c r="E53" s="291"/>
+      <c r="F53" s="126"/>
+      <c r="G53" s="202"/>
+      <c r="H53" s="8"/>
+      <c r="I53" s="291"/>
+      <c r="J53" s="8"/>
+      <c r="K53" s="289" t="s">
+        <v>312</v>
+      </c>
+      <c r="L53" s="242" t="b">
+        <f>IF((E53)&lt;='Fuel aggregation'!I15, TRUE, FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="M53" s="280"/>
+      <c r="N53" s="8"/>
+      <c r="O53" s="207" t="s">
+        <v>324</v>
+      </c>
+      <c r="P53" s="7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" ht="17" outlineLevel="1" thickBot="1">
+      <c r="A54" s="8"/>
+      <c r="B54" s="22"/>
+      <c r="C54" s="258" t="s">
+        <v>192</v>
+      </c>
+      <c r="D54" s="158" t="s">
+        <v>225</v>
+      </c>
+      <c r="E54" s="291"/>
+      <c r="F54" s="126"/>
+      <c r="G54" s="202"/>
+      <c r="H54" s="8"/>
+      <c r="I54" s="291"/>
+      <c r="J54" s="8"/>
+      <c r="K54" s="289" t="s">
+        <v>317</v>
+      </c>
+      <c r="L54" s="242" t="b">
+        <f>IF((E54)&lt;='Fuel aggregation'!J15, TRUE, FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="M54" s="280"/>
+      <c r="N54" s="8"/>
+      <c r="O54" s="207" t="s">
+        <v>323</v>
+      </c>
+      <c r="P54" s="7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" ht="17" outlineLevel="1" thickBot="1">
+      <c r="A55" s="8"/>
+      <c r="B55" s="22"/>
+      <c r="C55" s="258" t="s">
+        <v>104</v>
+      </c>
+      <c r="D55" s="292" t="s">
+        <v>225</v>
+      </c>
+      <c r="E55" s="291"/>
+      <c r="F55" s="126"/>
+      <c r="G55" s="202"/>
+      <c r="H55" s="8"/>
+      <c r="I55" s="291"/>
+      <c r="J55" s="8"/>
+      <c r="K55" s="289" t="s">
+        <v>318</v>
+      </c>
+      <c r="L55" s="242" t="b">
+        <f>IF((E55)&lt;='Fuel aggregation'!K15, TRUE, FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="M55" s="280"/>
+      <c r="N55" s="8"/>
+      <c r="O55" s="207" t="s">
+        <v>322</v>
+      </c>
+      <c r="P55" s="7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" ht="17" outlineLevel="1" thickBot="1">
+      <c r="A56" s="8"/>
+      <c r="B56" s="22"/>
+      <c r="C56" s="258" t="s">
+        <v>103</v>
+      </c>
+      <c r="D56" s="158" t="s">
+        <v>225</v>
+      </c>
+      <c r="E56" s="291"/>
+      <c r="F56" s="126"/>
+      <c r="G56" s="202"/>
+      <c r="H56" s="8"/>
+      <c r="I56" s="291"/>
+      <c r="J56" s="8"/>
+      <c r="K56" s="289" t="s">
+        <v>314</v>
+      </c>
+      <c r="L56" s="242" t="b">
+        <f>IF((E56)&lt;='Fuel aggregation'!L15, TRUE, FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="M56" s="280"/>
+      <c r="N56" s="8"/>
+      <c r="O56" s="207" t="s">
+        <v>321</v>
+      </c>
+      <c r="P56" s="7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" outlineLevel="1">
+      <c r="A57" s="8"/>
+      <c r="B57" s="22"/>
+      <c r="C57" s="202"/>
+      <c r="D57" s="202"/>
+      <c r="E57" s="202"/>
+      <c r="F57" s="126"/>
+      <c r="G57" s="202"/>
+      <c r="H57" s="8"/>
+      <c r="I57" s="8"/>
+      <c r="J57" s="8"/>
+      <c r="K57" s="289"/>
+      <c r="L57" s="244"/>
+      <c r="M57" s="280"/>
+      <c r="N57" s="8"/>
+      <c r="O57" s="207"/>
+      <c r="P57" s="7"/>
+    </row>
+    <row r="58" spans="1:16" ht="17" outlineLevel="1" thickBot="1">
+      <c r="A58" s="8"/>
+      <c r="B58" s="22" t="s">
+        <v>284</v>
+      </c>
+      <c r="C58" s="293"/>
+      <c r="D58" s="202"/>
+      <c r="E58" s="202"/>
+      <c r="F58" s="126"/>
+      <c r="G58" s="202"/>
+      <c r="H58" s="8"/>
+      <c r="I58" s="8"/>
+      <c r="J58" s="8"/>
+      <c r="K58" s="289"/>
+      <c r="L58" s="244"/>
+      <c r="M58" s="280"/>
+      <c r="N58" s="8"/>
+      <c r="O58" s="207"/>
+      <c r="P58" s="208"/>
+    </row>
+    <row r="59" spans="1:16" ht="17" outlineLevel="1" thickBot="1">
+      <c r="A59" s="8"/>
+      <c r="B59" s="22"/>
+      <c r="C59" s="258" t="s">
+        <v>190</v>
+      </c>
+      <c r="D59" s="158" t="s">
+        <v>225</v>
+      </c>
+      <c r="E59" s="291"/>
+      <c r="F59" s="126"/>
+      <c r="G59" s="202"/>
+      <c r="H59" s="8"/>
+      <c r="I59" s="291"/>
+      <c r="J59" s="8"/>
+      <c r="K59" s="289" t="s">
+        <v>313</v>
+      </c>
+      <c r="L59" s="242" t="b">
+        <f>IF((E59)&lt;='Fuel aggregation'!E22, TRUE, FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="M59" s="280"/>
+      <c r="N59" s="8"/>
+      <c r="O59" s="207" t="s">
+        <v>404</v>
+      </c>
+      <c r="P59" s="7">
+        <f>IF(L59=TRUE,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" ht="17" outlineLevel="1" thickBot="1">
+      <c r="A60" s="8"/>
+      <c r="B60" s="22"/>
+      <c r="C60" s="258" t="s">
+        <v>209</v>
+      </c>
+      <c r="D60" s="158" t="s">
+        <v>225</v>
+      </c>
+      <c r="E60" s="291"/>
+      <c r="F60" s="126"/>
+      <c r="G60" s="202"/>
+      <c r="H60" s="8"/>
+      <c r="I60" s="291"/>
+      <c r="J60" s="8"/>
+      <c r="K60" s="289" t="s">
+        <v>311</v>
+      </c>
+      <c r="L60" s="242" t="b">
+        <f>IF((E60)&lt;='Fuel aggregation'!H22, TRUE, FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="M60" s="280"/>
+      <c r="N60" s="8"/>
+      <c r="O60" s="207" t="s">
+        <v>400</v>
+      </c>
+      <c r="P60" s="7">
+        <f t="shared" ref="P60:P61" si="1">IF(L60=TRUE,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" ht="17" outlineLevel="1" thickBot="1">
+      <c r="A61" s="8"/>
+      <c r="B61" s="22"/>
+      <c r="C61" s="258" t="s">
+        <v>51</v>
+      </c>
+      <c r="D61" s="158" t="s">
+        <v>225</v>
+      </c>
+      <c r="E61" s="291"/>
+      <c r="F61" s="126"/>
+      <c r="G61" s="202"/>
+      <c r="H61" s="8"/>
+      <c r="I61" s="291"/>
+      <c r="J61" s="8"/>
+      <c r="K61" s="289" t="s">
+        <v>326</v>
+      </c>
+      <c r="L61" s="242" t="b">
+        <f>IF(E61&lt;='Fuel aggregation'!I22, TRUE, FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="M61" s="280"/>
+      <c r="N61" s="8"/>
+      <c r="O61" s="207" t="s">
         <v>401</v>
       </c>
-      <c r="P52" s="7">
+      <c r="P61" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:16" ht="17" thickBot="1">
-      <c r="B53" s="33"/>
-      <c r="C53" s="46"/>
-      <c r="D53" s="159"/>
-      <c r="E53" s="93"/>
-      <c r="F53" s="93"/>
-      <c r="G53" s="46"/>
-      <c r="H53" s="46"/>
-      <c r="I53" s="46"/>
-      <c r="J53" s="46"/>
-      <c r="K53" s="164"/>
-      <c r="L53" s="201"/>
-      <c r="M53" s="241"/>
-      <c r="N53" s="8"/>
-      <c r="O53" s="210"/>
-      <c r="P53" s="211"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" ht="17" thickBot="1">
+      <c r="B62" s="33"/>
+      <c r="C62" s="46"/>
+      <c r="D62" s="159"/>
+      <c r="E62" s="93"/>
+      <c r="F62" s="93"/>
+      <c r="G62" s="46"/>
+      <c r="H62" s="46"/>
+      <c r="I62" s="46"/>
+      <c r="J62" s="46"/>
+      <c r="K62" s="164"/>
+      <c r="L62" s="201"/>
+      <c r="M62" s="241"/>
+      <c r="N62" s="8"/>
+      <c r="O62" s="210"/>
+      <c r="P62" s="211"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B5:E7"/>
   </mergeCells>
   <conditionalFormatting sqref="L18">
-    <cfRule type="cellIs" dxfId="25" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="31" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L14">
-    <cfRule type="cellIs" dxfId="24" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="29" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L13">
-    <cfRule type="cellIs" dxfId="23" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="28" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L28">
-    <cfRule type="cellIs" dxfId="22" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="27" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L24">
-    <cfRule type="cellIs" dxfId="21" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="26" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L34">
-    <cfRule type="cellIs" dxfId="20" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="25" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L38">
-    <cfRule type="cellIs" dxfId="19" priority="12" operator="equal">
+  <conditionalFormatting sqref="L47">
+    <cfRule type="cellIs" dxfId="23" priority="24" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L51">
+    <cfRule type="cellIs" dxfId="22" priority="23" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L52">
+    <cfRule type="cellIs" dxfId="21" priority="22" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L53">
+    <cfRule type="cellIs" dxfId="20" priority="21" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L54">
+    <cfRule type="cellIs" dxfId="19" priority="20" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L55">
+    <cfRule type="cellIs" dxfId="18" priority="19" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L56">
+    <cfRule type="cellIs" dxfId="17" priority="18" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L59">
+    <cfRule type="cellIs" dxfId="16" priority="17" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L60">
+    <cfRule type="cellIs" dxfId="15" priority="16" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L61">
+    <cfRule type="cellIs" dxfId="14" priority="13" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L39">
+    <cfRule type="cellIs" dxfId="13" priority="7" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L42">
-    <cfRule type="cellIs" dxfId="18" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="3" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L43">
-    <cfRule type="cellIs" dxfId="17" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="2" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L44">
-    <cfRule type="cellIs" dxfId="16" priority="9" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L45">
-    <cfRule type="cellIs" dxfId="15" priority="8" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L46">
-    <cfRule type="cellIs" dxfId="14" priority="7" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L47">
-    <cfRule type="cellIs" dxfId="13" priority="6" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L50">
-    <cfRule type="cellIs" dxfId="12" priority="5" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L51">
-    <cfRule type="cellIs" dxfId="11" priority="4" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L52">
-    <cfRule type="cellIs" dxfId="10" priority="1" operator="equal">
+  <conditionalFormatting sqref="L41">
+    <cfRule type="cellIs" dxfId="10" priority="4" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21416,7 +21887,7 @@
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
             <control shapeId="11265" r:id="rId3" name="import_data">
-              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="[2]!import_data_button">
                 <anchor moveWithCells="1" sizeWithCells="1">
                   <from>
                     <xdr:col>8</xdr:col>
@@ -21439,7 +21910,7 @@
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
             <control shapeId="11266" r:id="rId4" name="export_data">
-              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="[2]!export_data_button">
                 <anchor moveWithCells="1" sizeWithCells="1">
                   <from>
                     <xdr:col>8</xdr:col>
@@ -21462,7 +21933,7 @@
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
             <control shapeId="11272" r:id="rId5" name="select_dashboard">
-              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="[2]!select_dashboard_values">
                 <anchor moveWithCells="1" sizeWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
@@ -21502,10 +21973,10 @@
   <dimension ref="B2:BO101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="7" topLeftCell="X8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="7" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="Z7" sqref="Z7"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
@@ -28334,9 +28805,7 @@
   </sheetPr>
   <dimension ref="B1:M18"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
   <cols>
@@ -28380,11 +28849,11 @@
       <c r="M4" s="8"/>
     </row>
     <row r="5" spans="2:13" ht="60" customHeight="1">
-      <c r="B5" s="343" t="s">
+      <c r="B5" s="356" t="s">
         <v>300</v>
       </c>
-      <c r="C5" s="344"/>
-      <c r="D5" s="344"/>
+      <c r="C5" s="357"/>
+      <c r="D5" s="357"/>
       <c r="E5" s="272"/>
       <c r="F5" s="45"/>
       <c r="G5" s="45"/>

--- a/analyses/4b_chemical_industry_analysis.xlsx
+++ b/analyses/4b_chemical_industry_analysis.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28421"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10113"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michieldenhaan/Projects/etdataset/analyses/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74357124-6874-504C-9979-96F2F0D60997}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="835" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38200" windowHeight="25720" tabRatio="835" firstSheet="11" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover Sheet" sheetId="34" r:id="rId1"/>
@@ -42,6 +48,7 @@
   <externalReferences>
     <externalReference r:id="rId32"/>
     <externalReference r:id="rId33"/>
+    <externalReference r:id="rId34"/>
   </externalReferences>
   <definedNames>
     <definedName name="aluminium_production" localSheetId="18">Dashboard!#REF!</definedName>
@@ -663,31 +670,38 @@
     <definedName name="steel_production" localSheetId="16">Dashboard!#REF!</definedName>
     <definedName name="steel_production">Dashboard!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="191029" concurrentManualCount="4"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>A satisfied Microsoft Office user</author>
   </authors>
   <commentList>
-    <comment ref="U83" authorId="0">
+    <comment ref="U83" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000001000000}">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">x  Not Applicable
 </t>
@@ -699,7 +713,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="787" uniqueCount="479">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="480">
   <si>
     <t>Changelog</t>
   </si>
@@ -2136,20 +2150,23 @@
   </si>
   <si>
     <t>Electricity consumption for heat pumps</t>
+  </si>
+  <si>
+    <t>nl</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="0.0"/>
-    <numFmt numFmtId="165" formatCode="0.0%"/>
-    <numFmt numFmtId="166" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
-    <numFmt numFmtId="167" formatCode="#,##0.000"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="0.0%"/>
+    <numFmt numFmtId="167" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
+    <numFmt numFmtId="168" formatCode="#,##0.000"/>
   </numFmts>
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="27">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2198,6 +2215,7 @@
       <sz val="16"/>
       <color theme="3"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2213,11 +2231,13 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2225,6 +2245,7 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2238,6 +2259,7 @@
       <u/>
       <sz val="12"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2267,6 +2289,7 @@
       <sz val="24"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2274,12 +2297,14 @@
       <sz val="18"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
@@ -2292,6 +2317,7 @@
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2299,17 +2325,20 @@
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Lucida Grande"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="0" tint="-0.499984740745262"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2317,12 +2346,14 @@
       <sz val="12"/>
       <color theme="0" tint="-0.499984740745262"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <i/>
       <sz val="12"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2330,6 +2361,7 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -5072,7 +5104,7 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -5196,11 +5228,11 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5230,7 +5262,7 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -5243,36 +5275,36 @@
     <xf numFmtId="0" fontId="9" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="15" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="15" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="9" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="12" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="15" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="9" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="9" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="9" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="15" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="21" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="21" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -5287,7 +5319,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5310,44 +5342,44 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="15" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="15" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="15" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="15" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="12" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="9" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="12" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="15" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="15" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="15" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="15" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="15" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="9" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="15" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="12" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="9" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="12" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="9" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -5366,10 +5398,10 @@
     <xf numFmtId="2" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="15" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="15" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5443,8 +5475,8 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -5464,10 +5496,10 @@
     <xf numFmtId="0" fontId="24" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="24" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="9" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5476,18 +5508,18 @@
     <xf numFmtId="3" fontId="9" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="15" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="9" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="9" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5535,10 +5567,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5625,7 +5657,7 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="5" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="5" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="5" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -5655,21 +5687,21 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="12" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="12" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="12" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="5" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -5689,13 +5721,13 @@
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="9" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5704,38 +5736,38 @@
     <xf numFmtId="3" fontId="9" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="12" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="15" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="15" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="15" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="9" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="15" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="15" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="2" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="15" fillId="2" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="15" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -5763,8 +5795,10 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="2061" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="1" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -5807,8 +5841,6 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="2" borderId="0" xfId="2061" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="1" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2074">
     <cellStyle name="Comma" xfId="2061" builtinId="3"/>
@@ -7883,8 +7915,8 @@
     <cellStyle name="Hyperlink" xfId="2070" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2072" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="1" builtinId="5"/>
-    <cellStyle name="Percent 2" xfId="772"/>
+    <cellStyle name="Per cent" xfId="1" builtinId="5"/>
+    <cellStyle name="Percent 2" xfId="772" xr:uid="{00000000-0005-0000-0000-000019080000}"/>
   </cellStyles>
   <dxfs count="30">
     <dxf>
@@ -8229,6 +8261,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -8262,7 +8297,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="157" name="Rectangle 156"/>
+        <xdr:cNvPr id="157" name="Rectangle 156">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00009D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -8329,7 +8370,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="93" name="L-Shape 92"/>
+        <xdr:cNvPr id="93" name="L-Shape 92">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00005D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -8393,7 +8440,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="104" name="Rectangle 103"/>
+        <xdr:cNvPr id="104" name="Rectangle 103">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000068000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -8546,7 +8599,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Rectangle 1"/>
+        <xdr:cNvPr id="2" name="Rectangle 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -8609,7 +8668,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Rectangle 2"/>
+        <xdr:cNvPr id="3" name="Rectangle 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -8672,7 +8737,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="Rectangle 4"/>
+        <xdr:cNvPr id="5" name="Rectangle 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -8735,7 +8806,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="Rectangle 5"/>
+        <xdr:cNvPr id="6" name="Rectangle 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -8796,7 +8873,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="Rectangle 6"/>
+        <xdr:cNvPr id="7" name="Rectangle 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -8857,7 +8940,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="Rectangle 7"/>
+        <xdr:cNvPr id="8" name="Rectangle 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -8932,7 +9021,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="9" name="Straight Connector 8"/>
+        <xdr:cNvPr id="9" name="Straight Connector 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -8982,7 +9077,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="11" name="Straight Connector 10"/>
+        <xdr:cNvPr id="11" name="Straight Connector 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -9032,7 +9133,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="18" name="Straight Connector 17"/>
+        <xdr:cNvPr id="18" name="Straight Connector 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000012000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -9082,7 +9189,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="31" name="Rectangle 30"/>
+        <xdr:cNvPr id="31" name="Rectangle 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00001F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -9143,7 +9256,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="39" name="Rectangle 38"/>
+        <xdr:cNvPr id="39" name="Rectangle 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000027000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -9204,7 +9323,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="149" name="Rectangle 148"/>
+        <xdr:cNvPr id="149" name="Rectangle 148">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000095000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -9260,7 +9385,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="181" name="Rectangle 180"/>
+        <xdr:cNvPr id="181" name="Rectangle 180">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000B5000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -9321,7 +9452,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="358" name="Elbow Connector 195"/>
+        <xdr:cNvPr id="358" name="Elbow Connector 195">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000066010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="181" idx="3"/>
           <a:endCxn id="363" idx="1"/>
@@ -9371,7 +9508,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="363" name="Rectangle 362"/>
+        <xdr:cNvPr id="363" name="Rectangle 362">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00006B010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -9431,7 +9574,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="136" name="Rectangle 135"/>
+        <xdr:cNvPr id="136" name="Rectangle 135">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000088000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -9487,7 +9636,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="100" name="Rectangle 99"/>
+        <xdr:cNvPr id="100" name="Rectangle 99">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000064000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -9546,7 +9701,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="102" name="Rectangle 101"/>
+        <xdr:cNvPr id="102" name="Rectangle 101">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000066000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -9605,7 +9766,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="50" name="Straight Arrow Connector 49"/>
+        <xdr:cNvPr id="50" name="Straight Arrow Connector 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000032000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="3" idx="2"/>
         </xdr:cNvCxnSpPr>
@@ -9654,7 +9821,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="114" name="Straight Arrow Connector 113"/>
+        <xdr:cNvPr id="114" name="Straight Arrow Connector 113">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000072000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="2" idx="2"/>
         </xdr:cNvCxnSpPr>
@@ -9703,7 +9876,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="92" name="Elbow Connector 195"/>
+        <xdr:cNvPr id="92" name="Elbow Connector 195">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00005C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="7" idx="3"/>
           <a:endCxn id="39" idx="1"/>
@@ -9753,7 +9932,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="95" name="Elbow Connector 195"/>
+        <xdr:cNvPr id="95" name="Elbow Connector 195">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00005F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="39" idx="3"/>
           <a:endCxn id="149" idx="1"/>
@@ -9803,7 +9988,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="103" name="Elbow Connector 195"/>
+        <xdr:cNvPr id="103" name="Elbow Connector 195">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000067000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="149" idx="3"/>
           <a:endCxn id="181" idx="1"/>
@@ -9853,7 +10044,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="42" name="Rectangle 41"/>
+        <xdr:cNvPr id="42" name="Rectangle 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00002A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -9914,7 +10111,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="43" name="Elbow Connector 195"/>
+        <xdr:cNvPr id="43" name="Elbow Connector 195">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00002B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="42" idx="3"/>
         </xdr:cNvCxnSpPr>
@@ -9963,7 +10166,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="44" name="Rectangle 43"/>
+        <xdr:cNvPr id="44" name="Rectangle 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00002C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -10019,7 +10228,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="45" name="Elbow Connector 195"/>
+        <xdr:cNvPr id="45" name="Elbow Connector 195">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00002D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -10066,7 +10281,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="46" name="Rectangle 45"/>
+        <xdr:cNvPr id="46" name="Rectangle 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00002E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -10122,7 +10343,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="47" name="Elbow Connector 195"/>
+        <xdr:cNvPr id="47" name="Elbow Connector 195">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00002F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="181" idx="2"/>
           <a:endCxn id="42" idx="0"/>
@@ -10172,7 +10399,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="64" name="Straight Connector 63"/>
+        <xdr:cNvPr id="64" name="Straight Connector 63">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000040000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -10216,7 +10449,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="66" name="Straight Connector 65"/>
+        <xdr:cNvPr id="66" name="Straight Connector 65">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000042000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -10260,7 +10499,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="69" name="Straight Connector 68"/>
+        <xdr:cNvPr id="69" name="Straight Connector 68">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000045000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -10304,7 +10549,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="37" name="Elbow Connector 195"/>
+        <xdr:cNvPr id="37" name="Elbow Connector 195">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000025000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="7" idx="3"/>
           <a:endCxn id="40" idx="1"/>
@@ -10356,7 +10607,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="40" name="Rectangle 39"/>
+        <xdr:cNvPr id="40" name="Rectangle 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000028000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -10412,7 +10669,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="48" name="Elbow Connector 195"/>
+        <xdr:cNvPr id="48" name="Elbow Connector 195">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000030000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="149" idx="2"/>
           <a:endCxn id="49" idx="0"/>
@@ -10462,7 +10725,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="49" name="Rectangle 48"/>
+        <xdr:cNvPr id="49" name="Rectangle 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000031000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -10518,7 +10787,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="51" name="Elbow Connector 195"/>
+        <xdr:cNvPr id="51" name="Elbow Connector 195">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000033000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="40" idx="3"/>
           <a:endCxn id="54" idx="1"/>
@@ -10570,7 +10845,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="54" name="Rectangle 53"/>
+        <xdr:cNvPr id="54" name="Rectangle 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000036000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -10626,7 +10907,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="55" name="Elbow Connector 195"/>
+        <xdr:cNvPr id="55" name="Elbow Connector 195">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000037000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -10673,7 +10960,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="56" name="Rectangle 55"/>
+        <xdr:cNvPr id="56" name="Rectangle 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000038000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -10729,7 +11022,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="59" name="Elbow Connector 195"/>
+        <xdr:cNvPr id="59" name="Elbow Connector 195">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00003B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="49" idx="2"/>
           <a:endCxn id="54" idx="1"/>
@@ -10779,7 +11078,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="63" name="Elbow Connector 195"/>
+        <xdr:cNvPr id="63" name="Elbow Connector 195">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00003F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="31" idx="3"/>
           <a:endCxn id="49" idx="1"/>
@@ -10841,11 +11146,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s11265"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-0000012C0000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -10853,6 +11161,12 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
           </xdr:spPr>
           <xdr:txBody>
             <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="27432" bIns="22860" anchor="ctr" upright="1"/>
@@ -10862,13 +11176,12 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Lucida Grande"/>
-                  <a:ea typeface="Lucida Grande"/>
-                  <a:cs typeface="Lucida Grande"/>
+                  <a:latin typeface="Lucida Grande" pitchFamily="2" charset="0"/>
+                  <a:cs typeface="Lucida Grande" pitchFamily="2" charset="0"/>
                 </a:rPr>
                 <a:t>import data</a:t>
               </a:r>
@@ -10902,11 +11215,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s11266"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-0000022C0000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -10914,6 +11230,12 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
           </xdr:spPr>
           <xdr:txBody>
             <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="27432" bIns="22860" anchor="ctr" upright="1"/>
@@ -10923,13 +11245,12 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Lucida Grande"/>
-                  <a:ea typeface="Lucida Grande"/>
-                  <a:cs typeface="Lucida Grande"/>
+                  <a:latin typeface="Lucida Grande" pitchFamily="2" charset="0"/>
+                  <a:cs typeface="Lucida Grande" pitchFamily="2" charset="0"/>
                 </a:rPr>
                 <a:t>export to 'data/…/ouput' folder</a:t>
               </a:r>
@@ -10963,11 +11284,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s11272"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-0000082C0000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -10975,6 +11299,12 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
           </xdr:spPr>
           <xdr:txBody>
             <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="27432" bIns="22860" anchor="ctr" upright="1"/>
@@ -10984,13 +11314,12 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Lucida Grande"/>
-                  <a:ea typeface="Lucida Grande"/>
-                  <a:cs typeface="Lucida Grande"/>
+                  <a:latin typeface="Lucida Grande" pitchFamily="2" charset="0"/>
+                  <a:cs typeface="Lucida Grande" pitchFamily="2" charset="0"/>
                 </a:rPr>
                 <a:t>optional: load dashboard values</a:t>
               </a:r>
@@ -11012,7 +11341,13 @@
     <xdr:ext cx="7152619" cy="276999"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="TextBox 5"/>
+        <xdr:cNvPr id="6" name="TextBox 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -11063,7 +11398,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Cover Sheet"/>
@@ -11420,12 +11755,13 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Cover sheet"/>
       <sheetName val="Dashboard"/>
       <sheetName val="analysis_manager.xlsm"/>
+      <sheetName val="analysis_manager"/>
     </sheetNames>
     <definedNames>
       <definedName name="export_data_button"/>
@@ -11436,6 +11772,27 @@
       <sheetData sheetId="0" refreshError="1"/>
       <sheetData sheetId="1" refreshError="1"/>
       <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Cover sheet"/>
+      <sheetName val="Dashboard"/>
+    </sheetNames>
+    <definedNames>
+      <definedName name="export_data_button"/>
+      <definedName name="import_data_button"/>
+      <definedName name="select_dashboard_values"/>
+    </definedNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -11762,8 +12119,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet1">
     <tabColor theme="2"/>
   </sheetPr>
   <dimension ref="B2:D38"/>
@@ -11772,13 +12129,13 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="10.625" style="1"/>
-    <col min="2" max="2" width="13.375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" style="1"/>
+    <col min="2" max="2" width="13.33203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="44" style="1" customWidth="1"/>
-    <col min="4" max="7" width="10.875" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="10.625" style="1"/>
+    <col min="4" max="7" width="10.83203125" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="10.6640625" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:4" ht="21">
@@ -11809,9 +12166,9 @@
       <c r="B6" s="281" t="s">
         <v>205</v>
       </c>
-      <c r="C6" s="94">
+      <c r="C6" s="94" t="str">
         <f>country</f>
-        <v>0</v>
+        <v>nl</v>
       </c>
       <c r="D6" s="7"/>
     </row>
@@ -11821,7 +12178,7 @@
       </c>
       <c r="C7" s="94">
         <f>base_year</f>
-        <v>0</v>
+        <v>2015</v>
       </c>
       <c r="D7" s="7"/>
     </row>
@@ -12034,8 +12391,8 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet10" enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <sheetPr codeName="Sheet10">
     <tabColor theme="5" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="A1:Q36"/>
@@ -12044,14 +12401,14 @@
       <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="10.625" style="1"/>
+    <col min="1" max="1" width="10.6640625" style="1"/>
     <col min="2" max="2" width="24.5" style="1" customWidth="1"/>
-    <col min="3" max="4" width="14.375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.375" style="90" customWidth="1"/>
-    <col min="6" max="10" width="14.375" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="10.625" style="1"/>
+    <col min="3" max="4" width="14.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" style="90" customWidth="1"/>
+    <col min="6" max="10" width="14.33203125" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="10.6640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
@@ -12117,12 +12474,12 @@
     </row>
     <row r="5" spans="1:17" ht="113" customHeight="1">
       <c r="A5" s="82"/>
-      <c r="B5" s="358" t="s">
+      <c r="B5" s="360" t="s">
         <v>450</v>
       </c>
-      <c r="C5" s="359"/>
-      <c r="D5" s="359"/>
-      <c r="E5" s="360"/>
+      <c r="C5" s="361"/>
+      <c r="D5" s="361"/>
+      <c r="E5" s="362"/>
       <c r="F5" s="82"/>
       <c r="G5" s="82"/>
       <c r="H5" s="82"/>
@@ -12180,7 +12537,7 @@
       <c r="M8" s="82"/>
       <c r="N8" s="82"/>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:17" ht="34">
       <c r="A9" s="82"/>
       <c r="B9" s="115"/>
       <c r="C9" s="155" t="s">
@@ -12217,7 +12574,7 @@
       <c r="P9" s="82"/>
       <c r="Q9" s="82"/>
     </row>
-    <row r="10" spans="1:17" ht="32">
+    <row r="10" spans="1:17" ht="34">
       <c r="A10" s="82"/>
       <c r="B10" s="106" t="s">
         <v>402</v>
@@ -12264,7 +12621,7 @@
       <c r="P10" s="82"/>
       <c r="Q10" s="82"/>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:17" ht="17">
       <c r="A11" s="82"/>
       <c r="B11" s="105" t="s">
         <v>309</v>
@@ -12311,7 +12668,7 @@
       <c r="P11" s="82"/>
       <c r="Q11" s="82"/>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:17" ht="17">
       <c r="A12" s="82"/>
       <c r="B12" s="251" t="s">
         <v>310</v>
@@ -12358,7 +12715,7 @@
       <c r="P12" s="82"/>
       <c r="Q12" s="82"/>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:17" ht="17">
       <c r="A13" s="82"/>
       <c r="B13" s="251" t="s">
         <v>82</v>
@@ -12424,7 +12781,7 @@
       <c r="P14" s="82"/>
       <c r="Q14" s="82"/>
     </row>
-    <row r="15" spans="1:17" ht="32">
+    <row r="15" spans="1:17" ht="34">
       <c r="A15" s="82"/>
       <c r="B15" s="106" t="s">
         <v>403</v>
@@ -12472,7 +12829,7 @@
       <c r="P15" s="82"/>
       <c r="Q15" s="82"/>
     </row>
-    <row r="16" spans="1:17">
+    <row r="16" spans="1:17" ht="17">
       <c r="A16" s="82"/>
       <c r="B16" s="251" t="s">
         <v>309</v>
@@ -12519,7 +12876,7 @@
       <c r="P16" s="82"/>
       <c r="Q16" s="82"/>
     </row>
-    <row r="17" spans="1:17">
+    <row r="17" spans="1:17" ht="17">
       <c r="A17" s="82"/>
       <c r="B17" s="251" t="s">
         <v>310</v>
@@ -12566,7 +12923,7 @@
       <c r="P17" s="82"/>
       <c r="Q17" s="82"/>
     </row>
-    <row r="18" spans="1:17">
+    <row r="18" spans="1:17" ht="17">
       <c r="A18" s="82"/>
       <c r="B18" s="251" t="s">
         <v>82</v>
@@ -12934,8 +13291,8 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet11" enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+  <sheetPr codeName="Sheet11">
     <tabColor theme="5" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="A1:Q61"/>
@@ -12944,15 +13301,15 @@
       <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="10.625" style="1"/>
-    <col min="2" max="3" width="21.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="21.125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="22.125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.375" style="90" customWidth="1"/>
-    <col min="7" max="11" width="14.375" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="10.625" style="1"/>
+    <col min="1" max="1" width="10.6640625" style="1"/>
+    <col min="2" max="3" width="21.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="21.1640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="22.1640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" style="90" customWidth="1"/>
+    <col min="7" max="11" width="14.33203125" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="10.6640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -13021,13 +13378,13 @@
     </row>
     <row r="5" spans="1:14" ht="41" customHeight="1">
       <c r="A5" s="82"/>
-      <c r="B5" s="358" t="s">
+      <c r="B5" s="360" t="s">
         <v>335</v>
       </c>
-      <c r="C5" s="359"/>
-      <c r="D5" s="359"/>
-      <c r="E5" s="359"/>
-      <c r="F5" s="360"/>
+      <c r="C5" s="361"/>
+      <c r="D5" s="361"/>
+      <c r="E5" s="361"/>
+      <c r="F5" s="362"/>
       <c r="G5" s="82"/>
       <c r="H5" s="82"/>
       <c r="I5" s="82"/>
@@ -13074,7 +13431,7 @@
       <c r="G8" s="82"/>
       <c r="H8" s="82"/>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" ht="17">
       <c r="A9" s="82"/>
       <c r="B9" s="132" t="s">
         <v>333</v>
@@ -13095,7 +13452,7 @@
       <c r="J9" s="82"/>
       <c r="K9" s="82"/>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" ht="17">
       <c r="A10" s="82"/>
       <c r="B10" s="135" t="s">
         <v>190</v>
@@ -13110,7 +13467,7 @@
       <c r="J10" s="82"/>
       <c r="K10" s="82"/>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" ht="17">
       <c r="A11" s="82"/>
       <c r="B11" s="134"/>
       <c r="C11" s="143" t="s">
@@ -13131,7 +13488,7 @@
       <c r="J11" s="82"/>
       <c r="K11" s="82"/>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" ht="17">
       <c r="A12" s="82"/>
       <c r="B12" s="251"/>
       <c r="C12" s="303" t="s">
@@ -13152,7 +13509,7 @@
       <c r="J12" s="82"/>
       <c r="K12" s="82"/>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" ht="17">
       <c r="A13" s="82"/>
       <c r="B13" s="251"/>
       <c r="C13" s="303" t="s">
@@ -13186,7 +13543,7 @@
       <c r="J14" s="82"/>
       <c r="K14" s="82"/>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:14" ht="17">
       <c r="A15" s="82"/>
       <c r="B15" s="304" t="s">
         <v>209</v>
@@ -13201,7 +13558,7 @@
       <c r="J15" s="82"/>
       <c r="K15" s="82"/>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:14" ht="17">
       <c r="A16" s="82"/>
       <c r="B16" s="251"/>
       <c r="C16" s="303" t="s">
@@ -13222,7 +13579,7 @@
       <c r="J16" s="82"/>
       <c r="K16" s="82"/>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" ht="17">
       <c r="A17" s="82"/>
       <c r="B17" s="251"/>
       <c r="C17" s="303" t="s">
@@ -13243,7 +13600,7 @@
       <c r="J17" s="82"/>
       <c r="K17" s="82"/>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" ht="17">
       <c r="A18" s="82"/>
       <c r="B18" s="251"/>
       <c r="C18" s="303" t="s">
@@ -13277,7 +13634,7 @@
       <c r="J19" s="82"/>
       <c r="K19" s="82"/>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" ht="17">
       <c r="A20" s="82"/>
       <c r="B20" s="304" t="s">
         <v>51</v>
@@ -13292,7 +13649,7 @@
       <c r="J20" s="82"/>
       <c r="K20" s="82"/>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" ht="17">
       <c r="A21" s="82"/>
       <c r="B21" s="251"/>
       <c r="C21" s="303" t="s">
@@ -13313,7 +13670,7 @@
       <c r="J21" s="82"/>
       <c r="K21" s="82"/>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" ht="17">
       <c r="A22" s="82"/>
       <c r="B22" s="251"/>
       <c r="C22" s="303" t="s">
@@ -13334,7 +13691,7 @@
       <c r="J22" s="82"/>
       <c r="K22" s="82"/>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" ht="17">
       <c r="A23" s="82"/>
       <c r="B23" s="251"/>
       <c r="C23" s="303" t="s">
@@ -13368,7 +13725,7 @@
       <c r="J24" s="82"/>
       <c r="K24" s="82"/>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" ht="17">
       <c r="A25" s="82"/>
       <c r="B25" s="304" t="s">
         <v>192</v>
@@ -13383,7 +13740,7 @@
       <c r="J25" s="82"/>
       <c r="K25" s="82"/>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" ht="17">
       <c r="A26" s="82"/>
       <c r="B26" s="251"/>
       <c r="C26" s="303" t="s">
@@ -13404,7 +13761,7 @@
       <c r="J26" s="82"/>
       <c r="K26" s="82"/>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" ht="17">
       <c r="A27" s="82"/>
       <c r="B27" s="251"/>
       <c r="C27" s="303" t="s">
@@ -13425,7 +13782,7 @@
       <c r="J27" s="82"/>
       <c r="K27" s="82"/>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" ht="17">
       <c r="A28" s="82"/>
       <c r="B28" s="251"/>
       <c r="C28" s="303" t="s">
@@ -13459,7 +13816,7 @@
       <c r="J29" s="82"/>
       <c r="K29" s="82"/>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" ht="17">
       <c r="A30" s="82"/>
       <c r="B30" s="304" t="s">
         <v>104</v>
@@ -13474,7 +13831,7 @@
       <c r="J30" s="82"/>
       <c r="K30" s="82"/>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" ht="17">
       <c r="A31" s="82"/>
       <c r="B31" s="251"/>
       <c r="C31" s="303" t="s">
@@ -13495,7 +13852,7 @@
       <c r="J31" s="82"/>
       <c r="K31" s="82"/>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:11" ht="17">
       <c r="A32" s="82"/>
       <c r="B32" s="251"/>
       <c r="C32" s="303" t="s">
@@ -13516,7 +13873,7 @@
       <c r="J32" s="82"/>
       <c r="K32" s="82"/>
     </row>
-    <row r="33" spans="1:17">
+    <row r="33" spans="1:17" ht="17">
       <c r="A33" s="82"/>
       <c r="B33" s="251"/>
       <c r="C33" s="303" t="s">
@@ -13550,7 +13907,7 @@
       <c r="J34" s="82"/>
       <c r="K34" s="82"/>
     </row>
-    <row r="35" spans="1:17">
+    <row r="35" spans="1:17" ht="17">
       <c r="A35" s="82"/>
       <c r="B35" s="304" t="s">
         <v>103</v>
@@ -13565,7 +13922,7 @@
       <c r="J35" s="82"/>
       <c r="K35" s="82"/>
     </row>
-    <row r="36" spans="1:17">
+    <row r="36" spans="1:17" ht="17">
       <c r="A36" s="82"/>
       <c r="B36" s="251"/>
       <c r="C36" s="303" t="s">
@@ -13586,7 +13943,7 @@
       <c r="J36" s="82"/>
       <c r="K36" s="82"/>
     </row>
-    <row r="37" spans="1:17">
+    <row r="37" spans="1:17" ht="17">
       <c r="A37" s="82"/>
       <c r="B37" s="251"/>
       <c r="C37" s="303" t="s">
@@ -13607,7 +13964,7 @@
       <c r="J37" s="82"/>
       <c r="K37" s="82"/>
     </row>
-    <row r="38" spans="1:17">
+    <row r="38" spans="1:17" ht="17">
       <c r="A38" s="82"/>
       <c r="B38" s="251"/>
       <c r="C38" s="303" t="s">
@@ -13641,7 +13998,7 @@
       <c r="J39" s="82"/>
       <c r="K39" s="82"/>
     </row>
-    <row r="40" spans="1:17" ht="32">
+    <row r="40" spans="1:17" ht="34">
       <c r="A40" s="82"/>
       <c r="B40" s="304" t="s">
         <v>338</v>
@@ -13656,7 +14013,7 @@
       <c r="J40" s="82"/>
       <c r="K40" s="82"/>
     </row>
-    <row r="41" spans="1:17">
+    <row r="41" spans="1:17" ht="17">
       <c r="A41" s="82"/>
       <c r="B41" s="251"/>
       <c r="C41" s="303" t="s">
@@ -13677,7 +14034,7 @@
       <c r="J41" s="82"/>
       <c r="K41" s="82"/>
     </row>
-    <row r="42" spans="1:17">
+    <row r="42" spans="1:17" ht="17">
       <c r="A42" s="82"/>
       <c r="B42" s="251"/>
       <c r="C42" s="303" t="s">
@@ -13698,7 +14055,7 @@
       <c r="J42" s="82"/>
       <c r="K42" s="82"/>
     </row>
-    <row r="43" spans="1:17">
+    <row r="43" spans="1:17" ht="17">
       <c r="A43" s="82"/>
       <c r="B43" s="251"/>
       <c r="C43" s="303" t="s">
@@ -14045,8 +14402,8 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet12" enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+  <sheetPr codeName="Sheet12">
     <tabColor theme="5" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="A1:Q61"/>
@@ -14055,15 +14412,15 @@
       <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="10.625" style="1"/>
-    <col min="2" max="3" width="21.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="21.125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="22.125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.375" style="90" customWidth="1"/>
-    <col min="7" max="11" width="14.375" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="10.625" style="1"/>
+    <col min="1" max="1" width="10.6640625" style="1"/>
+    <col min="2" max="3" width="21.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="21.1640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="22.1640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" style="90" customWidth="1"/>
+    <col min="7" max="11" width="14.33203125" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="10.6640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -14132,13 +14489,13 @@
     </row>
     <row r="5" spans="1:14" ht="41" customHeight="1">
       <c r="A5" s="82"/>
-      <c r="B5" s="358" t="s">
+      <c r="B5" s="360" t="s">
         <v>339</v>
       </c>
-      <c r="C5" s="359"/>
-      <c r="D5" s="359"/>
-      <c r="E5" s="359"/>
-      <c r="F5" s="360"/>
+      <c r="C5" s="361"/>
+      <c r="D5" s="361"/>
+      <c r="E5" s="361"/>
+      <c r="F5" s="362"/>
       <c r="G5" s="82"/>
       <c r="H5" s="82"/>
       <c r="I5" s="82"/>
@@ -14185,7 +14542,7 @@
       <c r="G8" s="82"/>
       <c r="H8" s="82"/>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" ht="17">
       <c r="A9" s="82"/>
       <c r="B9" s="132" t="s">
         <v>333</v>
@@ -14206,7 +14563,7 @@
       <c r="J9" s="82"/>
       <c r="K9" s="82"/>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" ht="17">
       <c r="A10" s="82"/>
       <c r="B10" s="135" t="s">
         <v>190</v>
@@ -14221,7 +14578,7 @@
       <c r="J10" s="82"/>
       <c r="K10" s="82"/>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" ht="17">
       <c r="A11" s="82"/>
       <c r="B11" s="134"/>
       <c r="C11" s="143" t="s">
@@ -14242,7 +14599,7 @@
       <c r="J11" s="82"/>
       <c r="K11" s="82"/>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" ht="17">
       <c r="A12" s="82"/>
       <c r="B12" s="251"/>
       <c r="C12" s="303" t="s">
@@ -14263,7 +14620,7 @@
       <c r="J12" s="82"/>
       <c r="K12" s="82"/>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" ht="17">
       <c r="A13" s="82"/>
       <c r="B13" s="251"/>
       <c r="C13" s="303" t="s">
@@ -14297,7 +14654,7 @@
       <c r="J14" s="82"/>
       <c r="K14" s="82"/>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:14" ht="17">
       <c r="A15" s="82"/>
       <c r="B15" s="304" t="s">
         <v>209</v>
@@ -14312,7 +14669,7 @@
       <c r="J15" s="82"/>
       <c r="K15" s="82"/>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:14" ht="17">
       <c r="A16" s="82"/>
       <c r="B16" s="251"/>
       <c r="C16" s="303" t="s">
@@ -14333,7 +14690,7 @@
       <c r="J16" s="82"/>
       <c r="K16" s="82"/>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" ht="17">
       <c r="A17" s="82"/>
       <c r="B17" s="251"/>
       <c r="C17" s="303" t="s">
@@ -14354,7 +14711,7 @@
       <c r="J17" s="82"/>
       <c r="K17" s="82"/>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" ht="17">
       <c r="A18" s="82"/>
       <c r="B18" s="251"/>
       <c r="C18" s="303" t="s">
@@ -14388,7 +14745,7 @@
       <c r="J19" s="82"/>
       <c r="K19" s="82"/>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" ht="17">
       <c r="A20" s="82"/>
       <c r="B20" s="304" t="s">
         <v>51</v>
@@ -14403,7 +14760,7 @@
       <c r="J20" s="82"/>
       <c r="K20" s="82"/>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" ht="17">
       <c r="A21" s="82"/>
       <c r="B21" s="251"/>
       <c r="C21" s="303" t="s">
@@ -14424,7 +14781,7 @@
       <c r="J21" s="82"/>
       <c r="K21" s="82"/>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" ht="17">
       <c r="A22" s="82"/>
       <c r="B22" s="251"/>
       <c r="C22" s="303" t="s">
@@ -14445,7 +14802,7 @@
       <c r="J22" s="82"/>
       <c r="K22" s="82"/>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" ht="17">
       <c r="A23" s="82"/>
       <c r="B23" s="251"/>
       <c r="C23" s="303" t="s">
@@ -14479,7 +14836,7 @@
       <c r="J24" s="82"/>
       <c r="K24" s="82"/>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" ht="17">
       <c r="A25" s="82"/>
       <c r="B25" s="304" t="s">
         <v>192</v>
@@ -14494,7 +14851,7 @@
       <c r="J25" s="82"/>
       <c r="K25" s="82"/>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" ht="17">
       <c r="A26" s="82"/>
       <c r="B26" s="251"/>
       <c r="C26" s="303" t="s">
@@ -14515,7 +14872,7 @@
       <c r="J26" s="82"/>
       <c r="K26" s="82"/>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" ht="17">
       <c r="A27" s="82"/>
       <c r="B27" s="251"/>
       <c r="C27" s="303" t="s">
@@ -14536,7 +14893,7 @@
       <c r="J27" s="82"/>
       <c r="K27" s="82"/>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" ht="17">
       <c r="A28" s="82"/>
       <c r="B28" s="251"/>
       <c r="C28" s="303" t="s">
@@ -15018,8 +15375,8 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet14" enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+  <sheetPr codeName="Sheet14">
     <tabColor theme="8" tint="0.79998168889431442"/>
   </sheetPr>
   <dimension ref="B2:M26"/>
@@ -15028,14 +15385,14 @@
       <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="10.625" style="82"/>
-    <col min="2" max="2" width="25.875" style="82" customWidth="1"/>
-    <col min="3" max="3" width="30.875" style="82" customWidth="1"/>
-    <col min="4" max="4" width="2.875" style="82" customWidth="1"/>
-    <col min="5" max="13" width="15.875" style="82" customWidth="1"/>
-    <col min="14" max="16384" width="10.625" style="82"/>
+    <col min="1" max="1" width="10.6640625" style="82"/>
+    <col min="2" max="2" width="25.83203125" style="82" customWidth="1"/>
+    <col min="3" max="3" width="30.83203125" style="82" customWidth="1"/>
+    <col min="4" max="4" width="2.83203125" style="82" customWidth="1"/>
+    <col min="5" max="13" width="15.83203125" style="82" customWidth="1"/>
+    <col min="14" max="16384" width="10.6640625" style="82"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:13" ht="21">
@@ -15070,14 +15427,14 @@
       <c r="H4" s="8"/>
     </row>
     <row r="5" spans="2:13" ht="107" customHeight="1">
-      <c r="B5" s="361" t="s">
+      <c r="B5" s="363" t="s">
         <v>405</v>
       </c>
-      <c r="C5" s="362"/>
-      <c r="D5" s="362"/>
-      <c r="E5" s="362"/>
-      <c r="F5" s="362"/>
-      <c r="G5" s="363"/>
+      <c r="C5" s="364"/>
+      <c r="D5" s="364"/>
+      <c r="E5" s="364"/>
+      <c r="F5" s="364"/>
+      <c r="G5" s="365"/>
       <c r="H5" s="8"/>
     </row>
     <row r="6" spans="2:13" ht="17" thickBot="1"/>
@@ -15111,7 +15468,7 @@
       <c r="L8" s="110"/>
       <c r="M8" s="111"/>
     </row>
-    <row r="9" spans="2:13">
+    <row r="9" spans="2:13" ht="17">
       <c r="B9" s="132" t="s">
         <v>261</v>
       </c>
@@ -15161,7 +15518,7 @@
       <c r="L10" s="113"/>
       <c r="M10" s="130"/>
     </row>
-    <row r="11" spans="2:13">
+    <row r="11" spans="2:13" ht="17">
       <c r="B11" s="134"/>
       <c r="C11" s="246" t="s">
         <v>126</v>
@@ -15217,7 +15574,7 @@
       <c r="L12" s="217"/>
       <c r="M12" s="218"/>
     </row>
-    <row r="13" spans="2:13">
+    <row r="13" spans="2:13" ht="34">
       <c r="B13" s="135" t="s">
         <v>277</v>
       </c>
@@ -15233,7 +15590,7 @@
       <c r="L13" s="167"/>
       <c r="M13" s="168"/>
     </row>
-    <row r="14" spans="2:13">
+    <row r="14" spans="2:13" ht="17">
       <c r="B14" s="134"/>
       <c r="C14" s="246" t="s">
         <v>25</v>
@@ -15275,7 +15632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:13">
+    <row r="15" spans="2:13" ht="17">
       <c r="B15" s="136"/>
       <c r="C15" s="247" t="s">
         <v>142</v>
@@ -15317,7 +15674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:13">
+    <row r="16" spans="2:13" ht="17">
       <c r="B16" s="136"/>
       <c r="C16" s="247" t="s">
         <v>309</v>
@@ -15359,7 +15716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:13">
+    <row r="17" spans="2:13" ht="17">
       <c r="B17" s="136"/>
       <c r="C17" s="247" t="s">
         <v>310</v>
@@ -15399,7 +15756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:13">
+    <row r="18" spans="2:13" ht="17">
       <c r="B18" s="136"/>
       <c r="C18" s="247" t="s">
         <v>82</v>
@@ -15455,7 +15812,7 @@
       <c r="L19" s="217"/>
       <c r="M19" s="218"/>
     </row>
-    <row r="20" spans="2:13" ht="32">
+    <row r="20" spans="2:13" ht="34">
       <c r="B20" s="135" t="s">
         <v>278</v>
       </c>
@@ -15471,7 +15828,7 @@
       <c r="L20" s="167"/>
       <c r="M20" s="168"/>
     </row>
-    <row r="21" spans="2:13">
+    <row r="21" spans="2:13" ht="17">
       <c r="B21" s="134"/>
       <c r="C21" s="246" t="s">
         <v>216</v>
@@ -15513,7 +15870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:13">
+    <row r="22" spans="2:13" ht="17">
       <c r="B22" s="134"/>
       <c r="C22" s="248" t="s">
         <v>275</v>
@@ -15555,7 +15912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:13">
+    <row r="23" spans="2:13" ht="17">
       <c r="B23" s="134"/>
       <c r="C23" s="248" t="s">
         <v>309</v>
@@ -15589,7 +15946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:13">
+    <row r="24" spans="2:13" ht="17">
       <c r="B24" s="134"/>
       <c r="C24" s="248" t="s">
         <v>310</v>
@@ -15626,7 +15983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:13">
+    <row r="25" spans="2:13" ht="17">
       <c r="B25" s="134"/>
       <c r="C25" s="248" t="s">
         <v>82</v>
@@ -15702,8 +16059,8 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet13" enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+  <sheetPr codeName="Sheet13">
     <tabColor theme="8" tint="0.79998168889431442"/>
   </sheetPr>
   <dimension ref="B2:L12"/>
@@ -15712,14 +16069,14 @@
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="10.625" style="82"/>
-    <col min="2" max="2" width="25.875" style="82" customWidth="1"/>
-    <col min="3" max="3" width="30.875" style="82" customWidth="1"/>
-    <col min="4" max="4" width="2.875" style="82" customWidth="1"/>
-    <col min="5" max="13" width="15.875" style="82" customWidth="1"/>
-    <col min="14" max="16384" width="10.625" style="82"/>
+    <col min="1" max="1" width="10.6640625" style="82"/>
+    <col min="2" max="2" width="25.83203125" style="82" customWidth="1"/>
+    <col min="3" max="3" width="30.83203125" style="82" customWidth="1"/>
+    <col min="4" max="4" width="2.83203125" style="82" customWidth="1"/>
+    <col min="5" max="13" width="15.83203125" style="82" customWidth="1"/>
+    <col min="14" max="16384" width="10.6640625" style="82"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:12" ht="21">
@@ -15757,15 +16114,15 @@
       <c r="I4" s="8"/>
     </row>
     <row r="5" spans="2:12" ht="26" customHeight="1">
-      <c r="B5" s="361" t="s">
+      <c r="B5" s="363" t="s">
         <v>449</v>
       </c>
-      <c r="C5" s="362"/>
-      <c r="D5" s="362"/>
-      <c r="E5" s="362"/>
-      <c r="F5" s="362"/>
-      <c r="G5" s="362"/>
-      <c r="H5" s="363"/>
+      <c r="C5" s="364"/>
+      <c r="D5" s="364"/>
+      <c r="E5" s="364"/>
+      <c r="F5" s="364"/>
+      <c r="G5" s="364"/>
+      <c r="H5" s="365"/>
       <c r="I5" s="8"/>
     </row>
     <row r="6" spans="2:12" ht="17" thickBot="1"/>
@@ -15801,7 +16158,7 @@
       <c r="K8" s="110"/>
       <c r="L8" s="111"/>
     </row>
-    <row r="9" spans="2:12" ht="32">
+    <row r="9" spans="2:12" ht="34">
       <c r="B9" s="132" t="s">
         <v>261</v>
       </c>
@@ -15847,7 +16204,7 @@
       <c r="K10" s="113"/>
       <c r="L10" s="130"/>
     </row>
-    <row r="11" spans="2:12">
+    <row r="11" spans="2:12" ht="17">
       <c r="B11" s="134"/>
       <c r="C11" s="246" t="s">
         <v>309</v>
@@ -15919,8 +16276,8 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet27" enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+  <sheetPr codeName="Sheet27">
     <tabColor theme="8" tint="0.79998168889431442"/>
   </sheetPr>
   <dimension ref="B2:I16"/>
@@ -15929,14 +16286,14 @@
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="10.625" style="82"/>
-    <col min="2" max="2" width="25.875" style="82" customWidth="1"/>
-    <col min="3" max="3" width="30.875" style="82" customWidth="1"/>
-    <col min="4" max="4" width="2.875" style="82" customWidth="1"/>
-    <col min="5" max="10" width="15.875" style="82" customWidth="1"/>
-    <col min="11" max="16384" width="10.625" style="82"/>
+    <col min="1" max="1" width="10.6640625" style="82"/>
+    <col min="2" max="2" width="25.83203125" style="82" customWidth="1"/>
+    <col min="3" max="3" width="30.83203125" style="82" customWidth="1"/>
+    <col min="4" max="4" width="2.83203125" style="82" customWidth="1"/>
+    <col min="5" max="10" width="15.83203125" style="82" customWidth="1"/>
+    <col min="11" max="16384" width="10.6640625" style="82"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:9" ht="21">
@@ -15968,13 +16325,13 @@
       <c r="G4" s="8"/>
     </row>
     <row r="5" spans="2:9" ht="37" customHeight="1">
-      <c r="B5" s="361" t="s">
+      <c r="B5" s="363" t="s">
         <v>447</v>
       </c>
-      <c r="C5" s="362"/>
-      <c r="D5" s="362"/>
-      <c r="E5" s="362"/>
-      <c r="F5" s="363"/>
+      <c r="C5" s="364"/>
+      <c r="D5" s="364"/>
+      <c r="E5" s="364"/>
+      <c r="F5" s="365"/>
       <c r="G5" s="8"/>
     </row>
     <row r="6" spans="2:9" ht="17" thickBot="1"/>
@@ -16000,7 +16357,7 @@
       <c r="H8" s="110"/>
       <c r="I8" s="111"/>
     </row>
-    <row r="9" spans="2:9">
+    <row r="9" spans="2:9" ht="17">
       <c r="B9" s="132"/>
       <c r="C9" s="219"/>
       <c r="D9" s="141"/>
@@ -16032,7 +16389,7 @@
       <c r="H10" s="113"/>
       <c r="I10" s="130"/>
     </row>
-    <row r="11" spans="2:9">
+    <row r="11" spans="2:9" ht="17">
       <c r="B11" s="134"/>
       <c r="C11" s="246" t="s">
         <v>309</v>
@@ -16079,7 +16436,7 @@
       <c r="H13" s="321"/>
       <c r="I13" s="322"/>
     </row>
-    <row r="14" spans="2:9">
+    <row r="14" spans="2:9" ht="17">
       <c r="B14" s="135" t="s">
         <v>445</v>
       </c>
@@ -16091,7 +16448,7 @@
       <c r="H14" s="167"/>
       <c r="I14" s="168"/>
     </row>
-    <row r="15" spans="2:9">
+    <row r="15" spans="2:9" ht="17">
       <c r="B15" s="134"/>
       <c r="C15" s="246" t="s">
         <v>309</v>
@@ -16148,24 +16505,24 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet28" enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+  <sheetPr codeName="Sheet28">
     <tabColor theme="5" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="B2:H24"/>
+  <dimension ref="B2:H23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="10.625" style="82"/>
-    <col min="2" max="2" width="25.875" style="82" customWidth="1"/>
-    <col min="3" max="3" width="30.875" style="82" customWidth="1"/>
-    <col min="4" max="4" width="2.875" style="82" customWidth="1"/>
-    <col min="5" max="11" width="15.875" style="82" customWidth="1"/>
-    <col min="12" max="16384" width="10.625" style="82"/>
+    <col min="1" max="1" width="10.6640625" style="82"/>
+    <col min="2" max="2" width="25.83203125" style="82" customWidth="1"/>
+    <col min="3" max="3" width="30.83203125" style="82" customWidth="1"/>
+    <col min="4" max="4" width="2.83203125" style="82" customWidth="1"/>
+    <col min="5" max="11" width="15.83203125" style="82" customWidth="1"/>
+    <col min="12" max="16384" width="10.6640625" style="82"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:8" ht="21">
@@ -16200,14 +16557,14 @@
       <c r="H4" s="8"/>
     </row>
     <row r="5" spans="2:8" ht="84" customHeight="1">
-      <c r="B5" s="361" t="s">
+      <c r="B5" s="363" t="s">
         <v>451</v>
       </c>
-      <c r="C5" s="362"/>
-      <c r="D5" s="362"/>
-      <c r="E5" s="362"/>
-      <c r="F5" s="362"/>
-      <c r="G5" s="363"/>
+      <c r="C5" s="364"/>
+      <c r="D5" s="364"/>
+      <c r="E5" s="364"/>
+      <c r="F5" s="364"/>
+      <c r="G5" s="365"/>
       <c r="H5" s="8"/>
     </row>
     <row r="6" spans="2:8" ht="17" thickBot="1"/>
@@ -16227,7 +16584,7 @@
       <c r="E8" s="110"/>
       <c r="F8" s="111"/>
     </row>
-    <row r="9" spans="2:8">
+    <row r="9" spans="2:8" ht="17">
       <c r="B9" s="132" t="s">
         <v>429</v>
       </c>
@@ -16240,7 +16597,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="10" spans="2:8">
+    <row r="10" spans="2:8" ht="17">
       <c r="B10" s="135" t="s">
         <v>430</v>
       </c>
@@ -16249,7 +16606,7 @@
       <c r="E10" s="167"/>
       <c r="F10" s="168"/>
     </row>
-    <row r="11" spans="2:8">
+    <row r="11" spans="2:8" ht="17">
       <c r="B11" s="135"/>
       <c r="C11" s="246" t="s">
         <v>51</v>
@@ -16260,71 +16617,70 @@
         <v>0</v>
       </c>
       <c r="F11" s="324">
-        <f>IF(SUM($E$11:$E$12)=0,1,E11/SUM($E$11:$E$12))</f>
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="2:8">
-      <c r="B12" s="135"/>
-      <c r="C12" s="246" t="s">
-        <v>431</v>
-      </c>
-      <c r="D12" s="143"/>
-      <c r="E12" s="167">
-        <f>SUMIF('Refineries heat production'!E15:I15,"&gt;0")</f>
-        <v>0</v>
-      </c>
-      <c r="F12" s="324">
-        <f>IF(SUM($E$11:$E$12)=0,0,E12/SUM($E$11:$E$12))</f>
-        <v>0</v>
-      </c>
+      <c r="B12" s="323"/>
+      <c r="C12" s="221"/>
+      <c r="D12" s="216"/>
+      <c r="E12" s="217"/>
+      <c r="F12" s="218"/>
     </row>
     <row r="13" spans="2:8">
-      <c r="B13" s="323"/>
-      <c r="C13" s="221"/>
-      <c r="D13" s="216"/>
-      <c r="E13" s="217"/>
-      <c r="F13" s="218"/>
-    </row>
-    <row r="14" spans="2:8">
-      <c r="B14" s="135"/>
+      <c r="B13" s="135"/>
+      <c r="C13" s="246"/>
+      <c r="D13" s="143"/>
+      <c r="E13" s="167"/>
+      <c r="F13" s="168"/>
+    </row>
+    <row r="14" spans="2:8" ht="17">
+      <c r="B14" s="135" t="s">
+        <v>432</v>
+      </c>
       <c r="C14" s="246"/>
       <c r="D14" s="143"/>
       <c r="E14" s="167"/>
       <c r="F14" s="168"/>
     </row>
-    <row r="15" spans="2:8">
-      <c r="B15" s="135" t="s">
-        <v>432</v>
-      </c>
-      <c r="C15" s="246"/>
+    <row r="15" spans="2:8" ht="17">
+      <c r="B15" s="135"/>
+      <c r="C15" s="246" t="s">
+        <v>56</v>
+      </c>
       <c r="D15" s="143"/>
-      <c r="E15" s="167"/>
-      <c r="F15" s="168"/>
-    </row>
-    <row r="16" spans="2:8">
-      <c r="B16" s="135"/>
+      <c r="E15" s="167">
+        <f>'Refineries transformation'!F11</f>
+        <v>0</v>
+      </c>
+      <c r="F15" s="334">
+        <f t="shared" ref="F15:F21" si="0">IF(SUM($E$15:$E$22)=0,0,E15/SUM($E$15:$E$22))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" ht="17">
+      <c r="B16" s="134"/>
       <c r="C16" s="246" t="s">
-        <v>56</v>
+        <v>433</v>
       </c>
       <c r="D16" s="143"/>
       <c r="E16" s="167">
-        <f>'Refineries transformation'!F11</f>
+        <f>'Refineries transformation'!G11</f>
         <v>0</v>
       </c>
       <c r="F16" s="334">
-        <f t="shared" ref="F16:F22" si="0">IF(SUM($E$16:$E$23)=0,0,E16/SUM($E$16:$E$23))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:6">
+    <row r="17" spans="2:6" ht="17">
       <c r="B17" s="134"/>
       <c r="C17" s="246" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="D17" s="143"/>
       <c r="E17" s="167">
-        <f>'Refineries transformation'!G11</f>
+        <f>'Refineries transformation'!H11</f>
         <v>0</v>
       </c>
       <c r="F17" s="334">
@@ -16332,14 +16688,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:6">
+    <row r="18" spans="2:6" ht="17">
       <c r="B18" s="134"/>
       <c r="C18" s="246" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="D18" s="143"/>
       <c r="E18" s="167">
-        <f>'Refineries transformation'!H11</f>
+        <f>'Refineries transformation'!I11</f>
         <v>0</v>
       </c>
       <c r="F18" s="334">
@@ -16347,14 +16703,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:6">
+    <row r="19" spans="2:6" ht="17">
       <c r="B19" s="134"/>
       <c r="C19" s="246" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D19" s="143"/>
       <c r="E19" s="167">
-        <f>'Refineries transformation'!I11</f>
+        <f>'Refineries transformation'!J11</f>
         <v>0</v>
       </c>
       <c r="F19" s="334">
@@ -16362,14 +16718,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:6">
+    <row r="20" spans="2:6" ht="17">
       <c r="B20" s="134"/>
       <c r="C20" s="246" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="D20" s="143"/>
       <c r="E20" s="167">
-        <f>'Refineries transformation'!J11</f>
+        <f>'Refineries transformation'!K11</f>
         <v>0</v>
       </c>
       <c r="F20" s="334">
@@ -16377,14 +16733,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:6">
+    <row r="21" spans="2:6" ht="17">
       <c r="B21" s="134"/>
       <c r="C21" s="246" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="D21" s="143"/>
       <c r="E21" s="167">
-        <f>'Refineries transformation'!K11</f>
+        <f>'Refineries transformation'!L11</f>
         <v>0</v>
       </c>
       <c r="F21" s="334">
@@ -16392,53 +16748,38 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:6">
+    <row r="22" spans="2:6" ht="17">
       <c r="B22" s="134"/>
-      <c r="C22" s="246" t="s">
-        <v>438</v>
+      <c r="C22" s="326" t="s">
+        <v>441</v>
       </c>
       <c r="D22" s="143"/>
       <c r="E22" s="167">
-        <f>'Refineries transformation'!L11</f>
+        <f>E11-SUM(E15:E21)</f>
         <v>0</v>
       </c>
       <c r="F22" s="334">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6">
-      <c r="B23" s="134"/>
-      <c r="C23" s="326" t="s">
-        <v>441</v>
-      </c>
-      <c r="D23" s="143"/>
-      <c r="E23" s="167">
-        <f>E12+E11-SUM(E16:E22)</f>
-        <v>0</v>
-      </c>
-      <c r="F23" s="334">
-        <f>IF(SUM($E$16:$E$23)=0,1,E23/SUM($E$16:$E$23))</f>
+        <f>IF(SUM($E$15:$E$22)=0,1,E22/SUM($E$15:$E$22))</f>
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:6" ht="17" thickBot="1">
-      <c r="B24" s="137"/>
-      <c r="C24" s="223"/>
-      <c r="D24" s="146"/>
-      <c r="E24" s="98"/>
-      <c r="F24" s="99"/>
+    <row r="23" spans="2:6" ht="17" thickBot="1">
+      <c r="B23" s="137"/>
+      <c r="C23" s="223"/>
+      <c r="D23" s="146"/>
+      <c r="E23" s="98"/>
+      <c r="F23" s="99"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B5:G5"/>
   </mergeCells>
-  <conditionalFormatting sqref="F24">
+  <conditionalFormatting sqref="F23">
     <cfRule type="cellIs" dxfId="3" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E24">
+  <conditionalFormatting sqref="E23">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -16454,8 +16795,8 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
+  <sheetPr>
     <tabColor theme="5" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="B2:H21"/>
@@ -16464,14 +16805,14 @@
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="10.625" style="82"/>
-    <col min="2" max="2" width="25.875" style="82" customWidth="1"/>
-    <col min="3" max="3" width="30.875" style="82" customWidth="1"/>
-    <col min="4" max="4" width="2.875" style="82" customWidth="1"/>
-    <col min="5" max="11" width="15.875" style="82" customWidth="1"/>
-    <col min="12" max="16384" width="10.625" style="82"/>
+    <col min="1" max="1" width="10.6640625" style="82"/>
+    <col min="2" max="2" width="25.83203125" style="82" customWidth="1"/>
+    <col min="3" max="3" width="30.83203125" style="82" customWidth="1"/>
+    <col min="4" max="4" width="2.83203125" style="82" customWidth="1"/>
+    <col min="5" max="11" width="15.83203125" style="82" customWidth="1"/>
+    <col min="12" max="16384" width="10.6640625" style="82"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:8" ht="21">
@@ -16506,14 +16847,14 @@
       <c r="H4" s="8"/>
     </row>
     <row r="5" spans="2:8" ht="24" customHeight="1">
-      <c r="B5" s="361" t="s">
+      <c r="B5" s="363" t="s">
         <v>454</v>
       </c>
-      <c r="C5" s="362"/>
-      <c r="D5" s="362"/>
-      <c r="E5" s="362"/>
-      <c r="F5" s="362"/>
-      <c r="G5" s="363"/>
+      <c r="C5" s="364"/>
+      <c r="D5" s="364"/>
+      <c r="E5" s="364"/>
+      <c r="F5" s="364"/>
+      <c r="G5" s="365"/>
       <c r="H5" s="8"/>
     </row>
     <row r="6" spans="2:8" ht="17" thickBot="1"/>
@@ -16533,7 +16874,7 @@
       <c r="E8" s="110"/>
       <c r="F8" s="111"/>
     </row>
-    <row r="9" spans="2:8">
+    <row r="9" spans="2:8" ht="17">
       <c r="B9" s="132" t="s">
         <v>429</v>
       </c>
@@ -16546,7 +16887,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="10" spans="2:8">
+    <row r="10" spans="2:8" ht="17">
       <c r="B10" s="135" t="s">
         <v>445</v>
       </c>
@@ -16555,7 +16896,7 @@
       <c r="E10" s="167"/>
       <c r="F10" s="168"/>
     </row>
-    <row r="11" spans="2:8">
+    <row r="11" spans="2:8" ht="17">
       <c r="B11" s="135"/>
       <c r="C11" s="246" t="s">
         <v>190</v>
@@ -16567,7 +16908,7 @@
       </c>
       <c r="F11" s="334"/>
     </row>
-    <row r="12" spans="2:8">
+    <row r="12" spans="2:8" ht="17">
       <c r="B12" s="134"/>
       <c r="C12" s="246" t="s">
         <v>209</v>
@@ -16579,7 +16920,7 @@
       </c>
       <c r="F12" s="334"/>
     </row>
-    <row r="13" spans="2:8">
+    <row r="13" spans="2:8" ht="17">
       <c r="B13" s="134"/>
       <c r="C13" s="246" t="s">
         <v>51</v>
@@ -16591,7 +16932,7 @@
       </c>
       <c r="F13" s="334"/>
     </row>
-    <row r="14" spans="2:8">
+    <row r="14" spans="2:8" ht="17">
       <c r="B14" s="134"/>
       <c r="C14" s="246" t="s">
         <v>192</v>
@@ -16603,7 +16944,7 @@
       </c>
       <c r="F14" s="334"/>
     </row>
-    <row r="15" spans="2:8">
+    <row r="15" spans="2:8" ht="17">
       <c r="B15" s="134"/>
       <c r="C15" s="246" t="s">
         <v>104</v>
@@ -16629,7 +16970,7 @@
       <c r="E17" s="321"/>
       <c r="F17" s="336"/>
     </row>
-    <row r="18" spans="2:6">
+    <row r="18" spans="2:6" ht="17">
       <c r="B18" s="135" t="s">
         <v>430</v>
       </c>
@@ -16638,7 +16979,7 @@
       <c r="E18" s="167"/>
       <c r="F18" s="168"/>
     </row>
-    <row r="19" spans="2:6">
+    <row r="19" spans="2:6" ht="17">
       <c r="B19" s="135"/>
       <c r="C19" s="246" t="s">
         <v>452</v>
@@ -16653,7 +16994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:6">
+    <row r="20" spans="2:6" ht="17">
       <c r="B20" s="135"/>
       <c r="C20" s="246" t="s">
         <v>431</v>
@@ -16700,8 +17041,8 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet15" enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
+  <sheetPr codeName="Sheet15">
     <tabColor theme="7" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="A1:J6"/>
@@ -16710,10 +17051,10 @@
       <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="10" width="11.625" style="277" customWidth="1"/>
-    <col min="11" max="11" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="10" width="11.6640625" style="277" customWidth="1"/>
+    <col min="11" max="11" width="11.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -16876,8 +17217,8 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet16" enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
+  <sheetPr codeName="Sheet16">
     <tabColor theme="7" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="A1:J10"/>
@@ -16886,10 +17227,10 @@
       <selection activeCell="B3" sqref="B3:B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="10" width="11.625" style="277" customWidth="1"/>
-    <col min="11" max="11" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="10" width="11.6640625" style="277" customWidth="1"/>
+    <col min="11" max="11" width="11.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -17020,8 +17361,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr codeName="Sheet2">
     <tabColor theme="2"/>
   </sheetPr>
   <dimension ref="B2:D16"/>
@@ -17030,13 +17371,13 @@
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="10.625" style="1"/>
-    <col min="2" max="2" width="20.875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="50.875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.875" style="90" customWidth="1"/>
-    <col min="5" max="16384" width="10.625" style="1"/>
+    <col min="1" max="1" width="10.6640625" style="1"/>
+    <col min="2" max="2" width="20.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="50.83203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" style="90" customWidth="1"/>
+    <col min="5" max="16384" width="10.6640625" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:4" ht="21">
@@ -17071,7 +17412,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:4">
+    <row r="7" spans="2:4" ht="34">
       <c r="B7" s="77">
         <v>41611</v>
       </c>
@@ -17104,7 +17445,7 @@
         <v>1.03</v>
       </c>
     </row>
-    <row r="10" spans="2:4" ht="32">
+    <row r="10" spans="2:4" ht="34">
       <c r="B10" s="120">
         <v>42576</v>
       </c>
@@ -17115,7 +17456,7 @@
         <v>1.04</v>
       </c>
     </row>
-    <row r="11" spans="2:4">
+    <row r="11" spans="2:4" ht="34">
       <c r="B11" s="120">
         <v>42594</v>
       </c>
@@ -17126,7 +17467,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="12" spans="2:4">
+    <row r="12" spans="2:4" ht="17">
       <c r="B12" s="120">
         <v>42615</v>
       </c>
@@ -17162,8 +17503,8 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet17" enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
+  <sheetPr codeName="Sheet17">
     <tabColor theme="7" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="A1:J10"/>
@@ -17172,10 +17513,10 @@
       <selection activeCell="B3" sqref="B3:B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="10" width="11.625" style="277" customWidth="1"/>
-    <col min="11" max="11" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="10" width="11.6640625" style="277" customWidth="1"/>
+    <col min="11" max="11" width="11.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -17306,8 +17647,8 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet18" enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
+  <sheetPr codeName="Sheet18">
     <tabColor theme="7" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="A1:J10"/>
@@ -17316,10 +17657,10 @@
       <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="10" width="11.625" style="277" customWidth="1"/>
-    <col min="11" max="11" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="10" width="11.6640625" style="277" customWidth="1"/>
+    <col min="11" max="11" width="11.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -17450,8 +17791,8 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet19" enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
+  <sheetPr codeName="Sheet19">
     <tabColor theme="7" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="A1:J10"/>
@@ -17460,10 +17801,10 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="10" width="11.625" style="277" customWidth="1"/>
-    <col min="11" max="11" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="10" width="11.6640625" style="277" customWidth="1"/>
+    <col min="11" max="11" width="11.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -17594,8 +17935,8 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet20" enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
+  <sheetPr codeName="Sheet20">
     <tabColor theme="7" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="A1:J10"/>
@@ -17604,10 +17945,10 @@
       <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="10" width="11.625" style="277" customWidth="1"/>
-    <col min="11" max="11" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="10" width="11.6640625" style="277" customWidth="1"/>
+    <col min="11" max="11" width="11.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -17738,8 +18079,8 @@
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
+  <sheetPr>
     <tabColor theme="7" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="A1:B6"/>
@@ -17748,9 +18089,9 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="52.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="52.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -17813,8 +18154,8 @@
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet21" enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
+  <sheetPr codeName="Sheet21">
     <tabColor theme="7" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="A1:J10"/>
@@ -17823,12 +18164,12 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="52.5" style="277" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.5" style="277" bestFit="1" customWidth="1"/>
-    <col min="3" max="10" width="11.625" style="277" customWidth="1"/>
-    <col min="11" max="11" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="10" width="11.6640625" style="277" customWidth="1"/>
+    <col min="11" max="11" width="11.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -17959,8 +18300,8 @@
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet22" enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1900-000000000000}">
+  <sheetPr codeName="Sheet22">
     <tabColor theme="7" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="A1:J10"/>
@@ -17969,10 +18310,10 @@
       <selection activeCell="B3" sqref="B3:B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="10" width="11.625" style="277" customWidth="1"/>
-    <col min="11" max="11" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="10" width="11.6640625" style="277" customWidth="1"/>
+    <col min="11" max="11" width="11.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -18103,8 +18444,8 @@
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet23" enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1A00-000000000000}">
+  <sheetPr codeName="Sheet23">
     <tabColor theme="7" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="A1:J10"/>
@@ -18113,10 +18454,10 @@
       <selection activeCell="B3" sqref="B3:B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="10" width="11.625" style="277" customWidth="1"/>
-    <col min="11" max="11" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="10" width="11.6640625" style="277" customWidth="1"/>
+    <col min="11" max="11" width="11.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -18247,8 +18588,8 @@
 </file>
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet24" enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1B00-000000000000}">
+  <sheetPr codeName="Sheet24">
     <tabColor theme="7" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="A1:J10"/>
@@ -18257,11 +18598,11 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="54" style="277" customWidth="1"/>
-    <col min="2" max="10" width="11.625" style="277" customWidth="1"/>
-    <col min="11" max="11" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="10" width="11.6640625" style="277" customWidth="1"/>
+    <col min="11" max="11" width="11.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -18385,8 +18726,8 @@
 </file>
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet25" enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1C00-000000000000}">
+  <sheetPr codeName="Sheet25">
     <tabColor theme="7" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="A1:J10"/>
@@ -18395,10 +18736,10 @@
       <selection activeCell="C16" sqref="C16:G36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="10" width="11.625" style="277" customWidth="1"/>
-    <col min="11" max="11" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="10" width="11.6640625" style="277" customWidth="1"/>
+    <col min="11" max="11" width="11.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -18529,8 +18870,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet3" enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr codeName="Sheet3">
     <tabColor theme="2"/>
   </sheetPr>
   <dimension ref="B2:C34"/>
@@ -18539,12 +18880,12 @@
       <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="10.625" style="1"/>
-    <col min="2" max="2" width="35.875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="100.875" style="116" customWidth="1"/>
-    <col min="4" max="16384" width="10.625" style="1"/>
+    <col min="1" max="1" width="10.6640625" style="1"/>
+    <col min="2" max="2" width="35.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="100.83203125" style="116" customWidth="1"/>
+    <col min="4" max="16384" width="10.6640625" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:3" ht="21">
@@ -18812,21 +19153,21 @@
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet26" enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1D00-000000000000}">
+  <sheetPr codeName="Sheet26">
     <tabColor theme="7" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="27" style="277" customWidth="1"/>
-    <col min="2" max="10" width="11.625" style="277" customWidth="1"/>
-    <col min="11" max="11" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="10" width="11.6640625" style="277" customWidth="1"/>
+    <col min="11" max="11" width="11.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -18853,33 +19194,41 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="278" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="B4" s="317">
-        <f>'Refineries efficiency'!F12</f>
+        <f>'Refineries efficiency'!F15</f>
         <v>0</v>
       </c>
+      <c r="C4" s="296"/>
+      <c r="D4" s="193"/>
+      <c r="E4" s="193"/>
+      <c r="F4" s="193"/>
+      <c r="G4" s="193"/>
+      <c r="H4" s="193"/>
+      <c r="I4" s="193"/>
+      <c r="J4" s="193"/>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="278" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B5" s="317">
         <f>'Refineries efficiency'!F16</f>
         <v>0</v>
       </c>
       <c r="C5" s="296"/>
-      <c r="D5" s="193"/>
-      <c r="E5" s="193"/>
-      <c r="F5" s="193"/>
-      <c r="G5" s="193"/>
-      <c r="H5" s="193"/>
-      <c r="I5" s="193"/>
-      <c r="J5" s="193"/>
+      <c r="D5" s="296"/>
+      <c r="E5" s="296"/>
+      <c r="F5" s="296"/>
+      <c r="G5" s="296"/>
+      <c r="H5" s="296"/>
+      <c r="I5" s="296"/>
+      <c r="J5" s="296"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="278" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B6" s="317">
         <f>'Refineries efficiency'!F17</f>
@@ -18896,30 +19245,30 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="278" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="B7" s="317">
         <f>'Refineries efficiency'!F18</f>
         <v>0</v>
       </c>
-      <c r="C7" s="296"/>
-      <c r="D7" s="296"/>
-      <c r="E7" s="296"/>
-      <c r="F7" s="296"/>
-      <c r="G7" s="296"/>
-      <c r="H7" s="296"/>
-      <c r="I7" s="296"/>
-      <c r="J7" s="296"/>
+      <c r="C7" s="193"/>
+      <c r="D7" s="193"/>
+      <c r="E7" s="193"/>
+      <c r="F7" s="193"/>
+      <c r="G7" s="193"/>
+      <c r="H7" s="193"/>
+      <c r="I7" s="193"/>
+      <c r="J7" s="193"/>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="278" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B8" s="317">
         <f>'Refineries efficiency'!F19</f>
         <v>0</v>
       </c>
-      <c r="C8" s="193"/>
+      <c r="C8" s="296"/>
       <c r="D8" s="193"/>
       <c r="E8" s="193"/>
       <c r="F8" s="193"/>
@@ -18930,14 +19279,14 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="278" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="B9" s="317">
         <f>'Refineries efficiency'!F20</f>
         <v>0</v>
       </c>
       <c r="C9" s="296"/>
-      <c r="D9" s="193"/>
+      <c r="D9" s="301"/>
       <c r="E9" s="193"/>
       <c r="F9" s="193"/>
       <c r="G9" s="193"/>
@@ -18947,27 +19296,10 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="278" t="s">
-        <v>426</v>
+        <v>463</v>
       </c>
       <c r="B10" s="317">
         <f>'Refineries efficiency'!F21</f>
-        <v>0</v>
-      </c>
-      <c r="C10" s="296"/>
-      <c r="D10" s="301"/>
-      <c r="E10" s="193"/>
-      <c r="F10" s="193"/>
-      <c r="G10" s="193"/>
-      <c r="H10" s="193"/>
-      <c r="I10" s="193"/>
-      <c r="J10" s="193"/>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="278" t="s">
-        <v>463</v>
-      </c>
-      <c r="B11" s="317">
-        <f>'Refineries efficiency'!F22</f>
         <v>0</v>
       </c>
     </row>
@@ -18983,8 +19315,8 @@
 </file>
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1E00-000000000000}">
+  <sheetPr>
     <tabColor theme="7" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="A1:J11"/>
@@ -18993,11 +19325,11 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="27" style="277" customWidth="1"/>
-    <col min="2" max="10" width="11.625" style="277" customWidth="1"/>
-    <col min="11" max="11" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="10" width="11.6640625" style="277" customWidth="1"/>
+    <col min="11" max="11" width="11.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -19118,19 +19450,19 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet4" enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <sheetPr codeName="Sheet4">
     <tabColor theme="2"/>
   </sheetPr>
   <dimension ref="B2:B20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="10.625" style="1"/>
-    <col min="2" max="2" width="140.875" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="10.625" style="1"/>
+    <col min="1" max="1" width="10.6640625" style="1"/>
+    <col min="2" max="2" width="140.83203125" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="10.6640625" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:2" ht="21">
@@ -19146,7 +19478,7 @@
     <row r="5" spans="2:2">
       <c r="B5" s="42"/>
     </row>
-    <row r="6" spans="2:2" ht="64">
+    <row r="6" spans="2:2" ht="68">
       <c r="B6" s="267" t="s">
         <v>305</v>
       </c>
@@ -19196,7 +19528,7 @@
     <row r="18" spans="2:2">
       <c r="B18" s="42"/>
     </row>
-    <row r="19" spans="2:2" ht="80">
+    <row r="19" spans="2:2" ht="102">
       <c r="B19" s="124" t="s">
         <v>247</v>
       </c>
@@ -19216,8 +19548,8 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet5" enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <sheetPr codeName="Sheet5">
     <tabColor theme="2"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -19227,9 +19559,9 @@
       <selection activeCell="CV35" sqref="CV35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="2.875" defaultRowHeight="16" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="2.83203125" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="16384" width="2.875" style="1"/>
+    <col min="1" max="16384" width="2.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:80" ht="20" customHeight="1">
@@ -19598,7 +19930,7 @@
       <c r="BU6" s="52"/>
       <c r="BV6" s="52"/>
     </row>
-    <row r="7" spans="2:80" ht="25">
+    <row r="7" spans="2:80" ht="24">
       <c r="B7" s="52"/>
       <c r="C7" s="64" t="s">
         <v>182</v>
@@ -19693,8 +20025,8 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet6" enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <sheetPr codeName="Sheet6">
     <tabColor theme="2"/>
   </sheetPr>
   <dimension ref="B2:C107"/>
@@ -19703,12 +20035,12 @@
       <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="10.625" style="1"/>
-    <col min="2" max="2" width="25.875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="75.875" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="10.625" style="1"/>
+    <col min="1" max="1" width="10.6640625" style="1"/>
+    <col min="2" max="2" width="25.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="75.83203125" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="10.6640625" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:3" ht="21">
@@ -19724,10 +20056,10 @@
       <c r="C4" s="5"/>
     </row>
     <row r="5" spans="2:3" ht="75" customHeight="1">
-      <c r="B5" s="350" t="s">
+      <c r="B5" s="352" t="s">
         <v>248</v>
       </c>
-      <c r="C5" s="351"/>
+      <c r="C5" s="353"/>
     </row>
     <row r="6" spans="2:3" ht="17" thickBot="1"/>
     <row r="7" spans="2:3">
@@ -19754,31 +20086,31 @@
       </c>
       <c r="C10" s="27"/>
     </row>
-    <row r="11" spans="2:3" ht="32">
+    <row r="11" spans="2:3" ht="34">
       <c r="B11" s="22"/>
       <c r="C11" s="266" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="12" spans="2:3" ht="32">
+    <row r="12" spans="2:3" ht="34">
       <c r="B12" s="22"/>
       <c r="C12" s="266" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="13" spans="2:3">
+    <row r="13" spans="2:3" ht="17">
       <c r="B13" s="22"/>
       <c r="C13" s="266" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="14" spans="2:3" ht="32">
+    <row r="14" spans="2:3" ht="34">
       <c r="B14" s="22"/>
       <c r="C14" s="266" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="15" spans="2:3">
+    <row r="15" spans="2:3" ht="34">
       <c r="B15" s="22"/>
       <c r="C15" s="266" t="s">
         <v>227</v>
@@ -20262,7 +20594,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="98" spans="2:3">
+    <row r="98" spans="2:3" ht="17">
       <c r="B98" s="22"/>
       <c r="C98" s="29" t="s">
         <v>26</v>
@@ -20326,34 +20658,32 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet7" enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <sheetPr codeName="Sheet7">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="A2:P62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="106" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
-    </sheetView>
+    <sheetView zoomScale="106" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" outlineLevelRow="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" width="10.625" style="1"/>
-    <col min="2" max="2" width="18.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="77.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="4.625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="2.875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="13.375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="2.875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="45.375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="4.375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="79.625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="9.125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="65.875" style="1" customWidth="1"/>
-    <col min="14" max="14" width="2.875" style="1" customWidth="1"/>
-    <col min="15" max="16" width="13.375" style="204" customWidth="1"/>
-    <col min="17" max="16384" width="10.625" style="1"/>
+    <col min="1" max="1" width="10.6640625" style="1"/>
+    <col min="2" max="2" width="18.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="77.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="4.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="2.83203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="2.83203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="45.33203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="4.33203125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="79.6640625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="9.1640625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="65.83203125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="2.83203125" style="1" customWidth="1"/>
+    <col min="15" max="16" width="13.33203125" style="204" customWidth="1"/>
+    <col min="17" max="16384" width="10.6640625" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:16" ht="21">
@@ -20385,32 +20715,32 @@
       <c r="K4" s="7"/>
     </row>
     <row r="5" spans="1:16">
-      <c r="B5" s="352" t="s">
+      <c r="B5" s="354" t="s">
         <v>307</v>
       </c>
-      <c r="C5" s="353"/>
-      <c r="D5" s="353"/>
-      <c r="E5" s="354"/>
+      <c r="C5" s="355"/>
+      <c r="D5" s="355"/>
+      <c r="E5" s="356"/>
       <c r="F5" s="8"/>
       <c r="I5" s="229"/>
       <c r="J5" s="8"/>
       <c r="K5" s="7"/>
     </row>
     <row r="6" spans="1:16">
-      <c r="B6" s="352"/>
-      <c r="C6" s="353"/>
-      <c r="D6" s="353"/>
-      <c r="E6" s="354"/>
+      <c r="B6" s="354"/>
+      <c r="C6" s="355"/>
+      <c r="D6" s="355"/>
+      <c r="E6" s="356"/>
       <c r="F6" s="8"/>
       <c r="I6" s="207"/>
       <c r="J6" s="8"/>
       <c r="K6" s="7"/>
     </row>
     <row r="7" spans="1:16">
-      <c r="B7" s="350"/>
-      <c r="C7" s="355"/>
-      <c r="D7" s="355"/>
-      <c r="E7" s="351"/>
+      <c r="B7" s="352"/>
+      <c r="C7" s="357"/>
+      <c r="D7" s="357"/>
+      <c r="E7" s="353"/>
       <c r="F7" s="151"/>
       <c r="I7" s="228"/>
       <c r="J7" s="9"/>
@@ -20517,7 +20847,9 @@
         <v>205</v>
       </c>
       <c r="D13" s="157"/>
-      <c r="E13" s="162"/>
+      <c r="E13" s="162" t="s">
+        <v>479</v>
+      </c>
       <c r="F13" s="162"/>
       <c r="G13" s="15" t="s">
         <v>259</v>
@@ -20548,7 +20880,9 @@
         <v>258</v>
       </c>
       <c r="D14" s="157"/>
-      <c r="E14" s="162"/>
+      <c r="E14" s="162">
+        <v>2015</v>
+      </c>
       <c r="F14" s="162"/>
       <c r="G14" s="15" t="s">
         <v>260</v>
@@ -20613,7 +20947,7 @@
       <c r="O16" s="207"/>
       <c r="P16" s="208"/>
     </row>
-    <row r="17" spans="1:16">
+    <row r="17" spans="1:16" ht="17">
       <c r="A17" s="8"/>
       <c r="B17" s="28"/>
       <c r="C17" s="258" t="s">
@@ -20638,7 +20972,7 @@
       <c r="O17" s="207"/>
       <c r="P17" s="208"/>
     </row>
-    <row r="18" spans="1:16">
+    <row r="18" spans="1:16" ht="17">
       <c r="A18" s="8"/>
       <c r="B18" s="22"/>
       <c r="C18" s="258" t="s">
@@ -20671,7 +21005,7 @@
       <c r="O18" s="207"/>
       <c r="P18" s="208"/>
     </row>
-    <row r="19" spans="1:16">
+    <row r="19" spans="1:16" ht="17">
       <c r="A19" s="8"/>
       <c r="B19" s="22"/>
       <c r="C19" s="258" t="s">
@@ -20696,7 +21030,7 @@
       <c r="O19" s="207"/>
       <c r="P19" s="208"/>
     </row>
-    <row r="20" spans="1:16">
+    <row r="20" spans="1:16" ht="17">
       <c r="A20" s="8"/>
       <c r="B20" s="22"/>
       <c r="C20" s="258" t="s">
@@ -20721,7 +21055,7 @@
       <c r="O20" s="207"/>
       <c r="P20" s="208"/>
     </row>
-    <row r="21" spans="1:16">
+    <row r="21" spans="1:16" ht="17">
       <c r="A21" s="8"/>
       <c r="B21" s="22"/>
       <c r="C21" s="258" t="s">
@@ -20746,7 +21080,7 @@
       <c r="O21" s="207"/>
       <c r="P21" s="208"/>
     </row>
-    <row r="22" spans="1:16">
+    <row r="22" spans="1:16" ht="17">
       <c r="A22" s="8"/>
       <c r="B22" s="22"/>
       <c r="C22" s="258" t="s">
@@ -20771,7 +21105,7 @@
       <c r="O22" s="207"/>
       <c r="P22" s="208"/>
     </row>
-    <row r="23" spans="1:16">
+    <row r="23" spans="1:16" ht="17">
       <c r="A23" s="8"/>
       <c r="B23" s="22"/>
       <c r="C23" s="258" t="s">
@@ -20796,7 +21130,7 @@
       <c r="O23" s="207"/>
       <c r="P23" s="208"/>
     </row>
-    <row r="24" spans="1:16">
+    <row r="24" spans="1:16" ht="17">
       <c r="A24" s="8"/>
       <c r="B24" s="22"/>
       <c r="C24" s="258" t="s">
@@ -20867,7 +21201,7 @@
       <c r="O26" s="207"/>
       <c r="P26" s="208"/>
     </row>
-    <row r="27" spans="1:16">
+    <row r="27" spans="1:16" ht="17">
       <c r="A27" s="8"/>
       <c r="B27" s="28"/>
       <c r="C27" s="258" t="s">
@@ -20892,7 +21226,7 @@
       <c r="O27" s="207"/>
       <c r="P27" s="208"/>
     </row>
-    <row r="28" spans="1:16">
+    <row r="28" spans="1:16" ht="17">
       <c r="A28" s="8"/>
       <c r="B28" s="22"/>
       <c r="C28" s="258" t="s">
@@ -20925,7 +21259,7 @@
       <c r="O28" s="207"/>
       <c r="P28" s="208"/>
     </row>
-    <row r="29" spans="1:16">
+    <row r="29" spans="1:16" ht="17">
       <c r="A29" s="8"/>
       <c r="B29" s="22"/>
       <c r="C29" s="258" t="s">
@@ -20950,7 +21284,7 @@
       <c r="O29" s="207"/>
       <c r="P29" s="208"/>
     </row>
-    <row r="30" spans="1:16">
+    <row r="30" spans="1:16" ht="17">
       <c r="A30" s="8"/>
       <c r="B30" s="22"/>
       <c r="C30" s="258" t="s">
@@ -20975,7 +21309,7 @@
       <c r="O30" s="207"/>
       <c r="P30" s="208"/>
     </row>
-    <row r="31" spans="1:16">
+    <row r="31" spans="1:16" ht="17">
       <c r="A31" s="8"/>
       <c r="B31" s="22"/>
       <c r="C31" s="258" t="s">
@@ -21000,7 +21334,7 @@
       <c r="O31" s="207"/>
       <c r="P31" s="208"/>
     </row>
-    <row r="32" spans="1:16">
+    <row r="32" spans="1:16" ht="17">
       <c r="A32" s="8"/>
       <c r="B32" s="22"/>
       <c r="C32" s="258" t="s">
@@ -21025,7 +21359,7 @@
       <c r="O32" s="207"/>
       <c r="P32" s="208"/>
     </row>
-    <row r="33" spans="1:16">
+    <row r="33" spans="1:16" ht="17">
       <c r="A33" s="8"/>
       <c r="B33" s="22"/>
       <c r="C33" s="258" t="s">
@@ -21050,7 +21384,7 @@
       <c r="O33" s="207"/>
       <c r="P33" s="208"/>
     </row>
-    <row r="34" spans="1:16">
+    <row r="34" spans="1:16" ht="17">
       <c r="A34" s="8"/>
       <c r="B34" s="22"/>
       <c r="C34" s="258" t="s">
@@ -21168,8 +21502,8 @@
         <v>476</v>
       </c>
       <c r="D39" s="158"/>
-      <c r="E39" s="365"/>
-      <c r="G39" s="364"/>
+      <c r="E39" s="351"/>
+      <c r="G39" s="350"/>
       <c r="J39" s="8"/>
       <c r="K39" s="345" t="s">
         <v>473</v>
@@ -21211,7 +21545,7 @@
         <v>477</v>
       </c>
       <c r="D41" s="158"/>
-      <c r="E41" s="365"/>
+      <c r="E41" s="351"/>
       <c r="F41" s="126"/>
       <c r="G41" s="202"/>
       <c r="H41" s="8"/>
@@ -21244,7 +21578,7 @@
         <v>478</v>
       </c>
       <c r="D42" s="158"/>
-      <c r="E42" s="365"/>
+      <c r="E42" s="351"/>
       <c r="F42" s="126"/>
       <c r="G42" s="202"/>
       <c r="H42" s="8"/>
@@ -21277,7 +21611,7 @@
         <v>475</v>
       </c>
       <c r="D43" s="158"/>
-      <c r="E43" s="365"/>
+      <c r="E43" s="351"/>
       <c r="F43" s="126"/>
       <c r="G43" s="202"/>
       <c r="H43" s="8"/>
@@ -21430,7 +21764,7 @@
       <c r="O50" s="207"/>
       <c r="P50" s="208"/>
     </row>
-    <row r="51" spans="1:16" ht="17" outlineLevel="1" thickBot="1">
+    <row r="51" spans="1:16" ht="18" outlineLevel="1" thickBot="1">
       <c r="A51" s="8"/>
       <c r="B51" s="22"/>
       <c r="C51" s="258" t="s">
@@ -21462,7 +21796,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:16" ht="17" outlineLevel="1" thickBot="1">
+    <row r="52" spans="1:16" ht="18" outlineLevel="1" thickBot="1">
       <c r="A52" s="8"/>
       <c r="B52" s="22"/>
       <c r="C52" s="258" t="s">
@@ -21494,7 +21828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:16" ht="17" outlineLevel="1" thickBot="1">
+    <row r="53" spans="1:16" ht="18" outlineLevel="1" thickBot="1">
       <c r="A53" s="8"/>
       <c r="B53" s="22"/>
       <c r="C53" s="258" t="s">
@@ -21526,7 +21860,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:16" ht="17" outlineLevel="1" thickBot="1">
+    <row r="54" spans="1:16" ht="18" outlineLevel="1" thickBot="1">
       <c r="A54" s="8"/>
       <c r="B54" s="22"/>
       <c r="C54" s="258" t="s">
@@ -21558,7 +21892,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:16" ht="17" outlineLevel="1" thickBot="1">
+    <row r="55" spans="1:16" ht="18" outlineLevel="1" thickBot="1">
       <c r="A55" s="8"/>
       <c r="B55" s="22"/>
       <c r="C55" s="258" t="s">
@@ -21590,7 +21924,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:16" ht="17" outlineLevel="1" thickBot="1">
+    <row r="56" spans="1:16" ht="18" outlineLevel="1" thickBot="1">
       <c r="A56" s="8"/>
       <c r="B56" s="22"/>
       <c r="C56" s="258" t="s">
@@ -21660,7 +21994,7 @@
       <c r="O58" s="207"/>
       <c r="P58" s="208"/>
     </row>
-    <row r="59" spans="1:16" ht="17" outlineLevel="1" thickBot="1">
+    <row r="59" spans="1:16" ht="18" outlineLevel="1" thickBot="1">
       <c r="A59" s="8"/>
       <c r="B59" s="22"/>
       <c r="C59" s="258" t="s">
@@ -21692,7 +22026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:16" ht="17" outlineLevel="1" thickBot="1">
+    <row r="60" spans="1:16" ht="18" outlineLevel="1" thickBot="1">
       <c r="A60" s="8"/>
       <c r="B60" s="22"/>
       <c r="C60" s="258" t="s">
@@ -21724,7 +22058,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:16" ht="17" outlineLevel="1" thickBot="1">
+    <row r="61" spans="1:16" ht="18" outlineLevel="1" thickBot="1">
       <c r="A61" s="8"/>
       <c r="B61" s="22"/>
       <c r="C61" s="258" t="s">
@@ -21887,7 +22221,7 @@
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
             <control shapeId="11265" r:id="rId3" name="import_data">
-              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="[2]!import_data_button">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="[3]!import_data_button">
                 <anchor moveWithCells="1" sizeWithCells="1">
                   <from>
                     <xdr:col>8</xdr:col>
@@ -21905,12 +22239,11 @@
               </controlPr>
             </control>
           </mc:Choice>
-          <mc:Fallback/>
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
             <control shapeId="11266" r:id="rId4" name="export_data">
-              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="[2]!export_data_button">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="[3]!export_data_button">
                 <anchor moveWithCells="1" sizeWithCells="1">
                   <from>
                     <xdr:col>8</xdr:col>
@@ -21928,12 +22261,11 @@
               </controlPr>
             </control>
           </mc:Choice>
-          <mc:Fallback/>
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
             <control shapeId="11272" r:id="rId5" name="select_dashboard">
-              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="[2]!select_dashboard_values">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="[3]!select_dashboard_values">
                 <anchor moveWithCells="1" sizeWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
@@ -21951,11 +22283,9 @@
               </controlPr>
             </control>
           </mc:Choice>
-          <mc:Fallback/>
         </mc:AlternateContent>
       </controls>
     </mc:Choice>
-    <mc:Fallback/>
   </mc:AlternateContent>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -21966,8 +22296,8 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet8" enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <sheetPr codeName="Sheet8">
     <tabColor theme="6" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="B2:BO101"/>
@@ -21979,12 +22309,12 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="10.625" style="1"/>
-    <col min="2" max="2" width="50.875" style="1" customWidth="1"/>
-    <col min="3" max="67" width="13.625" style="1" customWidth="1"/>
-    <col min="68" max="16384" width="10.625" style="1"/>
+    <col min="1" max="1" width="10.6640625" style="1"/>
+    <col min="2" max="2" width="50.83203125" style="1" customWidth="1"/>
+    <col min="3" max="67" width="13.6640625" style="1" customWidth="1"/>
+    <col min="68" max="16384" width="10.6640625" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:67" ht="21">
@@ -22000,7 +22330,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="5" spans="2:67" ht="32">
+    <row r="5" spans="2:67" ht="34">
       <c r="B5" s="125" t="s">
         <v>256</v>
       </c>
@@ -28799,24 +29129,24 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet9" enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <sheetPr codeName="Sheet9">
     <tabColor theme="6" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="B1:M18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="10.625" style="1"/>
-    <col min="2" max="2" width="21.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="41.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="41.125" style="1" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="52.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="19" width="14.125" style="1" customWidth="1"/>
-    <col min="20" max="21" width="20.875" style="1" customWidth="1"/>
-    <col min="22" max="16384" width="10.625" style="1"/>
+    <col min="1" max="1" width="10.6640625" style="1"/>
+    <col min="2" max="2" width="21.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="41.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.1640625" style="1" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="52.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="19" width="14.1640625" style="1" customWidth="1"/>
+    <col min="20" max="21" width="20.83203125" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="10.6640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:13">
@@ -28849,11 +29179,11 @@
       <c r="M4" s="8"/>
     </row>
     <row r="5" spans="2:13" ht="60" customHeight="1">
-      <c r="B5" s="356" t="s">
+      <c r="B5" s="358" t="s">
         <v>300</v>
       </c>
-      <c r="C5" s="357"/>
-      <c r="D5" s="357"/>
+      <c r="C5" s="359"/>
+      <c r="D5" s="359"/>
       <c r="E5" s="272"/>
       <c r="F5" s="45"/>
       <c r="G5" s="45"/>
@@ -28902,7 +29232,7 @@
       </c>
       <c r="G9" s="23"/>
     </row>
-    <row r="10" spans="2:13">
+    <row r="10" spans="2:13" ht="17">
       <c r="B10" s="91" t="s">
         <v>280</v>
       </c>

--- a/analyses/4b_chemical_industry_analysis.xlsx
+++ b/analyses/4b_chemical_industry_analysis.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10913"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10711"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michieldenhaan/Projects/etdataset/analyses/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marliekeverweij/Projects/etdataset/analyses/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E52C627D-1F64-C94F-ABC6-EBA75DC4163B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19E5F357-DE7C-1847-A1F0-AC73A50329BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="27820" windowHeight="17540" tabRatio="835" firstSheet="31" activeTab="36" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25040" windowHeight="28340" tabRatio="835" firstSheet="7" activeTab="29" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover Sheet" sheetId="34" r:id="rId1"/>
@@ -42,18 +42,20 @@
     <sheet name="csv_chemical_gas_non_e_ps" sheetId="106" r:id="rId27"/>
     <sheet name="csv_chemical_crude_oil_non_e_ps" sheetId="107" r:id="rId28"/>
     <sheet name="csv_chemical_wood_non_e_ps" sheetId="108" r:id="rId29"/>
-    <sheet name="csv_refinery_transformation_eff" sheetId="110" r:id="rId30"/>
-    <sheet name="csv_steam_methane_reformer_eff" sheetId="114" r:id="rId31"/>
-    <sheet name="csv_fert_electricity_ps" sheetId="116" r:id="rId32"/>
-    <sheet name="csv_mol_fert_comb_pot_ps" sheetId="117" r:id="rId33"/>
-    <sheet name="csv_mol_fert_comb_curr_ps" sheetId="119" r:id="rId34"/>
-    <sheet name="csv_mol_fert_proc_pot_ps" sheetId="118" r:id="rId35"/>
-    <sheet name="csv_mol_fert_proc_curr_ps" sheetId="120" r:id="rId36"/>
-    <sheet name="csv_fertilizer_ccus_demand" sheetId="121" r:id="rId37"/>
+    <sheet name="csv_chemical_hydrogen_non_e_ps" sheetId="122" r:id="rId30"/>
+    <sheet name="csv_refinery_transformation_eff" sheetId="110" r:id="rId31"/>
+    <sheet name="csv_steam_methane_reformer_eff" sheetId="114" r:id="rId32"/>
+    <sheet name="csv_fert_electricity_ps" sheetId="116" r:id="rId33"/>
+    <sheet name="csv_mol_fert_comb_pot_ps" sheetId="117" r:id="rId34"/>
+    <sheet name="csv_mol_fert_comb_curr_ps" sheetId="119" r:id="rId35"/>
+    <sheet name="csv_mol_fert_proc_pot_ps" sheetId="118" r:id="rId36"/>
+    <sheet name="csv_mol_fert_proc_curr_ps" sheetId="120" r:id="rId37"/>
+    <sheet name="csv_fertilizer_ccus_demand" sheetId="121" r:id="rId38"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId38"/>
     <externalReference r:id="rId39"/>
+    <externalReference r:id="rId40"/>
+    <externalReference r:id="rId41"/>
   </externalReferences>
   <definedNames>
     <definedName name="aluminium_production" localSheetId="18">Dashboard!#REF!</definedName>
@@ -66,8 +68,8 @@
     <definedName name="aluminium_production" localSheetId="22">Dashboard!#REF!</definedName>
     <definedName name="aluminium_production" localSheetId="28">Dashboard!#REF!</definedName>
     <definedName name="aluminium_production" localSheetId="21">Dashboard!#REF!</definedName>
-    <definedName name="aluminium_production" localSheetId="29">Dashboard!#REF!</definedName>
     <definedName name="aluminium_production" localSheetId="30">Dashboard!#REF!</definedName>
+    <definedName name="aluminium_production" localSheetId="31">Dashboard!#REF!</definedName>
     <definedName name="aluminium_production" localSheetId="15">Dashboard!#REF!</definedName>
     <definedName name="aluminium_production" localSheetId="14">Dashboard!#REF!</definedName>
     <definedName name="aluminium_production" localSheetId="13">Dashboard!#REF!</definedName>
@@ -381,8 +383,8 @@
     <definedName name="share_aluminium_carbothermal_reduction" localSheetId="22">Dashboard!#REF!</definedName>
     <definedName name="share_aluminium_carbothermal_reduction" localSheetId="28">Dashboard!#REF!</definedName>
     <definedName name="share_aluminium_carbothermal_reduction" localSheetId="21">Dashboard!#REF!</definedName>
-    <definedName name="share_aluminium_carbothermal_reduction" localSheetId="29">Dashboard!#REF!</definedName>
     <definedName name="share_aluminium_carbothermal_reduction" localSheetId="30">Dashboard!#REF!</definedName>
+    <definedName name="share_aluminium_carbothermal_reduction" localSheetId="31">Dashboard!#REF!</definedName>
     <definedName name="share_aluminium_carbothermal_reduction" localSheetId="15">Dashboard!#REF!</definedName>
     <definedName name="share_aluminium_carbothermal_reduction" localSheetId="14">Dashboard!#REF!</definedName>
     <definedName name="share_aluminium_carbothermal_reduction" localSheetId="13">Dashboard!#REF!</definedName>
@@ -400,8 +402,8 @@
     <definedName name="share_aluminium_electrolysis_bat" localSheetId="22">Dashboard!#REF!</definedName>
     <definedName name="share_aluminium_electrolysis_bat" localSheetId="28">Dashboard!#REF!</definedName>
     <definedName name="share_aluminium_electrolysis_bat" localSheetId="21">Dashboard!#REF!</definedName>
-    <definedName name="share_aluminium_electrolysis_bat" localSheetId="29">Dashboard!#REF!</definedName>
     <definedName name="share_aluminium_electrolysis_bat" localSheetId="30">Dashboard!#REF!</definedName>
+    <definedName name="share_aluminium_electrolysis_bat" localSheetId="31">Dashboard!#REF!</definedName>
     <definedName name="share_aluminium_electrolysis_bat" localSheetId="15">Dashboard!#REF!</definedName>
     <definedName name="share_aluminium_electrolysis_bat" localSheetId="14">Dashboard!#REF!</definedName>
     <definedName name="share_aluminium_electrolysis_bat" localSheetId="13">Dashboard!#REF!</definedName>
@@ -419,8 +421,8 @@
     <definedName name="share_aluminium_electrolysis_current" localSheetId="22">Dashboard!#REF!</definedName>
     <definedName name="share_aluminium_electrolysis_current" localSheetId="28">Dashboard!#REF!</definedName>
     <definedName name="share_aluminium_electrolysis_current" localSheetId="21">Dashboard!#REF!</definedName>
-    <definedName name="share_aluminium_electrolysis_current" localSheetId="29">Dashboard!#REF!</definedName>
     <definedName name="share_aluminium_electrolysis_current" localSheetId="30">Dashboard!#REF!</definedName>
+    <definedName name="share_aluminium_electrolysis_current" localSheetId="31">Dashboard!#REF!</definedName>
     <definedName name="share_aluminium_electrolysis_current" localSheetId="15">Dashboard!#REF!</definedName>
     <definedName name="share_aluminium_electrolysis_current" localSheetId="14">Dashboard!#REF!</definedName>
     <definedName name="share_aluminium_electrolysis_current" localSheetId="13">Dashboard!#REF!</definedName>
@@ -438,8 +440,8 @@
     <definedName name="share_aluminium_melting_oven" localSheetId="22">Dashboard!#REF!</definedName>
     <definedName name="share_aluminium_melting_oven" localSheetId="28">Dashboard!#REF!</definedName>
     <definedName name="share_aluminium_melting_oven" localSheetId="21">Dashboard!#REF!</definedName>
-    <definedName name="share_aluminium_melting_oven" localSheetId="29">Dashboard!#REF!</definedName>
     <definedName name="share_aluminium_melting_oven" localSheetId="30">Dashboard!#REF!</definedName>
+    <definedName name="share_aluminium_melting_oven" localSheetId="31">Dashboard!#REF!</definedName>
     <definedName name="share_aluminium_melting_oven" localSheetId="15">Dashboard!#REF!</definedName>
     <definedName name="share_aluminium_melting_oven" localSheetId="14">Dashboard!#REF!</definedName>
     <definedName name="share_aluminium_melting_oven" localSheetId="13">Dashboard!#REF!</definedName>
@@ -457,8 +459,8 @@
     <definedName name="share_blast_furnace_burner_coal_gas" localSheetId="22">Dashboard!#REF!</definedName>
     <definedName name="share_blast_furnace_burner_coal_gas" localSheetId="28">Dashboard!#REF!</definedName>
     <definedName name="share_blast_furnace_burner_coal_gas" localSheetId="21">Dashboard!#REF!</definedName>
-    <definedName name="share_blast_furnace_burner_coal_gas" localSheetId="29">Dashboard!#REF!</definedName>
     <definedName name="share_blast_furnace_burner_coal_gas" localSheetId="30">Dashboard!#REF!</definedName>
+    <definedName name="share_blast_furnace_burner_coal_gas" localSheetId="31">Dashboard!#REF!</definedName>
     <definedName name="share_blast_furnace_burner_coal_gas" localSheetId="15">Dashboard!#REF!</definedName>
     <definedName name="share_blast_furnace_burner_coal_gas" localSheetId="14">Dashboard!#REF!</definedName>
     <definedName name="share_blast_furnace_burner_coal_gas" localSheetId="13">Dashboard!#REF!</definedName>
@@ -476,8 +478,8 @@
     <definedName name="share_blast_furnace_burner_network_gas" localSheetId="22">Dashboard!#REF!</definedName>
     <definedName name="share_blast_furnace_burner_network_gas" localSheetId="28">Dashboard!#REF!</definedName>
     <definedName name="share_blast_furnace_burner_network_gas" localSheetId="21">Dashboard!#REF!</definedName>
-    <definedName name="share_blast_furnace_burner_network_gas" localSheetId="29">Dashboard!#REF!</definedName>
     <definedName name="share_blast_furnace_burner_network_gas" localSheetId="30">Dashboard!#REF!</definedName>
+    <definedName name="share_blast_furnace_burner_network_gas" localSheetId="31">Dashboard!#REF!</definedName>
     <definedName name="share_blast_furnace_burner_network_gas" localSheetId="15">Dashboard!#REF!</definedName>
     <definedName name="share_blast_furnace_burner_network_gas" localSheetId="14">Dashboard!#REF!</definedName>
     <definedName name="share_blast_furnace_burner_network_gas" localSheetId="13">Dashboard!#REF!</definedName>
@@ -545,8 +547,8 @@
     <definedName name="share_steel_blast_furnace_bat" localSheetId="22">Dashboard!#REF!</definedName>
     <definedName name="share_steel_blast_furnace_bat" localSheetId="28">Dashboard!#REF!</definedName>
     <definedName name="share_steel_blast_furnace_bat" localSheetId="21">Dashboard!#REF!</definedName>
-    <definedName name="share_steel_blast_furnace_bat" localSheetId="29">Dashboard!#REF!</definedName>
     <definedName name="share_steel_blast_furnace_bat" localSheetId="30">Dashboard!#REF!</definedName>
+    <definedName name="share_steel_blast_furnace_bat" localSheetId="31">Dashboard!#REF!</definedName>
     <definedName name="share_steel_blast_furnace_bat" localSheetId="15">Dashboard!#REF!</definedName>
     <definedName name="share_steel_blast_furnace_bat" localSheetId="14">Dashboard!#REF!</definedName>
     <definedName name="share_steel_blast_furnace_bat" localSheetId="13">Dashboard!#REF!</definedName>
@@ -564,8 +566,8 @@
     <definedName name="share_steel_blast_furnace_current" localSheetId="22">Dashboard!#REF!</definedName>
     <definedName name="share_steel_blast_furnace_current" localSheetId="28">Dashboard!#REF!</definedName>
     <definedName name="share_steel_blast_furnace_current" localSheetId="21">Dashboard!#REF!</definedName>
-    <definedName name="share_steel_blast_furnace_current" localSheetId="29">Dashboard!#REF!</definedName>
     <definedName name="share_steel_blast_furnace_current" localSheetId="30">Dashboard!#REF!</definedName>
+    <definedName name="share_steel_blast_furnace_current" localSheetId="31">Dashboard!#REF!</definedName>
     <definedName name="share_steel_blast_furnace_current" localSheetId="15">Dashboard!#REF!</definedName>
     <definedName name="share_steel_blast_furnace_current" localSheetId="14">Dashboard!#REF!</definedName>
     <definedName name="share_steel_blast_furnace_current" localSheetId="13">Dashboard!#REF!</definedName>
@@ -583,8 +585,8 @@
     <definedName name="share_steel_cyclone" localSheetId="22">Dashboard!#REF!</definedName>
     <definedName name="share_steel_cyclone" localSheetId="28">Dashboard!#REF!</definedName>
     <definedName name="share_steel_cyclone" localSheetId="21">Dashboard!#REF!</definedName>
-    <definedName name="share_steel_cyclone" localSheetId="29">Dashboard!#REF!</definedName>
     <definedName name="share_steel_cyclone" localSheetId="30">Dashboard!#REF!</definedName>
+    <definedName name="share_steel_cyclone" localSheetId="31">Dashboard!#REF!</definedName>
     <definedName name="share_steel_cyclone" localSheetId="15">Dashboard!#REF!</definedName>
     <definedName name="share_steel_cyclone" localSheetId="14">Dashboard!#REF!</definedName>
     <definedName name="share_steel_cyclone" localSheetId="13">Dashboard!#REF!</definedName>
@@ -602,8 +604,8 @@
     <definedName name="share_steel_electric" localSheetId="22">Dashboard!#REF!</definedName>
     <definedName name="share_steel_electric" localSheetId="28">Dashboard!#REF!</definedName>
     <definedName name="share_steel_electric" localSheetId="21">Dashboard!#REF!</definedName>
-    <definedName name="share_steel_electric" localSheetId="29">Dashboard!#REF!</definedName>
     <definedName name="share_steel_electric" localSheetId="30">Dashboard!#REF!</definedName>
+    <definedName name="share_steel_electric" localSheetId="31">Dashboard!#REF!</definedName>
     <definedName name="share_steel_electric" localSheetId="15">Dashboard!#REF!</definedName>
     <definedName name="share_steel_electric" localSheetId="14">Dashboard!#REF!</definedName>
     <definedName name="share_steel_electric" localSheetId="13">Dashboard!#REF!</definedName>
@@ -665,8 +667,8 @@
     <definedName name="steel_production" localSheetId="22">Dashboard!#REF!</definedName>
     <definedName name="steel_production" localSheetId="28">Dashboard!#REF!</definedName>
     <definedName name="steel_production" localSheetId="21">Dashboard!#REF!</definedName>
-    <definedName name="steel_production" localSheetId="29">Dashboard!#REF!</definedName>
     <definedName name="steel_production" localSheetId="30">Dashboard!#REF!</definedName>
+    <definedName name="steel_production" localSheetId="31">Dashboard!#REF!</definedName>
     <definedName name="steel_production" localSheetId="15">Dashboard!#REF!</definedName>
     <definedName name="steel_production" localSheetId="14">Dashboard!#REF!</definedName>
     <definedName name="steel_production" localSheetId="13">Dashboard!#REF!</definedName>
@@ -720,7 +722,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="874" uniqueCount="534">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="881" uniqueCount="538">
   <si>
     <t>Changelog</t>
   </si>
@@ -2321,7 +2323,19 @@
     <t xml:space="preserve">Added CCUS </t>
   </si>
   <si>
-    <t>de</t>
+    <t>Non-negative value</t>
+  </si>
+  <si>
+    <t>nl</t>
+  </si>
+  <si>
+    <t>industry_final_demand_for_chemical_fertilizers_hydrogen_non_energetic</t>
+  </si>
+  <si>
+    <t>industry_final_demand_for_chemical_other_hydrogen_non_energetic</t>
+  </si>
+  <si>
+    <t>industry_final_demand_for_chemical_hydrogen_non_energetic_parent_share</t>
   </si>
 </sst>
 </file>
@@ -5319,7 +5333,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="404">
+  <cellXfs count="401">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -6035,12 +6049,6 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
@@ -6048,9 +6056,6 @@
     <xf numFmtId="10" fontId="9" fillId="2" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -12097,6 +12102,28 @@
     <sheetNames>
       <sheetName val="Cover sheet"/>
       <sheetName val="Dashboard"/>
+      <sheetName val="analysis_manager"/>
+    </sheetNames>
+    <definedNames>
+      <definedName name="export_data_button"/>
+      <definedName name="import_data_button"/>
+      <definedName name="select_dashboard_values"/>
+    </definedNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Cover sheet"/>
+      <sheetName val="Dashboard"/>
     </sheetNames>
     <definedNames>
       <definedName name="export_data_button"/>
@@ -12481,7 +12508,7 @@
       </c>
       <c r="C6" s="93" t="str">
         <f>country</f>
-        <v>de</v>
+        <v>nl</v>
       </c>
       <c r="D6" s="7"/>
     </row>
@@ -12491,7 +12518,7 @@
       </c>
       <c r="C7" s="93">
         <f>base_year</f>
-        <v>2015</v>
+        <v>2019</v>
       </c>
       <c r="D7" s="7"/>
     </row>
@@ -12787,12 +12814,12 @@
     </row>
     <row r="5" spans="1:17" ht="113" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="82"/>
-      <c r="B5" s="398" t="s">
+      <c r="B5" s="395" t="s">
         <v>450</v>
       </c>
-      <c r="C5" s="399"/>
-      <c r="D5" s="399"/>
-      <c r="E5" s="400"/>
+      <c r="C5" s="396"/>
+      <c r="D5" s="396"/>
+      <c r="E5" s="397"/>
       <c r="F5" s="82"/>
       <c r="G5" s="82"/>
       <c r="H5" s="82"/>
@@ -13691,13 +13718,13 @@
     </row>
     <row r="5" spans="1:14" ht="41" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="82"/>
-      <c r="B5" s="398" t="s">
+      <c r="B5" s="395" t="s">
         <v>335</v>
       </c>
-      <c r="C5" s="399"/>
-      <c r="D5" s="399"/>
-      <c r="E5" s="399"/>
-      <c r="F5" s="400"/>
+      <c r="C5" s="396"/>
+      <c r="D5" s="396"/>
+      <c r="E5" s="396"/>
+      <c r="F5" s="397"/>
       <c r="G5" s="82"/>
       <c r="H5" s="82"/>
       <c r="I5" s="82"/>
@@ -14802,13 +14829,13 @@
     </row>
     <row r="5" spans="1:14" ht="41" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="82"/>
-      <c r="B5" s="398" t="s">
+      <c r="B5" s="395" t="s">
         <v>339</v>
       </c>
-      <c r="C5" s="399"/>
-      <c r="D5" s="399"/>
-      <c r="E5" s="399"/>
-      <c r="F5" s="400"/>
+      <c r="C5" s="396"/>
+      <c r="D5" s="396"/>
+      <c r="E5" s="396"/>
+      <c r="F5" s="397"/>
       <c r="G5" s="82"/>
       <c r="H5" s="82"/>
       <c r="I5" s="82"/>
@@ -15740,14 +15767,14 @@
       <c r="H4" s="8"/>
     </row>
     <row r="5" spans="2:13" ht="107" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="401" t="s">
+      <c r="B5" s="398" t="s">
         <v>405</v>
       </c>
-      <c r="C5" s="402"/>
-      <c r="D5" s="402"/>
-      <c r="E5" s="402"/>
-      <c r="F5" s="402"/>
-      <c r="G5" s="403"/>
+      <c r="C5" s="399"/>
+      <c r="D5" s="399"/>
+      <c r="E5" s="399"/>
+      <c r="F5" s="399"/>
+      <c r="G5" s="400"/>
       <c r="H5" s="8"/>
     </row>
     <row r="6" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
@@ -16427,15 +16454,15 @@
       <c r="I4" s="8"/>
     </row>
     <row r="5" spans="2:12" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="401" t="s">
+      <c r="B5" s="398" t="s">
         <v>449</v>
       </c>
-      <c r="C5" s="402"/>
-      <c r="D5" s="402"/>
-      <c r="E5" s="402"/>
-      <c r="F5" s="402"/>
-      <c r="G5" s="402"/>
-      <c r="H5" s="403"/>
+      <c r="C5" s="399"/>
+      <c r="D5" s="399"/>
+      <c r="E5" s="399"/>
+      <c r="F5" s="399"/>
+      <c r="G5" s="399"/>
+      <c r="H5" s="400"/>
       <c r="I5" s="8"/>
     </row>
     <row r="6" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
@@ -16638,13 +16665,13 @@
       <c r="G4" s="8"/>
     </row>
     <row r="5" spans="2:9" ht="37" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="401" t="s">
+      <c r="B5" s="398" t="s">
         <v>447</v>
       </c>
-      <c r="C5" s="402"/>
-      <c r="D5" s="402"/>
-      <c r="E5" s="402"/>
-      <c r="F5" s="403"/>
+      <c r="C5" s="399"/>
+      <c r="D5" s="399"/>
+      <c r="E5" s="399"/>
+      <c r="F5" s="400"/>
       <c r="G5" s="8"/>
     </row>
     <row r="6" spans="2:9" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
@@ -16870,14 +16897,14 @@
       <c r="H4" s="8"/>
     </row>
     <row r="5" spans="2:8" ht="84" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="401" t="s">
+      <c r="B5" s="398" t="s">
         <v>451</v>
       </c>
-      <c r="C5" s="402"/>
-      <c r="D5" s="402"/>
-      <c r="E5" s="402"/>
-      <c r="F5" s="402"/>
-      <c r="G5" s="403"/>
+      <c r="C5" s="399"/>
+      <c r="D5" s="399"/>
+      <c r="E5" s="399"/>
+      <c r="F5" s="399"/>
+      <c r="G5" s="400"/>
       <c r="H5" s="8"/>
     </row>
     <row r="6" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
@@ -17160,14 +17187,14 @@
       <c r="H4" s="8"/>
     </row>
     <row r="5" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="401" t="s">
+      <c r="B5" s="398" t="s">
         <v>454</v>
       </c>
-      <c r="C5" s="402"/>
-      <c r="D5" s="402"/>
-      <c r="E5" s="402"/>
-      <c r="F5" s="402"/>
-      <c r="G5" s="403"/>
+      <c r="C5" s="399"/>
+      <c r="D5" s="399"/>
+      <c r="E5" s="399"/>
+      <c r="F5" s="399"/>
+      <c r="G5" s="400"/>
       <c r="H5" s="8"/>
     </row>
     <row r="6" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
@@ -19052,12 +19079,13 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="A1:B5"/>
+      <selection sqref="A1:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="10" width="11.6640625" style="274" customWidth="1"/>
+    <col min="1" max="1" width="29.83203125" style="274" customWidth="1"/>
+    <col min="2" max="10" width="11.6640625" style="274" customWidth="1"/>
     <col min="11" max="11" width="11.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -19472,6 +19500,55 @@
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60AF7052-D911-C247-BCF2-B4AAE713C5E5}">
+  <sheetPr>
+    <tabColor theme="7" tint="0.39997558519241921"/>
+  </sheetPr>
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="69.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>327</v>
+      </c>
+      <c r="B2" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>535</v>
+      </c>
+      <c r="B3" s="378">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>536</v>
+      </c>
+      <c r="B4" s="378">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1D00-000000000000}">
   <sheetPr codeName="Sheet26">
     <tabColor theme="7" tint="0.39997558519241921"/>
@@ -19633,7 +19710,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1E00-000000000000}">
   <sheetPr codeName="Sheet31">
     <tabColor theme="7" tint="0.39997558519241921"/>
@@ -19768,7 +19845,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4848E78A-D84F-264F-9F53-614373E5DDF1}">
   <sheetPr>
     <tabColor theme="7" tint="0.39997558519241921"/>
@@ -19785,33 +19862,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="379" t="s">
+      <c r="A1" s="376" t="s">
         <v>513</v>
       </c>
-      <c r="B1" s="379"/>
+      <c r="B1" s="376"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="379" t="s">
+      <c r="A2" s="376" t="s">
         <v>327</v>
       </c>
-      <c r="B2" s="379" t="s">
+      <c r="B2" s="376" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="379" t="s">
+      <c r="A3" s="376" t="s">
         <v>515</v>
       </c>
-      <c r="B3" s="380" t="e">
+      <c r="B3" s="377" t="e">
         <f>Dashboard!E87</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="379" t="s">
+      <c r="A4" s="376" t="s">
         <v>516</v>
       </c>
-      <c r="B4" s="380" t="e">
+      <c r="B4" s="377" t="e">
         <f>Dashboard!E88</f>
         <v>#DIV/0!</v>
       </c>
@@ -19820,7 +19897,7 @@
       <c r="A5" t="s">
         <v>514</v>
       </c>
-      <c r="B5" s="380" t="e">
+      <c r="B5" s="377" t="e">
         <f>Dashboard!E89</f>
         <v>#DIV/0!</v>
       </c>
@@ -19830,7 +19907,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80792602-1C6D-8048-8CEB-EEC3DCFF67FA}">
   <sheetPr>
     <tabColor theme="7" tint="0.39997558519241921"/>
@@ -19864,7 +19941,7 @@
       <c r="A3" t="s">
         <v>483</v>
       </c>
-      <c r="B3" s="381">
+      <c r="B3" s="378">
         <f>Dashboard!E66</f>
         <v>0</v>
       </c>
@@ -19873,7 +19950,7 @@
       <c r="A4" t="s">
         <v>518</v>
       </c>
-      <c r="B4" s="381">
+      <c r="B4" s="378">
         <f>Dashboard!E67</f>
         <v>1</v>
       </c>
@@ -19883,7 +19960,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{412723B6-937A-BA4F-91EC-46D69C8C5319}">
   <sheetPr>
     <tabColor theme="7" tint="0.39997558519241921"/>
@@ -19917,7 +19994,7 @@
       <c r="A3" t="s">
         <v>500</v>
       </c>
-      <c r="B3" s="381">
+      <c r="B3" s="378">
         <f>Dashboard!E69</f>
         <v>0</v>
       </c>
@@ -19926,7 +20003,7 @@
       <c r="A4" t="s">
         <v>518</v>
       </c>
-      <c r="B4" s="381">
+      <c r="B4" s="378">
         <f>Dashboard!E70</f>
         <v>1</v>
       </c>
@@ -19936,7 +20013,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3325E628-00C9-C84C-A1CA-2304B04ED931}">
   <sheetPr>
     <tabColor theme="7" tint="0.39997558519241921"/>
@@ -19970,7 +20047,7 @@
       <c r="A3" t="s">
         <v>487</v>
       </c>
-      <c r="B3" s="381">
+      <c r="B3" s="378">
         <f>Dashboard!E73</f>
         <v>0</v>
       </c>
@@ -19979,7 +20056,7 @@
       <c r="A4" t="s">
         <v>518</v>
       </c>
-      <c r="B4" s="381">
+      <c r="B4" s="378">
         <f>Dashboard!E74</f>
         <v>1</v>
       </c>
@@ -19989,7 +20066,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C6E7E75-25CC-9A46-8130-F740CCAF6DE8}">
   <sheetPr>
     <tabColor theme="7" tint="0.39997558519241921"/>
@@ -20023,7 +20100,7 @@
       <c r="A3" t="s">
         <v>498</v>
       </c>
-      <c r="B3" s="381">
+      <c r="B3" s="378">
         <f>Dashboard!E76</f>
         <v>0</v>
       </c>
@@ -20032,7 +20109,7 @@
       <c r="A4" t="s">
         <v>518</v>
       </c>
-      <c r="B4" s="381">
+      <c r="B4" s="378">
         <f>Dashboard!E77</f>
         <v>1</v>
       </c>
@@ -20042,14 +20119,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A206C509-DDAC-5A4D-BA33-9FF1E2A796B3}">
   <sheetPr>
     <tabColor theme="7" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -20059,49 +20136,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="379" t="s">
+      <c r="A1" s="376" t="s">
         <v>527</v>
       </c>
-      <c r="B1" s="379"/>
+      <c r="B1" s="376"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="379" t="s">
+      <c r="A2" s="376" t="s">
         <v>327</v>
       </c>
-      <c r="B2" s="379" t="s">
+      <c r="B2" s="376" t="s">
         <v>526</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="379" t="s">
+      <c r="A3" s="376" t="s">
         <v>528</v>
       </c>
-      <c r="B3" s="387">
+      <c r="B3" s="384">
         <f>Dashboard!E60*Dashboard!E79</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="379" t="s">
+      <c r="A4" s="376" t="s">
         <v>518</v>
       </c>
-      <c r="B4" s="387">
+      <c r="B4" s="384">
         <f>B3*Dashboard!E77</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="379" t="s">
+      <c r="A5" s="376" t="s">
         <v>529</v>
       </c>
-      <c r="B5" s="387">
+      <c r="B5" s="384">
         <f>Dashboard!E92</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="379"/>
-      <c r="B6" s="387"/>
+      <c r="A6" s="376"/>
+      <c r="B6" s="384"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -20715,10 +20792,10 @@
       <c r="C4" s="5"/>
     </row>
     <row r="5" spans="2:3" ht="75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="390" t="s">
+      <c r="B5" s="387" t="s">
         <v>248</v>
       </c>
-      <c r="C5" s="391"/>
+      <c r="C5" s="388"/>
     </row>
     <row r="6" spans="2:3" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="2:3" x14ac:dyDescent="0.2">
@@ -21323,9 +21400,7 @@
   </sheetPr>
   <dimension ref="A2:P94"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" zoomScale="106" workbookViewId="0">
-      <selection activeCell="E80" sqref="E80"/>
-    </sheetView>
+    <sheetView zoomScale="106" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -21376,32 +21451,32 @@
       <c r="K4" s="7"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B5" s="392" t="s">
+      <c r="B5" s="389" t="s">
         <v>307</v>
       </c>
-      <c r="C5" s="393"/>
-      <c r="D5" s="393"/>
-      <c r="E5" s="394"/>
+      <c r="C5" s="390"/>
+      <c r="D5" s="390"/>
+      <c r="E5" s="391"/>
       <c r="F5" s="8"/>
       <c r="I5" s="227"/>
       <c r="J5" s="8"/>
       <c r="K5" s="7"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B6" s="392"/>
-      <c r="C6" s="393"/>
-      <c r="D6" s="393"/>
-      <c r="E6" s="394"/>
+      <c r="B6" s="389"/>
+      <c r="C6" s="390"/>
+      <c r="D6" s="390"/>
+      <c r="E6" s="391"/>
       <c r="F6" s="8"/>
       <c r="I6" s="205"/>
       <c r="J6" s="8"/>
       <c r="K6" s="7"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B7" s="390"/>
-      <c r="C7" s="395"/>
-      <c r="D7" s="395"/>
-      <c r="E7" s="391"/>
+      <c r="B7" s="387"/>
+      <c r="C7" s="392"/>
+      <c r="D7" s="392"/>
+      <c r="E7" s="388"/>
       <c r="F7" s="150"/>
       <c r="I7" s="226"/>
       <c r="J7" s="9"/>
@@ -21509,7 +21584,7 @@
       </c>
       <c r="D13" s="156"/>
       <c r="E13" s="160" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="F13" s="160"/>
       <c r="G13" s="15" t="s">
@@ -21542,7 +21617,7 @@
       </c>
       <c r="D14" s="156"/>
       <c r="E14" s="160">
-        <v>2015</v>
+        <v>2019</v>
       </c>
       <c r="F14" s="160"/>
       <c r="G14" s="15" t="s">
@@ -21555,7 +21630,7 @@
         <v>195</v>
       </c>
       <c r="L14" s="276" t="b">
-        <f>IF(OR(AND(E47="no",COUNTBLANK(C13:C14)-COUNTBLANK(E13:E14)=0),(AND(E47="yes",COUNTBLANK(C:C)-COUNTBLANK(E:E)=0))),TRUE,FALSE)</f>
+        <f>IF(AND(E47="no",COUNTBLANK(E39:E41)=1),TRUE,IF(AND(E47="yes",COUNTBLANK(E39:E92)=22),TRUE,FALSE))</f>
         <v>0</v>
       </c>
       <c r="M14" s="236" t="str">
@@ -22751,19 +22826,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:16" ht="17" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A62" s="8"/>
       <c r="B62" s="22"/>
       <c r="C62" s="255"/>
       <c r="D62" s="157"/>
-      <c r="E62" s="349"/>
-      <c r="F62" s="125"/>
-      <c r="G62" s="200"/>
-      <c r="H62" s="8"/>
-      <c r="I62" s="349"/>
+      <c r="E62" s="48"/>
+      <c r="F62" s="48"/>
+      <c r="G62" s="48"/>
+      <c r="H62" s="48"/>
+      <c r="I62" s="48"/>
       <c r="J62" s="8"/>
       <c r="K62" s="286"/>
-      <c r="L62" s="240"/>
+      <c r="L62" s="353"/>
       <c r="M62" s="277"/>
       <c r="N62" s="8"/>
       <c r="O62" s="205"/>
@@ -22775,8 +22850,8 @@
       </c>
       <c r="C63" s="48"/>
       <c r="D63" s="350"/>
-      <c r="E63" s="351"/>
-      <c r="F63" s="351"/>
+      <c r="E63" s="48"/>
+      <c r="F63" s="48"/>
       <c r="G63" s="48"/>
       <c r="H63" s="48"/>
       <c r="I63" s="48"/>
@@ -22838,14 +22913,14 @@
       <c r="D66" s="362" t="s">
         <v>482</v>
       </c>
-      <c r="E66" s="382"/>
-      <c r="F66" s="293"/>
-      <c r="G66" s="363"/>
-      <c r="H66" s="364"/>
-      <c r="I66" s="365"/>
+      <c r="E66" s="379"/>
+      <c r="F66" s="48"/>
+      <c r="G66" s="48"/>
+      <c r="H66" s="48"/>
+      <c r="I66" s="363"/>
       <c r="J66" s="7"/>
-      <c r="K66" s="366"/>
-      <c r="L66" s="367"/>
+      <c r="K66" s="364"/>
+      <c r="L66" s="365"/>
       <c r="M66" s="236" t="str">
         <f>IF(ABS(L66)&lt;0.03," ","Consider adjusting your inputs that influence the demand for electricity.")</f>
         <v xml:space="preserve"> </v>
@@ -22864,17 +22939,17 @@
       <c r="D67" s="362" t="s">
         <v>482</v>
       </c>
-      <c r="E67" s="382">
+      <c r="E67" s="379">
         <f>1-E66</f>
         <v>1</v>
       </c>
-      <c r="F67" s="293"/>
-      <c r="G67" s="363"/>
-      <c r="H67" s="364"/>
-      <c r="I67" s="365"/>
+      <c r="F67" s="48"/>
+      <c r="G67" s="48"/>
+      <c r="H67" s="48"/>
+      <c r="I67" s="363"/>
       <c r="J67" s="7"/>
-      <c r="K67" s="366"/>
-      <c r="L67" s="367"/>
+      <c r="K67" s="364"/>
+      <c r="L67" s="365"/>
       <c r="M67" s="236"/>
       <c r="N67" s="360"/>
       <c r="O67" s="205" t="s">
@@ -22885,14 +22960,14 @@
     <row r="68" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B68" s="28"/>
       <c r="C68" s="361"/>
-      <c r="D68" s="368"/>
-      <c r="E68" s="383"/>
-      <c r="F68" s="293"/>
-      <c r="G68" s="369"/>
-      <c r="H68" s="364"/>
-      <c r="I68" s="370"/>
+      <c r="D68" s="366"/>
+      <c r="E68" s="380"/>
+      <c r="F68" s="48"/>
+      <c r="G68" s="48"/>
+      <c r="H68" s="48"/>
+      <c r="I68" s="367"/>
       <c r="J68" s="8"/>
-      <c r="K68" s="366"/>
+      <c r="K68" s="364"/>
       <c r="L68" s="359" t="b">
         <f>IF(SUM(E69:E70)=1,TRUE,SUM(E69:E70))</f>
         <v>1</v>
@@ -22907,15 +22982,16 @@
       <c r="C69" s="361" t="s">
         <v>489</v>
       </c>
-      <c r="D69" s="371" t="s">
+      <c r="D69" s="368" t="s">
         <v>482</v>
       </c>
-      <c r="E69" s="382"/>
-      <c r="F69" s="293"/>
-      <c r="H69" s="364"/>
-      <c r="I69" s="365"/>
-      <c r="K69" s="366"/>
-      <c r="L69" s="367"/>
+      <c r="E69" s="379"/>
+      <c r="F69" s="48"/>
+      <c r="G69" s="48"/>
+      <c r="H69" s="48"/>
+      <c r="I69" s="363"/>
+      <c r="K69" s="364"/>
+      <c r="L69" s="365"/>
       <c r="M69" s="236"/>
       <c r="N69" s="360"/>
       <c r="O69" s="205" t="s">
@@ -22928,19 +23004,19 @@
       <c r="C70" s="361" t="s">
         <v>484</v>
       </c>
-      <c r="D70" s="371" t="s">
+      <c r="D70" s="368" t="s">
         <v>482</v>
       </c>
-      <c r="E70" s="382">
+      <c r="E70" s="379">
         <f>1-E69</f>
         <v>1</v>
       </c>
-      <c r="F70" s="293"/>
-      <c r="G70" s="363"/>
-      <c r="H70" s="364"/>
-      <c r="I70" s="365"/>
-      <c r="K70" s="366"/>
-      <c r="L70" s="367"/>
+      <c r="F70" s="48"/>
+      <c r="G70" s="48"/>
+      <c r="H70" s="48"/>
+      <c r="I70" s="363"/>
+      <c r="K70" s="364"/>
+      <c r="L70" s="365"/>
       <c r="M70" s="236"/>
       <c r="N70" s="360"/>
       <c r="O70" s="205" t="s">
@@ -22952,8 +23028,8 @@
       <c r="B71" s="28"/>
       <c r="C71" s="48"/>
       <c r="D71" s="350"/>
-      <c r="E71" s="384"/>
-      <c r="F71" s="351"/>
+      <c r="E71" s="381"/>
+      <c r="F71" s="48"/>
       <c r="G71" s="48"/>
       <c r="H71" s="48"/>
       <c r="I71" s="48"/>
@@ -22972,9 +23048,9 @@
       </c>
       <c r="D72" s="355"/>
       <c r="E72" s="356"/>
-      <c r="F72" s="356"/>
-      <c r="G72" s="357"/>
-      <c r="H72" s="358"/>
+      <c r="F72" s="48"/>
+      <c r="G72" s="48"/>
+      <c r="H72" s="48"/>
       <c r="K72" s="352" t="s">
         <v>480</v>
       </c>
@@ -22998,14 +23074,14 @@
       <c r="D73" s="362" t="s">
         <v>482</v>
       </c>
-      <c r="E73" s="382"/>
-      <c r="F73" s="293"/>
-      <c r="G73" s="363"/>
-      <c r="H73" s="364"/>
-      <c r="I73" s="365"/>
+      <c r="E73" s="379"/>
+      <c r="F73" s="48"/>
+      <c r="G73" s="48"/>
+      <c r="H73" s="48"/>
+      <c r="I73" s="363"/>
       <c r="J73" s="7"/>
-      <c r="K73" s="366"/>
-      <c r="L73" s="367"/>
+      <c r="K73" s="364"/>
+      <c r="L73" s="365"/>
       <c r="M73" s="236" t="str">
         <f>IF(ABS(L73)&lt;0.03," ","Consider adjusting your inputs that influence the demand for electricity.")</f>
         <v xml:space="preserve"> </v>
@@ -23024,17 +23100,17 @@
       <c r="D74" s="362" t="s">
         <v>482</v>
       </c>
-      <c r="E74" s="382">
+      <c r="E74" s="379">
         <f>1-E73</f>
         <v>1</v>
       </c>
-      <c r="F74" s="293"/>
-      <c r="G74" s="363"/>
-      <c r="H74" s="364"/>
-      <c r="I74" s="365"/>
+      <c r="F74" s="48"/>
+      <c r="G74" s="48"/>
+      <c r="H74" s="48"/>
+      <c r="I74" s="363"/>
       <c r="J74" s="7"/>
-      <c r="K74" s="366"/>
-      <c r="L74" s="367"/>
+      <c r="K74" s="364"/>
+      <c r="L74" s="365"/>
       <c r="M74" s="236"/>
       <c r="N74" s="360"/>
       <c r="O74" s="205" t="s">
@@ -23046,13 +23122,13 @@
       <c r="B75" s="28"/>
       <c r="C75" s="200"/>
       <c r="D75" s="200"/>
-      <c r="E75" s="385"/>
-      <c r="F75" s="125"/>
-      <c r="G75" s="200"/>
-      <c r="H75" s="8"/>
+      <c r="E75" s="382"/>
+      <c r="F75" s="48"/>
+      <c r="G75" s="48"/>
+      <c r="H75" s="48"/>
       <c r="I75" s="8"/>
       <c r="J75" s="8"/>
-      <c r="K75" s="366"/>
+      <c r="K75" s="364"/>
       <c r="L75" s="353" t="b">
         <f>IF(SUM(E76:E77)=1,TRUE,SUM(E76:E77))</f>
         <v>1</v>
@@ -23067,15 +23143,16 @@
       <c r="C76" s="361" t="s">
         <v>489</v>
       </c>
-      <c r="D76" s="371" t="s">
+      <c r="D76" s="368" t="s">
         <v>482</v>
       </c>
-      <c r="E76" s="382"/>
-      <c r="F76" s="293"/>
-      <c r="H76" s="364"/>
-      <c r="I76" s="365"/>
-      <c r="K76" s="366"/>
-      <c r="L76" s="367"/>
+      <c r="E76" s="379"/>
+      <c r="F76" s="48"/>
+      <c r="G76" s="48"/>
+      <c r="H76" s="48"/>
+      <c r="I76" s="363"/>
+      <c r="K76" s="364"/>
+      <c r="L76" s="365"/>
       <c r="M76" s="236"/>
       <c r="N76" s="360"/>
       <c r="O76" s="205" t="s">
@@ -23088,19 +23165,19 @@
       <c r="C77" s="361" t="s">
         <v>484</v>
       </c>
-      <c r="D77" s="371" t="s">
+      <c r="D77" s="368" t="s">
         <v>482</v>
       </c>
-      <c r="E77" s="382">
+      <c r="E77" s="379">
         <f>1-E76</f>
         <v>1</v>
       </c>
-      <c r="F77" s="293"/>
-      <c r="G77" s="363"/>
-      <c r="H77" s="364"/>
-      <c r="I77" s="365"/>
-      <c r="K77" s="366"/>
-      <c r="L77" s="367"/>
+      <c r="F77" s="48"/>
+      <c r="G77" s="48"/>
+      <c r="H77" s="48"/>
+      <c r="I77" s="363"/>
+      <c r="K77" s="364"/>
+      <c r="L77" s="365"/>
       <c r="M77" s="236"/>
       <c r="N77" s="360"/>
       <c r="O77" s="205" t="s">
@@ -23117,8 +23194,8 @@
       <c r="G78" s="200"/>
       <c r="H78" s="8"/>
       <c r="I78" s="8"/>
-      <c r="K78" s="366"/>
-      <c r="L78" s="367"/>
+      <c r="K78" s="364"/>
+      <c r="L78" s="365"/>
       <c r="M78" s="236"/>
       <c r="N78" s="360"/>
       <c r="O78" s="205"/>
@@ -23139,8 +23216,8 @@
       <c r="G79" s="200"/>
       <c r="H79" s="8"/>
       <c r="I79" s="8"/>
-      <c r="K79" s="377"/>
-      <c r="L79" s="367"/>
+      <c r="K79" s="374"/>
+      <c r="L79" s="365"/>
       <c r="M79" s="236"/>
       <c r="N79" s="360"/>
       <c r="O79" s="205"/>
@@ -23162,8 +23239,8 @@
       <c r="G80" s="200"/>
       <c r="H80" s="8"/>
       <c r="I80" s="8"/>
-      <c r="K80" s="377"/>
-      <c r="L80" s="367"/>
+      <c r="K80" s="374"/>
+      <c r="L80" s="365"/>
       <c r="M80" s="236"/>
       <c r="N80" s="360"/>
       <c r="O80" s="205"/>
@@ -23183,8 +23260,8 @@
       <c r="G81" s="200"/>
       <c r="H81" s="8"/>
       <c r="I81" s="8"/>
-      <c r="K81" s="377"/>
-      <c r="L81" s="367"/>
+      <c r="K81" s="374"/>
+      <c r="L81" s="365"/>
       <c r="M81" s="236"/>
       <c r="N81" s="360"/>
       <c r="O81" s="205"/>
@@ -23204,8 +23281,8 @@
       <c r="G82" s="200"/>
       <c r="H82" s="8"/>
       <c r="I82" s="8"/>
-      <c r="K82" s="377"/>
-      <c r="L82" s="367"/>
+      <c r="K82" s="374"/>
+      <c r="L82" s="365"/>
       <c r="M82" s="236"/>
       <c r="N82" s="360"/>
       <c r="O82" s="205"/>
@@ -23220,8 +23297,8 @@
       <c r="G83" s="200"/>
       <c r="H83" s="8"/>
       <c r="I83" s="8"/>
-      <c r="K83" s="377"/>
-      <c r="L83" s="367"/>
+      <c r="K83" s="374"/>
+      <c r="L83" s="365"/>
       <c r="M83" s="236"/>
       <c r="N83" s="360"/>
       <c r="O83" s="205"/>
@@ -23242,8 +23319,8 @@
       <c r="I84" s="8" t="s">
         <v>512</v>
       </c>
-      <c r="K84" s="377"/>
-      <c r="L84" s="367"/>
+      <c r="K84" s="374"/>
+      <c r="L84" s="365"/>
       <c r="M84" s="236"/>
       <c r="N84" s="360"/>
       <c r="O84" s="205"/>
@@ -23256,7 +23333,7 @@
         <v>508</v>
       </c>
       <c r="D85" s="200"/>
-      <c r="E85" s="378">
+      <c r="E85" s="375">
         <f>E56-E84-E82</f>
         <v>0</v>
       </c>
@@ -23266,7 +23343,7 @@
       <c r="I85" s="8"/>
       <c r="J85" s="8"/>
       <c r="K85" s="286"/>
-      <c r="L85" s="240"/>
+      <c r="L85" s="365"/>
       <c r="M85" s="277"/>
       <c r="N85" s="8"/>
       <c r="O85" s="205"/>
@@ -23277,14 +23354,14 @@
       <c r="B86" s="22"/>
       <c r="C86" s="200"/>
       <c r="D86" s="200"/>
-      <c r="E86" s="378"/>
+      <c r="E86" s="375"/>
       <c r="F86" s="125"/>
       <c r="G86" s="200"/>
       <c r="H86" s="8"/>
       <c r="I86" s="8"/>
       <c r="J86" s="8"/>
       <c r="K86" s="286"/>
-      <c r="L86" s="240"/>
+      <c r="L86" s="365"/>
       <c r="M86" s="277"/>
       <c r="N86" s="8"/>
       <c r="O86" s="205"/>
@@ -23297,7 +23374,7 @@
         <v>509</v>
       </c>
       <c r="D87" s="200"/>
-      <c r="E87" s="385" t="e">
+      <c r="E87" s="382" t="e">
         <f>E82/E56</f>
         <v>#DIV/0!</v>
       </c>
@@ -23307,7 +23384,7 @@
       <c r="I87" s="8"/>
       <c r="J87" s="8"/>
       <c r="K87" s="286"/>
-      <c r="L87" s="240"/>
+      <c r="L87" s="365"/>
       <c r="M87" s="277"/>
       <c r="N87" s="8"/>
       <c r="O87" s="205"/>
@@ -23320,7 +23397,7 @@
         <v>510</v>
       </c>
       <c r="D88" s="200"/>
-      <c r="E88" s="385" t="e">
+      <c r="E88" s="382" t="e">
         <f>E84/E56</f>
         <v>#DIV/0!</v>
       </c>
@@ -23330,7 +23407,7 @@
       <c r="I88" s="8"/>
       <c r="J88" s="8"/>
       <c r="K88" s="286"/>
-      <c r="L88" s="240"/>
+      <c r="L88" s="365"/>
       <c r="M88" s="277"/>
       <c r="N88" s="8"/>
       <c r="O88" s="205"/>
@@ -23343,7 +23420,7 @@
         <v>511</v>
       </c>
       <c r="D89" s="200"/>
-      <c r="E89" s="385" t="e">
+      <c r="E89" s="382" t="e">
         <f>1-E88-E87</f>
         <v>#DIV/0!</v>
       </c>
@@ -23353,7 +23430,7 @@
       <c r="I89" s="8"/>
       <c r="J89" s="8"/>
       <c r="K89" s="286"/>
-      <c r="L89" s="240"/>
+      <c r="L89" s="365"/>
       <c r="M89" s="277"/>
       <c r="N89" s="8"/>
       <c r="O89" s="205"/>
@@ -23364,14 +23441,14 @@
       <c r="B90" s="22"/>
       <c r="C90" s="200"/>
       <c r="D90" s="200"/>
-      <c r="E90" s="385"/>
+      <c r="E90" s="382"/>
       <c r="F90" s="125"/>
       <c r="G90" s="200"/>
       <c r="H90" s="8"/>
       <c r="I90" s="8"/>
       <c r="J90" s="8"/>
       <c r="K90" s="286"/>
-      <c r="L90" s="240"/>
+      <c r="L90" s="365"/>
       <c r="M90" s="277"/>
       <c r="N90" s="8"/>
       <c r="O90" s="205"/>
@@ -23384,14 +23461,14 @@
         <v>522</v>
       </c>
       <c r="D91" s="200"/>
-      <c r="E91" s="385"/>
+      <c r="E91" s="382"/>
       <c r="F91" s="125"/>
       <c r="G91" s="200"/>
       <c r="H91" s="8"/>
       <c r="I91" s="8"/>
       <c r="J91" s="8"/>
       <c r="K91" s="286"/>
-      <c r="L91" s="240"/>
+      <c r="L91" s="365"/>
       <c r="M91" s="277"/>
       <c r="N91" s="8"/>
       <c r="O91" s="205"/>
@@ -23400,20 +23477,25 @@
     <row r="92" spans="1:16" ht="17" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A92" s="8"/>
       <c r="B92" s="22"/>
-      <c r="C92" s="386" t="s">
+      <c r="C92" s="383" t="s">
         <v>523</v>
       </c>
       <c r="D92" s="200" t="s">
         <v>530</v>
       </c>
-      <c r="E92" s="389"/>
+      <c r="E92" s="386"/>
       <c r="F92" s="125"/>
       <c r="G92" s="200"/>
       <c r="H92" s="8"/>
-      <c r="I92" s="365"/>
+      <c r="I92" s="363"/>
       <c r="J92" s="8"/>
-      <c r="K92" s="286"/>
-      <c r="L92" s="240"/>
+      <c r="K92" s="286" t="s">
+        <v>533</v>
+      </c>
+      <c r="L92" s="240" t="b">
+        <f>IF(E92&gt;=0,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
       <c r="M92" s="277"/>
       <c r="N92" s="8"/>
       <c r="O92" s="205" t="s">
@@ -23424,11 +23506,11 @@
     <row r="93" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A93" s="8"/>
       <c r="B93" s="22"/>
-      <c r="C93" s="386" t="s">
+      <c r="C93" s="383" t="s">
         <v>524</v>
       </c>
       <c r="D93" s="200"/>
-      <c r="E93" s="388">
+      <c r="E93" s="385">
         <f>E80-E92</f>
         <v>0</v>
       </c>
@@ -23437,8 +23519,13 @@
       <c r="H93" s="8"/>
       <c r="I93" s="8"/>
       <c r="J93" s="8"/>
-      <c r="K93" s="286"/>
-      <c r="L93" s="240"/>
+      <c r="K93" s="286" t="s">
+        <v>533</v>
+      </c>
+      <c r="L93" s="240" t="b">
+        <f>IF(E93&gt;=0,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
       <c r="M93" s="277"/>
       <c r="N93" s="8"/>
       <c r="O93" s="205"/>
@@ -23446,11 +23533,11 @@
     </row>
     <row r="94" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B94" s="33"/>
-      <c r="C94" s="376"/>
-      <c r="D94" s="376"/>
-      <c r="E94" s="376"/>
+      <c r="C94" s="373"/>
+      <c r="D94" s="373"/>
+      <c r="E94" s="373"/>
       <c r="F94" s="349"/>
-      <c r="G94" s="376"/>
+      <c r="G94" s="373"/>
       <c r="H94" s="46"/>
       <c r="I94" s="46"/>
       <c r="J94" s="46"/>
@@ -23540,7 +23627,7 @@
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L61:L62 L85:L93">
+  <conditionalFormatting sqref="L61 L92:L93">
     <cfRule type="cellIs" dxfId="18" priority="17" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
@@ -23600,7 +23687,7 @@
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
             <control shapeId="11265" r:id="rId3" name="import_data">
-              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="[2]!import_data_button">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="[3]!import_data_button">
                 <anchor moveWithCells="1" sizeWithCells="1">
                   <from>
                     <xdr:col>8</xdr:col>
@@ -23622,7 +23709,7 @@
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
             <control shapeId="11266" r:id="rId4" name="export_data">
-              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="[2]!export_data_button">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="[3]!export_data_button">
                 <anchor moveWithCells="1" sizeWithCells="1">
                   <from>
                     <xdr:col>8</xdr:col>
@@ -23644,7 +23731,7 @@
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
             <control shapeId="11272" r:id="rId5" name="select_dashboard">
-              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="[2]!select_dashboard_values">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="[3]!select_dashboard_values">
                 <anchor moveWithCells="1" sizeWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
@@ -30566,11 +30653,11 @@
       <c r="P4" s="8"/>
     </row>
     <row r="5" spans="2:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="396" t="s">
+      <c r="B5" s="393" t="s">
         <v>300</v>
       </c>
-      <c r="C5" s="397"/>
-      <c r="D5" s="397"/>
+      <c r="C5" s="394"/>
+      <c r="D5" s="394"/>
       <c r="E5" s="269"/>
       <c r="F5" s="45"/>
       <c r="H5" s="45"/>
@@ -30645,10 +30732,10 @@
       <c r="E10" s="212"/>
       <c r="F10" s="252"/>
       <c r="G10" s="252"/>
-      <c r="H10" s="372" t="s">
+      <c r="H10" s="369" t="s">
         <v>281</v>
       </c>
-      <c r="I10" s="373" t="s">
+      <c r="I10" s="370" t="s">
         <v>495</v>
       </c>
       <c r="J10" s="23"/>
@@ -30772,9 +30859,9 @@
         <v>497</v>
       </c>
       <c r="F18" s="272"/>
-      <c r="G18" s="375"/>
+      <c r="G18" s="372"/>
       <c r="H18" s="272"/>
-      <c r="I18" s="374">
+      <c r="I18" s="371">
         <f>G18</f>
         <v>0</v>
       </c>
@@ -30790,9 +30877,9 @@
         <v>496</v>
       </c>
       <c r="F19" s="272"/>
-      <c r="G19" s="375"/>
+      <c r="G19" s="372"/>
       <c r="H19" s="272"/>
-      <c r="I19" s="374">
+      <c r="I19" s="371">
         <f>G19</f>
         <v>0</v>
       </c>

--- a/analyses/4b_chemical_industry_analysis.xlsx
+++ b/analyses/4b_chemical_industry_analysis.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10711"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11114"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marliekeverweij/Projects/etdataset/analyses/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michieldenhaan/Code/etdataset/analyses/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19E5F357-DE7C-1847-A1F0-AC73A50329BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D34CDDEC-AF6D-A64B-A2ED-EDE3CDE0D7CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25040" windowHeight="28340" tabRatio="835" firstSheet="7" activeTab="29" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="50040" windowHeight="28300" tabRatio="835" firstSheet="6" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover Sheet" sheetId="34" r:id="rId1"/>
@@ -55,7 +55,6 @@
   <externalReferences>
     <externalReference r:id="rId39"/>
     <externalReference r:id="rId40"/>
-    <externalReference r:id="rId41"/>
   </externalReferences>
   <definedNames>
     <definedName name="aluminium_production" localSheetId="18">Dashboard!#REF!</definedName>
@@ -2326,9 +2325,6 @@
     <t>Non-negative value</t>
   </si>
   <si>
-    <t>nl</t>
-  </si>
-  <si>
     <t>industry_final_demand_for_chemical_fertilizers_hydrogen_non_energetic</t>
   </si>
   <si>
@@ -2336,6 +2332,9 @@
   </si>
   <si>
     <t>industry_final_demand_for_chemical_hydrogen_non_energetic_parent_share</t>
+  </si>
+  <si>
+    <t>eu</t>
   </si>
 </sst>
 </file>
@@ -12102,28 +12101,6 @@
     <sheetNames>
       <sheetName val="Cover sheet"/>
       <sheetName val="Dashboard"/>
-      <sheetName val="analysis_manager"/>
-    </sheetNames>
-    <definedNames>
-      <definedName name="export_data_button"/>
-      <definedName name="import_data_button"/>
-      <definedName name="select_dashboard_values"/>
-    </definedNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Cover sheet"/>
-      <sheetName val="Dashboard"/>
     </sheetNames>
     <definedNames>
       <definedName name="export_data_button"/>
@@ -12508,7 +12485,7 @@
       </c>
       <c r="C6" s="93" t="str">
         <f>country</f>
-        <v>nl</v>
+        <v>eu</v>
       </c>
       <c r="D6" s="7"/>
     </row>
@@ -12518,7 +12495,7 @@
       </c>
       <c r="C7" s="93">
         <f>base_year</f>
-        <v>2019</v>
+        <v>2011</v>
       </c>
       <c r="D7" s="7"/>
     </row>
@@ -15721,8 +15698,8 @@
   </sheetPr>
   <dimension ref="B2:M26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -15952,7 +15929,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="163">
-        <f>SUM('Corrected energy balance step 2'!U60:AQ60)</f>
+        <f>SUM('Corrected energy balance step 2'!U60:AQ60)+SUM('Corrected energy balance step 2'!AW60:AZ60)</f>
         <v>0</v>
       </c>
       <c r="J14" s="163">
@@ -15994,7 +15971,7 @@
         <v>0</v>
       </c>
       <c r="I15" s="163">
-        <f>SUM('Corrected energy balance step 2'!U62:AQ62)</f>
+        <f>SUM('Corrected energy balance step 2'!U62:AQ62)+SUM('Corrected energy balance step 2'!AW62:AZ62)</f>
         <v>0</v>
       </c>
       <c r="J15" s="163">
@@ -16036,7 +16013,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="163">
-        <f>-SUM('Corrected energy balance step 2'!U49:AQ49)</f>
+        <f>-SUM('Corrected energy balance step 2'!U49:AQ49)-SUM('Corrected energy balance step 2'!AW49:AZ49)</f>
         <v>0</v>
       </c>
       <c r="J16" s="163">
@@ -19506,7 +19483,7 @@
   </sheetPr>
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -19516,7 +19493,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -19529,7 +19506,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B3" s="378">
         <v>0</v>
@@ -19537,7 +19514,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B4" s="378">
         <v>1</v>
@@ -19879,27 +19856,27 @@
       <c r="A3" s="376" t="s">
         <v>515</v>
       </c>
-      <c r="B3" s="377" t="e">
+      <c r="B3" s="377">
         <f>Dashboard!E87</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="376" t="s">
         <v>516</v>
       </c>
-      <c r="B4" s="377" t="e">
+      <c r="B4" s="377">
         <f>Dashboard!E88</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>514</v>
       </c>
-      <c r="B5" s="377" t="e">
+      <c r="B5" s="377">
         <f>Dashboard!E89</f>
-        <v>#DIV/0!</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -21584,7 +21561,7 @@
       </c>
       <c r="D13" s="156"/>
       <c r="E13" s="160" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="F13" s="160"/>
       <c r="G13" s="15" t="s">
@@ -21617,7 +21594,7 @@
       </c>
       <c r="D14" s="156"/>
       <c r="E14" s="160">
-        <v>2019</v>
+        <v>2011</v>
       </c>
       <c r="F14" s="160"/>
       <c r="G14" s="15" t="s">
@@ -23374,9 +23351,9 @@
         <v>509</v>
       </c>
       <c r="D87" s="200"/>
-      <c r="E87" s="382" t="e">
-        <f>E82/E56</f>
-        <v>#DIV/0!</v>
+      <c r="E87" s="382">
+        <f>IFERROR(E82/E56,0)</f>
+        <v>0</v>
       </c>
       <c r="F87" s="125"/>
       <c r="G87" s="200"/>
@@ -23397,9 +23374,9 @@
         <v>510</v>
       </c>
       <c r="D88" s="200"/>
-      <c r="E88" s="382" t="e">
-        <f>E84/E56</f>
-        <v>#DIV/0!</v>
+      <c r="E88" s="382">
+        <f>IFERROR(E84/E56,0)</f>
+        <v>0</v>
       </c>
       <c r="F88" s="125"/>
       <c r="G88" s="200"/>
@@ -23420,9 +23397,9 @@
         <v>511</v>
       </c>
       <c r="D89" s="200"/>
-      <c r="E89" s="382" t="e">
+      <c r="E89" s="382">
         <f>1-E88-E87</f>
-        <v>#DIV/0!</v>
+        <v>1</v>
       </c>
       <c r="F89" s="125"/>
       <c r="G89" s="200"/>
@@ -23687,7 +23664,7 @@
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
             <control shapeId="11265" r:id="rId3" name="import_data">
-              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="[3]!import_data_button">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="[2]!import_data_button">
                 <anchor moveWithCells="1" sizeWithCells="1">
                   <from>
                     <xdr:col>8</xdr:col>
@@ -23709,7 +23686,7 @@
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
             <control shapeId="11266" r:id="rId4" name="export_data">
-              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="[3]!export_data_button">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="[2]!export_data_button">
                 <anchor moveWithCells="1" sizeWithCells="1">
                   <from>
                     <xdr:col>8</xdr:col>
@@ -23731,7 +23708,7 @@
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
             <control shapeId="11272" r:id="rId5" name="select_dashboard">
-              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="[3]!select_dashboard_values">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="[2]!select_dashboard_values">
                 <anchor moveWithCells="1" sizeWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>

--- a/analyses/4b_chemical_industry_analysis.xlsx
+++ b/analyses/4b_chemical_industry_analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kyradehaan/github/etdataset/analyses/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3910DBF2-6EFF-FA40-818C-43050A8D37AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{756DB3F4-AE00-F741-8746-E9C933FB325D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-5740" yWindow="-21600" windowWidth="38400" windowHeight="21600" tabRatio="835" firstSheet="23" activeTab="23" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="835" firstSheet="27" activeTab="30" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover Sheet" sheetId="34" r:id="rId1"/>
@@ -59,7 +59,6 @@
   <externalReferences>
     <externalReference r:id="rId43"/>
     <externalReference r:id="rId44"/>
-    <externalReference r:id="rId45"/>
   </externalReferences>
   <definedNames>
     <definedName name="aluminium_production" localSheetId="18">Dashboard!#REF!</definedName>
@@ -72,10 +71,6 @@
     <definedName name="aluminium_production" localSheetId="22">Dashboard!#REF!</definedName>
     <definedName name="aluminium_production" localSheetId="28">Dashboard!#REF!</definedName>
     <definedName name="aluminium_production" localSheetId="21">Dashboard!#REF!</definedName>
-    <definedName name="aluminium_production" localSheetId="39">[3]Dashboard!#REF!</definedName>
-    <definedName name="aluminium_production" localSheetId="38">[3]Dashboard!#REF!</definedName>
-    <definedName name="aluminium_production" localSheetId="41">[3]Dashboard!#REF!</definedName>
-    <definedName name="aluminium_production" localSheetId="40">[3]Dashboard!#REF!</definedName>
     <definedName name="aluminium_production" localSheetId="30">Dashboard!#REF!</definedName>
     <definedName name="aluminium_production" localSheetId="31">Dashboard!#REF!</definedName>
     <definedName name="aluminium_production" localSheetId="15">Dashboard!#REF!</definedName>
@@ -85,15 +80,7 @@
     <definedName name="aluminium_production" localSheetId="11">Dashboard!#REF!</definedName>
     <definedName name="aluminium_production" localSheetId="16">Dashboard!#REF!</definedName>
     <definedName name="aluminium_production">Dashboard!#REF!</definedName>
-    <definedName name="base_year" localSheetId="39">[3]Dashboard!$E$14</definedName>
-    <definedName name="base_year" localSheetId="38">[3]Dashboard!$E$14</definedName>
-    <definedName name="base_year" localSheetId="41">[3]Dashboard!$E$14</definedName>
-    <definedName name="base_year" localSheetId="40">[3]Dashboard!$E$14</definedName>
     <definedName name="base_year">Dashboard!$E$14</definedName>
-    <definedName name="country" localSheetId="39">[3]Dashboard!$E$13</definedName>
-    <definedName name="country" localSheetId="38">[3]Dashboard!$E$13</definedName>
-    <definedName name="country" localSheetId="41">[3]Dashboard!$E$13</definedName>
-    <definedName name="country" localSheetId="40">[3]Dashboard!$E$13</definedName>
     <definedName name="country">Dashboard!$E$13</definedName>
     <definedName name="Eff_Airco" localSheetId="12">'[1]Technological specifications'!$F$25</definedName>
     <definedName name="Eff_Airco" localSheetId="15">'[1]Technological specifications'!$F$25</definedName>
@@ -180,10 +167,6 @@
     <definedName name="Eff_Gas_Heat_Pump" localSheetId="10">'Shares energetic final demand'!#REF!</definedName>
     <definedName name="Eff_Gas_Heat_Pump" localSheetId="11">'Shares non-energ final demand'!#REF!</definedName>
     <definedName name="Eff_Gas_Heat_Pump" localSheetId="16">'[1]Technological specifications'!$F$13</definedName>
-    <definedName name="Eff_Gas_Heater" localSheetId="39">'[3]Final demand'!$E$11</definedName>
-    <definedName name="Eff_Gas_Heater" localSheetId="38">'[3]Final demand'!$E$11</definedName>
-    <definedName name="Eff_Gas_Heater" localSheetId="41">'[3]Final demand'!$E$11</definedName>
-    <definedName name="Eff_Gas_Heater" localSheetId="40">'[3]Final demand'!$E$11</definedName>
     <definedName name="Eff_Gas_Heater" localSheetId="12">'[1]Technological specifications'!$F$12</definedName>
     <definedName name="Eff_Gas_Heater" localSheetId="15">'[1]Technological specifications'!$F$12</definedName>
     <definedName name="Eff_Gas_Heater" localSheetId="14">'[1]Technological specifications'!$F$12</definedName>
@@ -403,10 +386,6 @@
     <definedName name="share_aluminium_carbothermal_reduction" localSheetId="22">Dashboard!#REF!</definedName>
     <definedName name="share_aluminium_carbothermal_reduction" localSheetId="28">Dashboard!#REF!</definedName>
     <definedName name="share_aluminium_carbothermal_reduction" localSheetId="21">Dashboard!#REF!</definedName>
-    <definedName name="share_aluminium_carbothermal_reduction" localSheetId="39">[3]Dashboard!#REF!</definedName>
-    <definedName name="share_aluminium_carbothermal_reduction" localSheetId="38">[3]Dashboard!#REF!</definedName>
-    <definedName name="share_aluminium_carbothermal_reduction" localSheetId="41">[3]Dashboard!#REF!</definedName>
-    <definedName name="share_aluminium_carbothermal_reduction" localSheetId="40">[3]Dashboard!#REF!</definedName>
     <definedName name="share_aluminium_carbothermal_reduction" localSheetId="30">Dashboard!#REF!</definedName>
     <definedName name="share_aluminium_carbothermal_reduction" localSheetId="31">Dashboard!#REF!</definedName>
     <definedName name="share_aluminium_carbothermal_reduction" localSheetId="15">Dashboard!#REF!</definedName>
@@ -426,10 +405,6 @@
     <definedName name="share_aluminium_electrolysis_bat" localSheetId="22">Dashboard!#REF!</definedName>
     <definedName name="share_aluminium_electrolysis_bat" localSheetId="28">Dashboard!#REF!</definedName>
     <definedName name="share_aluminium_electrolysis_bat" localSheetId="21">Dashboard!#REF!</definedName>
-    <definedName name="share_aluminium_electrolysis_bat" localSheetId="39">[3]Dashboard!#REF!</definedName>
-    <definedName name="share_aluminium_electrolysis_bat" localSheetId="38">[3]Dashboard!#REF!</definedName>
-    <definedName name="share_aluminium_electrolysis_bat" localSheetId="41">[3]Dashboard!#REF!</definedName>
-    <definedName name="share_aluminium_electrolysis_bat" localSheetId="40">[3]Dashboard!#REF!</definedName>
     <definedName name="share_aluminium_electrolysis_bat" localSheetId="30">Dashboard!#REF!</definedName>
     <definedName name="share_aluminium_electrolysis_bat" localSheetId="31">Dashboard!#REF!</definedName>
     <definedName name="share_aluminium_electrolysis_bat" localSheetId="15">Dashboard!#REF!</definedName>
@@ -449,10 +424,6 @@
     <definedName name="share_aluminium_electrolysis_current" localSheetId="22">Dashboard!#REF!</definedName>
     <definedName name="share_aluminium_electrolysis_current" localSheetId="28">Dashboard!#REF!</definedName>
     <definedName name="share_aluminium_electrolysis_current" localSheetId="21">Dashboard!#REF!</definedName>
-    <definedName name="share_aluminium_electrolysis_current" localSheetId="39">[3]Dashboard!#REF!</definedName>
-    <definedName name="share_aluminium_electrolysis_current" localSheetId="38">[3]Dashboard!#REF!</definedName>
-    <definedName name="share_aluminium_electrolysis_current" localSheetId="41">[3]Dashboard!#REF!</definedName>
-    <definedName name="share_aluminium_electrolysis_current" localSheetId="40">[3]Dashboard!#REF!</definedName>
     <definedName name="share_aluminium_electrolysis_current" localSheetId="30">Dashboard!#REF!</definedName>
     <definedName name="share_aluminium_electrolysis_current" localSheetId="31">Dashboard!#REF!</definedName>
     <definedName name="share_aluminium_electrolysis_current" localSheetId="15">Dashboard!#REF!</definedName>
@@ -472,10 +443,6 @@
     <definedName name="share_aluminium_melting_oven" localSheetId="22">Dashboard!#REF!</definedName>
     <definedName name="share_aluminium_melting_oven" localSheetId="28">Dashboard!#REF!</definedName>
     <definedName name="share_aluminium_melting_oven" localSheetId="21">Dashboard!#REF!</definedName>
-    <definedName name="share_aluminium_melting_oven" localSheetId="39">[3]Dashboard!#REF!</definedName>
-    <definedName name="share_aluminium_melting_oven" localSheetId="38">[3]Dashboard!#REF!</definedName>
-    <definedName name="share_aluminium_melting_oven" localSheetId="41">[3]Dashboard!#REF!</definedName>
-    <definedName name="share_aluminium_melting_oven" localSheetId="40">[3]Dashboard!#REF!</definedName>
     <definedName name="share_aluminium_melting_oven" localSheetId="30">Dashboard!#REF!</definedName>
     <definedName name="share_aluminium_melting_oven" localSheetId="31">Dashboard!#REF!</definedName>
     <definedName name="share_aluminium_melting_oven" localSheetId="15">Dashboard!#REF!</definedName>
@@ -495,10 +462,6 @@
     <definedName name="share_blast_furnace_burner_coal_gas" localSheetId="22">Dashboard!#REF!</definedName>
     <definedName name="share_blast_furnace_burner_coal_gas" localSheetId="28">Dashboard!#REF!</definedName>
     <definedName name="share_blast_furnace_burner_coal_gas" localSheetId="21">Dashboard!#REF!</definedName>
-    <definedName name="share_blast_furnace_burner_coal_gas" localSheetId="39">[3]Dashboard!#REF!</definedName>
-    <definedName name="share_blast_furnace_burner_coal_gas" localSheetId="38">[3]Dashboard!#REF!</definedName>
-    <definedName name="share_blast_furnace_burner_coal_gas" localSheetId="41">[3]Dashboard!#REF!</definedName>
-    <definedName name="share_blast_furnace_burner_coal_gas" localSheetId="40">[3]Dashboard!#REF!</definedName>
     <definedName name="share_blast_furnace_burner_coal_gas" localSheetId="30">Dashboard!#REF!</definedName>
     <definedName name="share_blast_furnace_burner_coal_gas" localSheetId="31">Dashboard!#REF!</definedName>
     <definedName name="share_blast_furnace_burner_coal_gas" localSheetId="15">Dashboard!#REF!</definedName>
@@ -518,10 +481,6 @@
     <definedName name="share_blast_furnace_burner_network_gas" localSheetId="22">Dashboard!#REF!</definedName>
     <definedName name="share_blast_furnace_burner_network_gas" localSheetId="28">Dashboard!#REF!</definedName>
     <definedName name="share_blast_furnace_burner_network_gas" localSheetId="21">Dashboard!#REF!</definedName>
-    <definedName name="share_blast_furnace_burner_network_gas" localSheetId="39">[3]Dashboard!#REF!</definedName>
-    <definedName name="share_blast_furnace_burner_network_gas" localSheetId="38">[3]Dashboard!#REF!</definedName>
-    <definedName name="share_blast_furnace_burner_network_gas" localSheetId="41">[3]Dashboard!#REF!</definedName>
-    <definedName name="share_blast_furnace_burner_network_gas" localSheetId="40">[3]Dashboard!#REF!</definedName>
     <definedName name="share_blast_furnace_burner_network_gas" localSheetId="30">Dashboard!#REF!</definedName>
     <definedName name="share_blast_furnace_burner_network_gas" localSheetId="31">Dashboard!#REF!</definedName>
     <definedName name="share_blast_furnace_burner_network_gas" localSheetId="15">Dashboard!#REF!</definedName>
@@ -591,10 +550,6 @@
     <definedName name="share_steel_blast_furnace_bat" localSheetId="22">Dashboard!#REF!</definedName>
     <definedName name="share_steel_blast_furnace_bat" localSheetId="28">Dashboard!#REF!</definedName>
     <definedName name="share_steel_blast_furnace_bat" localSheetId="21">Dashboard!#REF!</definedName>
-    <definedName name="share_steel_blast_furnace_bat" localSheetId="39">[3]Dashboard!#REF!</definedName>
-    <definedName name="share_steel_blast_furnace_bat" localSheetId="38">[3]Dashboard!#REF!</definedName>
-    <definedName name="share_steel_blast_furnace_bat" localSheetId="41">[3]Dashboard!#REF!</definedName>
-    <definedName name="share_steel_blast_furnace_bat" localSheetId="40">[3]Dashboard!#REF!</definedName>
     <definedName name="share_steel_blast_furnace_bat" localSheetId="30">Dashboard!#REF!</definedName>
     <definedName name="share_steel_blast_furnace_bat" localSheetId="31">Dashboard!#REF!</definedName>
     <definedName name="share_steel_blast_furnace_bat" localSheetId="15">Dashboard!#REF!</definedName>
@@ -614,10 +569,6 @@
     <definedName name="share_steel_blast_furnace_current" localSheetId="22">Dashboard!#REF!</definedName>
     <definedName name="share_steel_blast_furnace_current" localSheetId="28">Dashboard!#REF!</definedName>
     <definedName name="share_steel_blast_furnace_current" localSheetId="21">Dashboard!#REF!</definedName>
-    <definedName name="share_steel_blast_furnace_current" localSheetId="39">[3]Dashboard!#REF!</definedName>
-    <definedName name="share_steel_blast_furnace_current" localSheetId="38">[3]Dashboard!#REF!</definedName>
-    <definedName name="share_steel_blast_furnace_current" localSheetId="41">[3]Dashboard!#REF!</definedName>
-    <definedName name="share_steel_blast_furnace_current" localSheetId="40">[3]Dashboard!#REF!</definedName>
     <definedName name="share_steel_blast_furnace_current" localSheetId="30">Dashboard!#REF!</definedName>
     <definedName name="share_steel_blast_furnace_current" localSheetId="31">Dashboard!#REF!</definedName>
     <definedName name="share_steel_blast_furnace_current" localSheetId="15">Dashboard!#REF!</definedName>
@@ -637,10 +588,6 @@
     <definedName name="share_steel_cyclone" localSheetId="22">Dashboard!#REF!</definedName>
     <definedName name="share_steel_cyclone" localSheetId="28">Dashboard!#REF!</definedName>
     <definedName name="share_steel_cyclone" localSheetId="21">Dashboard!#REF!</definedName>
-    <definedName name="share_steel_cyclone" localSheetId="39">[3]Dashboard!#REF!</definedName>
-    <definedName name="share_steel_cyclone" localSheetId="38">[3]Dashboard!#REF!</definedName>
-    <definedName name="share_steel_cyclone" localSheetId="41">[3]Dashboard!#REF!</definedName>
-    <definedName name="share_steel_cyclone" localSheetId="40">[3]Dashboard!#REF!</definedName>
     <definedName name="share_steel_cyclone" localSheetId="30">Dashboard!#REF!</definedName>
     <definedName name="share_steel_cyclone" localSheetId="31">Dashboard!#REF!</definedName>
     <definedName name="share_steel_cyclone" localSheetId="15">Dashboard!#REF!</definedName>
@@ -660,10 +607,6 @@
     <definedName name="share_steel_electric" localSheetId="22">Dashboard!#REF!</definedName>
     <definedName name="share_steel_electric" localSheetId="28">Dashboard!#REF!</definedName>
     <definedName name="share_steel_electric" localSheetId="21">Dashboard!#REF!</definedName>
-    <definedName name="share_steel_electric" localSheetId="39">[3]Dashboard!#REF!</definedName>
-    <definedName name="share_steel_electric" localSheetId="38">[3]Dashboard!#REF!</definedName>
-    <definedName name="share_steel_electric" localSheetId="41">[3]Dashboard!#REF!</definedName>
-    <definedName name="share_steel_electric" localSheetId="40">[3]Dashboard!#REF!</definedName>
     <definedName name="share_steel_electric" localSheetId="30">Dashboard!#REF!</definedName>
     <definedName name="share_steel_electric" localSheetId="31">Dashboard!#REF!</definedName>
     <definedName name="share_steel_electric" localSheetId="15">Dashboard!#REF!</definedName>
@@ -727,10 +670,6 @@
     <definedName name="steel_production" localSheetId="22">Dashboard!#REF!</definedName>
     <definedName name="steel_production" localSheetId="28">Dashboard!#REF!</definedName>
     <definedName name="steel_production" localSheetId="21">Dashboard!#REF!</definedName>
-    <definedName name="steel_production" localSheetId="39">[3]Dashboard!#REF!</definedName>
-    <definedName name="steel_production" localSheetId="38">[3]Dashboard!#REF!</definedName>
-    <definedName name="steel_production" localSheetId="41">[3]Dashboard!#REF!</definedName>
-    <definedName name="steel_production" localSheetId="40">[3]Dashboard!#REF!</definedName>
     <definedName name="steel_production" localSheetId="30">Dashboard!#REF!</definedName>
     <definedName name="steel_production" localSheetId="31">Dashboard!#REF!</definedName>
     <definedName name="steel_production" localSheetId="15">Dashboard!#REF!</definedName>
@@ -786,7 +725,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="913" uniqueCount="555">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="912" uniqueCount="556">
   <si>
     <t>Changelog</t>
   </si>
@@ -2387,70 +2326,73 @@
     <t>eu</t>
   </si>
   <si>
+    <t>industry_chemical_other_captured_co2_electricity</t>
+  </si>
+  <si>
+    <t>industry_chemical_other_capture_potential_co2_parent_share</t>
+  </si>
+  <si>
+    <t>industry_chemical_other_capture_potential_co2</t>
+  </si>
+  <si>
+    <t>industry_chemical_other_emitted_co2</t>
+  </si>
+  <si>
+    <t>industry_chemical_other_combustion_co2_parent_share</t>
+  </si>
+  <si>
+    <t>industry_chemical_other_captured_co2</t>
+  </si>
+  <si>
+    <t>Mathijs Bijkerk</t>
+  </si>
+  <si>
+    <t>Quintel</t>
+  </si>
+  <si>
+    <t>July 18, 2025</t>
+  </si>
+  <si>
+    <t>Added default CCUS output files for chemical other and refineries. Only files are setup, assumptions are hardcoded.</t>
+  </si>
+  <si>
+    <t>industry_chemicals_refineries_capture_potential_co2_parent_share</t>
+  </si>
+  <si>
+    <t>industry_chemicals_refineries_captured_co2</t>
+  </si>
+  <si>
+    <t>industry_chemicals_refineries_emitted_co2</t>
+  </si>
+  <si>
+    <t>industry_chemicals_refineries_combustion_co2_parent_share</t>
+  </si>
+  <si>
+    <t>industry_chemicals_refineries_capture_potential_co2</t>
+  </si>
+  <si>
+    <t>July 1st, 2025</t>
+  </si>
+  <si>
+    <t>Split naphtha from crude oil in refinery transformation output and chemical other energetic and non-energetic input.</t>
+  </si>
+  <si>
     <t>Naphtha (TJ)</t>
   </si>
   <si>
     <t>output.naphtha</t>
   </si>
   <si>
-    <t>In this sheet the carriers from the energy balance are aggregated into the carriers that the ETM uses in the chemical sector. The energy use of the chemical sector is imported in the row 'Chemical and petrochemical' for energetic use and 'Memo: feedstock use in petrochemical industry' for non-energetic use. All of this energy is then allocated to the 'other' chemical industry, unless the optional analysis in the 'Dashboard' sheet has been performed. (In that case energy is allocated to the fertilizers industry, as specified by the user.) In addition, the own use of refineries is imported from the EB. It is part of the energy industry and therefore not part of the 'Chemical and petrochemical' nor 'feedstock use in petrochemical industry' posts. See "Assumptions" for a detailed description of aggregation. Cokes is not considered as seperate carrier, but aggregated in coal in this analysis. Note: napthha is split from crude oil and is only used in chemical other, which is why only a minimal pipeline has been added for this carrier.</t>
-  </si>
-  <si>
-    <t>On this sheet the input and output of oil carriers from refineries from the Energy Balance are aggregated. Note: napthha is split from other oil products and is only used in chemical other, which is why only a minimal pipeline has been added for this carrier.</t>
-  </si>
-  <si>
     <t>Overview of energetic and non-energetic final consumption in the Chemical industry. This data is exported to the Industry analysis using the purple export_to_industry_analysis sheet. The total non-energetic final consumption for non-energetic crude oil is corrected for the oil products which refineries produce for the petrochemical industry. The 'Cokes' column is included to ensure compatability with the Industry analysis. Cokes is not considered as a separate carrier, but aggregated in coal in this analysis. Note: crude oil in this overview does not include naphtha. Naphtha is managed as a separate carrier and is only used in chemical other, which is why only a minimal pipeline has been added for this carrier.</t>
   </si>
   <si>
-    <t>Naphtha ifrom refineries is handled as a separate carrier from crude oil and is only used in chemical other.</t>
-  </si>
-  <si>
-    <t>July 1st, 2025</t>
-  </si>
-  <si>
-    <t>Split naphtha from crude oil in refinery transformation output and chemical other energetic and non-energetic input.</t>
-  </si>
-  <si>
-    <t>Mathijs Bijkerk</t>
-  </si>
-  <si>
-    <t>Quintel</t>
-  </si>
-  <si>
-    <t>July 1, 2025</t>
-  </si>
-  <si>
-    <t>July 18, 2025</t>
-  </si>
-  <si>
-    <t>Added default CCUS output files for chemical other and refineries. Only files are setup, assumptions are hardcoded.</t>
-  </si>
-  <si>
-    <t>industry_chemical_other_combustion_co2_parent_share</t>
-  </si>
-  <si>
-    <t>industry_chemical_other_capture_potential_co2</t>
-  </si>
-  <si>
-    <t>industry_chemical_other_emitted_co2</t>
-  </si>
-  <si>
-    <t>industry_chemical_other_capture_potential_co2_parent_share</t>
-  </si>
-  <si>
-    <t>industry_chemical_other_captured_co2</t>
-  </si>
-  <si>
-    <t>industry_chemicals_refineries_capture_potential_co2_parent_share</t>
-  </si>
-  <si>
-    <t>industry_chemicals_refineries_captured_co2</t>
-  </si>
-  <si>
-    <t>industry_chemicals_refineries_emitted_co2</t>
-  </si>
-  <si>
-    <t>industry_chemical_other_captured_co2_electricity</t>
+    <t>Naphtha from refineries is handled as a separate carrier from crude oil and is only used in chemical other.</t>
+  </si>
+  <si>
+    <t>In this sheet the carriers from the energy balance are aggregated into the carriers that the ETM uses in the chemical sector. The energy use of the chemical sector is imported in the row 'Chemical and petrochemical' for energetic use and 'Memo: feedstock use in petrochemical industry' for non-energetic use. All of this energy is then allocated to the 'other' chemical industry, unless the optional analysis in the 'Dashboard' sheet has been performed. (In that case energy is allocated to the fertilizers industry, as specified by the user.) In addition, the own use of refineries is imported from the EB. It is part of the energy industry and therefore not part of the 'Chemical and petrochemical' nor 'feedstock use in petrochemical industry' posts. See "Assumptions" for a detailed description of aggregation. Cokes is not considered as seperate carrier, but aggregated in coal in this analysis. Note: naphtha is split from crude oil and is only used in chemical other, which is why only a minimal pipeline has been added for this carrier.</t>
+  </si>
+  <si>
+    <t>On this sheet the input and output of oil carriers from refineries from the Energy Balance are aggregated. Note: naphtha is split from other oil products and is only used in chemical other, which is why only a minimal pipeline has been added for this carrier.</t>
   </si>
 </sst>
 </file>
@@ -8544,6 +8486,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
   <colors>
     <mruColors>
+      <color rgb="FFB1A0C7"/>
       <color rgb="FFCDB236"/>
       <color rgb="FF808000"/>
     </mruColors>
@@ -12067,121 +12010,6 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Cover Sheet"/>
-      <sheetName val="Changelog"/>
-      <sheetName val="Contents"/>
-      <sheetName val="Introduction"/>
-      <sheetName val="Dataflow"/>
-      <sheetName val="Assumptions"/>
-      <sheetName val="Dashboard"/>
-      <sheetName val="Corrected energy balance step 2"/>
-      <sheetName val="technical_specs"/>
-      <sheetName val="Final demand"/>
-      <sheetName val="Shares energetic final demand"/>
-      <sheetName val="Shares non-energ final demand"/>
-      <sheetName val="Fuel aggregation"/>
-      <sheetName val="Refineries transformation"/>
-      <sheetName val="Refineries heat production"/>
-      <sheetName val="Refineries efficiency"/>
-      <sheetName val="Steam methane reformer input"/>
-      <sheetName val="csv_export_to_industry_analysis"/>
-      <sheetName val="csv_chemical_coal_e_ps"/>
-      <sheetName val="csv_chemical_network_gas_e_ps"/>
-      <sheetName val="csv_chemical_crude_oil_e_ps"/>
-      <sheetName val="csv_chemical_wood_pellets_e_ps"/>
-      <sheetName val="csv_chemical_steam_hot_water_ps"/>
-      <sheetName val="csv_chemical_o_electricity_e_ps"/>
-      <sheetName val="csv_chemical_electricity_ps"/>
-      <sheetName val="csv_chemical_coal_non_e_ps"/>
-      <sheetName val="csv_chemical_gas_non_e_ps"/>
-      <sheetName val="csv_chemical_crude_oil_non_e_ps"/>
-      <sheetName val="csv_chemical_wood_non_e_ps"/>
-      <sheetName val="csv_chemical_hydrogen_non_e_ps"/>
-      <sheetName val="csv_refinery_transformation_eff"/>
-      <sheetName val="csv_steam_methane_reformer_eff"/>
-      <sheetName val="csv_fert_electricity_ps"/>
-      <sheetName val="csv_mol_fert_comb_pot_ps"/>
-      <sheetName val="csv_mol_fert_comb_curr_ps"/>
-      <sheetName val="csv_mol_fert_proc_pot_ps"/>
-      <sheetName val="csv_mol_fert_proc_curr_ps"/>
-      <sheetName val="csv_fertilizer_ccus_demand"/>
-      <sheetName val="csv_mol_chem_o_pot_ps"/>
-      <sheetName val="csv_mol_chem_o_curr_ps"/>
-      <sheetName val="csv_mol_refin_pot_ps"/>
-      <sheetName val="csv_mol_refin_curr_ps"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6">
-        <row r="13">
-          <cell r="E13" t="str">
-            <v>eu</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="E14">
-            <v>2011</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9">
-        <row r="11">
-          <cell r="E11">
-            <v>0</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
-      <sheetData sheetId="21"/>
-      <sheetData sheetId="22"/>
-      <sheetData sheetId="23"/>
-      <sheetData sheetId="24"/>
-      <sheetData sheetId="25"/>
-      <sheetData sheetId="26"/>
-      <sheetData sheetId="27"/>
-      <sheetData sheetId="28"/>
-      <sheetData sheetId="29"/>
-      <sheetData sheetId="30"/>
-      <sheetData sheetId="31"/>
-      <sheetData sheetId="32"/>
-      <sheetData sheetId="33"/>
-      <sheetData sheetId="34"/>
-      <sheetData sheetId="35"/>
-      <sheetData sheetId="36"/>
-      <sheetData sheetId="37"/>
-      <sheetData sheetId="38"/>
-      <sheetData sheetId="39"/>
-      <sheetData sheetId="40"/>
-      <sheetData sheetId="41"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -12510,7 +12338,7 @@
   <dimension ref="B2:D38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12570,8 +12398,9 @@
       <c r="B8" s="262" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="72" t="s">
-        <v>543</v>
+      <c r="C8" s="72">
+        <f>MAX(Changelog!B:B)</f>
+        <v>42615</v>
       </c>
       <c r="D8" s="7"/>
     </row>
@@ -12580,7 +12409,7 @@
         <v>4</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="D9" s="7"/>
     </row>
@@ -12589,7 +12418,7 @@
         <v>18</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="D10" s="9"/>
     </row>
@@ -12746,7 +12575,7 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
-    <ignoredError sqref="C5:C7" emptyCellReference="1"/>
+    <ignoredError sqref="C5:C8" emptyCellReference="1"/>
   </ignoredErrors>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -12763,8 +12592,8 @@
   </sheetPr>
   <dimension ref="A1:Q36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12832,10 +12661,10 @@
       <c r="K4" s="77"/>
       <c r="L4" s="77"/>
     </row>
-    <row r="5" spans="1:17" ht="169" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" ht="168" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="77"/>
       <c r="B5" s="371" t="s">
-        <v>537</v>
+        <v>552</v>
       </c>
       <c r="C5" s="372"/>
       <c r="D5" s="372"/>
@@ -13657,7 +13486,7 @@
   </sheetPr>
   <dimension ref="A1:Q61"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
@@ -15729,7 +15558,7 @@
   </sheetPr>
   <dimension ref="B2:N26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="B5" sqref="B5:G5"/>
     </sheetView>
   </sheetViews>
@@ -15774,9 +15603,9 @@
       <c r="G4" s="5"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="2:14" ht="142" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:14" ht="146" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="374" t="s">
-        <v>535</v>
+        <v>554</v>
       </c>
       <c r="C5" s="375"/>
       <c r="D5" s="375"/>
@@ -15840,7 +15669,7 @@
         <v>252</v>
       </c>
       <c r="J9" s="106" t="s">
-        <v>533</v>
+        <v>550</v>
       </c>
       <c r="K9" s="106" t="s">
         <v>251</v>
@@ -16464,7 +16293,7 @@
   <dimension ref="B2:M12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="B5" sqref="B5:H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16513,7 +16342,7 @@
     </row>
     <row r="5" spans="2:13" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="374" t="s">
-        <v>536</v>
+        <v>555</v>
       </c>
       <c r="C5" s="375"/>
       <c r="D5" s="375"/>
@@ -16586,7 +16415,7 @@
         <v>413</v>
       </c>
       <c r="L9" s="106" t="s">
-        <v>533</v>
+        <v>550</v>
       </c>
       <c r="M9" s="121" t="s">
         <v>443</v>
@@ -16692,7 +16521,7 @@
   <dimension ref="B2:I16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16920,8 +16749,8 @@
   </sheetPr>
   <dimension ref="B2:H24"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17462,7 +17291,7 @@
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17777,7 +17606,7 @@
   <dimension ref="B2:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17900,10 +17729,10 @@
     </row>
     <row r="14" spans="2:4" ht="51" x14ac:dyDescent="0.2">
       <c r="B14" s="114" t="s">
-        <v>539</v>
+        <v>548</v>
       </c>
       <c r="C14" s="115" t="s">
-        <v>540</v>
+        <v>549</v>
       </c>
       <c r="D14" s="113">
         <v>1.08</v>
@@ -17911,16 +17740,16 @@
     </row>
     <row r="15" spans="2:4" ht="51" x14ac:dyDescent="0.2">
       <c r="B15" s="114" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="C15" s="115" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="D15" s="113">
         <v>1.0900000000000001</v>
       </c>
     </row>
-    <row r="16" spans="2:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B16" s="12"/>
       <c r="C16" s="8"/>
       <c r="D16" s="146"/>
@@ -18502,8 +18331,8 @@
   </sheetPr>
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -18562,7 +18391,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>554</v>
+        <v>533</v>
       </c>
       <c r="B7" s="325">
         <v>0</v>
@@ -18570,7 +18399,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -19006,7 +18834,7 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -19278,7 +19106,7 @@
   </sheetPr>
   <dimension ref="B2:C34"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
@@ -19600,7 +19428,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -19611,8 +19438,8 @@
   </sheetPr>
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -19748,7 +19575,7 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>534</v>
+        <v>551</v>
       </c>
       <c r="B10" s="293">
         <f>'Refineries efficiency'!F21</f>
@@ -19971,7 +19798,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -19983,7 +19809,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B4"/>
+      <selection activeCell="B4" sqref="A1:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -20025,7 +19851,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -20079,7 +19904,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -20091,7 +19915,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="A1:XFD1048576"/>
+      <selection activeCell="AB82" sqref="AB82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -20133,7 +19957,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -20187,7 +20010,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -20254,19 +20076,18 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD510F7D-8D80-A948-82A2-207DF08B1977}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB9436B2-78EE-B44A-9E28-A9E01881FA52}">
   <sheetPr>
     <tabColor rgb="FFB1A0C7"/>
   </sheetPr>
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -20276,7 +20097,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>546</v>
+        <v>537</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -20289,7 +20110,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>547</v>
+        <v>535</v>
       </c>
       <c r="B3" s="325">
         <v>0.85</v>
@@ -20297,7 +20118,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>548</v>
+        <v>536</v>
       </c>
       <c r="B4" s="325">
         <v>0.15</v>
@@ -20407,14 +20228,14 @@
 </file>
 
 <file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64DA0354-2D25-8549-907A-4B67C56B46C6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D306A9A-593C-6047-8CE4-4EE869E9D964}">
   <sheetPr>
     <tabColor rgb="FFB1A0C7"/>
   </sheetPr>
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -20424,7 +20245,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>549</v>
+        <v>534</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -20437,7 +20258,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>550</v>
+        <v>538</v>
       </c>
       <c r="B3" s="325">
         <v>0</v>
@@ -20445,7 +20266,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>548</v>
+        <v>536</v>
       </c>
       <c r="B4" s="325">
         <v>1</v>
@@ -20457,14 +20278,14 @@
 </file>
 
 <file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA550E3D-21E8-2949-A4B5-23CD50954071}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63E133CC-DA83-304A-953A-DC484B76D518}">
   <sheetPr>
     <tabColor rgb="FFB1A0C7"/>
   </sheetPr>
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L38" sqref="L38"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -20474,7 +20295,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -20487,18 +20308,18 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="B3" s="325">
-        <v>0</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
       <c r="B4" s="325">
-        <v>1</v>
+        <v>0.15</v>
       </c>
     </row>
   </sheetData>
@@ -20507,24 +20328,24 @@
 </file>
 
 <file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D12D6FEC-149B-C84C-88E4-3741E299633B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA6CFB40-C030-4540-8298-57276B14E892}">
   <sheetPr>
     <tabColor rgb="FFB1A0C7"/>
   </sheetPr>
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L31" sqref="L31"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="53.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="57.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -20537,7 +20358,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="B3" s="325">
         <v>0</v>
@@ -20545,7 +20366,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="B4" s="325">
         <v>1</v>
@@ -21040,8 +20861,8 @@
   </sheetPr>
   <dimension ref="B2:C107"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="C78" sqref="C78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -21128,7 +20949,7 @@
     <row r="16" spans="2:3" ht="34" x14ac:dyDescent="0.2">
       <c r="B16" s="21"/>
       <c r="C16" s="249" t="s">
-        <v>538</v>
+        <v>553</v>
       </c>
     </row>
     <row r="17" spans="2:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -21675,8 +21496,8 @@
   </sheetPr>
   <dimension ref="A2:P94"/>
   <sheetViews>
-    <sheetView zoomScale="106" workbookViewId="0">
-      <selection activeCell="G46" sqref="G46"/>
+    <sheetView topLeftCell="A44" zoomScale="106" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
@@ -23711,10 +23532,10 @@
   <dimension ref="B2:BO101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="7" topLeftCell="I8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="7" topLeftCell="AE8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="AK33" sqref="AK33"/>
+      <selection pane="bottomRight" activeCell="AM16" sqref="AM16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -30544,7 +30365,7 @@
   <dimension ref="B1:P23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E45" sqref="E45"/>
+      <selection activeCell="E18" sqref="E18:E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
